--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/20200610-cvnormal/sources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/20200622-cvnormal/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA3196A-2918-2548-978B-453EE9F4E53C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78100D73-5E5F-4340-A587-1B2D5CF592B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="560" windowWidth="28160" windowHeight="19360" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="3600" yWindow="460" windowWidth="28160" windowHeight="19360" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_transit" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="152">
   <si>
     <t>Source: Minnesota Department of Transportation, Metro Transit</t>
   </si>
@@ -550,8 +550,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -867,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
-  <dimension ref="A1:Q108"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1025,7 @@
       <c r="B8">
         <v>4.7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <f>AVERAGE(B2:B8)</f>
         <v>2.8285714285714287</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="B9">
         <v>2.6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f t="shared" ref="C9:C72" si="0">AVERAGE(B3:B9)</f>
         <v>2.7428571428571433</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="B10">
         <v>2.5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="B11">
         <v>2.4</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>2.4285714285714284</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="B12">
         <v>2.4</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>2.2571428571428571</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="B13">
         <v>1.7</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>2.6857142857142859</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="B14">
         <v>-2</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>2.0428571428571431</v>
       </c>
@@ -1193,7 +1193,7 @@
       <c r="B15">
         <v>-9.6</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="B16">
         <v>-11.9</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>-2.0714285714285716</v>
       </c>
@@ -1241,7 +1241,7 @@
       <c r="B17">
         <v>-6.1</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>-3.3000000000000003</v>
       </c>
@@ -1265,7 +1265,7 @@
       <c r="B18">
         <v>-8.6</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>-4.8714285714285719</v>
       </c>
@@ -1289,7 +1289,7 @@
       <c r="B19">
         <v>-18.5</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>-7.8571428571428568</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="B20">
         <v>-28.7</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>-12.200000000000001</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="B21">
         <v>-29.1</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>-16.071428571428573</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="B22">
         <v>-34.9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>-19.685714285714287</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="B23">
         <v>-42.4</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>-24.042857142857144</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="B24">
         <v>-23</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>-26.457142857142859</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="B25">
         <v>-26.4</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>-29.000000000000004</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="B26">
         <v>-30.3</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>-30.685714285714287</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="B27">
         <v>-26</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>-30.300000000000004</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="B28">
         <v>-30.1</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>-30.442857142857143</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="B29">
         <v>-56.8</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>-33.571428571428569</v>
       </c>
@@ -1553,7 +1553,7 @@
       <c r="B30">
         <v>-56.5</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>-35.585714285714289</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="B31">
         <v>-32.5</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>-36.942857142857143</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="B32">
         <v>-32.9</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <f t="shared" si="0"/>
         <v>-37.871428571428567</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="B33">
         <v>-36.9</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <f t="shared" si="0"/>
         <v>-38.81428571428571</v>
       </c>
@@ -1649,7 +1649,7 @@
       <c r="B34">
         <v>-40.799999999999997</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <f t="shared" si="0"/>
         <v>-40.928571428571431</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="B35">
         <v>-51.7</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <f t="shared" si="0"/>
         <v>-44.01428571428572</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="B36">
         <v>-47.1</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <f t="shared" si="0"/>
         <v>-42.628571428571433</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="B37">
         <v>-48.4</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <f t="shared" si="0"/>
         <v>-41.471428571428575</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="B38">
         <v>-37.1</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <f t="shared" si="0"/>
         <v>-42.128571428571433</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="B39">
         <v>-35</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <f t="shared" si="0"/>
         <v>-42.428571428571431</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="B40">
         <v>-34.799999999999997</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <f t="shared" si="0"/>
         <v>-42.128571428571433</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="B41">
         <v>-36.200000000000003</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <f t="shared" si="0"/>
         <v>-41.471428571428575</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="B42">
         <v>-38.4</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <f t="shared" si="0"/>
         <v>-39.571428571428562</v>
       </c>
@@ -1865,7 +1865,7 @@
       <c r="B43">
         <v>-39.4</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <f t="shared" si="0"/>
         <v>-38.471428571428575</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="B44">
         <v>-65.5</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <f t="shared" si="0"/>
         <v>-40.914285714285711</v>
       </c>
@@ -1913,7 +1913,7 @@
       <c r="B45">
         <v>-37.5</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <f t="shared" si="0"/>
         <v>-40.971428571428575</v>
       </c>
@@ -1943,7 +1943,7 @@
       <c r="B46">
         <v>-34.9</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <f t="shared" si="0"/>
         <v>-40.957142857142856</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="B47">
         <v>-31.5</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <f t="shared" si="0"/>
         <v>-40.48571428571428</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="B48">
         <v>-31.4</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <f t="shared" si="0"/>
         <v>-39.800000000000004</v>
       </c>
@@ -2033,7 +2033,7 @@
       <c r="B49">
         <v>-32.299999999999997</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <f t="shared" si="0"/>
         <v>-38.928571428571431</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="B50">
         <v>-32</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <f t="shared" si="0"/>
         <v>-37.871428571428574</v>
       </c>
@@ -2093,7 +2093,7 @@
       <c r="B51">
         <v>-36.799999999999997</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <f t="shared" si="0"/>
         <v>-33.771428571428579</v>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="B52">
         <v>-29.5</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <f t="shared" si="0"/>
         <v>-32.628571428571433</v>
       </c>
@@ -2153,7 +2153,7 @@
       <c r="B53">
         <v>-26.6</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <f t="shared" si="0"/>
         <v>-31.442857142857143</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="B54">
         <v>-21.3</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <f t="shared" si="0"/>
         <v>-29.985714285714288</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="B55">
         <v>-23.7</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <f t="shared" si="0"/>
         <v>-28.885714285714283</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="B56">
         <v>-25.8</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <f t="shared" si="0"/>
         <v>-27.957142857142859</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="B57">
         <v>-25.1</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <f t="shared" si="0"/>
         <v>-26.971428571428572</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="B58">
         <v>-26.8</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <f t="shared" si="0"/>
         <v>-25.542857142857144</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="B59">
         <v>-18.7</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <f t="shared" si="0"/>
         <v>-24</v>
       </c>
@@ -2345,7 +2345,7 @@
       <c r="B60">
         <v>-24.8</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <f t="shared" si="0"/>
         <v>-23.742857142857144</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="B61">
         <v>-18.399999999999999</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <f t="shared" si="0"/>
         <v>-23.328571428571429</v>
       </c>
@@ -2393,7 +2393,7 @@
       <c r="B62">
         <v>-13.7</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <f t="shared" si="0"/>
         <v>-21.9</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="B63">
         <v>-29.7</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <f t="shared" si="0"/>
         <v>-22.457142857142859</v>
       </c>
@@ -2441,7 +2441,7 @@
       <c r="B64">
         <v>-27.8</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <f t="shared" si="0"/>
         <v>-22.842857142857145</v>
       </c>
@@ -2465,7 +2465,7 @@
       <c r="B65">
         <v>-31</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <f t="shared" si="0"/>
         <v>-23.442857142857143</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="B66">
         <v>-23.6</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <f t="shared" si="0"/>
         <v>-24.142857142857142</v>
       </c>
@@ -2513,7 +2513,7 @@
       <c r="B67">
         <v>-28.1</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <f t="shared" si="0"/>
         <v>-24.61428571428571</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="B68">
         <v>-22.7</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5">
         <f t="shared" si="0"/>
         <v>-25.228571428571428</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="B69">
         <v>-25.3</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <f t="shared" si="0"/>
         <v>-26.885714285714283</v>
       </c>
@@ -2585,7 +2585,7 @@
       <c r="B70">
         <v>-26.1</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="5">
         <f t="shared" si="0"/>
         <v>-26.37142857142857</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="B71">
         <v>-30.7</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="5">
         <f t="shared" si="0"/>
         <v>-26.785714285714285</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="B72">
         <v>-31.4</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="5">
         <f t="shared" si="0"/>
         <v>-26.842857142857145</v>
       </c>
@@ -2657,8 +2657,8 @@
       <c r="B73">
         <v>-20.9</v>
       </c>
-      <c r="C73" s="6">
-        <f t="shared" ref="C73:C108" si="1">AVERAGE(B67:B73)</f>
+      <c r="C73" s="5">
+        <f t="shared" ref="C73:C110" si="1">AVERAGE(B67:B73)</f>
         <v>-26.457142857142856</v>
       </c>
       <c r="I73" s="1">
@@ -2681,7 +2681,7 @@
       <c r="B74">
         <v>-20.399999999999999</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="5">
         <f t="shared" si="1"/>
         <v>-25.357142857142858</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="B75">
         <v>-23.7</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="5">
         <f t="shared" si="1"/>
         <v>-25.5</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="B76">
         <v>-22</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="5">
         <f t="shared" si="1"/>
         <v>-25.028571428571428</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="B77">
         <v>-21.3</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="5">
         <f t="shared" si="1"/>
         <v>-24.342857142857149</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="B78">
         <v>-27.4</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="5">
         <f t="shared" si="1"/>
         <v>-23.87142857142857</v>
       </c>
@@ -2801,7 +2801,7 @@
       <c r="B79">
         <v>-30.4</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="5">
         <f t="shared" si="1"/>
         <v>-23.728571428571428</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="B80">
         <v>-13.8</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="5">
         <f t="shared" si="1"/>
         <v>-22.714285714285715</v>
       </c>
@@ -2849,7 +2849,7 @@
       <c r="B81">
         <v>-14</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="5">
         <f t="shared" si="1"/>
         <v>-21.800000000000004</v>
       </c>
@@ -2861,7 +2861,7 @@
       <c r="B82">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="5">
         <f t="shared" si="1"/>
         <v>-19.799999999999994</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="B83">
         <v>-10</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="5">
         <f t="shared" si="1"/>
         <v>-18.085714285714285</v>
       </c>
@@ -2885,7 +2885,7 @@
       <c r="B84">
         <v>-10.9</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="5">
         <f t="shared" si="1"/>
         <v>-16.600000000000001</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="B85">
         <v>-18.3</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="5">
         <f t="shared" si="1"/>
         <v>-15.3</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="B86">
         <v>-24.7</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="5">
         <f t="shared" si="1"/>
         <v>-14.485714285714286</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="B87">
         <v>-19.2</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="5">
         <f t="shared" si="1"/>
         <v>-15.257142857142858</v>
       </c>
@@ -2933,7 +2933,7 @@
       <c r="B88">
         <v>-11.2</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="5">
         <f t="shared" si="1"/>
         <v>-14.857142857142859</v>
       </c>
@@ -2945,7 +2945,7 @@
       <c r="B89">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="5">
         <f t="shared" si="1"/>
         <v>-14.857142857142859</v>
       </c>
@@ -2957,7 +2957,7 @@
       <c r="B90">
         <v>-13.8</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="5">
         <f t="shared" si="1"/>
         <v>-15.400000000000002</v>
       </c>
@@ -2969,7 +2969,7 @@
       <c r="B91">
         <v>-15.8</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="5">
         <f t="shared" si="1"/>
         <v>-16.100000000000001</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="B92">
         <v>-16.7</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="5">
         <f t="shared" si="1"/>
         <v>-15.87142857142857</v>
       </c>
@@ -2993,7 +2993,7 @@
       <c r="B93">
         <v>-16.5</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="5">
         <f t="shared" si="1"/>
         <v>-14.7</v>
       </c>
@@ -3005,7 +3005,7 @@
       <c r="B94">
         <v>-14.4</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="5">
         <f t="shared" si="1"/>
         <v>-14.014285714285716</v>
       </c>
@@ -3017,7 +3017,7 @@
       <c r="B95">
         <v>-14.8</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="5">
         <f t="shared" si="1"/>
         <v>-14.528571428571428</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="B96">
         <v>-13.1</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="5">
         <f t="shared" si="1"/>
         <v>-15.014285714285714</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="B97">
         <v>-13</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="5">
         <f t="shared" si="1"/>
         <v>-14.9</v>
       </c>
@@ -3053,7 +3053,7 @@
       <c r="B98">
         <v>-11.8</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="5">
         <f t="shared" si="1"/>
         <v>-14.328571428571427</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="B99">
         <v>-14.7</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="5">
         <f t="shared" si="1"/>
         <v>-14.042857142857144</v>
       </c>
@@ -3077,7 +3077,7 @@
       <c r="B100">
         <v>-19.100000000000001</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="5">
         <f t="shared" si="1"/>
         <v>-14.414285714285715</v>
       </c>
@@ -3089,7 +3089,7 @@
       <c r="B101">
         <v>-13</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="5">
         <f t="shared" si="1"/>
         <v>-14.214285714285714</v>
       </c>
@@ -3099,11 +3099,11 @@
         <v>43991</v>
       </c>
       <c r="B102">
-        <v>-15.9</v>
-      </c>
-      <c r="C102" s="6">
+        <v>-15.8</v>
+      </c>
+      <c r="C102" s="5">
         <f t="shared" si="1"/>
-        <v>-14.371428571428575</v>
+        <v>-14.357142857142859</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -3113,9 +3113,9 @@
       <c r="B103">
         <v>-13.9</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="5">
         <f t="shared" si="1"/>
-        <v>-14.485714285714286</v>
+        <v>-14.471428571428572</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -3123,11 +3123,11 @@
         <v>43993</v>
       </c>
       <c r="B104">
-        <v>-9.6</v>
-      </c>
-      <c r="C104" s="6">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="C104" s="5">
         <f t="shared" si="1"/>
-        <v>-14</v>
+        <v>-14.014285714285716</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -3135,11 +3135,11 @@
         <v>43994</v>
       </c>
       <c r="B105">
-        <v>-9.1</v>
-      </c>
-      <c r="C105" s="6">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="C105" s="5">
         <f t="shared" si="1"/>
-        <v>-13.614285714285712</v>
+        <v>-13.642857142857142</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -3149,9 +3149,9 @@
       <c r="B106">
         <v>-10.8</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="5">
         <f t="shared" si="1"/>
-        <v>-13.057142857142855</v>
+        <v>-13.085714285714287</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -3159,15 +3159,48 @@
         <v>43996</v>
       </c>
       <c r="B107">
-        <v>-11.6</v>
-      </c>
-      <c r="C107" s="6">
+        <v>-11.5</v>
+      </c>
+      <c r="C107" s="5">
         <f t="shared" si="1"/>
-        <v>-11.985714285714284</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C108" s="6"/>
+      <c r="A108" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B108">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="C108" s="5">
+        <f t="shared" si="1"/>
+        <v>-11.314285714285715</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B109">
+        <v>-7.3</v>
+      </c>
+      <c r="C109" s="5">
+        <f t="shared" si="1"/>
+        <v>-10.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B110">
+        <v>-7</v>
+      </c>
+      <c r="C110" s="5">
+        <f t="shared" si="1"/>
+        <v>-9.1142857142857139</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3179,19 +3212,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
-  <dimension ref="A1:AC88"/>
+  <dimension ref="A1:AD88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3201,71 +3234,74 @@
       <c r="E1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="6">
+        <v>43919</v>
+      </c>
+      <c r="G1" s="6">
+        <v>43926</v>
+      </c>
+      <c r="H1" s="6">
+        <v>43932</v>
+      </c>
+      <c r="I1" s="6">
+        <v>43950</v>
+      </c>
+      <c r="J1" s="6">
         <v>43967</v>
       </c>
-      <c r="G1" s="5">
-        <v>43950</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43919</v>
-      </c>
-      <c r="I1" s="5">
-        <v>43926</v>
-      </c>
-      <c r="J1" s="5">
-        <v>43932</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="6">
+        <v>43994</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43885</v>
       </c>
@@ -3276,70 +3312,73 @@
         <v>114</v>
       </c>
       <c r="F2" s="4">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="G2" s="4">
+        <v>-0.46</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-0.44</v>
+      </c>
+      <c r="I2" s="4">
+        <v>-0.35</v>
+      </c>
+      <c r="J2" s="4">
         <v>-0.38</v>
       </c>
-      <c r="G2" s="4">
-        <v>-0.35</v>
-      </c>
-      <c r="H2" s="4">
-        <v>-0.57999999999999996</v>
-      </c>
-      <c r="I2" s="4">
-        <v>-0.46</v>
-      </c>
-      <c r="J2" s="4">
-        <v>-0.44</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" s="4">
+        <v>-0.13</v>
+      </c>
+      <c r="M2" t="s">
         <v>89</v>
       </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="T2" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="V2" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB2" t="s">
         <v>74</v>
       </c>
-      <c r="AB2" t="s">
-        <v>13</v>
-      </c>
       <c r="AC2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43886</v>
       </c>
@@ -3350,70 +3389,73 @@
         <v>115</v>
       </c>
       <c r="F3" s="4">
+        <v>-0.35</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-0.18</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-0.02</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="J3" s="4">
         <v>-0.04</v>
       </c>
-      <c r="G3" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>-0.35</v>
-      </c>
-      <c r="I3" s="4">
-        <v>-0.18</v>
-      </c>
-      <c r="J3" s="4">
-        <v>-0.02</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K3" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M3" t="s">
         <v>57</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
-        <v>109</v>
-      </c>
       <c r="O3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s">
-        <v>109</v>
-      </c>
       <c r="Q3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" t="s">
         <v>17</v>
       </c>
-      <c r="R3" t="s">
-        <v>109</v>
-      </c>
       <c r="S3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" t="s">
         <v>18</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>110</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>110</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>110</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" t="s">
-        <v>14</v>
-      </c>
       <c r="AC3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43887</v>
       </c>
@@ -3424,70 +3466,73 @@
         <v>116</v>
       </c>
       <c r="F4" s="4">
+        <v>-0.16</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="J4" s="4">
         <v>0.54</v>
       </c>
-      <c r="G4" s="4">
-        <v>1.21</v>
-      </c>
-      <c r="H4" s="4">
-        <v>-0.16</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K4" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="M4" t="s">
         <v>102</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>16</v>
       </c>
-      <c r="N4" t="s">
-        <v>109</v>
-      </c>
       <c r="O4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" t="s">
-        <v>108</v>
-      </c>
       <c r="Q4" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R4" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" t="s">
         <v>15</v>
       </c>
-      <c r="T4" t="s">
-        <v>108</v>
-      </c>
       <c r="U4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V4" t="s">
         <v>121</v>
       </c>
-      <c r="V4" t="s">
-        <v>109</v>
-      </c>
       <c r="W4" t="s">
+        <v>109</v>
+      </c>
+      <c r="X4" t="s">
         <v>15</v>
       </c>
-      <c r="X4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="Y4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB4" t="s">
         <v>84</v>
       </c>
-      <c r="AB4" t="s">
-        <v>14</v>
-      </c>
       <c r="AC4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43888</v>
       </c>
@@ -3498,70 +3543,73 @@
         <v>117</v>
       </c>
       <c r="F5" s="4">
+        <v>-0.64</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-0.51</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-0.52</v>
+      </c>
+      <c r="J5" s="4">
         <v>-0.49</v>
       </c>
-      <c r="G5" s="4">
-        <v>-0.52</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-0.64</v>
-      </c>
-      <c r="I5" s="4">
-        <v>-0.57999999999999996</v>
-      </c>
-      <c r="J5" s="4">
-        <v>-0.51</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K5" s="4">
+        <v>-0.36</v>
+      </c>
+      <c r="M5" t="s">
         <v>58</v>
       </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
       <c r="N5" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O5" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q5" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R5" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" t="s">
         <v>120</v>
       </c>
-      <c r="T5" t="s">
-        <v>108</v>
-      </c>
       <c r="U5" t="s">
+        <v>108</v>
+      </c>
+      <c r="V5" t="s">
         <v>15</v>
       </c>
-      <c r="V5" t="s">
-        <v>108</v>
-      </c>
       <c r="W5" t="s">
+        <v>108</v>
+      </c>
+      <c r="X5" t="s">
         <v>120</v>
       </c>
-      <c r="X5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="Y5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB5" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" t="s">
-        <v>14</v>
-      </c>
       <c r="AC5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43889</v>
       </c>
@@ -3572,70 +3620,73 @@
         <v>118</v>
       </c>
       <c r="F6" s="4">
+        <v>-0.38</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-0.37</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-0.36</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-0.33</v>
+      </c>
+      <c r="J6" s="4">
         <v>-0.26</v>
       </c>
-      <c r="G6" s="4">
-        <v>-0.33</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="K6" s="4">
         <v>-0.38</v>
       </c>
-      <c r="I6" s="4">
-        <v>-0.37</v>
-      </c>
-      <c r="J6" s="4">
-        <v>-0.36</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>59</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>17</v>
       </c>
-      <c r="N6" t="s">
-        <v>109</v>
-      </c>
       <c r="O6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" t="s">
         <v>16</v>
       </c>
-      <c r="P6" t="s">
-        <v>109</v>
-      </c>
       <c r="Q6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6" t="s">
         <v>121</v>
       </c>
-      <c r="R6" t="s">
-        <v>109</v>
-      </c>
       <c r="S6" t="s">
+        <v>109</v>
+      </c>
+      <c r="T6" t="s">
         <v>16</v>
       </c>
-      <c r="T6" t="s">
-        <v>109</v>
-      </c>
       <c r="U6" t="s">
+        <v>109</v>
+      </c>
+      <c r="V6" t="s">
         <v>17</v>
       </c>
-      <c r="V6" t="s">
-        <v>109</v>
-      </c>
       <c r="W6" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s">
         <v>121</v>
       </c>
-      <c r="X6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="Y6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB6" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" t="s">
-        <v>14</v>
-      </c>
       <c r="AC6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43890</v>
       </c>
@@ -3646,4305 +3697,4455 @@
         <v>119</v>
       </c>
       <c r="F7" s="4">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G7" s="4">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="H7" s="4">
         <v>0.14000000000000001</v>
       </c>
       <c r="I7" s="4">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="J7" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L7" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M7" t="s">
         <v>60</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>12</v>
       </c>
-      <c r="N7" t="s">
-        <v>107</v>
-      </c>
       <c r="O7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" t="s">
         <v>12</v>
       </c>
-      <c r="P7" t="s">
-        <v>107</v>
-      </c>
       <c r="Q7" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" t="s">
         <v>12</v>
       </c>
-      <c r="R7" t="s">
-        <v>107</v>
-      </c>
       <c r="S7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T7" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U7" t="s">
+        <v>108</v>
+      </c>
+      <c r="V7" t="s">
         <v>12</v>
       </c>
-      <c r="V7" t="s">
-        <v>107</v>
-      </c>
       <c r="W7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB7" t="s">
         <v>47</v>
       </c>
-      <c r="AB7" t="s">
-        <v>14</v>
-      </c>
       <c r="AC7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43891</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>61</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>15</v>
       </c>
-      <c r="N8" t="s">
-        <v>108</v>
-      </c>
       <c r="O8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" t="s">
         <v>121</v>
       </c>
-      <c r="P8" t="s">
-        <v>109</v>
-      </c>
       <c r="Q8" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="R8" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S8" t="s">
+        <v>108</v>
+      </c>
+      <c r="T8" t="s">
         <v>121</v>
       </c>
-      <c r="T8" t="s">
-        <v>109</v>
-      </c>
       <c r="U8" t="s">
+        <v>109</v>
+      </c>
+      <c r="V8" t="s">
         <v>18</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>110</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>121</v>
       </c>
-      <c r="X8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB8" t="s">
         <v>87</v>
       </c>
-      <c r="AB8" t="s">
-        <v>14</v>
-      </c>
       <c r="AC8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43892</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>90</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>17</v>
       </c>
-      <c r="N9" t="s">
-        <v>109</v>
-      </c>
       <c r="O9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" t="s">
         <v>15</v>
       </c>
-      <c r="P9" t="s">
-        <v>108</v>
-      </c>
       <c r="Q9" t="s">
+        <v>108</v>
+      </c>
+      <c r="R9" t="s">
         <v>15</v>
       </c>
-      <c r="R9" t="s">
-        <v>108</v>
-      </c>
       <c r="S9" t="s">
+        <v>108</v>
+      </c>
+      <c r="T9" t="s">
         <v>16</v>
       </c>
-      <c r="T9" t="s">
-        <v>109</v>
-      </c>
       <c r="U9" t="s">
+        <v>109</v>
+      </c>
+      <c r="V9" t="s">
         <v>16</v>
       </c>
-      <c r="V9" t="s">
-        <v>109</v>
-      </c>
       <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
         <v>121</v>
       </c>
-      <c r="X9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB9" t="s">
         <v>75</v>
       </c>
-      <c r="AB9" t="s">
-        <v>14</v>
-      </c>
       <c r="AC9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43893</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>32</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>12</v>
       </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
       <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="s">
         <v>12</v>
       </c>
-      <c r="P10" t="s">
-        <v>107</v>
-      </c>
       <c r="Q10" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" t="s">
         <v>126</v>
       </c>
-      <c r="R10" t="s">
-        <v>107</v>
-      </c>
       <c r="S10" t="s">
+        <v>107</v>
+      </c>
+      <c r="T10" t="s">
         <v>12</v>
       </c>
-      <c r="T10" t="s">
-        <v>107</v>
-      </c>
       <c r="U10" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V10" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
         <v>12</v>
       </c>
-      <c r="X10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB10" t="s">
         <v>56</v>
       </c>
-      <c r="AB10" t="s">
-        <v>14</v>
-      </c>
       <c r="AC10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43894</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>62</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>15</v>
       </c>
-      <c r="N11" t="s">
-        <v>108</v>
-      </c>
       <c r="O11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" t="s">
         <v>16</v>
       </c>
-      <c r="P11" t="s">
-        <v>109</v>
-      </c>
       <c r="Q11" t="s">
+        <v>109</v>
+      </c>
+      <c r="R11" t="s">
         <v>16</v>
       </c>
-      <c r="R11" t="s">
-        <v>109</v>
-      </c>
       <c r="S11" t="s">
+        <v>109</v>
+      </c>
+      <c r="T11" t="s">
         <v>17</v>
       </c>
-      <c r="T11" t="s">
-        <v>109</v>
-      </c>
       <c r="U11" t="s">
+        <v>109</v>
+      </c>
+      <c r="V11" t="s">
         <v>17</v>
       </c>
-      <c r="V11" t="s">
-        <v>109</v>
-      </c>
       <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
         <v>16</v>
       </c>
-      <c r="X11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA11" t="s">
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB11" t="s">
         <v>36</v>
       </c>
-      <c r="AB11" t="s">
-        <v>14</v>
-      </c>
       <c r="AC11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43895</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>33</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>12</v>
       </c>
-      <c r="N12" t="s">
-        <v>107</v>
-      </c>
       <c r="O12" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12" t="s">
         <v>12</v>
       </c>
-      <c r="P12" t="s">
-        <v>107</v>
-      </c>
       <c r="Q12" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" t="s">
         <v>12</v>
       </c>
-      <c r="R12" t="s">
-        <v>107</v>
-      </c>
       <c r="S12" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="T12" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U12" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V12" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W12" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="X12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB12" t="s">
         <v>71</v>
       </c>
-      <c r="AB12" t="s">
-        <v>14</v>
-      </c>
       <c r="AC12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43896</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="L13" t="s">
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="s">
         <v>34</v>
       </c>
-      <c r="M13" t="s">
-        <v>14</v>
-      </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O13" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q13" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R13" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S13" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U13" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W13" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="X13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB13" t="s">
         <v>49</v>
       </c>
-      <c r="AB13" t="s">
-        <v>14</v>
-      </c>
       <c r="AC13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43897</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="L14" t="s">
+      <c r="E14" s="6">
+        <v>43919</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-0.35</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-0.16</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-0.64</v>
+      </c>
+      <c r="J14" s="4">
+        <v>-0.38</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M14" t="s">
         <v>35</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>16</v>
       </c>
-      <c r="N14" t="s">
-        <v>109</v>
-      </c>
       <c r="O14" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" t="s">
         <v>121</v>
       </c>
-      <c r="P14" t="s">
-        <v>109</v>
-      </c>
       <c r="Q14" t="s">
+        <v>109</v>
+      </c>
+      <c r="R14" t="s">
         <v>15</v>
       </c>
-      <c r="R14" t="s">
-        <v>108</v>
-      </c>
       <c r="S14" t="s">
+        <v>108</v>
+      </c>
+      <c r="T14" t="s">
         <v>121</v>
       </c>
-      <c r="T14" t="s">
-        <v>109</v>
-      </c>
       <c r="U14" t="s">
+        <v>109</v>
+      </c>
+      <c r="V14" t="s">
         <v>16</v>
       </c>
-      <c r="V14" t="s">
-        <v>109</v>
-      </c>
       <c r="W14" t="s">
+        <v>109</v>
+      </c>
+      <c r="X14" t="s">
         <v>16</v>
       </c>
-      <c r="X14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA14" t="s">
+      <c r="Y14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB14" t="s">
         <v>60</v>
       </c>
-      <c r="AB14" t="s">
-        <v>14</v>
-      </c>
       <c r="AC14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43898</v>
       </c>
       <c r="B15">
         <v>-1</v>
       </c>
-      <c r="L15" t="s">
+      <c r="E15" s="6">
+        <v>43926</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-0.46</v>
+      </c>
+      <c r="G15" s="4">
+        <v>-0.18</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="J15" s="4">
+        <v>-0.37</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="M15" t="s">
         <v>68</v>
       </c>
-      <c r="M15" t="s">
-        <v>14</v>
-      </c>
       <c r="N15" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" t="s">
         <v>121</v>
       </c>
-      <c r="P15" t="s">
-        <v>109</v>
-      </c>
       <c r="Q15" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="R15" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S15" t="s">
+        <v>108</v>
+      </c>
+      <c r="T15" t="s">
         <v>15</v>
       </c>
-      <c r="T15" t="s">
-        <v>108</v>
-      </c>
       <c r="U15" t="s">
+        <v>108</v>
+      </c>
+      <c r="V15" t="s">
         <v>121</v>
       </c>
-      <c r="V15" t="s">
-        <v>109</v>
-      </c>
       <c r="W15" t="s">
+        <v>109</v>
+      </c>
+      <c r="X15" t="s">
         <v>121</v>
       </c>
-      <c r="X15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="Y15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB15" t="s">
         <v>85</v>
       </c>
-      <c r="AB15" t="s">
-        <v>14</v>
-      </c>
       <c r="AC15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43899</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="L16" t="s">
+      <c r="E16" s="6">
+        <v>43932</v>
+      </c>
+      <c r="F16" s="4">
+        <v>-0.44</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-0.02</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-0.51</v>
+      </c>
+      <c r="J16" s="4">
+        <v>-0.36</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M16" t="s">
         <v>69</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>18</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>110</v>
       </c>
-      <c r="O16" t="s">
-        <v>13</v>
-      </c>
       <c r="P16" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q16" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R16" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S16" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="T16" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U16" t="s">
+        <v>107</v>
+      </c>
+      <c r="V16" t="s">
         <v>12</v>
       </c>
-      <c r="V16" t="s">
-        <v>107</v>
-      </c>
       <c r="W16" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="X16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB16" t="s">
         <v>129</v>
       </c>
-      <c r="AB16" t="s">
-        <v>14</v>
-      </c>
       <c r="AC16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43900</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="L17" t="s">
+      <c r="E17" s="6">
+        <v>43950</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-0.35</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-0.52</v>
+      </c>
+      <c r="J17" s="4">
+        <v>-0.33</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="M17" t="s">
         <v>36</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>16</v>
       </c>
-      <c r="N17" t="s">
-        <v>109</v>
-      </c>
       <c r="O17" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" t="s">
         <v>11</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>106</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>11</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>106</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>12</v>
       </c>
-      <c r="T17" t="s">
-        <v>107</v>
-      </c>
       <c r="U17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="V17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W17" t="s">
+        <v>107</v>
+      </c>
+      <c r="X17" t="s">
         <v>11</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>106</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>69</v>
       </c>
-      <c r="AB17" t="s">
-        <v>14</v>
-      </c>
       <c r="AC17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43901</v>
       </c>
       <c r="B18">
         <v>-2</v>
       </c>
-      <c r="L18" t="s">
+      <c r="E18" s="6">
+        <v>43967</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-0.38</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="I18" s="4">
+        <v>-0.49</v>
+      </c>
+      <c r="J18" s="4">
+        <v>-0.26</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M18" t="s">
         <v>70</v>
       </c>
-      <c r="M18" t="s">
-        <v>14</v>
-      </c>
       <c r="N18" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O18" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="P18" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q18" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R18" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S18" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T18" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U18" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="V18" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W18" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB18" t="s">
         <v>46</v>
       </c>
-      <c r="AB18" t="s">
-        <v>14</v>
-      </c>
       <c r="AC18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43902</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
+      <c r="E19" s="6">
+        <v>43994</v>
+      </c>
+      <c r="F19" s="4">
+        <v>-0.13</v>
+      </c>
+      <c r="G19" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="I19" s="4">
+        <v>-0.36</v>
+      </c>
+      <c r="J19" s="4">
+        <v>-0.38</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M19" t="s">
         <v>91</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>16</v>
       </c>
-      <c r="N19" t="s">
-        <v>109</v>
-      </c>
       <c r="O19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" t="s">
         <v>121</v>
       </c>
-      <c r="P19" t="s">
-        <v>109</v>
-      </c>
       <c r="Q19" t="s">
+        <v>109</v>
+      </c>
+      <c r="R19" t="s">
         <v>15</v>
       </c>
-      <c r="R19" t="s">
-        <v>108</v>
-      </c>
       <c r="S19" t="s">
+        <v>108</v>
+      </c>
+      <c r="T19" t="s">
         <v>121</v>
       </c>
-      <c r="T19" t="s">
-        <v>109</v>
-      </c>
       <c r="U19" t="s">
+        <v>109</v>
+      </c>
+      <c r="V19" t="s">
         <v>16</v>
       </c>
-      <c r="V19" t="s">
-        <v>109</v>
-      </c>
       <c r="W19" t="s">
+        <v>109</v>
+      </c>
+      <c r="X19" t="s">
         <v>17</v>
       </c>
-      <c r="X19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA19" t="s">
+      <c r="Y19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB19" t="s">
         <v>104</v>
       </c>
-      <c r="AB19" t="s">
-        <v>14</v>
-      </c>
       <c r="AC19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43903</v>
       </c>
       <c r="B20">
         <v>-9</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>21</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>15</v>
       </c>
-      <c r="N20" t="s">
-        <v>108</v>
-      </c>
       <c r="O20" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" t="s">
         <v>121</v>
       </c>
-      <c r="P20" t="s">
-        <v>109</v>
-      </c>
       <c r="Q20" t="s">
+        <v>109</v>
+      </c>
+      <c r="R20" t="s">
         <v>121</v>
       </c>
-      <c r="R20" t="s">
-        <v>109</v>
-      </c>
       <c r="S20" t="s">
+        <v>109</v>
+      </c>
+      <c r="T20" t="s">
         <v>16</v>
       </c>
-      <c r="T20" t="s">
-        <v>109</v>
-      </c>
       <c r="U20" t="s">
+        <v>109</v>
+      </c>
+      <c r="V20" t="s">
         <v>17</v>
       </c>
-      <c r="V20" t="s">
-        <v>109</v>
-      </c>
       <c r="W20" t="s">
+        <v>109</v>
+      </c>
+      <c r="X20" t="s">
         <v>16</v>
       </c>
-      <c r="X20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="Y20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB20" t="s">
         <v>77</v>
       </c>
-      <c r="AB20" t="s">
-        <v>14</v>
-      </c>
       <c r="AC20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43904</v>
       </c>
       <c r="B21">
         <v>-14</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>22</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>17</v>
       </c>
-      <c r="N21" t="s">
-        <v>109</v>
-      </c>
       <c r="O21" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q21" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="R21" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S21" t="s">
+        <v>107</v>
+      </c>
+      <c r="T21" t="s">
         <v>121</v>
       </c>
-      <c r="T21" t="s">
-        <v>109</v>
-      </c>
       <c r="U21" t="s">
+        <v>109</v>
+      </c>
+      <c r="V21" t="s">
         <v>121</v>
       </c>
-      <c r="V21" t="s">
-        <v>109</v>
-      </c>
       <c r="W21" t="s">
+        <v>109</v>
+      </c>
+      <c r="X21" t="s">
         <v>16</v>
       </c>
-      <c r="X21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="Y21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB21" t="s">
         <v>48</v>
       </c>
-      <c r="AB21" t="s">
-        <v>14</v>
-      </c>
       <c r="AC21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43905</v>
       </c>
       <c r="B22">
         <v>-16</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>63</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>15</v>
       </c>
-      <c r="N22" t="s">
-        <v>108</v>
-      </c>
       <c r="O22" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q22" t="s">
+        <v>108</v>
+      </c>
+      <c r="R22" t="s">
         <v>121</v>
       </c>
-      <c r="R22" t="s">
-        <v>109</v>
-      </c>
       <c r="S22" t="s">
+        <v>109</v>
+      </c>
+      <c r="T22" t="s">
         <v>15</v>
       </c>
-      <c r="T22" t="s">
-        <v>108</v>
-      </c>
       <c r="U22" t="s">
+        <v>108</v>
+      </c>
+      <c r="V22" t="s">
         <v>121</v>
       </c>
-      <c r="V22" t="s">
-        <v>109</v>
-      </c>
       <c r="W22" t="s">
+        <v>109</v>
+      </c>
+      <c r="X22" t="s">
         <v>16</v>
       </c>
-      <c r="X22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="Y22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB22" t="s">
         <v>79</v>
       </c>
-      <c r="AB22" t="s">
-        <v>14</v>
-      </c>
       <c r="AC22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43906</v>
       </c>
       <c r="B23">
         <v>-14</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>71</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>16</v>
       </c>
-      <c r="N23" t="s">
-        <v>109</v>
-      </c>
       <c r="O23" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q23" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R23" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S23" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T23" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U23" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V23" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W23" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="X23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB23" t="s">
         <v>78</v>
       </c>
-      <c r="AB23" t="s">
-        <v>14</v>
-      </c>
       <c r="AC23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43907</v>
       </c>
       <c r="B24">
         <v>-17</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>72</v>
       </c>
-      <c r="M24" t="s">
-        <v>13</v>
-      </c>
       <c r="N24" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="O24" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" t="s">
         <v>12</v>
       </c>
-      <c r="P24" t="s">
-        <v>107</v>
-      </c>
       <c r="Q24" t="s">
+        <v>107</v>
+      </c>
+      <c r="R24" t="s">
         <v>12</v>
       </c>
-      <c r="R24" t="s">
-        <v>107</v>
-      </c>
       <c r="S24" t="s">
+        <v>107</v>
+      </c>
+      <c r="T24" t="s">
         <v>15</v>
       </c>
-      <c r="T24" t="s">
-        <v>108</v>
-      </c>
       <c r="U24" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V24" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W24" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="X24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB24" t="s">
         <v>42</v>
       </c>
-      <c r="AB24" t="s">
-        <v>14</v>
-      </c>
       <c r="AC24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43908</v>
       </c>
       <c r="B25">
         <v>-26</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>103</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>18</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>110</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>16</v>
       </c>
-      <c r="P25" t="s">
-        <v>109</v>
-      </c>
       <c r="Q25" t="s">
+        <v>109</v>
+      </c>
+      <c r="R25" t="s">
         <v>16</v>
       </c>
-      <c r="R25" t="s">
-        <v>109</v>
-      </c>
       <c r="S25" t="s">
+        <v>109</v>
+      </c>
+      <c r="T25" t="s">
         <v>16</v>
       </c>
-      <c r="T25" t="s">
-        <v>109</v>
-      </c>
       <c r="U25" t="s">
+        <v>109</v>
+      </c>
+      <c r="V25" t="s">
         <v>16</v>
       </c>
-      <c r="V25" t="s">
-        <v>109</v>
-      </c>
       <c r="W25" t="s">
+        <v>109</v>
+      </c>
+      <c r="X25" t="s">
         <v>121</v>
       </c>
-      <c r="X25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA25" t="s">
+      <c r="Y25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB25" t="s">
         <v>39</v>
       </c>
-      <c r="AB25" t="s">
-        <v>14</v>
-      </c>
       <c r="AC25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43909</v>
       </c>
       <c r="B26">
         <v>-31</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>23</v>
       </c>
-      <c r="M26" t="s">
-        <v>13</v>
-      </c>
       <c r="N26" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="O26" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q26" t="s">
+        <v>107</v>
+      </c>
+      <c r="R26" t="s">
         <v>12</v>
       </c>
-      <c r="R26" t="s">
-        <v>107</v>
-      </c>
       <c r="S26" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="T26" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U26" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="V26" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W26" t="s">
+        <v>107</v>
+      </c>
+      <c r="X26" t="s">
         <v>12</v>
       </c>
-      <c r="X26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA26" t="s">
+      <c r="Y26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB26" t="s">
         <v>89</v>
       </c>
-      <c r="AB26" t="s">
-        <v>14</v>
-      </c>
       <c r="AC26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43910</v>
       </c>
       <c r="B27">
         <v>-38</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>37</v>
       </c>
-      <c r="M27" t="s">
-        <v>14</v>
-      </c>
       <c r="N27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O27" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q27" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S27" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U27" t="s">
+        <v>108</v>
+      </c>
+      <c r="V27" t="s">
         <v>12</v>
       </c>
-      <c r="V27" t="s">
-        <v>107</v>
-      </c>
       <c r="W27" t="s">
+        <v>107</v>
+      </c>
+      <c r="X27" t="s">
         <v>12</v>
       </c>
-      <c r="X27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA27" t="s">
+      <c r="Y27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB27" t="s">
         <v>19</v>
       </c>
-      <c r="AB27" t="s">
-        <v>14</v>
-      </c>
       <c r="AC27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43911</v>
       </c>
       <c r="B28">
         <v>-46</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>24</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>12</v>
       </c>
-      <c r="N28" t="s">
-        <v>107</v>
-      </c>
       <c r="O28" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q28" t="s">
+        <v>108</v>
+      </c>
+      <c r="R28" t="s">
         <v>120</v>
       </c>
-      <c r="R28" t="s">
-        <v>108</v>
-      </c>
       <c r="S28" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T28" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U28" t="s">
+        <v>108</v>
+      </c>
+      <c r="V28" t="s">
         <v>15</v>
       </c>
-      <c r="V28" t="s">
-        <v>108</v>
-      </c>
       <c r="W28" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X28" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB28" t="s">
         <v>88</v>
       </c>
-      <c r="AB28" t="s">
-        <v>14</v>
-      </c>
       <c r="AC28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43912</v>
       </c>
       <c r="B29">
         <v>-33</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>38</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>15</v>
       </c>
-      <c r="N29" t="s">
-        <v>108</v>
-      </c>
       <c r="O29" t="s">
+        <v>108</v>
+      </c>
+      <c r="P29" t="s">
         <v>120</v>
       </c>
-      <c r="P29" t="s">
-        <v>108</v>
-      </c>
       <c r="Q29" t="s">
+        <v>108</v>
+      </c>
+      <c r="R29" t="s">
         <v>120</v>
       </c>
-      <c r="R29" t="s">
-        <v>108</v>
-      </c>
       <c r="S29" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="T29" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U29" t="s">
+        <v>107</v>
+      </c>
+      <c r="V29" t="s">
         <v>15</v>
       </c>
-      <c r="V29" t="s">
-        <v>108</v>
-      </c>
       <c r="W29" t="s">
+        <v>108</v>
+      </c>
+      <c r="X29" t="s">
         <v>121</v>
       </c>
-      <c r="X29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA29" t="s">
+      <c r="Y29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB29" t="s">
         <v>40</v>
       </c>
-      <c r="AB29" t="s">
-        <v>14</v>
-      </c>
       <c r="AC29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43913</v>
       </c>
       <c r="B30">
         <v>-30</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>73</v>
       </c>
-      <c r="M30" t="s">
-        <v>14</v>
-      </c>
       <c r="N30" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O30" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q30" t="s">
+        <v>107</v>
+      </c>
+      <c r="R30" t="s">
         <v>12</v>
       </c>
-      <c r="R30" t="s">
-        <v>107</v>
-      </c>
       <c r="S30" t="s">
+        <v>107</v>
+      </c>
+      <c r="T30" t="s">
         <v>12</v>
       </c>
-      <c r="T30" t="s">
-        <v>107</v>
-      </c>
       <c r="U30" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V30" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W30" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="X30" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA30" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB30" t="s">
         <v>34</v>
       </c>
-      <c r="AB30" t="s">
-        <v>14</v>
-      </c>
       <c r="AC30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43914</v>
       </c>
       <c r="B31">
         <v>-28</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>97</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>17</v>
       </c>
-      <c r="N31" t="s">
-        <v>109</v>
-      </c>
       <c r="O31" t="s">
+        <v>109</v>
+      </c>
+      <c r="P31" t="s">
         <v>16</v>
       </c>
-      <c r="P31" t="s">
-        <v>109</v>
-      </c>
       <c r="Q31" t="s">
+        <v>109</v>
+      </c>
+      <c r="R31" t="s">
         <v>17</v>
       </c>
-      <c r="R31" t="s">
-        <v>109</v>
-      </c>
       <c r="S31" t="s">
+        <v>109</v>
+      </c>
+      <c r="T31" t="s">
         <v>17</v>
       </c>
-      <c r="T31" t="s">
-        <v>109</v>
-      </c>
       <c r="U31" t="s">
+        <v>109</v>
+      </c>
+      <c r="V31" t="s">
         <v>17</v>
       </c>
-      <c r="V31" t="s">
-        <v>109</v>
-      </c>
       <c r="W31" t="s">
+        <v>109</v>
+      </c>
+      <c r="X31" t="s">
         <v>16</v>
       </c>
-      <c r="X31" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA31" t="s">
+      <c r="Y31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB31" t="s">
         <v>70</v>
       </c>
-      <c r="AB31" t="s">
-        <v>14</v>
-      </c>
       <c r="AC31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43915</v>
       </c>
       <c r="B32">
         <v>-32</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>25</v>
       </c>
-      <c r="M32" t="s">
-        <v>13</v>
-      </c>
       <c r="N32" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="O32" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q32" t="s">
+        <v>108</v>
+      </c>
+      <c r="R32" t="s">
         <v>120</v>
       </c>
-      <c r="R32" t="s">
-        <v>108</v>
-      </c>
       <c r="S32" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="T32" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U32" t="s">
+        <v>107</v>
+      </c>
+      <c r="V32" t="s">
         <v>15</v>
       </c>
-      <c r="V32" t="s">
-        <v>108</v>
-      </c>
       <c r="W32" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB32" t="s">
         <v>37</v>
       </c>
-      <c r="AB32" t="s">
-        <v>14</v>
-      </c>
       <c r="AC32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43916</v>
       </c>
       <c r="B33">
         <v>-34</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>74</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>16</v>
       </c>
-      <c r="N33" t="s">
-        <v>109</v>
-      </c>
       <c r="O33" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X33" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB33" t="s">
         <v>82</v>
       </c>
-      <c r="AB33" t="s">
-        <v>14</v>
-      </c>
       <c r="AC33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43917</v>
       </c>
       <c r="B34">
         <v>-50</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>39</v>
       </c>
-      <c r="M34" t="s">
-        <v>14</v>
-      </c>
       <c r="N34" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O34" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="P34" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q34" t="s">
+        <v>108</v>
+      </c>
+      <c r="R34" t="s">
         <v>12</v>
       </c>
-      <c r="R34" t="s">
-        <v>107</v>
-      </c>
       <c r="S34" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="T34" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U34" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="V34" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W34" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="X34" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA34" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB34" t="s">
         <v>20</v>
       </c>
-      <c r="AB34" t="s">
-        <v>14</v>
-      </c>
       <c r="AC34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43918</v>
       </c>
       <c r="B35">
         <v>-80</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>92</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>16</v>
       </c>
-      <c r="N35" t="s">
-        <v>109</v>
-      </c>
       <c r="O35" t="s">
+        <v>109</v>
+      </c>
+      <c r="P35" t="s">
         <v>15</v>
       </c>
-      <c r="P35" t="s">
-        <v>108</v>
-      </c>
       <c r="Q35" t="s">
+        <v>108</v>
+      </c>
+      <c r="R35" t="s">
         <v>121</v>
       </c>
-      <c r="R35" t="s">
-        <v>109</v>
-      </c>
       <c r="S35" t="s">
+        <v>109</v>
+      </c>
+      <c r="T35" t="s">
         <v>121</v>
       </c>
-      <c r="T35" t="s">
-        <v>109</v>
-      </c>
       <c r="U35" t="s">
+        <v>109</v>
+      </c>
+      <c r="V35" t="s">
         <v>16</v>
       </c>
-      <c r="V35" t="s">
-        <v>109</v>
-      </c>
       <c r="W35" t="s">
+        <v>109</v>
+      </c>
+      <c r="X35" t="s">
         <v>121</v>
       </c>
-      <c r="X35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA35" t="s">
+      <c r="Y35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB35" t="s">
         <v>81</v>
       </c>
-      <c r="AB35" t="s">
-        <v>14</v>
-      </c>
       <c r="AC35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43919</v>
       </c>
       <c r="B36">
         <v>-75</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>75</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>12</v>
       </c>
-      <c r="N36" t="s">
-        <v>107</v>
-      </c>
       <c r="O36" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q36" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R36" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S36" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T36" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U36" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="V36" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W36" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X36" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA36" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB36" t="s">
         <v>86</v>
       </c>
-      <c r="AB36" t="s">
-        <v>14</v>
-      </c>
       <c r="AC36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43920</v>
       </c>
       <c r="B37">
         <v>-45</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>40</v>
       </c>
-      <c r="M37" t="s">
-        <v>14</v>
-      </c>
       <c r="N37" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O37" t="s">
+        <v>108</v>
+      </c>
+      <c r="P37" t="s">
         <v>12</v>
       </c>
-      <c r="P37" t="s">
-        <v>107</v>
-      </c>
       <c r="Q37" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R37" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S37" t="s">
+        <v>107</v>
+      </c>
+      <c r="T37" t="s">
         <v>12</v>
       </c>
-      <c r="T37" t="s">
-        <v>107</v>
-      </c>
       <c r="U37" t="s">
+        <v>107</v>
+      </c>
+      <c r="V37" t="s">
         <v>12</v>
       </c>
-      <c r="V37" t="s">
-        <v>107</v>
-      </c>
       <c r="W37" t="s">
+        <v>107</v>
+      </c>
+      <c r="X37" t="s">
         <v>12</v>
       </c>
-      <c r="X37" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA37" t="s">
+      <c r="Y37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB37" t="s">
         <v>64</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
         <v>15</v>
       </c>
-      <c r="AC37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43921</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>111</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>16</v>
       </c>
-      <c r="N38" t="s">
-        <v>109</v>
-      </c>
       <c r="O38" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q38" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA38" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB38" t="s">
         <v>33</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AC38" t="s">
         <v>15</v>
       </c>
-      <c r="AC38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L39" t="s">
+      <c r="AD38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M39" t="s">
         <v>19</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>12</v>
       </c>
-      <c r="N39" t="s">
-        <v>107</v>
-      </c>
       <c r="O39" t="s">
+        <v>107</v>
+      </c>
+      <c r="P39" t="s">
         <v>12</v>
       </c>
-      <c r="P39" t="s">
-        <v>107</v>
-      </c>
       <c r="Q39" t="s">
+        <v>107</v>
+      </c>
+      <c r="R39" t="s">
         <v>12</v>
       </c>
-      <c r="R39" t="s">
-        <v>107</v>
-      </c>
       <c r="S39" t="s">
+        <v>107</v>
+      </c>
+      <c r="T39" t="s">
         <v>12</v>
       </c>
-      <c r="T39" t="s">
-        <v>107</v>
-      </c>
       <c r="U39" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V39" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W39" t="s">
+        <v>108</v>
+      </c>
+      <c r="X39" t="s">
         <v>12</v>
       </c>
-      <c r="X39" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA39" t="s">
+      <c r="Y39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB39" t="s">
         <v>73</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AC39" t="s">
         <v>15</v>
       </c>
-      <c r="AC39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L40" t="s">
+      <c r="AD39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
         <v>20</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>10</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>106</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>10</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>106</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>10</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>106</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>12</v>
       </c>
-      <c r="T40" t="s">
-        <v>107</v>
-      </c>
       <c r="U40" t="s">
+        <v>107</v>
+      </c>
+      <c r="V40" t="s">
         <v>12</v>
       </c>
-      <c r="V40" t="s">
-        <v>107</v>
-      </c>
       <c r="W40" t="s">
+        <v>107</v>
+      </c>
+      <c r="X40" t="s">
         <v>10</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>106</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>53</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AC40" t="s">
         <v>15</v>
       </c>
-      <c r="AC40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L41" t="s">
+      <c r="AD40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M41" t="s">
         <v>41</v>
       </c>
-      <c r="M41" t="s">
-        <v>14</v>
-      </c>
       <c r="N41" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O41" t="s">
+        <v>108</v>
+      </c>
+      <c r="P41" t="s">
         <v>15</v>
       </c>
-      <c r="P41" t="s">
-        <v>108</v>
-      </c>
       <c r="Q41" t="s">
+        <v>108</v>
+      </c>
+      <c r="R41" t="s">
         <v>15</v>
       </c>
-      <c r="R41" t="s">
-        <v>108</v>
-      </c>
       <c r="S41" t="s">
+        <v>108</v>
+      </c>
+      <c r="T41" t="s">
         <v>16</v>
       </c>
-      <c r="T41" t="s">
-        <v>109</v>
-      </c>
       <c r="U41" t="s">
+        <v>109</v>
+      </c>
+      <c r="V41" t="s">
         <v>121</v>
       </c>
-      <c r="V41" t="s">
-        <v>109</v>
-      </c>
       <c r="W41" t="s">
+        <v>109</v>
+      </c>
+      <c r="X41" t="s">
         <v>16</v>
       </c>
-      <c r="X41" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA41" t="s">
+      <c r="Y41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB41" t="s">
         <v>43</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AC41" t="s">
         <v>15</v>
       </c>
-      <c r="AC41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L42" t="s">
+      <c r="AD41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
         <v>42</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>16</v>
       </c>
-      <c r="N42" t="s">
-        <v>109</v>
-      </c>
       <c r="O42" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q42" t="s">
+        <v>107</v>
+      </c>
+      <c r="R42" t="s">
         <v>12</v>
       </c>
-      <c r="R42" t="s">
-        <v>107</v>
-      </c>
       <c r="S42" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T42" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U42" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V42" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W42" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X42" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA42" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB42" t="s">
         <v>51</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AC42" t="s">
         <v>15</v>
       </c>
-      <c r="AC42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L43" t="s">
+      <c r="AD42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M43" t="s">
         <v>76</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>17</v>
       </c>
-      <c r="N43" t="s">
-        <v>109</v>
-      </c>
       <c r="O43" t="s">
+        <v>109</v>
+      </c>
+      <c r="P43" t="s">
         <v>121</v>
       </c>
-      <c r="P43" t="s">
-        <v>109</v>
-      </c>
       <c r="Q43" t="s">
+        <v>109</v>
+      </c>
+      <c r="R43" t="s">
         <v>15</v>
       </c>
-      <c r="R43" t="s">
-        <v>108</v>
-      </c>
       <c r="S43" t="s">
+        <v>108</v>
+      </c>
+      <c r="T43" t="s">
         <v>121</v>
       </c>
-      <c r="T43" t="s">
-        <v>109</v>
-      </c>
       <c r="U43" t="s">
+        <v>109</v>
+      </c>
+      <c r="V43" t="s">
         <v>121</v>
       </c>
-      <c r="V43" t="s">
-        <v>109</v>
-      </c>
       <c r="W43" t="s">
+        <v>109</v>
+      </c>
+      <c r="X43" t="s">
         <v>16</v>
       </c>
-      <c r="X43" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA43" t="s">
+      <c r="Y43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB43" t="s">
         <v>23</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AC43" t="s">
         <v>120</v>
       </c>
-      <c r="AC43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L44" t="s">
+      <c r="AD43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M44" t="s">
         <v>77</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>12</v>
       </c>
-      <c r="N44" t="s">
-        <v>107</v>
-      </c>
       <c r="O44" t="s">
+        <v>107</v>
+      </c>
+      <c r="P44" t="s">
         <v>12</v>
       </c>
-      <c r="P44" t="s">
-        <v>107</v>
-      </c>
       <c r="Q44" t="s">
+        <v>107</v>
+      </c>
+      <c r="R44" t="s">
         <v>11</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>106</v>
       </c>
-      <c r="S44" t="s">
-        <v>13</v>
-      </c>
       <c r="T44" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U44" t="s">
+        <v>107</v>
+      </c>
+      <c r="V44" t="s">
         <v>12</v>
       </c>
-      <c r="V44" t="s">
-        <v>107</v>
-      </c>
       <c r="W44" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="X44" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA44" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB44" t="s">
         <v>22</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AC44" t="s">
         <v>120</v>
       </c>
-      <c r="AC44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L45" t="s">
+      <c r="AD44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M45" t="s">
         <v>78</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>12</v>
       </c>
-      <c r="N45" t="s">
-        <v>107</v>
-      </c>
       <c r="O45" t="s">
+        <v>107</v>
+      </c>
+      <c r="P45" t="s">
         <v>11</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>106</v>
       </c>
-      <c r="Q45" t="s">
-        <v>13</v>
-      </c>
       <c r="R45" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S45" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="T45" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U45" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V45" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W45" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA45" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB45" t="s">
         <v>80</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AC45" t="s">
         <v>16</v>
       </c>
-      <c r="AC45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L46" t="s">
+      <c r="AD45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M46" t="s">
         <v>26</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>16</v>
       </c>
-      <c r="N46" t="s">
-        <v>109</v>
-      </c>
       <c r="O46" t="s">
+        <v>109</v>
+      </c>
+      <c r="P46" t="s">
         <v>15</v>
       </c>
-      <c r="P46" t="s">
-        <v>108</v>
-      </c>
       <c r="Q46" t="s">
+        <v>108</v>
+      </c>
+      <c r="R46" t="s">
         <v>15</v>
       </c>
-      <c r="R46" t="s">
-        <v>108</v>
-      </c>
       <c r="S46" t="s">
+        <v>108</v>
+      </c>
+      <c r="T46" t="s">
         <v>121</v>
       </c>
-      <c r="T46" t="s">
-        <v>109</v>
-      </c>
       <c r="U46" t="s">
+        <v>109</v>
+      </c>
+      <c r="V46" t="s">
         <v>121</v>
       </c>
-      <c r="V46" t="s">
-        <v>109</v>
-      </c>
       <c r="W46" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="X46" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA46" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB46" t="s">
         <v>90</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AC46" t="s">
         <v>16</v>
       </c>
-      <c r="AC46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L47" t="s">
+      <c r="AD46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M47" t="s">
         <v>93</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>17</v>
       </c>
-      <c r="N47" t="s">
-        <v>109</v>
-      </c>
       <c r="O47" t="s">
+        <v>109</v>
+      </c>
+      <c r="P47" t="s">
         <v>121</v>
       </c>
-      <c r="P47" t="s">
-        <v>109</v>
-      </c>
       <c r="Q47" t="s">
+        <v>109</v>
+      </c>
+      <c r="R47" t="s">
         <v>121</v>
       </c>
-      <c r="R47" t="s">
-        <v>109</v>
-      </c>
       <c r="S47" t="s">
+        <v>109</v>
+      </c>
+      <c r="T47" t="s">
         <v>121</v>
       </c>
-      <c r="T47" t="s">
-        <v>109</v>
-      </c>
       <c r="U47" t="s">
+        <v>109</v>
+      </c>
+      <c r="V47" t="s">
         <v>16</v>
       </c>
-      <c r="V47" t="s">
-        <v>109</v>
-      </c>
       <c r="W47" t="s">
+        <v>109</v>
+      </c>
+      <c r="X47" t="s">
         <v>121</v>
       </c>
-      <c r="X47" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA47" t="s">
+      <c r="Y47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB47" t="s">
         <v>26</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AC47" t="s">
         <v>16</v>
       </c>
-      <c r="AC47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L48" t="s">
+      <c r="AD47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M48" t="s">
         <v>43</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>16</v>
       </c>
-      <c r="N48" t="s">
-        <v>109</v>
-      </c>
       <c r="O48" t="s">
+        <v>109</v>
+      </c>
+      <c r="P48" t="s">
         <v>12</v>
       </c>
-      <c r="P48" t="s">
-        <v>107</v>
-      </c>
       <c r="Q48" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R48" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S48" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T48" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U48" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V48" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W48" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="X48" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB48" t="s">
         <v>58</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AC48" t="s">
         <v>16</v>
       </c>
-      <c r="AC48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L49" t="s">
+      <c r="AD48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M49" t="s">
         <v>98</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>17</v>
       </c>
-      <c r="N49" t="s">
-        <v>109</v>
-      </c>
       <c r="O49" t="s">
+        <v>109</v>
+      </c>
+      <c r="P49" t="s">
         <v>121</v>
       </c>
-      <c r="P49" t="s">
-        <v>109</v>
-      </c>
       <c r="Q49" t="s">
+        <v>109</v>
+      </c>
+      <c r="R49" t="s">
         <v>15</v>
       </c>
-      <c r="R49" t="s">
-        <v>108</v>
-      </c>
       <c r="S49" t="s">
+        <v>108</v>
+      </c>
+      <c r="T49" t="s">
         <v>121</v>
       </c>
-      <c r="T49" t="s">
-        <v>109</v>
-      </c>
       <c r="U49" t="s">
+        <v>109</v>
+      </c>
+      <c r="V49" t="s">
         <v>16</v>
       </c>
-      <c r="V49" t="s">
-        <v>109</v>
-      </c>
       <c r="W49" t="s">
+        <v>109</v>
+      </c>
+      <c r="X49" t="s">
         <v>121</v>
       </c>
-      <c r="X49" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA49" t="s">
+      <c r="Y49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB49" t="s">
         <v>44</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AC49" t="s">
         <v>16</v>
       </c>
-      <c r="AC49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L50" t="s">
+      <c r="AD49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M50" t="s">
         <v>99</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>17</v>
       </c>
-      <c r="N50" t="s">
-        <v>109</v>
-      </c>
       <c r="O50" t="s">
+        <v>109</v>
+      </c>
+      <c r="P50" t="s">
         <v>15</v>
       </c>
-      <c r="P50" t="s">
-        <v>108</v>
-      </c>
       <c r="Q50" t="s">
+        <v>108</v>
+      </c>
+      <c r="R50" t="s">
         <v>15</v>
       </c>
-      <c r="R50" t="s">
-        <v>108</v>
-      </c>
       <c r="S50" t="s">
+        <v>108</v>
+      </c>
+      <c r="T50" t="s">
         <v>15</v>
       </c>
-      <c r="T50" t="s">
-        <v>108</v>
-      </c>
       <c r="U50" t="s">
+        <v>108</v>
+      </c>
+      <c r="V50" t="s">
         <v>121</v>
       </c>
-      <c r="V50" t="s">
-        <v>109</v>
-      </c>
       <c r="W50" t="s">
+        <v>109</v>
+      </c>
+      <c r="X50" t="s">
         <v>15</v>
       </c>
-      <c r="X50" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA50" t="s">
+      <c r="Y50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB50" t="s">
         <v>25</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AC50" t="s">
         <v>16</v>
       </c>
-      <c r="AC50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L51" t="s">
+      <c r="AD50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M51" t="s">
         <v>44</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>17</v>
       </c>
-      <c r="N51" t="s">
-        <v>109</v>
-      </c>
       <c r="O51" t="s">
+        <v>109</v>
+      </c>
+      <c r="P51" t="s">
         <v>121</v>
       </c>
-      <c r="P51" t="s">
-        <v>109</v>
-      </c>
       <c r="Q51" t="s">
+        <v>109</v>
+      </c>
+      <c r="R51" t="s">
         <v>15</v>
       </c>
-      <c r="R51" t="s">
-        <v>108</v>
-      </c>
       <c r="S51" t="s">
+        <v>108</v>
+      </c>
+      <c r="T51" t="s">
         <v>16</v>
       </c>
-      <c r="T51" t="s">
-        <v>109</v>
-      </c>
       <c r="U51" t="s">
+        <v>109</v>
+      </c>
+      <c r="V51" t="s">
         <v>16</v>
       </c>
-      <c r="V51" t="s">
-        <v>109</v>
-      </c>
       <c r="W51" t="s">
+        <v>109</v>
+      </c>
+      <c r="X51" t="s">
         <v>121</v>
       </c>
-      <c r="X51" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA51" t="s">
+      <c r="Y51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB51" t="s">
         <v>72</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AC51" t="s">
         <v>16</v>
       </c>
-      <c r="AC51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L52" t="s">
+      <c r="AD51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M52" t="s">
         <v>79</v>
       </c>
-      <c r="M52" t="s">
-        <v>14</v>
-      </c>
       <c r="N52" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O52" t="s">
+        <v>108</v>
+      </c>
+      <c r="P52" t="s">
         <v>12</v>
       </c>
-      <c r="P52" t="s">
-        <v>107</v>
-      </c>
       <c r="Q52" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R52" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S52" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="T52" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U52" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V52" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W52" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="X52" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA52" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB52" t="s">
         <v>68</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AC52" t="s">
         <v>16</v>
       </c>
-      <c r="AC52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L53" t="s">
+      <c r="AD52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M53" t="s">
         <v>27</v>
       </c>
-      <c r="M53" t="s">
-        <v>14</v>
-      </c>
       <c r="N53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O53" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="P53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q53" t="s">
+        <v>108</v>
+      </c>
+      <c r="R53" t="s">
         <v>12</v>
       </c>
-      <c r="R53" t="s">
-        <v>107</v>
-      </c>
       <c r="S53" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U53" t="s">
+        <v>108</v>
+      </c>
+      <c r="V53" t="s">
         <v>121</v>
       </c>
-      <c r="V53" t="s">
-        <v>109</v>
-      </c>
       <c r="W53" t="s">
+        <v>109</v>
+      </c>
+      <c r="X53" t="s">
         <v>120</v>
       </c>
-      <c r="X53" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA53" t="s">
+      <c r="Y53" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB53" t="s">
         <v>100</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AC53" t="s">
         <v>16</v>
       </c>
-      <c r="AC53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L54" t="s">
+      <c r="AD53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M54" t="s">
         <v>80</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>18</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>110</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>15</v>
       </c>
-      <c r="P54" t="s">
-        <v>108</v>
-      </c>
       <c r="Q54" t="s">
+        <v>108</v>
+      </c>
+      <c r="R54" t="s">
         <v>15</v>
       </c>
-      <c r="R54" t="s">
-        <v>108</v>
-      </c>
       <c r="S54" t="s">
+        <v>108</v>
+      </c>
+      <c r="T54" t="s">
         <v>120</v>
       </c>
-      <c r="T54" t="s">
-        <v>108</v>
-      </c>
       <c r="U54" t="s">
+        <v>108</v>
+      </c>
+      <c r="V54" t="s">
         <v>121</v>
       </c>
-      <c r="V54" t="s">
-        <v>109</v>
-      </c>
       <c r="W54" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="X54" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA54" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB54" t="s">
         <v>102</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AC54" t="s">
         <v>16</v>
       </c>
-      <c r="AC54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L55" t="s">
+      <c r="AD54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M55" t="s">
         <v>45</v>
       </c>
-      <c r="M55" t="s">
-        <v>14</v>
-      </c>
       <c r="N55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O55" t="s">
+        <v>108</v>
+      </c>
+      <c r="P55" t="s">
         <v>12</v>
       </c>
-      <c r="P55" t="s">
-        <v>107</v>
-      </c>
       <c r="Q55" t="s">
+        <v>107</v>
+      </c>
+      <c r="R55" t="s">
         <v>11</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>106</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>12</v>
       </c>
-      <c r="T55" t="s">
-        <v>107</v>
-      </c>
       <c r="U55" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="V55" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W55" t="s">
+        <v>107</v>
+      </c>
+      <c r="X55" t="s">
         <v>12</v>
       </c>
-      <c r="X55" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA55" t="s">
+      <c r="Y55" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB55" t="s">
         <v>32</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AC55" t="s">
         <v>16</v>
       </c>
-      <c r="AC55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L56" t="s">
+      <c r="AD55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M56" t="s">
         <v>28</v>
       </c>
-      <c r="M56" t="s">
-        <v>14</v>
-      </c>
       <c r="N56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O56" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="P56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q56" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S56" t="s">
+        <v>108</v>
+      </c>
+      <c r="T56" t="s">
         <v>121</v>
       </c>
-      <c r="T56" t="s">
-        <v>109</v>
-      </c>
       <c r="U56" t="s">
+        <v>109</v>
+      </c>
+      <c r="V56" t="s">
         <v>18</v>
       </c>
-      <c r="V56" t="s">
+      <c r="W56" t="s">
         <v>110</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>16</v>
       </c>
-      <c r="X56" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA56" t="s">
+      <c r="Y56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB56" t="s">
         <v>101</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AC56" t="s">
         <v>16</v>
       </c>
-      <c r="AC56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L57" t="s">
+      <c r="AD56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M57" t="s">
         <v>100</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>17</v>
       </c>
-      <c r="N57" t="s">
-        <v>109</v>
-      </c>
       <c r="O57" t="s">
+        <v>109</v>
+      </c>
+      <c r="P57" t="s">
         <v>15</v>
       </c>
-      <c r="P57" t="s">
-        <v>108</v>
-      </c>
       <c r="Q57" t="s">
+        <v>108</v>
+      </c>
+      <c r="R57" t="s">
         <v>15</v>
       </c>
-      <c r="R57" t="s">
-        <v>108</v>
-      </c>
       <c r="S57" t="s">
+        <v>108</v>
+      </c>
+      <c r="T57" t="s">
         <v>15</v>
       </c>
-      <c r="T57" t="s">
-        <v>108</v>
-      </c>
       <c r="U57" t="s">
+        <v>108</v>
+      </c>
+      <c r="V57" t="s">
         <v>121</v>
       </c>
-      <c r="V57" t="s">
-        <v>109</v>
-      </c>
       <c r="W57" t="s">
+        <v>109</v>
+      </c>
+      <c r="X57" t="s">
         <v>15</v>
       </c>
-      <c r="X57" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA57" t="s">
+      <c r="Y57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB57" t="s">
         <v>99</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AC57" t="s">
         <v>16</v>
       </c>
-      <c r="AC57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L58" t="s">
+      <c r="AD57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M58" t="s">
         <v>101</v>
       </c>
-      <c r="M58" t="s">
-        <v>14</v>
-      </c>
       <c r="N58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O58" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q58" t="s">
+        <v>108</v>
+      </c>
+      <c r="R58" t="s">
         <v>120</v>
       </c>
-      <c r="R58" t="s">
-        <v>108</v>
-      </c>
       <c r="S58" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U58" t="s">
+        <v>108</v>
+      </c>
+      <c r="V58" t="s">
         <v>121</v>
       </c>
-      <c r="V58" t="s">
-        <v>109</v>
-      </c>
       <c r="W58" t="s">
+        <v>109</v>
+      </c>
+      <c r="X58" t="s">
         <v>15</v>
       </c>
-      <c r="X58" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA58" t="s">
+      <c r="Y58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB58" t="s">
         <v>103</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AC58" t="s">
         <v>17</v>
       </c>
-      <c r="AC58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L59" t="s">
+      <c r="AD58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M59" t="s">
         <v>64</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>16</v>
       </c>
-      <c r="N59" t="s">
-        <v>109</v>
-      </c>
       <c r="O59" t="s">
+        <v>109</v>
+      </c>
+      <c r="P59" t="s">
         <v>15</v>
       </c>
-      <c r="P59" t="s">
-        <v>108</v>
-      </c>
       <c r="Q59" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R59" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S59" t="s">
+        <v>108</v>
+      </c>
+      <c r="T59" t="s">
         <v>15</v>
       </c>
-      <c r="T59" t="s">
-        <v>108</v>
-      </c>
       <c r="U59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V59" t="s">
         <v>15</v>
       </c>
-      <c r="V59" t="s">
-        <v>108</v>
-      </c>
       <c r="W59" t="s">
+        <v>108</v>
+      </c>
+      <c r="X59" t="s">
         <v>15</v>
       </c>
-      <c r="X59" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA59" t="s">
+      <c r="Y59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB59" t="s">
         <v>76</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AC59" t="s">
         <v>17</v>
       </c>
-      <c r="AC59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L60" t="s">
+      <c r="AD59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M60" t="s">
         <v>81</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>16</v>
       </c>
-      <c r="N60" t="s">
-        <v>109</v>
-      </c>
       <c r="O60" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="P60" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q60" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R60" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S60" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="T60" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U60" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="V60" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W60" t="s">
+        <v>107</v>
+      </c>
+      <c r="X60" t="s">
         <v>12</v>
       </c>
-      <c r="X60" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA60" t="s">
+      <c r="Y60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB60" t="s">
         <v>98</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AC60" t="s">
         <v>17</v>
       </c>
-      <c r="AC60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L61" t="s">
+      <c r="AD60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M61" t="s">
         <v>65</v>
       </c>
-      <c r="M61" t="s">
-        <v>13</v>
-      </c>
       <c r="N61" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="O61" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="P61" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q61" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R61" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S61" t="s">
+        <v>108</v>
+      </c>
+      <c r="T61" t="s">
         <v>15</v>
       </c>
-      <c r="T61" t="s">
-        <v>108</v>
-      </c>
       <c r="U61" t="s">
+        <v>108</v>
+      </c>
+      <c r="V61" t="s">
         <v>121</v>
       </c>
-      <c r="V61" t="s">
-        <v>109</v>
-      </c>
       <c r="W61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X61" t="s">
         <v>15</v>
       </c>
-      <c r="X61" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA61" t="s">
+      <c r="Y61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB61" t="s">
         <v>30</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AC61" t="s">
         <v>121</v>
       </c>
-      <c r="AC61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L62" t="s">
+      <c r="AD61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M62" t="s">
         <v>82</v>
       </c>
-      <c r="M62" t="s">
-        <v>14</v>
-      </c>
       <c r="N62" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O62" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="P62" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q62" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R62" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S62" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="T62" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U62" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="V62" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W62" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="X62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA62" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB62" t="s">
         <v>27</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AC62" t="s">
         <v>121</v>
       </c>
-      <c r="AC62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L63" t="s">
+      <c r="AD62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M63" t="s">
         <v>29</v>
       </c>
-      <c r="M63" t="s">
-        <v>13</v>
-      </c>
       <c r="N63" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="O63" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="P63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q63" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S63" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U63" t="s">
+        <v>108</v>
+      </c>
+      <c r="V63" t="s">
         <v>121</v>
       </c>
-      <c r="V63" t="s">
-        <v>109</v>
-      </c>
       <c r="W63" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="X63" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA63" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB63" t="s">
         <v>65</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AC63" t="s">
         <v>121</v>
       </c>
-      <c r="AC63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L64" t="s">
+      <c r="AD63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M64" t="s">
         <v>46</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>10</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>106</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>12</v>
       </c>
-      <c r="P64" t="s">
-        <v>107</v>
-      </c>
       <c r="Q64" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R64" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S64" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T64" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U64" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="V64" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W64" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X64" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA64" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB64" t="s">
         <v>24</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AC64" t="s">
         <v>121</v>
       </c>
-      <c r="AC64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L65" t="s">
+      <c r="AD64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M65" t="s">
         <v>47</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>16</v>
       </c>
-      <c r="N65" t="s">
-        <v>109</v>
-      </c>
       <c r="O65" t="s">
+        <v>109</v>
+      </c>
+      <c r="P65" t="s">
         <v>12</v>
       </c>
-      <c r="P65" t="s">
-        <v>107</v>
-      </c>
       <c r="Q65" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R65" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S65" t="s">
+        <v>107</v>
+      </c>
+      <c r="T65" t="s">
         <v>12</v>
       </c>
-      <c r="T65" t="s">
-        <v>107</v>
-      </c>
       <c r="U65" t="s">
+        <v>107</v>
+      </c>
+      <c r="V65" t="s">
         <v>12</v>
       </c>
-      <c r="V65" t="s">
-        <v>107</v>
-      </c>
       <c r="W65" t="s">
+        <v>107</v>
+      </c>
+      <c r="X65" t="s">
         <v>12</v>
       </c>
-      <c r="X65" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA65" t="s">
+      <c r="Y65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB65" t="s">
         <v>96</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AC65" t="s">
         <v>121</v>
       </c>
-      <c r="AC65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L66" t="s">
+      <c r="AD65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M66" t="s">
         <v>48</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>16</v>
       </c>
-      <c r="N66" t="s">
-        <v>109</v>
-      </c>
       <c r="O66" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="P66" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q66" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R66" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S66" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T66" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U66" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="V66" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W66" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X66" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA66" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB66" t="s">
         <v>94</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AC66" t="s">
         <v>121</v>
       </c>
-      <c r="AC66" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L67" t="s">
+      <c r="AD66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M67" t="s">
         <v>83</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>17</v>
       </c>
-      <c r="N67" t="s">
-        <v>109</v>
-      </c>
       <c r="O67" t="s">
+        <v>109</v>
+      </c>
+      <c r="P67" t="s">
         <v>121</v>
       </c>
-      <c r="P67" t="s">
-        <v>109</v>
-      </c>
       <c r="Q67" t="s">
+        <v>109</v>
+      </c>
+      <c r="R67" t="s">
         <v>16</v>
       </c>
-      <c r="R67" t="s">
-        <v>109</v>
-      </c>
       <c r="S67" t="s">
+        <v>109</v>
+      </c>
+      <c r="T67" t="s">
         <v>17</v>
       </c>
-      <c r="T67" t="s">
-        <v>109</v>
-      </c>
       <c r="U67" t="s">
+        <v>109</v>
+      </c>
+      <c r="V67" t="s">
         <v>18</v>
       </c>
-      <c r="V67" t="s">
+      <c r="W67" t="s">
         <v>110</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>17</v>
       </c>
-      <c r="X67" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA67" t="s">
+      <c r="Y67" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB67" t="s">
         <v>41</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AC67" t="s">
         <v>18</v>
       </c>
-      <c r="AC67" t="s">
+      <c r="AD67" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L68" t="s">
+    <row r="68" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M68" t="s">
         <v>84</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>16</v>
       </c>
-      <c r="N68" t="s">
-        <v>109</v>
-      </c>
       <c r="O68" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="P68" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q68" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R68" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S68" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="T68" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U68" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V68" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W68" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="X68" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA68" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB68" t="s">
         <v>66</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AC68" t="s">
         <v>18</v>
       </c>
-      <c r="AC68" t="s">
+      <c r="AD68" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L69" t="s">
+    <row r="69" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M69" t="s">
         <v>94</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>15</v>
       </c>
-      <c r="N69" t="s">
-        <v>108</v>
-      </c>
       <c r="O69" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="P69" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q69" t="s">
+        <v>108</v>
+      </c>
+      <c r="R69" t="s">
         <v>15</v>
       </c>
-      <c r="R69" t="s">
-        <v>108</v>
-      </c>
       <c r="S69" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T69" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U69" t="s">
+        <v>108</v>
+      </c>
+      <c r="V69" t="s">
         <v>15</v>
       </c>
-      <c r="V69" t="s">
-        <v>108</v>
-      </c>
       <c r="W69" t="s">
+        <v>108</v>
+      </c>
+      <c r="X69" t="s">
         <v>15</v>
       </c>
-      <c r="X69" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA69" t="s">
+      <c r="Y69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB69" t="s">
         <v>50</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AC69" t="s">
         <v>18</v>
       </c>
-      <c r="AC69" t="s">
+      <c r="AD69" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L70" t="s">
+    <row r="70" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M70" t="s">
         <v>31</v>
       </c>
-      <c r="M70" t="s">
-        <v>14</v>
-      </c>
       <c r="N70" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O70" t="s">
+        <v>108</v>
+      </c>
+      <c r="P70" t="s">
         <v>121</v>
       </c>
-      <c r="P70" t="s">
-        <v>109</v>
-      </c>
       <c r="Q70" t="s">
+        <v>109</v>
+      </c>
+      <c r="R70" t="s">
         <v>121</v>
       </c>
-      <c r="R70" t="s">
-        <v>109</v>
-      </c>
       <c r="S70" t="s">
+        <v>109</v>
+      </c>
+      <c r="T70" t="s">
         <v>16</v>
       </c>
-      <c r="T70" t="s">
-        <v>109</v>
-      </c>
       <c r="U70" t="s">
+        <v>109</v>
+      </c>
+      <c r="V70" t="s">
         <v>18</v>
       </c>
-      <c r="V70" t="s">
+      <c r="W70" t="s">
         <v>110</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>121</v>
       </c>
-      <c r="X70" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA70" t="s">
+      <c r="Y70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB70" t="s">
         <v>61</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AC70" t="s">
         <v>18</v>
       </c>
-      <c r="AC70" t="s">
+      <c r="AD70" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L71" t="s">
+    <row r="71" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M71" t="s">
         <v>95</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>16</v>
       </c>
-      <c r="N71" t="s">
-        <v>109</v>
-      </c>
       <c r="O71" t="s">
+        <v>109</v>
+      </c>
+      <c r="P71" t="s">
         <v>17</v>
       </c>
-      <c r="P71" t="s">
-        <v>109</v>
-      </c>
       <c r="Q71" t="s">
+        <v>109</v>
+      </c>
+      <c r="R71" t="s">
         <v>18</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>110</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>18</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>110</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>18</v>
       </c>
-      <c r="V71" t="s">
+      <c r="W71" t="s">
         <v>110</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>17</v>
       </c>
-      <c r="X71" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA71" t="s">
+      <c r="Y71" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB71" t="s">
         <v>28</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AC71" t="s">
         <v>18</v>
       </c>
-      <c r="AC71" t="s">
+      <c r="AD71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L72" t="s">
+    <row r="72" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M72" t="s">
         <v>49</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>16</v>
       </c>
-      <c r="N72" t="s">
-        <v>109</v>
-      </c>
       <c r="O72" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q72" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R72" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S72" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="T72" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U72" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="V72" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W72" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="X72" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA72" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB72" t="s">
         <v>67</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AC72" t="s">
         <v>18</v>
       </c>
-      <c r="AC72" t="s">
+      <c r="AD72" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L73" t="s">
+    <row r="73" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M73" t="s">
         <v>30</v>
       </c>
-      <c r="M73" t="s">
-        <v>13</v>
-      </c>
       <c r="N73" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="O73" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="P73" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q73" t="s">
+        <v>107</v>
+      </c>
+      <c r="R73" t="s">
         <v>126</v>
       </c>
-      <c r="R73" t="s">
-        <v>107</v>
-      </c>
       <c r="S73" t="s">
+        <v>107</v>
+      </c>
+      <c r="T73" t="s">
         <v>120</v>
       </c>
-      <c r="T73" t="s">
-        <v>108</v>
-      </c>
       <c r="U73" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V73" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W73" t="s">
+        <v>108</v>
+      </c>
+      <c r="X73" t="s">
         <v>126</v>
       </c>
-      <c r="X73" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA73" t="s">
+      <c r="Y73" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB73" t="s">
         <v>62</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AC73" t="s">
         <v>18</v>
       </c>
-      <c r="AC73" t="s">
+      <c r="AD73" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L74" t="s">
+    <row r="74" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M74" t="s">
         <v>50</v>
       </c>
-      <c r="M74" t="s">
-        <v>14</v>
-      </c>
       <c r="N74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O74" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="P74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q74" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S74" t="s">
+        <v>108</v>
+      </c>
+      <c r="T74" t="s">
         <v>16</v>
       </c>
-      <c r="T74" t="s">
-        <v>109</v>
-      </c>
       <c r="U74" t="s">
+        <v>109</v>
+      </c>
+      <c r="V74" t="s">
         <v>17</v>
       </c>
-      <c r="V74" t="s">
-        <v>109</v>
-      </c>
       <c r="W74" t="s">
+        <v>109</v>
+      </c>
+      <c r="X74" t="s">
         <v>121</v>
       </c>
-      <c r="X74" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA74" t="s">
+      <c r="Y74" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB74" t="s">
         <v>35</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AC74" t="s">
         <v>18</v>
       </c>
-      <c r="AC74" t="s">
+      <c r="AD74" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L75" t="s">
+    <row r="75" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M75" t="s">
         <v>66</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>16</v>
       </c>
-      <c r="N75" t="s">
-        <v>109</v>
-      </c>
       <c r="O75" t="s">
+        <v>109</v>
+      </c>
+      <c r="P75" t="s">
         <v>16</v>
       </c>
-      <c r="P75" t="s">
-        <v>109</v>
-      </c>
       <c r="Q75" t="s">
+        <v>109</v>
+      </c>
+      <c r="R75" t="s">
         <v>16</v>
       </c>
-      <c r="R75" t="s">
-        <v>109</v>
-      </c>
       <c r="S75" t="s">
+        <v>109</v>
+      </c>
+      <c r="T75" t="s">
         <v>17</v>
       </c>
-      <c r="T75" t="s">
-        <v>109</v>
-      </c>
       <c r="U75" t="s">
+        <v>109</v>
+      </c>
+      <c r="V75" t="s">
         <v>18</v>
       </c>
-      <c r="V75" t="s">
+      <c r="W75" t="s">
         <v>110</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>18</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>110</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>54</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AC75" t="s">
         <v>18</v>
       </c>
-      <c r="AC75" t="s">
+      <c r="AD75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L76" t="s">
+    <row r="76" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M76" t="s">
         <v>85</v>
       </c>
-      <c r="M76" t="s">
-        <v>14</v>
-      </c>
       <c r="N76" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O76" t="s">
+        <v>108</v>
+      </c>
+      <c r="P76" t="s">
         <v>12</v>
       </c>
-      <c r="P76" t="s">
-        <v>107</v>
-      </c>
       <c r="Q76" t="s">
+        <v>107</v>
+      </c>
+      <c r="R76" t="s">
         <v>12</v>
       </c>
-      <c r="R76" t="s">
-        <v>107</v>
-      </c>
       <c r="S76" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="T76" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U76" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="V76" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W76" t="s">
+        <v>107</v>
+      </c>
+      <c r="X76" t="s">
         <v>12</v>
       </c>
-      <c r="X76" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA76" t="s">
+      <c r="Y76" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB76" t="s">
         <v>21</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AC76" t="s">
         <v>18</v>
       </c>
-      <c r="AC76" t="s">
+      <c r="AD76" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L77" t="s">
+    <row r="77" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M77" t="s">
         <v>86</v>
       </c>
-      <c r="M77" t="s">
-        <v>14</v>
-      </c>
       <c r="N77" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O77" t="s">
+        <v>108</v>
+      </c>
+      <c r="P77" t="s">
         <v>12</v>
       </c>
-      <c r="P77" t="s">
-        <v>107</v>
-      </c>
       <c r="Q77" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R77" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S77" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="T77" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U77" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="V77" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W77" t="s">
+        <v>107</v>
+      </c>
+      <c r="X77" t="s">
         <v>12</v>
       </c>
-      <c r="X77" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA77" t="s">
+      <c r="Y77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB77" t="s">
         <v>83</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AC77" t="s">
         <v>18</v>
       </c>
-      <c r="AC77" t="s">
+      <c r="AD77" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L78" t="s">
+    <row r="78" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M78" t="s">
         <v>87</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>16</v>
       </c>
-      <c r="N78" t="s">
-        <v>109</v>
-      </c>
       <c r="O78" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="P78" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q78" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R78" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S78" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="T78" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U78" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="V78" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W78" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X78" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA78" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB78" t="s">
         <v>29</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AC78" t="s">
         <v>18</v>
       </c>
-      <c r="AC78" t="s">
+      <c r="AD78" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L79" t="s">
+    <row r="79" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M79" t="s">
         <v>104</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>12</v>
       </c>
-      <c r="N79" t="s">
-        <v>107</v>
-      </c>
       <c r="O79" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="P79" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q79" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R79" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S79" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="T79" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U79" t="s">
+        <v>107</v>
+      </c>
+      <c r="V79" t="s">
         <v>12</v>
       </c>
-      <c r="V79" t="s">
-        <v>107</v>
-      </c>
       <c r="W79" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X79" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA79" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB79" t="s">
         <v>57</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AC79" t="s">
         <v>18</v>
       </c>
-      <c r="AC79" t="s">
+      <c r="AD79" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L80" t="s">
+    <row r="80" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M80" t="s">
         <v>51</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>16</v>
       </c>
-      <c r="N80" t="s">
-        <v>109</v>
-      </c>
       <c r="O80" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="P80" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q80" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R80" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S80" t="s">
+        <v>107</v>
+      </c>
+      <c r="T80" t="s">
         <v>12</v>
       </c>
-      <c r="T80" t="s">
-        <v>107</v>
-      </c>
       <c r="U80" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="V80" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W80" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X80" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA80" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB80" t="s">
         <v>63</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AC80" t="s">
         <v>18</v>
       </c>
-      <c r="AC80" t="s">
+      <c r="AD80" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L81" t="s">
+    <row r="81" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M81" t="s">
         <v>52</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>16</v>
       </c>
-      <c r="N81" t="s">
-        <v>109</v>
-      </c>
       <c r="O81" t="s">
+        <v>109</v>
+      </c>
+      <c r="P81" t="s">
         <v>12</v>
       </c>
-      <c r="P81" t="s">
-        <v>107</v>
-      </c>
       <c r="Q81" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R81" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S81" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T81" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U81" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="V81" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W81" t="s">
+        <v>107</v>
+      </c>
+      <c r="X81" t="s">
         <v>12</v>
       </c>
-      <c r="X81" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA81" t="s">
+      <c r="Y81" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB81" t="s">
         <v>55</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AC81" t="s">
         <v>18</v>
       </c>
-      <c r="AC81" t="s">
+      <c r="AD81" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L82" t="s">
+    <row r="82" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M82" t="s">
         <v>53</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>16</v>
       </c>
-      <c r="N82" t="s">
-        <v>109</v>
-      </c>
       <c r="O82" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q82" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="R82" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S82" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U82" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W82" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="X82" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA82" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB82" t="s">
         <v>31</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AC82" t="s">
         <v>18</v>
       </c>
-      <c r="AC82" t="s">
+      <c r="AD82" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L83" t="s">
+    <row r="83" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M83" t="s">
         <v>54</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>15</v>
       </c>
-      <c r="N83" t="s">
-        <v>108</v>
-      </c>
       <c r="O83" t="s">
+        <v>108</v>
+      </c>
+      <c r="P83" t="s">
         <v>16</v>
       </c>
-      <c r="P83" t="s">
-        <v>109</v>
-      </c>
       <c r="Q83" t="s">
+        <v>109</v>
+      </c>
+      <c r="R83" t="s">
         <v>16</v>
       </c>
-      <c r="R83" t="s">
-        <v>109</v>
-      </c>
       <c r="S83" t="s">
+        <v>109</v>
+      </c>
+      <c r="T83" t="s">
         <v>16</v>
       </c>
-      <c r="T83" t="s">
-        <v>109</v>
-      </c>
       <c r="U83" t="s">
+        <v>109</v>
+      </c>
+      <c r="V83" t="s">
         <v>17</v>
       </c>
-      <c r="V83" t="s">
-        <v>109</v>
-      </c>
       <c r="W83" t="s">
+        <v>109</v>
+      </c>
+      <c r="X83" t="s">
         <v>16</v>
       </c>
-      <c r="X83" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA83" t="s">
+      <c r="Y83" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB83" t="s">
         <v>92</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AC83" t="s">
         <v>18</v>
       </c>
-      <c r="AC83" t="s">
+      <c r="AD83" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L84" t="s">
+    <row r="84" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M84" t="s">
         <v>96</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>17</v>
       </c>
-      <c r="N84" t="s">
-        <v>109</v>
-      </c>
       <c r="O84" t="s">
+        <v>109</v>
+      </c>
+      <c r="P84" t="s">
         <v>15</v>
       </c>
-      <c r="P84" t="s">
-        <v>108</v>
-      </c>
       <c r="Q84" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R84" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S84" t="s">
+        <v>108</v>
+      </c>
+      <c r="T84" t="s">
         <v>121</v>
       </c>
-      <c r="T84" t="s">
-        <v>109</v>
-      </c>
       <c r="U84" t="s">
+        <v>109</v>
+      </c>
+      <c r="V84" t="s">
         <v>121</v>
       </c>
-      <c r="V84" t="s">
-        <v>109</v>
-      </c>
       <c r="W84" t="s">
+        <v>109</v>
+      </c>
+      <c r="X84" t="s">
         <v>15</v>
       </c>
-      <c r="X84" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA84" t="s">
+      <c r="Y84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB84" t="s">
         <v>91</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AC84" t="s">
         <v>18</v>
       </c>
-      <c r="AC84" t="s">
+      <c r="AD84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L85" t="s">
+    <row r="85" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M85" t="s">
         <v>88</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>16</v>
       </c>
-      <c r="N85" t="s">
-        <v>109</v>
-      </c>
       <c r="O85" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="P85" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q85" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R85" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S85" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T85" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U85" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="V85" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W85" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="X85" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA85" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB85" t="s">
         <v>59</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AC85" t="s">
         <v>18</v>
       </c>
-      <c r="AC85" t="s">
+      <c r="AD85" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L86" t="s">
+    <row r="86" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M86" t="s">
         <v>67</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>15</v>
       </c>
-      <c r="N86" t="s">
-        <v>108</v>
-      </c>
       <c r="O86" t="s">
+        <v>108</v>
+      </c>
+      <c r="P86" t="s">
         <v>120</v>
       </c>
-      <c r="P86" t="s">
-        <v>108</v>
-      </c>
       <c r="Q86" t="s">
+        <v>108</v>
+      </c>
+      <c r="R86" t="s">
         <v>15</v>
       </c>
-      <c r="R86" t="s">
-        <v>108</v>
-      </c>
       <c r="S86" t="s">
+        <v>108</v>
+      </c>
+      <c r="T86" t="s">
         <v>15</v>
       </c>
-      <c r="T86" t="s">
-        <v>108</v>
-      </c>
       <c r="U86" t="s">
+        <v>108</v>
+      </c>
+      <c r="V86" t="s">
         <v>16</v>
       </c>
-      <c r="V86" t="s">
-        <v>109</v>
-      </c>
       <c r="W86" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="X86" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA86" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB86" t="s">
         <v>93</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AC86" t="s">
         <v>18</v>
       </c>
-      <c r="AC86" t="s">
+      <c r="AD86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L87" t="s">
+    <row r="87" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M87" t="s">
         <v>55</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>16</v>
       </c>
-      <c r="N87" t="s">
-        <v>109</v>
-      </c>
       <c r="O87" t="s">
+        <v>109</v>
+      </c>
+      <c r="P87" t="s">
         <v>16</v>
       </c>
-      <c r="P87" t="s">
-        <v>109</v>
-      </c>
       <c r="Q87" t="s">
+        <v>109</v>
+      </c>
+      <c r="R87" t="s">
         <v>16</v>
       </c>
-      <c r="R87" t="s">
-        <v>109</v>
-      </c>
       <c r="S87" t="s">
+        <v>109</v>
+      </c>
+      <c r="T87" t="s">
         <v>18</v>
       </c>
-      <c r="T87" t="s">
+      <c r="U87" t="s">
         <v>110</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>18</v>
       </c>
-      <c r="V87" t="s">
+      <c r="W87" t="s">
         <v>110</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>17</v>
       </c>
-      <c r="X87" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA87" t="s">
+      <c r="Y87" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB87" t="s">
         <v>97</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AC87" t="s">
         <v>18</v>
       </c>
-      <c r="AC87" t="s">
+      <c r="AD87" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L88" t="s">
+    <row r="88" spans="13:30" x14ac:dyDescent="0.2">
+      <c r="M88" t="s">
         <v>56</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>16</v>
       </c>
-      <c r="N88" t="s">
-        <v>109</v>
-      </c>
       <c r="O88" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="P88" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Q88" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="R88" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="S88" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="T88" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="U88" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="V88" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="W88" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="X88" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA88" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB88" t="s">
         <v>95</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AC88" t="s">
         <v>18</v>
       </c>
-      <c r="AC88" t="s">
+      <c r="AD88" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="AA2:AC88">
-    <sortCondition ref="AB1"/>
+  <sortState ref="AB2:AD88">
+    <sortCondition ref="AC1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7955,7 +8156,7 @@
   <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D80"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/20200622-cvnormal/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78100D73-5E5F-4340-A587-1B2D5CF592B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26403972-F5B4-5548-9ABC-D98CF9175346}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="460" windowWidth="28160" windowHeight="19360" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="9860" yWindow="2260" windowWidth="28160" windowHeight="19360" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_transit" sheetId="1" r:id="rId1"/>
@@ -3212,19 +3212,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
-  <dimension ref="A1:AD88"/>
+  <dimension ref="A1:AE88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.83203125" customWidth="1"/>
+    <col min="10" max="12" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3252,56 +3252,59 @@
       <c r="K1" s="6">
         <v>43994</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="6">
+        <v>43996</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43885</v>
       </c>
@@ -3329,56 +3332,59 @@
       <c r="K2" s="4">
         <v>-0.13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="N2" t="s">
         <v>89</v>
       </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
       <c r="O2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Q2" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="S2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="U2" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="W2" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC2" t="s">
         <v>74</v>
       </c>
-      <c r="AC2" t="s">
-        <v>13</v>
-      </c>
       <c r="AD2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43886</v>
       </c>
@@ -3406,56 +3412,59 @@
       <c r="K3" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" t="s">
-        <v>109</v>
-      </c>
       <c r="P3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" t="s">
-        <v>109</v>
-      </c>
       <c r="R3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" t="s">
-        <v>109</v>
-      </c>
       <c r="T3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U3" t="s">
         <v>18</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>110</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>18</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>110</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" t="s">
-        <v>14</v>
-      </c>
       <c r="AD3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43887</v>
       </c>
@@ -3483,56 +3492,59 @@
       <c r="K4" s="4">
         <v>1.89</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L4" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="N4" t="s">
         <v>102</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>16</v>
       </c>
-      <c r="O4" t="s">
-        <v>109</v>
-      </c>
       <c r="P4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" t="s">
-        <v>108</v>
-      </c>
       <c r="R4" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S4" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U4" t="s">
         <v>15</v>
       </c>
-      <c r="U4" t="s">
-        <v>108</v>
-      </c>
       <c r="V4" t="s">
+        <v>108</v>
+      </c>
+      <c r="W4" t="s">
         <v>121</v>
       </c>
-      <c r="W4" t="s">
-        <v>109</v>
-      </c>
       <c r="X4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y4" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="Z4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC4" t="s">
         <v>84</v>
       </c>
-      <c r="AC4" t="s">
-        <v>14</v>
-      </c>
       <c r="AD4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43888</v>
       </c>
@@ -3560,56 +3572,59 @@
       <c r="K5" s="4">
         <v>-0.36</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" s="4">
+        <v>-0.34</v>
+      </c>
+      <c r="N5" t="s">
         <v>58</v>
       </c>
-      <c r="N5" t="s">
-        <v>14</v>
-      </c>
       <c r="O5" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P5" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Q5" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R5" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="S5" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T5" t="s">
+        <v>108</v>
+      </c>
+      <c r="U5" t="s">
         <v>120</v>
       </c>
-      <c r="U5" t="s">
-        <v>108</v>
-      </c>
       <c r="V5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W5" t="s">
         <v>15</v>
       </c>
-      <c r="W5" t="s">
-        <v>108</v>
-      </c>
       <c r="X5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" t="s">
         <v>120</v>
       </c>
-      <c r="Y5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="Z5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC5" t="s">
         <v>45</v>
       </c>
-      <c r="AC5" t="s">
-        <v>14</v>
-      </c>
       <c r="AD5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43889</v>
       </c>
@@ -3637,56 +3652,59 @@
       <c r="K6" s="4">
         <v>-0.38</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="N6" t="s">
         <v>59</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>17</v>
       </c>
-      <c r="O6" t="s">
-        <v>109</v>
-      </c>
       <c r="P6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" t="s">
-        <v>109</v>
-      </c>
       <c r="R6" t="s">
+        <v>109</v>
+      </c>
+      <c r="S6" t="s">
         <v>121</v>
       </c>
-      <c r="S6" t="s">
-        <v>109</v>
-      </c>
       <c r="T6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U6" t="s">
         <v>16</v>
       </c>
-      <c r="U6" t="s">
-        <v>109</v>
-      </c>
       <c r="V6" t="s">
+        <v>109</v>
+      </c>
+      <c r="W6" t="s">
         <v>17</v>
       </c>
-      <c r="W6" t="s">
-        <v>109</v>
-      </c>
       <c r="X6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y6" t="s">
         <v>121</v>
       </c>
-      <c r="Y6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="Z6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC6" t="s">
         <v>52</v>
       </c>
-      <c r="AC6" t="s">
-        <v>14</v>
-      </c>
       <c r="AD6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43890</v>
       </c>
@@ -3714,336 +3732,339 @@
       <c r="K7" s="4">
         <v>0.1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>60</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>12</v>
       </c>
-      <c r="O7" t="s">
-        <v>107</v>
-      </c>
       <c r="P7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" t="s">
-        <v>107</v>
-      </c>
       <c r="R7" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" t="s">
         <v>12</v>
       </c>
-      <c r="S7" t="s">
-        <v>107</v>
-      </c>
       <c r="T7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U7" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W7" t="s">
         <v>12</v>
       </c>
-      <c r="W7" t="s">
-        <v>107</v>
-      </c>
       <c r="X7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC7" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" t="s">
-        <v>14</v>
-      </c>
       <c r="AD7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43891</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>61</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>15</v>
       </c>
-      <c r="O8" t="s">
-        <v>108</v>
-      </c>
       <c r="P8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" t="s">
         <v>121</v>
       </c>
-      <c r="Q8" t="s">
-        <v>109</v>
-      </c>
       <c r="R8" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="S8" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T8" t="s">
+        <v>108</v>
+      </c>
+      <c r="U8" t="s">
         <v>121</v>
       </c>
-      <c r="U8" t="s">
-        <v>109</v>
-      </c>
       <c r="V8" t="s">
+        <v>109</v>
+      </c>
+      <c r="W8" t="s">
         <v>18</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>110</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>121</v>
       </c>
-      <c r="Y8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="Z8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC8" t="s">
         <v>87</v>
       </c>
-      <c r="AC8" t="s">
-        <v>14</v>
-      </c>
       <c r="AD8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43892</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>90</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>17</v>
       </c>
-      <c r="O9" t="s">
-        <v>109</v>
-      </c>
       <c r="P9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" t="s">
-        <v>108</v>
-      </c>
       <c r="R9" t="s">
+        <v>108</v>
+      </c>
+      <c r="S9" t="s">
         <v>15</v>
       </c>
-      <c r="S9" t="s">
-        <v>108</v>
-      </c>
       <c r="T9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U9" t="s">
         <v>16</v>
       </c>
-      <c r="U9" t="s">
-        <v>109</v>
-      </c>
       <c r="V9" t="s">
+        <v>109</v>
+      </c>
+      <c r="W9" t="s">
         <v>16</v>
       </c>
-      <c r="W9" t="s">
-        <v>109</v>
-      </c>
       <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
         <v>121</v>
       </c>
-      <c r="Y9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="Z9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC9" t="s">
         <v>75</v>
       </c>
-      <c r="AC9" t="s">
-        <v>14</v>
-      </c>
       <c r="AD9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43893</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>32</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>12</v>
       </c>
-      <c r="O10" t="s">
-        <v>107</v>
-      </c>
       <c r="P10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" t="s">
-        <v>107</v>
-      </c>
       <c r="R10" t="s">
+        <v>107</v>
+      </c>
+      <c r="S10" t="s">
         <v>126</v>
       </c>
-      <c r="S10" t="s">
-        <v>107</v>
-      </c>
       <c r="T10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U10" t="s">
         <v>12</v>
       </c>
-      <c r="U10" t="s">
-        <v>107</v>
-      </c>
       <c r="V10" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W10" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="Z10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC10" t="s">
         <v>56</v>
       </c>
-      <c r="AC10" t="s">
-        <v>14</v>
-      </c>
       <c r="AD10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43894</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>62</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>15</v>
       </c>
-      <c r="O11" t="s">
-        <v>108</v>
-      </c>
       <c r="P11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" t="s">
-        <v>109</v>
-      </c>
       <c r="R11" t="s">
+        <v>109</v>
+      </c>
+      <c r="S11" t="s">
         <v>16</v>
       </c>
-      <c r="S11" t="s">
-        <v>109</v>
-      </c>
       <c r="T11" t="s">
+        <v>109</v>
+      </c>
+      <c r="U11" t="s">
         <v>17</v>
       </c>
-      <c r="U11" t="s">
-        <v>109</v>
-      </c>
       <c r="V11" t="s">
+        <v>109</v>
+      </c>
+      <c r="W11" t="s">
         <v>17</v>
       </c>
-      <c r="W11" t="s">
-        <v>109</v>
-      </c>
       <c r="X11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y11" t="s">
         <v>16</v>
       </c>
-      <c r="Y11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="Z11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC11" t="s">
         <v>36</v>
       </c>
-      <c r="AC11" t="s">
-        <v>14</v>
-      </c>
       <c r="AD11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43895</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>33</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>12</v>
       </c>
-      <c r="O12" t="s">
-        <v>107</v>
-      </c>
       <c r="P12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" t="s">
-        <v>107</v>
-      </c>
       <c r="R12" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" t="s">
         <v>12</v>
       </c>
-      <c r="S12" t="s">
-        <v>107</v>
-      </c>
       <c r="T12" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="U12" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V12" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W12" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X12" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Y12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC12" t="s">
         <v>71</v>
       </c>
-      <c r="AC12" t="s">
-        <v>14</v>
-      </c>
       <c r="AD12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43896</v>
       </c>
@@ -4071,56 +4092,56 @@
       <c r="K13" t="s">
         <v>119</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>34</v>
       </c>
-      <c r="N13" t="s">
-        <v>14</v>
-      </c>
       <c r="O13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P13" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Q13" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R13" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S13" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T13" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V13" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X13" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Y13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC13" t="s">
         <v>49</v>
       </c>
-      <c r="AC13" t="s">
-        <v>14</v>
-      </c>
       <c r="AD13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43897</v>
       </c>
@@ -4148,56 +4169,57 @@
       <c r="K14" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M14" t="s">
+      <c r="L14" s="4"/>
+      <c r="N14" t="s">
         <v>35</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>16</v>
       </c>
-      <c r="O14" t="s">
-        <v>109</v>
-      </c>
       <c r="P14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" t="s">
         <v>121</v>
       </c>
-      <c r="Q14" t="s">
-        <v>109</v>
-      </c>
       <c r="R14" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14" t="s">
         <v>15</v>
       </c>
-      <c r="S14" t="s">
-        <v>108</v>
-      </c>
       <c r="T14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U14" t="s">
         <v>121</v>
       </c>
-      <c r="U14" t="s">
-        <v>109</v>
-      </c>
       <c r="V14" t="s">
+        <v>109</v>
+      </c>
+      <c r="W14" t="s">
         <v>16</v>
       </c>
-      <c r="W14" t="s">
-        <v>109</v>
-      </c>
       <c r="X14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y14" t="s">
         <v>16</v>
       </c>
-      <c r="Y14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB14" t="s">
+      <c r="Z14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC14" t="s">
         <v>60</v>
       </c>
-      <c r="AC14" t="s">
-        <v>14</v>
-      </c>
       <c r="AD14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43898</v>
       </c>
@@ -4225,56 +4247,57 @@
       <c r="K15" s="4">
         <v>0.12</v>
       </c>
-      <c r="M15" t="s">
+      <c r="L15" s="4"/>
+      <c r="N15" t="s">
         <v>68</v>
       </c>
-      <c r="N15" t="s">
-        <v>14</v>
-      </c>
       <c r="O15" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" t="s">
         <v>121</v>
       </c>
-      <c r="Q15" t="s">
-        <v>109</v>
-      </c>
       <c r="R15" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="S15" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T15" t="s">
+        <v>108</v>
+      </c>
+      <c r="U15" t="s">
         <v>15</v>
       </c>
-      <c r="U15" t="s">
-        <v>108</v>
-      </c>
       <c r="V15" t="s">
+        <v>108</v>
+      </c>
+      <c r="W15" t="s">
         <v>121</v>
       </c>
-      <c r="W15" t="s">
-        <v>109</v>
-      </c>
       <c r="X15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y15" t="s">
         <v>121</v>
       </c>
-      <c r="Y15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB15" t="s">
+      <c r="Z15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC15" t="s">
         <v>85</v>
       </c>
-      <c r="AC15" t="s">
-        <v>14</v>
-      </c>
       <c r="AD15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43899</v>
       </c>
@@ -4302,56 +4325,57 @@
       <c r="K16" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M16" t="s">
+      <c r="L16" s="4"/>
+      <c r="N16" t="s">
         <v>69</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>18</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>110</v>
       </c>
-      <c r="P16" t="s">
-        <v>13</v>
-      </c>
       <c r="Q16" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R16" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="S16" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T16" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="U16" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V16" t="s">
+        <v>107</v>
+      </c>
+      <c r="W16" t="s">
         <v>12</v>
       </c>
-      <c r="W16" t="s">
-        <v>107</v>
-      </c>
       <c r="X16" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC16" t="s">
         <v>129</v>
       </c>
-      <c r="AC16" t="s">
-        <v>14</v>
-      </c>
       <c r="AD16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43900</v>
       </c>
@@ -4379,56 +4403,57 @@
       <c r="K17" s="4">
         <v>0.08</v>
       </c>
-      <c r="M17" t="s">
+      <c r="L17" s="4"/>
+      <c r="N17" t="s">
         <v>36</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>16</v>
       </c>
-      <c r="O17" t="s">
-        <v>109</v>
-      </c>
       <c r="P17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>106</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>11</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>106</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>12</v>
       </c>
-      <c r="U17" t="s">
-        <v>107</v>
-      </c>
       <c r="V17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="W17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X17" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y17" t="s">
         <v>11</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>106</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>69</v>
       </c>
-      <c r="AC17" t="s">
-        <v>14</v>
-      </c>
       <c r="AD17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43901</v>
       </c>
@@ -4456,56 +4481,57 @@
       <c r="K18" s="4">
         <v>0.1</v>
       </c>
-      <c r="M18" t="s">
+      <c r="L18" s="4"/>
+      <c r="N18" t="s">
         <v>70</v>
       </c>
-      <c r="N18" t="s">
-        <v>14</v>
-      </c>
       <c r="O18" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P18" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Q18" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R18" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S18" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T18" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U18" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V18" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="W18" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X18" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC18" t="s">
         <v>46</v>
       </c>
-      <c r="AC18" t="s">
-        <v>14</v>
-      </c>
       <c r="AD18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43902</v>
       </c>
@@ -4533,3619 +4559,3641 @@
       <c r="K19" s="4">
         <v>0.1</v>
       </c>
-      <c r="M19" t="s">
+      <c r="L19" s="4"/>
+      <c r="N19" t="s">
         <v>91</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>16</v>
       </c>
-      <c r="O19" t="s">
-        <v>109</v>
-      </c>
       <c r="P19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" t="s">
         <v>121</v>
       </c>
-      <c r="Q19" t="s">
-        <v>109</v>
-      </c>
       <c r="R19" t="s">
+        <v>109</v>
+      </c>
+      <c r="S19" t="s">
         <v>15</v>
       </c>
-      <c r="S19" t="s">
-        <v>108</v>
-      </c>
       <c r="T19" t="s">
+        <v>108</v>
+      </c>
+      <c r="U19" t="s">
         <v>121</v>
       </c>
-      <c r="U19" t="s">
-        <v>109</v>
-      </c>
       <c r="V19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W19" t="s">
         <v>16</v>
       </c>
-      <c r="W19" t="s">
-        <v>109</v>
-      </c>
       <c r="X19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y19" t="s">
         <v>17</v>
       </c>
-      <c r="Y19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB19" t="s">
+      <c r="Z19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC19" t="s">
         <v>104</v>
       </c>
-      <c r="AC19" t="s">
-        <v>14</v>
-      </c>
       <c r="AD19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43903</v>
       </c>
       <c r="B20">
         <v>-9</v>
       </c>
-      <c r="M20" t="s">
+      <c r="E20" s="6">
+        <v>43996</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="I20" s="4">
+        <v>-0.34</v>
+      </c>
+      <c r="J20" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
         <v>21</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>15</v>
       </c>
-      <c r="O20" t="s">
-        <v>108</v>
-      </c>
       <c r="P20" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" t="s">
         <v>121</v>
       </c>
-      <c r="Q20" t="s">
-        <v>109</v>
-      </c>
       <c r="R20" t="s">
+        <v>109</v>
+      </c>
+      <c r="S20" t="s">
         <v>121</v>
       </c>
-      <c r="S20" t="s">
-        <v>109</v>
-      </c>
       <c r="T20" t="s">
+        <v>109</v>
+      </c>
+      <c r="U20" t="s">
         <v>16</v>
       </c>
-      <c r="U20" t="s">
-        <v>109</v>
-      </c>
       <c r="V20" t="s">
+        <v>109</v>
+      </c>
+      <c r="W20" t="s">
         <v>17</v>
       </c>
-      <c r="W20" t="s">
-        <v>109</v>
-      </c>
       <c r="X20" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y20" t="s">
         <v>16</v>
       </c>
-      <c r="Y20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="Z20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC20" t="s">
         <v>77</v>
       </c>
-      <c r="AC20" t="s">
-        <v>14</v>
-      </c>
       <c r="AD20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43904</v>
       </c>
       <c r="B21">
         <v>-14</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>22</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>17</v>
       </c>
-      <c r="O21" t="s">
-        <v>109</v>
-      </c>
       <c r="P21" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="Q21" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R21" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="S21" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T21" t="s">
+        <v>107</v>
+      </c>
+      <c r="U21" t="s">
         <v>121</v>
       </c>
-      <c r="U21" t="s">
-        <v>109</v>
-      </c>
       <c r="V21" t="s">
+        <v>109</v>
+      </c>
+      <c r="W21" t="s">
         <v>121</v>
       </c>
-      <c r="W21" t="s">
-        <v>109</v>
-      </c>
       <c r="X21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y21" t="s">
         <v>16</v>
       </c>
-      <c r="Y21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB21" t="s">
+      <c r="Z21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC21" t="s">
         <v>48</v>
       </c>
-      <c r="AC21" t="s">
-        <v>14</v>
-      </c>
       <c r="AD21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43905</v>
       </c>
       <c r="B22">
         <v>-16</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>63</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>15</v>
       </c>
-      <c r="O22" t="s">
-        <v>108</v>
-      </c>
       <c r="P22" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Q22" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R22" t="s">
+        <v>108</v>
+      </c>
+      <c r="S22" t="s">
         <v>121</v>
       </c>
-      <c r="S22" t="s">
-        <v>109</v>
-      </c>
       <c r="T22" t="s">
+        <v>109</v>
+      </c>
+      <c r="U22" t="s">
         <v>15</v>
       </c>
-      <c r="U22" t="s">
-        <v>108</v>
-      </c>
       <c r="V22" t="s">
+        <v>108</v>
+      </c>
+      <c r="W22" t="s">
         <v>121</v>
       </c>
-      <c r="W22" t="s">
-        <v>109</v>
-      </c>
       <c r="X22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y22" t="s">
         <v>16</v>
       </c>
-      <c r="Y22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="Z22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC22" t="s">
         <v>79</v>
       </c>
-      <c r="AC22" t="s">
-        <v>14</v>
-      </c>
       <c r="AD22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43906</v>
       </c>
       <c r="B23">
         <v>-14</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>71</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>16</v>
       </c>
-      <c r="O23" t="s">
-        <v>109</v>
-      </c>
       <c r="P23" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="Q23" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R23" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S23" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T23" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U23" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V23" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W23" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X23" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Y23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC23" t="s">
         <v>78</v>
       </c>
-      <c r="AC23" t="s">
-        <v>14</v>
-      </c>
       <c r="AD23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43907</v>
       </c>
       <c r="B24">
         <v>-17</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>72</v>
       </c>
-      <c r="N24" t="s">
-        <v>13</v>
-      </c>
       <c r="O24" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="P24" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q24" t="s">
         <v>12</v>
       </c>
-      <c r="Q24" t="s">
-        <v>107</v>
-      </c>
       <c r="R24" t="s">
+        <v>107</v>
+      </c>
+      <c r="S24" t="s">
         <v>12</v>
       </c>
-      <c r="S24" t="s">
-        <v>107</v>
-      </c>
       <c r="T24" t="s">
+        <v>107</v>
+      </c>
+      <c r="U24" t="s">
         <v>15</v>
       </c>
-      <c r="U24" t="s">
-        <v>108</v>
-      </c>
       <c r="V24" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W24" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X24" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Y24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC24" t="s">
         <v>42</v>
       </c>
-      <c r="AC24" t="s">
-        <v>14</v>
-      </c>
       <c r="AD24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43908</v>
       </c>
       <c r="B25">
         <v>-26</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>103</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>18</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>110</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>16</v>
       </c>
-      <c r="Q25" t="s">
-        <v>109</v>
-      </c>
       <c r="R25" t="s">
+        <v>109</v>
+      </c>
+      <c r="S25" t="s">
         <v>16</v>
       </c>
-      <c r="S25" t="s">
-        <v>109</v>
-      </c>
       <c r="T25" t="s">
+        <v>109</v>
+      </c>
+      <c r="U25" t="s">
         <v>16</v>
       </c>
-      <c r="U25" t="s">
-        <v>109</v>
-      </c>
       <c r="V25" t="s">
+        <v>109</v>
+      </c>
+      <c r="W25" t="s">
         <v>16</v>
       </c>
-      <c r="W25" t="s">
-        <v>109</v>
-      </c>
       <c r="X25" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y25" t="s">
         <v>121</v>
       </c>
-      <c r="Y25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB25" t="s">
+      <c r="Z25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC25" t="s">
         <v>39</v>
       </c>
-      <c r="AC25" t="s">
-        <v>14</v>
-      </c>
       <c r="AD25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43909</v>
       </c>
       <c r="B26">
         <v>-31</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>23</v>
       </c>
-      <c r="N26" t="s">
-        <v>13</v>
-      </c>
       <c r="O26" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="P26" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Q26" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R26" t="s">
+        <v>107</v>
+      </c>
+      <c r="S26" t="s">
         <v>12</v>
       </c>
-      <c r="S26" t="s">
-        <v>107</v>
-      </c>
       <c r="T26" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="U26" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V26" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="W26" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y26" t="s">
         <v>12</v>
       </c>
-      <c r="Y26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB26" t="s">
+      <c r="Z26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC26" t="s">
         <v>89</v>
       </c>
-      <c r="AC26" t="s">
-        <v>14</v>
-      </c>
       <c r="AD26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43910</v>
       </c>
       <c r="B27">
         <v>-38</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>37</v>
       </c>
-      <c r="N27" t="s">
-        <v>14</v>
-      </c>
       <c r="O27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P27" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Q27" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R27" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="S27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T27" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V27" t="s">
+        <v>108</v>
+      </c>
+      <c r="W27" t="s">
         <v>12</v>
       </c>
-      <c r="W27" t="s">
-        <v>107</v>
-      </c>
       <c r="X27" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y27" t="s">
         <v>12</v>
       </c>
-      <c r="Y27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB27" t="s">
+      <c r="Z27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC27" t="s">
         <v>19</v>
       </c>
-      <c r="AC27" t="s">
-        <v>14</v>
-      </c>
       <c r="AD27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43911</v>
       </c>
       <c r="B28">
         <v>-46</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>24</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>12</v>
       </c>
-      <c r="O28" t="s">
-        <v>107</v>
-      </c>
       <c r="P28" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Q28" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R28" t="s">
+        <v>108</v>
+      </c>
+      <c r="S28" t="s">
         <v>120</v>
       </c>
-      <c r="S28" t="s">
-        <v>108</v>
-      </c>
       <c r="T28" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U28" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V28" t="s">
+        <v>108</v>
+      </c>
+      <c r="W28" t="s">
         <v>15</v>
       </c>
-      <c r="W28" t="s">
-        <v>108</v>
-      </c>
       <c r="X28" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y28" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC28" t="s">
         <v>88</v>
       </c>
-      <c r="AC28" t="s">
-        <v>14</v>
-      </c>
       <c r="AD28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43912</v>
       </c>
       <c r="B29">
         <v>-33</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>38</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>15</v>
       </c>
-      <c r="O29" t="s">
-        <v>108</v>
-      </c>
       <c r="P29" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q29" t="s">
         <v>120</v>
       </c>
-      <c r="Q29" t="s">
-        <v>108</v>
-      </c>
       <c r="R29" t="s">
+        <v>108</v>
+      </c>
+      <c r="S29" t="s">
         <v>120</v>
       </c>
-      <c r="S29" t="s">
-        <v>108</v>
-      </c>
       <c r="T29" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="U29" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V29" t="s">
+        <v>107</v>
+      </c>
+      <c r="W29" t="s">
         <v>15</v>
       </c>
-      <c r="W29" t="s">
-        <v>108</v>
-      </c>
       <c r="X29" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y29" t="s">
         <v>121</v>
       </c>
-      <c r="Y29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB29" t="s">
+      <c r="Z29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC29" t="s">
         <v>40</v>
       </c>
-      <c r="AC29" t="s">
-        <v>14</v>
-      </c>
       <c r="AD29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43913</v>
       </c>
       <c r="B30">
         <v>-30</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>73</v>
       </c>
-      <c r="N30" t="s">
-        <v>14</v>
-      </c>
       <c r="O30" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P30" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Q30" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R30" t="s">
+        <v>107</v>
+      </c>
+      <c r="S30" t="s">
         <v>12</v>
       </c>
-      <c r="S30" t="s">
-        <v>107</v>
-      </c>
       <c r="T30" t="s">
+        <v>107</v>
+      </c>
+      <c r="U30" t="s">
         <v>12</v>
       </c>
-      <c r="U30" t="s">
-        <v>107</v>
-      </c>
       <c r="V30" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W30" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X30" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Y30" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB30" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC30" t="s">
         <v>34</v>
       </c>
-      <c r="AC30" t="s">
-        <v>14</v>
-      </c>
       <c r="AD30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43914</v>
       </c>
       <c r="B31">
         <v>-28</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>97</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>17</v>
       </c>
-      <c r="O31" t="s">
-        <v>109</v>
-      </c>
       <c r="P31" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q31" t="s">
         <v>16</v>
       </c>
-      <c r="Q31" t="s">
-        <v>109</v>
-      </c>
       <c r="R31" t="s">
+        <v>109</v>
+      </c>
+      <c r="S31" t="s">
         <v>17</v>
       </c>
-      <c r="S31" t="s">
-        <v>109</v>
-      </c>
       <c r="T31" t="s">
+        <v>109</v>
+      </c>
+      <c r="U31" t="s">
         <v>17</v>
       </c>
-      <c r="U31" t="s">
-        <v>109</v>
-      </c>
       <c r="V31" t="s">
+        <v>109</v>
+      </c>
+      <c r="W31" t="s">
         <v>17</v>
       </c>
-      <c r="W31" t="s">
-        <v>109</v>
-      </c>
       <c r="X31" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y31" t="s">
         <v>16</v>
       </c>
-      <c r="Y31" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB31" t="s">
+      <c r="Z31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC31" t="s">
         <v>70</v>
       </c>
-      <c r="AC31" t="s">
-        <v>14</v>
-      </c>
       <c r="AD31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43915</v>
       </c>
       <c r="B32">
         <v>-32</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>25</v>
       </c>
-      <c r="N32" t="s">
-        <v>13</v>
-      </c>
       <c r="O32" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="P32" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Q32" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R32" t="s">
+        <v>108</v>
+      </c>
+      <c r="S32" t="s">
         <v>120</v>
       </c>
-      <c r="S32" t="s">
-        <v>108</v>
-      </c>
       <c r="T32" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="U32" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V32" t="s">
+        <v>107</v>
+      </c>
+      <c r="W32" t="s">
         <v>15</v>
       </c>
-      <c r="W32" t="s">
-        <v>108</v>
-      </c>
       <c r="X32" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC32" t="s">
         <v>37</v>
       </c>
-      <c r="AC32" t="s">
-        <v>14</v>
-      </c>
       <c r="AD32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43916</v>
       </c>
       <c r="B33">
         <v>-34</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>74</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>16</v>
       </c>
-      <c r="O33" t="s">
-        <v>109</v>
-      </c>
       <c r="P33" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="Q33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y33" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC33" t="s">
         <v>82</v>
       </c>
-      <c r="AC33" t="s">
-        <v>14</v>
-      </c>
       <c r="AD33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43917</v>
       </c>
       <c r="B34">
         <v>-50</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>39</v>
       </c>
-      <c r="N34" t="s">
-        <v>14</v>
-      </c>
       <c r="O34" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P34" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Q34" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R34" t="s">
+        <v>108</v>
+      </c>
+      <c r="S34" t="s">
         <v>12</v>
       </c>
-      <c r="S34" t="s">
-        <v>107</v>
-      </c>
       <c r="T34" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="U34" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V34" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="W34" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X34" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y34" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB34" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC34" t="s">
         <v>20</v>
       </c>
-      <c r="AC34" t="s">
-        <v>14</v>
-      </c>
       <c r="AD34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43918</v>
       </c>
       <c r="B35">
         <v>-80</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>92</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>16</v>
       </c>
-      <c r="O35" t="s">
-        <v>109</v>
-      </c>
       <c r="P35" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q35" t="s">
         <v>15</v>
       </c>
-      <c r="Q35" t="s">
-        <v>108</v>
-      </c>
       <c r="R35" t="s">
+        <v>108</v>
+      </c>
+      <c r="S35" t="s">
         <v>121</v>
       </c>
-      <c r="S35" t="s">
-        <v>109</v>
-      </c>
       <c r="T35" t="s">
+        <v>109</v>
+      </c>
+      <c r="U35" t="s">
         <v>121</v>
       </c>
-      <c r="U35" t="s">
-        <v>109</v>
-      </c>
       <c r="V35" t="s">
+        <v>109</v>
+      </c>
+      <c r="W35" t="s">
         <v>16</v>
       </c>
-      <c r="W35" t="s">
-        <v>109</v>
-      </c>
       <c r="X35" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y35" t="s">
         <v>121</v>
       </c>
-      <c r="Y35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB35" t="s">
+      <c r="Z35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC35" t="s">
         <v>81</v>
       </c>
-      <c r="AC35" t="s">
-        <v>14</v>
-      </c>
       <c r="AD35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43919</v>
       </c>
       <c r="B36">
         <v>-75</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>75</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>12</v>
       </c>
-      <c r="O36" t="s">
-        <v>107</v>
-      </c>
       <c r="P36" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Q36" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R36" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="S36" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T36" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U36" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V36" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="W36" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X36" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y36" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB36" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC36" t="s">
         <v>86</v>
       </c>
-      <c r="AC36" t="s">
-        <v>14</v>
-      </c>
       <c r="AD36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43920</v>
       </c>
       <c r="B37">
         <v>-45</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>40</v>
       </c>
-      <c r="N37" t="s">
-        <v>14</v>
-      </c>
       <c r="O37" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q37" t="s">
         <v>12</v>
       </c>
-      <c r="Q37" t="s">
-        <v>107</v>
-      </c>
       <c r="R37" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S37" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T37" t="s">
+        <v>107</v>
+      </c>
+      <c r="U37" t="s">
         <v>12</v>
       </c>
-      <c r="U37" t="s">
-        <v>107</v>
-      </c>
       <c r="V37" t="s">
+        <v>107</v>
+      </c>
+      <c r="W37" t="s">
         <v>12</v>
       </c>
-      <c r="W37" t="s">
-        <v>107</v>
-      </c>
       <c r="X37" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y37" t="s">
         <v>12</v>
       </c>
-      <c r="Y37" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB37" t="s">
+      <c r="Z37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC37" t="s">
         <v>64</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AD37" t="s">
         <v>15</v>
       </c>
-      <c r="AD37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43921</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>111</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>16</v>
       </c>
-      <c r="O38" t="s">
-        <v>109</v>
-      </c>
       <c r="P38" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="Q38" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R38" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="S38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB38" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC38" t="s">
         <v>33</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AD38" t="s">
         <v>15</v>
       </c>
-      <c r="AD38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="M39" t="s">
+      <c r="AE38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="N39" t="s">
         <v>19</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>12</v>
       </c>
-      <c r="O39" t="s">
-        <v>107</v>
-      </c>
       <c r="P39" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q39" t="s">
         <v>12</v>
       </c>
-      <c r="Q39" t="s">
-        <v>107</v>
-      </c>
       <c r="R39" t="s">
+        <v>107</v>
+      </c>
+      <c r="S39" t="s">
         <v>12</v>
       </c>
-      <c r="S39" t="s">
-        <v>107</v>
-      </c>
       <c r="T39" t="s">
+        <v>107</v>
+      </c>
+      <c r="U39" t="s">
         <v>12</v>
       </c>
-      <c r="U39" t="s">
-        <v>107</v>
-      </c>
       <c r="V39" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W39" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X39" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y39" t="s">
         <v>12</v>
       </c>
-      <c r="Y39" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB39" t="s">
+      <c r="Z39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC39" t="s">
         <v>73</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AD39" t="s">
         <v>15</v>
       </c>
-      <c r="AD39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="M40" t="s">
+      <c r="AE39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="N40" t="s">
         <v>20</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>10</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>106</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>10</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>106</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>10</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>106</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>12</v>
       </c>
-      <c r="U40" t="s">
-        <v>107</v>
-      </c>
       <c r="V40" t="s">
+        <v>107</v>
+      </c>
+      <c r="W40" t="s">
         <v>12</v>
       </c>
-      <c r="W40" t="s">
-        <v>107</v>
-      </c>
       <c r="X40" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y40" t="s">
         <v>10</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>106</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AC40" t="s">
         <v>53</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AD40" t="s">
         <v>15</v>
       </c>
-      <c r="AD40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="M41" t="s">
+      <c r="AE40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="N41" t="s">
         <v>41</v>
       </c>
-      <c r="N41" t="s">
-        <v>14</v>
-      </c>
       <c r="O41" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P41" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q41" t="s">
         <v>15</v>
       </c>
-      <c r="Q41" t="s">
-        <v>108</v>
-      </c>
       <c r="R41" t="s">
+        <v>108</v>
+      </c>
+      <c r="S41" t="s">
         <v>15</v>
       </c>
-      <c r="S41" t="s">
-        <v>108</v>
-      </c>
       <c r="T41" t="s">
+        <v>108</v>
+      </c>
+      <c r="U41" t="s">
         <v>16</v>
       </c>
-      <c r="U41" t="s">
-        <v>109</v>
-      </c>
       <c r="V41" t="s">
+        <v>109</v>
+      </c>
+      <c r="W41" t="s">
         <v>121</v>
       </c>
-      <c r="W41" t="s">
-        <v>109</v>
-      </c>
       <c r="X41" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y41" t="s">
         <v>16</v>
       </c>
-      <c r="Y41" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB41" t="s">
+      <c r="Z41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC41" t="s">
         <v>43</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AD41" t="s">
         <v>15</v>
       </c>
-      <c r="AD41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="M42" t="s">
+      <c r="AE41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="N42" t="s">
         <v>42</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>16</v>
       </c>
-      <c r="O42" t="s">
-        <v>109</v>
-      </c>
       <c r="P42" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="Q42" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R42" t="s">
+        <v>107</v>
+      </c>
+      <c r="S42" t="s">
         <v>12</v>
       </c>
-      <c r="S42" t="s">
-        <v>107</v>
-      </c>
       <c r="T42" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U42" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V42" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W42" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X42" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y42" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB42" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC42" t="s">
         <v>51</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AD42" t="s">
         <v>15</v>
       </c>
-      <c r="AD42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="M43" t="s">
+      <c r="AE42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="N43" t="s">
         <v>76</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>17</v>
       </c>
-      <c r="O43" t="s">
-        <v>109</v>
-      </c>
       <c r="P43" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q43" t="s">
         <v>121</v>
       </c>
-      <c r="Q43" t="s">
-        <v>109</v>
-      </c>
       <c r="R43" t="s">
+        <v>109</v>
+      </c>
+      <c r="S43" t="s">
         <v>15</v>
       </c>
-      <c r="S43" t="s">
-        <v>108</v>
-      </c>
       <c r="T43" t="s">
+        <v>108</v>
+      </c>
+      <c r="U43" t="s">
         <v>121</v>
       </c>
-      <c r="U43" t="s">
-        <v>109</v>
-      </c>
       <c r="V43" t="s">
+        <v>109</v>
+      </c>
+      <c r="W43" t="s">
         <v>121</v>
       </c>
-      <c r="W43" t="s">
-        <v>109</v>
-      </c>
       <c r="X43" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y43" t="s">
         <v>16</v>
       </c>
-      <c r="Y43" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB43" t="s">
+      <c r="Z43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC43" t="s">
         <v>23</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AD43" t="s">
         <v>120</v>
       </c>
-      <c r="AD43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="M44" t="s">
+      <c r="AE43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="N44" t="s">
         <v>77</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>12</v>
       </c>
-      <c r="O44" t="s">
-        <v>107</v>
-      </c>
       <c r="P44" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q44" t="s">
         <v>12</v>
       </c>
-      <c r="Q44" t="s">
-        <v>107</v>
-      </c>
       <c r="R44" t="s">
+        <v>107</v>
+      </c>
+      <c r="S44" t="s">
         <v>11</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>106</v>
       </c>
-      <c r="T44" t="s">
-        <v>13</v>
-      </c>
       <c r="U44" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V44" t="s">
+        <v>107</v>
+      </c>
+      <c r="W44" t="s">
         <v>12</v>
       </c>
-      <c r="W44" t="s">
-        <v>107</v>
-      </c>
       <c r="X44" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y44" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB44" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC44" t="s">
         <v>22</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AD44" t="s">
         <v>120</v>
       </c>
-      <c r="AD44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="M45" t="s">
+      <c r="AE44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="N45" t="s">
         <v>78</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>12</v>
       </c>
-      <c r="O45" t="s">
-        <v>107</v>
-      </c>
       <c r="P45" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q45" t="s">
         <v>11</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>106</v>
       </c>
-      <c r="R45" t="s">
-        <v>13</v>
-      </c>
       <c r="S45" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T45" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="U45" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V45" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W45" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X45" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB45" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC45" t="s">
         <v>80</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AD45" t="s">
         <v>16</v>
       </c>
-      <c r="AD45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="M46" t="s">
+      <c r="AE45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="N46" t="s">
         <v>26</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>16</v>
       </c>
-      <c r="O46" t="s">
-        <v>109</v>
-      </c>
       <c r="P46" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q46" t="s">
         <v>15</v>
       </c>
-      <c r="Q46" t="s">
-        <v>108</v>
-      </c>
       <c r="R46" t="s">
+        <v>108</v>
+      </c>
+      <c r="S46" t="s">
         <v>15</v>
       </c>
-      <c r="S46" t="s">
-        <v>108</v>
-      </c>
       <c r="T46" t="s">
+        <v>108</v>
+      </c>
+      <c r="U46" t="s">
         <v>121</v>
       </c>
-      <c r="U46" t="s">
-        <v>109</v>
-      </c>
       <c r="V46" t="s">
+        <v>109</v>
+      </c>
+      <c r="W46" t="s">
         <v>121</v>
       </c>
-      <c r="W46" t="s">
-        <v>109</v>
-      </c>
       <c r="X46" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="Y46" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB46" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC46" t="s">
         <v>90</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AD46" t="s">
         <v>16</v>
       </c>
-      <c r="AD46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="M47" t="s">
+      <c r="AE46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="N47" t="s">
         <v>93</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>17</v>
       </c>
-      <c r="O47" t="s">
-        <v>109</v>
-      </c>
       <c r="P47" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q47" t="s">
         <v>121</v>
       </c>
-      <c r="Q47" t="s">
-        <v>109</v>
-      </c>
       <c r="R47" t="s">
+        <v>109</v>
+      </c>
+      <c r="S47" t="s">
         <v>121</v>
       </c>
-      <c r="S47" t="s">
-        <v>109</v>
-      </c>
       <c r="T47" t="s">
+        <v>109</v>
+      </c>
+      <c r="U47" t="s">
         <v>121</v>
       </c>
-      <c r="U47" t="s">
-        <v>109</v>
-      </c>
       <c r="V47" t="s">
+        <v>109</v>
+      </c>
+      <c r="W47" t="s">
         <v>16</v>
       </c>
-      <c r="W47" t="s">
-        <v>109</v>
-      </c>
       <c r="X47" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y47" t="s">
         <v>121</v>
       </c>
-      <c r="Y47" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB47" t="s">
+      <c r="Z47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC47" t="s">
         <v>26</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AD47" t="s">
         <v>16</v>
       </c>
-      <c r="AD47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="M48" t="s">
+      <c r="AE47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="N48" t="s">
         <v>43</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>16</v>
       </c>
-      <c r="O48" t="s">
-        <v>109</v>
-      </c>
       <c r="P48" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q48" t="s">
         <v>12</v>
       </c>
-      <c r="Q48" t="s">
-        <v>107</v>
-      </c>
       <c r="R48" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S48" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T48" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U48" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V48" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W48" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X48" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Y48" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC48" t="s">
         <v>58</v>
       </c>
-      <c r="AC48" t="s">
+      <c r="AD48" t="s">
         <v>16</v>
       </c>
-      <c r="AD48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M49" t="s">
+      <c r="AE48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N49" t="s">
         <v>98</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>17</v>
       </c>
-      <c r="O49" t="s">
-        <v>109</v>
-      </c>
       <c r="P49" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q49" t="s">
         <v>121</v>
       </c>
-      <c r="Q49" t="s">
-        <v>109</v>
-      </c>
       <c r="R49" t="s">
+        <v>109</v>
+      </c>
+      <c r="S49" t="s">
         <v>15</v>
       </c>
-      <c r="S49" t="s">
-        <v>108</v>
-      </c>
       <c r="T49" t="s">
+        <v>108</v>
+      </c>
+      <c r="U49" t="s">
         <v>121</v>
       </c>
-      <c r="U49" t="s">
-        <v>109</v>
-      </c>
       <c r="V49" t="s">
+        <v>109</v>
+      </c>
+      <c r="W49" t="s">
         <v>16</v>
       </c>
-      <c r="W49" t="s">
-        <v>109</v>
-      </c>
       <c r="X49" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y49" t="s">
         <v>121</v>
       </c>
-      <c r="Y49" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB49" t="s">
+      <c r="Z49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC49" t="s">
         <v>44</v>
       </c>
-      <c r="AC49" t="s">
+      <c r="AD49" t="s">
         <v>16</v>
       </c>
-      <c r="AD49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M50" t="s">
+      <c r="AE49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N50" t="s">
         <v>99</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>17</v>
       </c>
-      <c r="O50" t="s">
-        <v>109</v>
-      </c>
       <c r="P50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q50" t="s">
         <v>15</v>
       </c>
-      <c r="Q50" t="s">
-        <v>108</v>
-      </c>
       <c r="R50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S50" t="s">
         <v>15</v>
       </c>
-      <c r="S50" t="s">
-        <v>108</v>
-      </c>
       <c r="T50" t="s">
+        <v>108</v>
+      </c>
+      <c r="U50" t="s">
         <v>15</v>
       </c>
-      <c r="U50" t="s">
-        <v>108</v>
-      </c>
       <c r="V50" t="s">
+        <v>108</v>
+      </c>
+      <c r="W50" t="s">
         <v>121</v>
       </c>
-      <c r="W50" t="s">
-        <v>109</v>
-      </c>
       <c r="X50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y50" t="s">
         <v>15</v>
       </c>
-      <c r="Y50" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB50" t="s">
+      <c r="Z50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC50" t="s">
         <v>25</v>
       </c>
-      <c r="AC50" t="s">
+      <c r="AD50" t="s">
         <v>16</v>
       </c>
-      <c r="AD50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M51" t="s">
+      <c r="AE50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N51" t="s">
         <v>44</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>17</v>
       </c>
-      <c r="O51" t="s">
-        <v>109</v>
-      </c>
       <c r="P51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q51" t="s">
         <v>121</v>
       </c>
-      <c r="Q51" t="s">
-        <v>109</v>
-      </c>
       <c r="R51" t="s">
+        <v>109</v>
+      </c>
+      <c r="S51" t="s">
         <v>15</v>
       </c>
-      <c r="S51" t="s">
-        <v>108</v>
-      </c>
       <c r="T51" t="s">
+        <v>108</v>
+      </c>
+      <c r="U51" t="s">
         <v>16</v>
       </c>
-      <c r="U51" t="s">
-        <v>109</v>
-      </c>
       <c r="V51" t="s">
+        <v>109</v>
+      </c>
+      <c r="W51" t="s">
         <v>16</v>
       </c>
-      <c r="W51" t="s">
-        <v>109</v>
-      </c>
       <c r="X51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y51" t="s">
         <v>121</v>
       </c>
-      <c r="Y51" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB51" t="s">
+      <c r="Z51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC51" t="s">
         <v>72</v>
       </c>
-      <c r="AC51" t="s">
+      <c r="AD51" t="s">
         <v>16</v>
       </c>
-      <c r="AD51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M52" t="s">
+      <c r="AE51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N52" t="s">
         <v>79</v>
       </c>
-      <c r="N52" t="s">
-        <v>14</v>
-      </c>
       <c r="O52" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P52" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q52" t="s">
         <v>12</v>
       </c>
-      <c r="Q52" t="s">
-        <v>107</v>
-      </c>
       <c r="R52" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S52" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T52" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="U52" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V52" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W52" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X52" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Y52" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB52" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC52" t="s">
         <v>68</v>
       </c>
-      <c r="AC52" t="s">
+      <c r="AD52" t="s">
         <v>16</v>
       </c>
-      <c r="AD52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M53" t="s">
+      <c r="AE52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N53" t="s">
         <v>27</v>
       </c>
-      <c r="N53" t="s">
-        <v>14</v>
-      </c>
       <c r="O53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P53" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Q53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R53" t="s">
+        <v>108</v>
+      </c>
+      <c r="S53" t="s">
         <v>12</v>
       </c>
-      <c r="S53" t="s">
-        <v>107</v>
-      </c>
       <c r="T53" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V53" t="s">
+        <v>108</v>
+      </c>
+      <c r="W53" t="s">
         <v>121</v>
       </c>
-      <c r="W53" t="s">
-        <v>109</v>
-      </c>
       <c r="X53" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y53" t="s">
         <v>120</v>
       </c>
-      <c r="Y53" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB53" t="s">
+      <c r="Z53" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC53" t="s">
         <v>100</v>
       </c>
-      <c r="AC53" t="s">
+      <c r="AD53" t="s">
         <v>16</v>
       </c>
-      <c r="AD53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M54" t="s">
+      <c r="AE53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N54" t="s">
         <v>80</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>18</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>110</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>15</v>
       </c>
-      <c r="Q54" t="s">
-        <v>108</v>
-      </c>
       <c r="R54" t="s">
+        <v>108</v>
+      </c>
+      <c r="S54" t="s">
         <v>15</v>
       </c>
-      <c r="S54" t="s">
-        <v>108</v>
-      </c>
       <c r="T54" t="s">
+        <v>108</v>
+      </c>
+      <c r="U54" t="s">
         <v>120</v>
       </c>
-      <c r="U54" t="s">
-        <v>108</v>
-      </c>
       <c r="V54" t="s">
+        <v>108</v>
+      </c>
+      <c r="W54" t="s">
         <v>121</v>
       </c>
-      <c r="W54" t="s">
-        <v>109</v>
-      </c>
       <c r="X54" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="Y54" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB54" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC54" t="s">
         <v>102</v>
       </c>
-      <c r="AC54" t="s">
+      <c r="AD54" t="s">
         <v>16</v>
       </c>
-      <c r="AD54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M55" t="s">
+      <c r="AE54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N55" t="s">
         <v>45</v>
       </c>
-      <c r="N55" t="s">
-        <v>14</v>
-      </c>
       <c r="O55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P55" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q55" t="s">
         <v>12</v>
       </c>
-      <c r="Q55" t="s">
-        <v>107</v>
-      </c>
       <c r="R55" t="s">
+        <v>107</v>
+      </c>
+      <c r="S55" t="s">
         <v>11</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>106</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>12</v>
       </c>
-      <c r="U55" t="s">
-        <v>107</v>
-      </c>
       <c r="V55" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="W55" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X55" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y55" t="s">
         <v>12</v>
       </c>
-      <c r="Y55" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB55" t="s">
+      <c r="Z55" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC55" t="s">
         <v>32</v>
       </c>
-      <c r="AC55" t="s">
+      <c r="AD55" t="s">
         <v>16</v>
       </c>
-      <c r="AD55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M56" t="s">
+      <c r="AE55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N56" t="s">
         <v>28</v>
       </c>
-      <c r="N56" t="s">
-        <v>14</v>
-      </c>
       <c r="O56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P56" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Q56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R56" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T56" t="s">
+        <v>108</v>
+      </c>
+      <c r="U56" t="s">
         <v>121</v>
       </c>
-      <c r="U56" t="s">
-        <v>109</v>
-      </c>
       <c r="V56" t="s">
+        <v>109</v>
+      </c>
+      <c r="W56" t="s">
         <v>18</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>110</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>16</v>
       </c>
-      <c r="Y56" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB56" t="s">
+      <c r="Z56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC56" t="s">
         <v>101</v>
       </c>
-      <c r="AC56" t="s">
+      <c r="AD56" t="s">
         <v>16</v>
       </c>
-      <c r="AD56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M57" t="s">
+      <c r="AE56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N57" t="s">
         <v>100</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>17</v>
       </c>
-      <c r="O57" t="s">
-        <v>109</v>
-      </c>
       <c r="P57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q57" t="s">
         <v>15</v>
       </c>
-      <c r="Q57" t="s">
-        <v>108</v>
-      </c>
       <c r="R57" t="s">
+        <v>108</v>
+      </c>
+      <c r="S57" t="s">
         <v>15</v>
       </c>
-      <c r="S57" t="s">
-        <v>108</v>
-      </c>
       <c r="T57" t="s">
+        <v>108</v>
+      </c>
+      <c r="U57" t="s">
         <v>15</v>
       </c>
-      <c r="U57" t="s">
-        <v>108</v>
-      </c>
       <c r="V57" t="s">
+        <v>108</v>
+      </c>
+      <c r="W57" t="s">
         <v>121</v>
       </c>
-      <c r="W57" t="s">
-        <v>109</v>
-      </c>
       <c r="X57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y57" t="s">
         <v>15</v>
       </c>
-      <c r="Y57" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB57" t="s">
+      <c r="Z57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC57" t="s">
         <v>99</v>
       </c>
-      <c r="AC57" t="s">
+      <c r="AD57" t="s">
         <v>16</v>
       </c>
-      <c r="AD57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M58" t="s">
+      <c r="AE57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N58" t="s">
         <v>101</v>
       </c>
-      <c r="N58" t="s">
-        <v>14</v>
-      </c>
       <c r="O58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P58" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Q58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R58" t="s">
+        <v>108</v>
+      </c>
+      <c r="S58" t="s">
         <v>120</v>
       </c>
-      <c r="S58" t="s">
-        <v>108</v>
-      </c>
       <c r="T58" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V58" t="s">
+        <v>108</v>
+      </c>
+      <c r="W58" t="s">
         <v>121</v>
       </c>
-      <c r="W58" t="s">
-        <v>109</v>
-      </c>
       <c r="X58" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y58" t="s">
         <v>15</v>
       </c>
-      <c r="Y58" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB58" t="s">
+      <c r="Z58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC58" t="s">
         <v>103</v>
       </c>
-      <c r="AC58" t="s">
+      <c r="AD58" t="s">
         <v>17</v>
       </c>
-      <c r="AD58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M59" t="s">
+      <c r="AE58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N59" t="s">
         <v>64</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>16</v>
       </c>
-      <c r="O59" t="s">
-        <v>109</v>
-      </c>
       <c r="P59" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q59" t="s">
         <v>15</v>
       </c>
-      <c r="Q59" t="s">
-        <v>108</v>
-      </c>
       <c r="R59" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S59" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T59" t="s">
+        <v>108</v>
+      </c>
+      <c r="U59" t="s">
         <v>15</v>
       </c>
-      <c r="U59" t="s">
-        <v>108</v>
-      </c>
       <c r="V59" t="s">
+        <v>108</v>
+      </c>
+      <c r="W59" t="s">
         <v>15</v>
       </c>
-      <c r="W59" t="s">
-        <v>108</v>
-      </c>
       <c r="X59" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y59" t="s">
         <v>15</v>
       </c>
-      <c r="Y59" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB59" t="s">
+      <c r="Z59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC59" t="s">
         <v>76</v>
       </c>
-      <c r="AC59" t="s">
+      <c r="AD59" t="s">
         <v>17</v>
       </c>
-      <c r="AD59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M60" t="s">
+      <c r="AE59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N60" t="s">
         <v>81</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>16</v>
       </c>
-      <c r="O60" t="s">
-        <v>109</v>
-      </c>
       <c r="P60" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="Q60" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R60" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S60" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T60" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="U60" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V60" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="W60" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X60" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y60" t="s">
         <v>12</v>
       </c>
-      <c r="Y60" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB60" t="s">
+      <c r="Z60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC60" t="s">
         <v>98</v>
       </c>
-      <c r="AC60" t="s">
+      <c r="AD60" t="s">
         <v>17</v>
       </c>
-      <c r="AD60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M61" t="s">
+      <c r="AE60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N61" t="s">
         <v>65</v>
       </c>
-      <c r="N61" t="s">
-        <v>13</v>
-      </c>
       <c r="O61" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="P61" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Q61" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R61" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S61" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T61" t="s">
+        <v>108</v>
+      </c>
+      <c r="U61" t="s">
         <v>15</v>
       </c>
-      <c r="U61" t="s">
-        <v>108</v>
-      </c>
       <c r="V61" t="s">
+        <v>108</v>
+      </c>
+      <c r="W61" t="s">
         <v>121</v>
       </c>
-      <c r="W61" t="s">
-        <v>109</v>
-      </c>
       <c r="X61" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y61" t="s">
         <v>15</v>
       </c>
-      <c r="Y61" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB61" t="s">
+      <c r="Z61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC61" t="s">
         <v>30</v>
       </c>
-      <c r="AC61" t="s">
+      <c r="AD61" t="s">
         <v>121</v>
       </c>
-      <c r="AD61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M62" t="s">
+      <c r="AE61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N62" t="s">
         <v>82</v>
       </c>
-      <c r="N62" t="s">
-        <v>14</v>
-      </c>
       <c r="O62" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P62" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Q62" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R62" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S62" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T62" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="U62" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V62" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="W62" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X62" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB62" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC62" t="s">
         <v>27</v>
       </c>
-      <c r="AC62" t="s">
+      <c r="AD62" t="s">
         <v>121</v>
       </c>
-      <c r="AD62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M63" t="s">
+      <c r="AE62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N63" t="s">
         <v>29</v>
       </c>
-      <c r="N63" t="s">
-        <v>13</v>
-      </c>
       <c r="O63" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="P63" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Q63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R63" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T63" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V63" t="s">
+        <v>108</v>
+      </c>
+      <c r="W63" t="s">
         <v>121</v>
       </c>
-      <c r="W63" t="s">
-        <v>109</v>
-      </c>
       <c r="X63" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="Y63" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB63" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC63" t="s">
         <v>65</v>
       </c>
-      <c r="AC63" t="s">
+      <c r="AD63" t="s">
         <v>121</v>
       </c>
-      <c r="AD63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M64" t="s">
+      <c r="AE63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N64" t="s">
         <v>46</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>10</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>106</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>12</v>
       </c>
-      <c r="Q64" t="s">
-        <v>107</v>
-      </c>
       <c r="R64" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S64" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T64" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U64" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V64" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="W64" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X64" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y64" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB64" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC64" t="s">
         <v>24</v>
       </c>
-      <c r="AC64" t="s">
+      <c r="AD64" t="s">
         <v>121</v>
       </c>
-      <c r="AD64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M65" t="s">
+      <c r="AE64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N65" t="s">
         <v>47</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>16</v>
       </c>
-      <c r="O65" t="s">
-        <v>109</v>
-      </c>
       <c r="P65" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q65" t="s">
         <v>12</v>
       </c>
-      <c r="Q65" t="s">
-        <v>107</v>
-      </c>
       <c r="R65" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S65" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T65" t="s">
+        <v>107</v>
+      </c>
+      <c r="U65" t="s">
         <v>12</v>
       </c>
-      <c r="U65" t="s">
-        <v>107</v>
-      </c>
       <c r="V65" t="s">
+        <v>107</v>
+      </c>
+      <c r="W65" t="s">
         <v>12</v>
       </c>
-      <c r="W65" t="s">
-        <v>107</v>
-      </c>
       <c r="X65" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y65" t="s">
         <v>12</v>
       </c>
-      <c r="Y65" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB65" t="s">
+      <c r="Z65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC65" t="s">
         <v>96</v>
       </c>
-      <c r="AC65" t="s">
+      <c r="AD65" t="s">
         <v>121</v>
       </c>
-      <c r="AD65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M66" t="s">
+      <c r="AE65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N66" t="s">
         <v>48</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>16</v>
       </c>
-      <c r="O66" t="s">
-        <v>109</v>
-      </c>
       <c r="P66" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="Q66" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R66" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="S66" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T66" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U66" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V66" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="W66" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X66" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y66" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB66" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC66" t="s">
         <v>94</v>
       </c>
-      <c r="AC66" t="s">
+      <c r="AD66" t="s">
         <v>121</v>
       </c>
-      <c r="AD66" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M67" t="s">
+      <c r="AE66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N67" t="s">
         <v>83</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>17</v>
       </c>
-      <c r="O67" t="s">
-        <v>109</v>
-      </c>
       <c r="P67" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q67" t="s">
         <v>121</v>
       </c>
-      <c r="Q67" t="s">
-        <v>109</v>
-      </c>
       <c r="R67" t="s">
+        <v>109</v>
+      </c>
+      <c r="S67" t="s">
         <v>16</v>
       </c>
-      <c r="S67" t="s">
-        <v>109</v>
-      </c>
       <c r="T67" t="s">
+        <v>109</v>
+      </c>
+      <c r="U67" t="s">
         <v>17</v>
       </c>
-      <c r="U67" t="s">
-        <v>109</v>
-      </c>
       <c r="V67" t="s">
+        <v>109</v>
+      </c>
+      <c r="W67" t="s">
         <v>18</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>110</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>17</v>
       </c>
-      <c r="Y67" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB67" t="s">
+      <c r="Z67" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC67" t="s">
         <v>41</v>
       </c>
-      <c r="AC67" t="s">
+      <c r="AD67" t="s">
         <v>18</v>
       </c>
-      <c r="AD67" t="s">
+      <c r="AE67" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M68" t="s">
+    <row r="68" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N68" t="s">
         <v>84</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>16</v>
       </c>
-      <c r="O68" t="s">
-        <v>109</v>
-      </c>
       <c r="P68" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="Q68" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R68" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S68" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T68" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="U68" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V68" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W68" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X68" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Y68" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB68" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC68" t="s">
         <v>66</v>
       </c>
-      <c r="AC68" t="s">
+      <c r="AD68" t="s">
         <v>18</v>
       </c>
-      <c r="AD68" t="s">
+      <c r="AE68" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M69" t="s">
+    <row r="69" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N69" t="s">
         <v>94</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>15</v>
       </c>
-      <c r="O69" t="s">
-        <v>108</v>
-      </c>
       <c r="P69" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Q69" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R69" t="s">
+        <v>108</v>
+      </c>
+      <c r="S69" t="s">
         <v>15</v>
       </c>
-      <c r="S69" t="s">
-        <v>108</v>
-      </c>
       <c r="T69" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U69" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V69" t="s">
+        <v>108</v>
+      </c>
+      <c r="W69" t="s">
         <v>15</v>
       </c>
-      <c r="W69" t="s">
-        <v>108</v>
-      </c>
       <c r="X69" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y69" t="s">
         <v>15</v>
       </c>
-      <c r="Y69" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB69" t="s">
+      <c r="Z69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC69" t="s">
         <v>50</v>
       </c>
-      <c r="AC69" t="s">
+      <c r="AD69" t="s">
         <v>18</v>
       </c>
-      <c r="AD69" t="s">
+      <c r="AE69" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M70" t="s">
+    <row r="70" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N70" t="s">
         <v>31</v>
       </c>
-      <c r="N70" t="s">
-        <v>14</v>
-      </c>
       <c r="O70" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q70" t="s">
         <v>121</v>
       </c>
-      <c r="Q70" t="s">
-        <v>109</v>
-      </c>
       <c r="R70" t="s">
+        <v>109</v>
+      </c>
+      <c r="S70" t="s">
         <v>121</v>
       </c>
-      <c r="S70" t="s">
-        <v>109</v>
-      </c>
       <c r="T70" t="s">
+        <v>109</v>
+      </c>
+      <c r="U70" t="s">
         <v>16</v>
       </c>
-      <c r="U70" t="s">
-        <v>109</v>
-      </c>
       <c r="V70" t="s">
+        <v>109</v>
+      </c>
+      <c r="W70" t="s">
         <v>18</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>110</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>121</v>
       </c>
-      <c r="Y70" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB70" t="s">
+      <c r="Z70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC70" t="s">
         <v>61</v>
       </c>
-      <c r="AC70" t="s">
+      <c r="AD70" t="s">
         <v>18</v>
       </c>
-      <c r="AD70" t="s">
+      <c r="AE70" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M71" t="s">
+    <row r="71" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N71" t="s">
         <v>95</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>16</v>
       </c>
-      <c r="O71" t="s">
-        <v>109</v>
-      </c>
       <c r="P71" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q71" t="s">
         <v>17</v>
       </c>
-      <c r="Q71" t="s">
-        <v>109</v>
-      </c>
       <c r="R71" t="s">
+        <v>109</v>
+      </c>
+      <c r="S71" t="s">
         <v>18</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>110</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>18</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>110</v>
       </c>
-      <c r="V71" t="s">
+      <c r="W71" t="s">
         <v>18</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>110</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>17</v>
       </c>
-      <c r="Y71" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB71" t="s">
+      <c r="Z71" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC71" t="s">
         <v>28</v>
       </c>
-      <c r="AC71" t="s">
+      <c r="AD71" t="s">
         <v>18</v>
       </c>
-      <c r="AD71" t="s">
+      <c r="AE71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M72" t="s">
+    <row r="72" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N72" t="s">
         <v>49</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>16</v>
       </c>
-      <c r="O72" t="s">
-        <v>109</v>
-      </c>
       <c r="P72" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="Q72" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R72" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S72" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T72" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="U72" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V72" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="W72" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X72" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y72" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB72" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC72" t="s">
         <v>67</v>
       </c>
-      <c r="AC72" t="s">
+      <c r="AD72" t="s">
         <v>18</v>
       </c>
-      <c r="AD72" t="s">
+      <c r="AE72" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M73" t="s">
+    <row r="73" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N73" t="s">
         <v>30</v>
       </c>
-      <c r="N73" t="s">
-        <v>13</v>
-      </c>
       <c r="O73" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="P73" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Q73" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R73" t="s">
+        <v>107</v>
+      </c>
+      <c r="S73" t="s">
         <v>126</v>
       </c>
-      <c r="S73" t="s">
-        <v>107</v>
-      </c>
       <c r="T73" t="s">
+        <v>107</v>
+      </c>
+      <c r="U73" t="s">
         <v>120</v>
       </c>
-      <c r="U73" t="s">
-        <v>108</v>
-      </c>
       <c r="V73" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W73" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X73" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y73" t="s">
         <v>126</v>
       </c>
-      <c r="Y73" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB73" t="s">
+      <c r="Z73" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC73" t="s">
         <v>62</v>
       </c>
-      <c r="AC73" t="s">
+      <c r="AD73" t="s">
         <v>18</v>
       </c>
-      <c r="AD73" t="s">
+      <c r="AE73" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M74" t="s">
+    <row r="74" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N74" t="s">
         <v>50</v>
       </c>
-      <c r="N74" t="s">
-        <v>14</v>
-      </c>
       <c r="O74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P74" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Q74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R74" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T74" t="s">
+        <v>108</v>
+      </c>
+      <c r="U74" t="s">
         <v>16</v>
       </c>
-      <c r="U74" t="s">
-        <v>109</v>
-      </c>
       <c r="V74" t="s">
+        <v>109</v>
+      </c>
+      <c r="W74" t="s">
         <v>17</v>
       </c>
-      <c r="W74" t="s">
-        <v>109</v>
-      </c>
       <c r="X74" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y74" t="s">
         <v>121</v>
       </c>
-      <c r="Y74" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB74" t="s">
+      <c r="Z74" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC74" t="s">
         <v>35</v>
       </c>
-      <c r="AC74" t="s">
+      <c r="AD74" t="s">
         <v>18</v>
       </c>
-      <c r="AD74" t="s">
+      <c r="AE74" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M75" t="s">
+    <row r="75" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N75" t="s">
         <v>66</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>16</v>
       </c>
-      <c r="O75" t="s">
-        <v>109</v>
-      </c>
       <c r="P75" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q75" t="s">
         <v>16</v>
       </c>
-      <c r="Q75" t="s">
-        <v>109</v>
-      </c>
       <c r="R75" t="s">
+        <v>109</v>
+      </c>
+      <c r="S75" t="s">
         <v>16</v>
       </c>
-      <c r="S75" t="s">
-        <v>109</v>
-      </c>
       <c r="T75" t="s">
+        <v>109</v>
+      </c>
+      <c r="U75" t="s">
         <v>17</v>
       </c>
-      <c r="U75" t="s">
-        <v>109</v>
-      </c>
       <c r="V75" t="s">
+        <v>109</v>
+      </c>
+      <c r="W75" t="s">
         <v>18</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>110</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>18</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>110</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AC75" t="s">
         <v>54</v>
       </c>
-      <c r="AC75" t="s">
+      <c r="AD75" t="s">
         <v>18</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AE75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M76" t="s">
+    <row r="76" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N76" t="s">
         <v>85</v>
       </c>
-      <c r="N76" t="s">
-        <v>14</v>
-      </c>
       <c r="O76" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P76" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q76" t="s">
         <v>12</v>
       </c>
-      <c r="Q76" t="s">
-        <v>107</v>
-      </c>
       <c r="R76" t="s">
+        <v>107</v>
+      </c>
+      <c r="S76" t="s">
         <v>12</v>
       </c>
-      <c r="S76" t="s">
-        <v>107</v>
-      </c>
       <c r="T76" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="U76" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V76" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="W76" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X76" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y76" t="s">
         <v>12</v>
       </c>
-      <c r="Y76" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB76" t="s">
+      <c r="Z76" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC76" t="s">
         <v>21</v>
       </c>
-      <c r="AC76" t="s">
+      <c r="AD76" t="s">
         <v>18</v>
       </c>
-      <c r="AD76" t="s">
+      <c r="AE76" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M77" t="s">
+    <row r="77" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N77" t="s">
         <v>86</v>
       </c>
-      <c r="N77" t="s">
-        <v>14</v>
-      </c>
       <c r="O77" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="P77" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q77" t="s">
         <v>12</v>
       </c>
-      <c r="Q77" t="s">
-        <v>107</v>
-      </c>
       <c r="R77" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S77" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T77" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="U77" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V77" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="W77" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X77" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y77" t="s">
         <v>12</v>
       </c>
-      <c r="Y77" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB77" t="s">
+      <c r="Z77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC77" t="s">
         <v>83</v>
       </c>
-      <c r="AC77" t="s">
+      <c r="AD77" t="s">
         <v>18</v>
       </c>
-      <c r="AD77" t="s">
+      <c r="AE77" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M78" t="s">
+    <row r="78" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N78" t="s">
         <v>87</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>16</v>
       </c>
-      <c r="O78" t="s">
-        <v>109</v>
-      </c>
       <c r="P78" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="Q78" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R78" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S78" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T78" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="U78" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V78" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="W78" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X78" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y78" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB78" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC78" t="s">
         <v>29</v>
       </c>
-      <c r="AC78" t="s">
+      <c r="AD78" t="s">
         <v>18</v>
       </c>
-      <c r="AD78" t="s">
+      <c r="AE78" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M79" t="s">
+    <row r="79" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N79" t="s">
         <v>104</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>12</v>
       </c>
-      <c r="O79" t="s">
-        <v>107</v>
-      </c>
       <c r="P79" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Q79" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R79" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="S79" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T79" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="U79" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V79" t="s">
+        <v>107</v>
+      </c>
+      <c r="W79" t="s">
         <v>12</v>
       </c>
-      <c r="W79" t="s">
-        <v>107</v>
-      </c>
       <c r="X79" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y79" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB79" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC79" t="s">
         <v>57</v>
       </c>
-      <c r="AC79" t="s">
+      <c r="AD79" t="s">
         <v>18</v>
       </c>
-      <c r="AD79" t="s">
+      <c r="AE79" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M80" t="s">
+    <row r="80" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N80" t="s">
         <v>51</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>16</v>
       </c>
-      <c r="O80" t="s">
-        <v>109</v>
-      </c>
       <c r="P80" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="Q80" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R80" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S80" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T80" t="s">
+        <v>107</v>
+      </c>
+      <c r="U80" t="s">
         <v>12</v>
       </c>
-      <c r="U80" t="s">
-        <v>107</v>
-      </c>
       <c r="V80" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="W80" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X80" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y80" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB80" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC80" t="s">
         <v>63</v>
       </c>
-      <c r="AC80" t="s">
+      <c r="AD80" t="s">
         <v>18</v>
       </c>
-      <c r="AD80" t="s">
+      <c r="AE80" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M81" t="s">
+    <row r="81" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N81" t="s">
         <v>52</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>16</v>
       </c>
-      <c r="O81" t="s">
-        <v>109</v>
-      </c>
       <c r="P81" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q81" t="s">
         <v>12</v>
       </c>
-      <c r="Q81" t="s">
-        <v>107</v>
-      </c>
       <c r="R81" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S81" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T81" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U81" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V81" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="W81" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X81" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y81" t="s">
         <v>12</v>
       </c>
-      <c r="Y81" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB81" t="s">
+      <c r="Z81" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC81" t="s">
         <v>55</v>
       </c>
-      <c r="AC81" t="s">
+      <c r="AD81" t="s">
         <v>18</v>
       </c>
-      <c r="AD81" t="s">
+      <c r="AE81" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M82" t="s">
+    <row r="82" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N82" t="s">
         <v>53</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>16</v>
       </c>
-      <c r="O82" t="s">
-        <v>109</v>
-      </c>
       <c r="P82" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="Q82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R82" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="S82" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T82" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V82" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X82" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="Y82" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB82" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC82" t="s">
         <v>31</v>
       </c>
-      <c r="AC82" t="s">
+      <c r="AD82" t="s">
         <v>18</v>
       </c>
-      <c r="AD82" t="s">
+      <c r="AE82" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M83" t="s">
+    <row r="83" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N83" t="s">
         <v>54</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>15</v>
       </c>
-      <c r="O83" t="s">
-        <v>108</v>
-      </c>
       <c r="P83" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q83" t="s">
         <v>16</v>
       </c>
-      <c r="Q83" t="s">
-        <v>109</v>
-      </c>
       <c r="R83" t="s">
+        <v>109</v>
+      </c>
+      <c r="S83" t="s">
         <v>16</v>
       </c>
-      <c r="S83" t="s">
-        <v>109</v>
-      </c>
       <c r="T83" t="s">
+        <v>109</v>
+      </c>
+      <c r="U83" t="s">
         <v>16</v>
       </c>
-      <c r="U83" t="s">
-        <v>109</v>
-      </c>
       <c r="V83" t="s">
+        <v>109</v>
+      </c>
+      <c r="W83" t="s">
         <v>17</v>
       </c>
-      <c r="W83" t="s">
-        <v>109</v>
-      </c>
       <c r="X83" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y83" t="s">
         <v>16</v>
       </c>
-      <c r="Y83" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB83" t="s">
+      <c r="Z83" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC83" t="s">
         <v>92</v>
       </c>
-      <c r="AC83" t="s">
+      <c r="AD83" t="s">
         <v>18</v>
       </c>
-      <c r="AD83" t="s">
+      <c r="AE83" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M84" t="s">
+    <row r="84" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N84" t="s">
         <v>96</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>17</v>
       </c>
-      <c r="O84" t="s">
-        <v>109</v>
-      </c>
       <c r="P84" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q84" t="s">
         <v>15</v>
       </c>
-      <c r="Q84" t="s">
-        <v>108</v>
-      </c>
       <c r="R84" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S84" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T84" t="s">
+        <v>108</v>
+      </c>
+      <c r="U84" t="s">
         <v>121</v>
       </c>
-      <c r="U84" t="s">
-        <v>109</v>
-      </c>
       <c r="V84" t="s">
+        <v>109</v>
+      </c>
+      <c r="W84" t="s">
         <v>121</v>
       </c>
-      <c r="W84" t="s">
-        <v>109</v>
-      </c>
       <c r="X84" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y84" t="s">
         <v>15</v>
       </c>
-      <c r="Y84" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB84" t="s">
+      <c r="Z84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC84" t="s">
         <v>91</v>
       </c>
-      <c r="AC84" t="s">
+      <c r="AD84" t="s">
         <v>18</v>
       </c>
-      <c r="AD84" t="s">
+      <c r="AE84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M85" t="s">
+    <row r="85" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N85" t="s">
         <v>88</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>16</v>
       </c>
-      <c r="O85" t="s">
-        <v>109</v>
-      </c>
       <c r="P85" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="Q85" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R85" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="S85" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T85" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U85" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V85" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="W85" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X85" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y85" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB85" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC85" t="s">
         <v>59</v>
       </c>
-      <c r="AC85" t="s">
+      <c r="AD85" t="s">
         <v>18</v>
       </c>
-      <c r="AD85" t="s">
+      <c r="AE85" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M86" t="s">
+    <row r="86" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N86" t="s">
         <v>67</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>15</v>
       </c>
-      <c r="O86" t="s">
-        <v>108</v>
-      </c>
       <c r="P86" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q86" t="s">
         <v>120</v>
       </c>
-      <c r="Q86" t="s">
-        <v>108</v>
-      </c>
       <c r="R86" t="s">
+        <v>108</v>
+      </c>
+      <c r="S86" t="s">
         <v>15</v>
       </c>
-      <c r="S86" t="s">
-        <v>108</v>
-      </c>
       <c r="T86" t="s">
+        <v>108</v>
+      </c>
+      <c r="U86" t="s">
         <v>15</v>
       </c>
-      <c r="U86" t="s">
-        <v>108</v>
-      </c>
       <c r="V86" t="s">
+        <v>108</v>
+      </c>
+      <c r="W86" t="s">
         <v>16</v>
       </c>
-      <c r="W86" t="s">
-        <v>109</v>
-      </c>
       <c r="X86" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="Y86" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB86" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC86" t="s">
         <v>93</v>
       </c>
-      <c r="AC86" t="s">
+      <c r="AD86" t="s">
         <v>18</v>
       </c>
-      <c r="AD86" t="s">
+      <c r="AE86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M87" t="s">
+    <row r="87" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N87" t="s">
         <v>55</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>16</v>
       </c>
-      <c r="O87" t="s">
-        <v>109</v>
-      </c>
       <c r="P87" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q87" t="s">
         <v>16</v>
       </c>
-      <c r="Q87" t="s">
-        <v>109</v>
-      </c>
       <c r="R87" t="s">
+        <v>109</v>
+      </c>
+      <c r="S87" t="s">
         <v>16</v>
       </c>
-      <c r="S87" t="s">
-        <v>109</v>
-      </c>
       <c r="T87" t="s">
+        <v>109</v>
+      </c>
+      <c r="U87" t="s">
         <v>18</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>110</v>
       </c>
-      <c r="V87" t="s">
+      <c r="W87" t="s">
         <v>18</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>110</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>17</v>
       </c>
-      <c r="Y87" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB87" t="s">
+      <c r="Z87" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC87" t="s">
         <v>97</v>
       </c>
-      <c r="AC87" t="s">
+      <c r="AD87" t="s">
         <v>18</v>
       </c>
-      <c r="AD87" t="s">
+      <c r="AE87" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="13:30" x14ac:dyDescent="0.2">
-      <c r="M88" t="s">
+    <row r="88" spans="14:31" x14ac:dyDescent="0.2">
+      <c r="N88" t="s">
         <v>56</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>16</v>
       </c>
-      <c r="O88" t="s">
-        <v>109</v>
-      </c>
       <c r="P88" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="Q88" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R88" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="S88" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="T88" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="U88" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V88" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="W88" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X88" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y88" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB88" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC88" t="s">
         <v>95</v>
       </c>
-      <c r="AC88" t="s">
+      <c r="AD88" t="s">
         <v>18</v>
       </c>
-      <c r="AD88" t="s">
+      <c r="AE88" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="AB2:AD88">
-    <sortCondition ref="AC1"/>
+  <sortState ref="AC2:AE88">
+    <sortCondition ref="AD1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/20200622-cvnormal/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26403972-F5B4-5548-9ABC-D98CF9175346}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2025CF2-D6E5-1742-91F2-0217AEAC42C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="2260" windowWidth="28160" windowHeight="19360" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="9880" yWindow="460" windowWidth="28160" windowHeight="19360" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_transit" sheetId="1" r:id="rId1"/>
@@ -867,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2658,7 +2658,7 @@
         <v>-20.9</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" ref="C73:C110" si="1">AVERAGE(B67:B73)</f>
+        <f t="shared" ref="C73:C114" si="1">AVERAGE(B67:B73)</f>
         <v>-26.457142857142856</v>
       </c>
       <c r="I73" s="1">
@@ -3202,10 +3202,58 @@
         <v>-9.1142857142857139</v>
       </c>
     </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B111">
+        <v>-11.4</v>
+      </c>
+      <c r="C111" s="5">
+        <f t="shared" si="1"/>
+        <v>-9.3428571428571434</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B112">
+        <v>-5.9</v>
+      </c>
+      <c r="C112" s="5">
+        <f t="shared" si="1"/>
+        <v>-8.8714285714285701</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B113">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="C113" s="5">
+        <f t="shared" si="1"/>
+        <v>-8.7142857142857135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B114">
+        <v>-8.5</v>
+      </c>
+      <c r="C114" s="5">
+        <f t="shared" si="1"/>
+        <v>-8.2857142857142865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C8:C65 C66:C79 C80:C87 C88:C107" formulaRange="1"/>
+    <ignoredError sqref="C8:C65 C66:C79 C80:C87 C88:C107 C108:C114" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3214,7 +3262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
   <dimension ref="A1:AE88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -8204,7 +8252,7 @@
   <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/20200622-cvnormal/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2025CF2-D6E5-1742-91F2-0217AEAC42C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8FAC81-0564-CC43-BD66-6C963C37CD95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="460" windowWidth="28160" windowHeight="19360" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="5440" yWindow="540" windowWidth="28160" windowHeight="19360" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_transit" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="152">
   <si>
     <t>Source: Minnesota Department of Transportation, Metro Transit</t>
   </si>
@@ -544,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -552,6 +552,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -867,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="I1:L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1255,7 +1256,7 @@
         <v>-36.799999999999997</v>
       </c>
       <c r="L17">
-        <v>-45.4</v>
+        <v>-44.3</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1279,7 +1280,7 @@
         <v>-41.4</v>
       </c>
       <c r="L18">
-        <v>-48.9</v>
+        <v>-48.1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1303,7 +1304,7 @@
         <v>-51.9</v>
       </c>
       <c r="L19">
-        <v>-58.8</v>
+        <v>-57.7</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1327,7 +1328,7 @@
         <v>-57.6</v>
       </c>
       <c r="L20">
-        <v>-65.5</v>
+        <v>-64.5</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1351,7 +1352,7 @@
         <v>-54</v>
       </c>
       <c r="L21">
-        <v>-60.6</v>
+        <v>-59.3</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1375,7 +1376,7 @@
         <v>-59.6</v>
       </c>
       <c r="L22">
-        <v>-65.2</v>
+        <v>-64.099999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1399,7 +1400,7 @@
         <v>-60.8</v>
       </c>
       <c r="L23">
-        <v>-66.599999999999994</v>
+        <v>-65.5</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1423,7 +1424,7 @@
         <v>-64.900000000000006</v>
       </c>
       <c r="L24">
-        <v>-72.099999999999994</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1447,7 +1448,7 @@
         <v>-60.1</v>
       </c>
       <c r="L25">
-        <v>-71.3</v>
+        <v>-64.599999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1471,7 +1472,7 @@
         <v>-58.5</v>
       </c>
       <c r="L26">
-        <v>-70.599999999999994</v>
+        <v>-69.8</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1495,7 +1496,7 @@
         <v>-60.9</v>
       </c>
       <c r="L27">
-        <v>-74.400000000000006</v>
+        <v>-70.900000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1519,7 +1520,7 @@
         <v>-60.8</v>
       </c>
       <c r="L28">
-        <v>-74.2</v>
+        <v>-67.7</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1543,7 +1544,7 @@
         <v>-55.7</v>
       </c>
       <c r="L29">
-        <v>-72.599999999999994</v>
+        <v>-69.400000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1567,7 +1568,7 @@
         <v>-61</v>
       </c>
       <c r="L30">
-        <v>-74.8</v>
+        <v>-71.599999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1639,7 +1640,7 @@
         <v>-60.8</v>
       </c>
       <c r="L33">
-        <v>-74.599999999999994</v>
+        <v>-70.2</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -1663,7 +1664,7 @@
         <v>-61.1</v>
       </c>
       <c r="L34">
-        <v>-72.3</v>
+        <v>-69.3</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -1687,7 +1688,7 @@
         <v>-64.400000000000006</v>
       </c>
       <c r="L35">
-        <v>-77.8</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -1735,7 +1736,7 @@
         <v>-64.599999999999994</v>
       </c>
       <c r="L37">
-        <v>-75.599999999999994</v>
+        <v>-72.900000000000006</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -1759,7 +1760,7 @@
         <v>-66.8</v>
       </c>
       <c r="L38">
-        <v>-82</v>
+        <v>-77.599999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -1783,7 +1784,7 @@
         <v>-63.2</v>
       </c>
       <c r="L39">
-        <v>-66.3</v>
+        <v>-62.7</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -1807,7 +1808,7 @@
         <v>-64.2</v>
       </c>
       <c r="L40">
-        <v>-72.099999999999994</v>
+        <v>-70.2</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -1831,7 +1832,7 @@
         <v>-61.9</v>
       </c>
       <c r="L41">
-        <v>-70.099999999999994</v>
+        <v>-72.900000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -1855,7 +1856,7 @@
         <v>-65.400000000000006</v>
       </c>
       <c r="L42">
-        <v>-79.400000000000006</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -1879,7 +1880,7 @@
         <v>-63.6</v>
       </c>
       <c r="L43">
-        <v>-82.9</v>
+        <v>-78.900000000000006</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -1903,7 +1904,7 @@
         <v>-61.8</v>
       </c>
       <c r="L44">
-        <v>-83.7</v>
+        <v>-80.7</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -1928,7 +1929,7 @@
         <v>-57.9</v>
       </c>
       <c r="L45">
-        <v>-98.8</v>
+        <v>-98.7</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -1958,7 +1959,7 @@
         <v>-62.6</v>
       </c>
       <c r="L46">
-        <v>-97.5</v>
+        <v>-97.4</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -2018,7 +2019,7 @@
         <v>-67.5</v>
       </c>
       <c r="L48">
-        <v>-98.4</v>
+        <v>-98.3</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -2048,7 +2049,7 @@
         <v>-60.6</v>
       </c>
       <c r="L49">
-        <v>-98</v>
+        <v>-97.8</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -2078,7 +2079,7 @@
         <v>-59.9</v>
       </c>
       <c r="L50">
-        <v>-82.6</v>
+        <v>-74.599999999999994</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -2108,7 +2109,7 @@
         <v>-56.1</v>
       </c>
       <c r="L51">
-        <v>-72.599999999999994</v>
+        <v>-72.2</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -2138,7 +2139,7 @@
         <v>-58.8</v>
       </c>
       <c r="L52">
-        <v>-76.2</v>
+        <v>-71</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -2168,7 +2169,7 @@
         <v>-62.4</v>
       </c>
       <c r="L53">
-        <v>-79.3</v>
+        <v>-75</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -2198,7 +2199,7 @@
         <v>-61.2</v>
       </c>
       <c r="L54">
-        <v>-79.3</v>
+        <v>-74.599999999999994</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -2228,7 +2229,7 @@
         <v>-60.9</v>
       </c>
       <c r="L55">
-        <v>-82.1</v>
+        <v>-74.2</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -2258,7 +2259,7 @@
         <v>-60.1</v>
       </c>
       <c r="L56">
-        <v>-75.099999999999994</v>
+        <v>-74.7</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -2287,7 +2288,7 @@
         <v>-59.5</v>
       </c>
       <c r="L57">
-        <v>-78.900000000000006</v>
+        <v>-73.900000000000006</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -2311,7 +2312,7 @@
         <v>-59.5</v>
       </c>
       <c r="L58">
-        <v>-77.8</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -2335,7 +2336,7 @@
         <v>-63.5</v>
       </c>
       <c r="L59">
-        <v>-77.400000000000006</v>
+        <v>-75.3</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -2383,7 +2384,7 @@
         <v>-57.1</v>
       </c>
       <c r="L61">
-        <v>-82.3</v>
+        <v>-74.099999999999994</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -2407,7 +2408,7 @@
         <v>-58</v>
       </c>
       <c r="L62">
-        <v>-76.2</v>
+        <v>-71.599999999999994</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -2431,7 +2432,7 @@
         <v>-57.5</v>
       </c>
       <c r="L63">
-        <v>-78.7</v>
+        <v>-71.400000000000006</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -2455,7 +2456,7 @@
         <v>-57.5</v>
       </c>
       <c r="L64">
-        <v>-82.1</v>
+        <v>-77.900000000000006</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2479,7 +2480,7 @@
         <v>-61</v>
       </c>
       <c r="L65">
-        <v>-85.6</v>
+        <v>-77.400000000000006</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2503,7 +2504,7 @@
         <v>-59.3</v>
       </c>
       <c r="L66">
-        <v>-85.3</v>
+        <v>-78.8</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2527,7 +2528,7 @@
         <v>-60.5</v>
       </c>
       <c r="L67">
-        <v>-82</v>
+        <v>-72.400000000000006</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2551,7 +2552,7 @@
         <v>-57.8</v>
       </c>
       <c r="L68">
-        <v>-75.5</v>
+        <v>-72.599999999999994</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2575,7 +2576,7 @@
         <v>-75.900000000000006</v>
       </c>
       <c r="L69">
-        <v>-98.1</v>
+        <v>-94.3</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2658,7 +2659,7 @@
         <v>-20.9</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" ref="C73:C114" si="1">AVERAGE(B67:B73)</f>
+        <f t="shared" ref="C73:C116" si="1">AVERAGE(B67:B73)</f>
         <v>-26.457142857142856</v>
       </c>
       <c r="I73" s="1">
@@ -2695,7 +2696,7 @@
         <v>-62.2</v>
       </c>
       <c r="L74">
-        <v>-84.2</v>
+        <v>-79.2</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -2719,7 +2720,7 @@
         <v>-60.6</v>
       </c>
       <c r="L75">
-        <v>-84.9</v>
+        <v>-81.2</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2743,7 +2744,7 @@
         <v>-58.5</v>
       </c>
       <c r="L76">
-        <v>-86.5</v>
+        <v>-80.099999999999994</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -2767,7 +2768,7 @@
         <v>-58.7</v>
       </c>
       <c r="L77">
-        <v>-85.6</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2791,7 +2792,7 @@
         <v>-58.2</v>
       </c>
       <c r="L78">
-        <v>-88.9</v>
+        <v>-78.900000000000006</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2815,7 +2816,7 @@
         <v>-53.1</v>
       </c>
       <c r="L79">
-        <v>-83.6</v>
+        <v>-76.7</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2839,10 +2840,10 @@
         <v>-55.2</v>
       </c>
       <c r="L80">
-        <v>-83.7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-77.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43970</v>
       </c>
@@ -2853,8 +2854,20 @@
         <f t="shared" si="1"/>
         <v>-21.800000000000004</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I81" s="1">
+        <v>43997</v>
+      </c>
+      <c r="J81">
+        <v>-93.4</v>
+      </c>
+      <c r="K81">
+        <v>-54.7</v>
+      </c>
+      <c r="L81">
+        <v>-79.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43971</v>
       </c>
@@ -2865,8 +2878,20 @@
         <f t="shared" si="1"/>
         <v>-19.799999999999994</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I82" s="1">
+        <v>43998</v>
+      </c>
+      <c r="J82">
+        <v>-92.7</v>
+      </c>
+      <c r="K82">
+        <v>-55.8</v>
+      </c>
+      <c r="L82">
+        <v>-81.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43972</v>
       </c>
@@ -2877,8 +2902,20 @@
         <f t="shared" si="1"/>
         <v>-18.085714285714285</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I83" s="1">
+        <v>43999</v>
+      </c>
+      <c r="J83">
+        <v>-93</v>
+      </c>
+      <c r="K83">
+        <v>-54.3</v>
+      </c>
+      <c r="L83">
+        <v>-81.099999999999994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43973</v>
       </c>
@@ -2889,8 +2926,20 @@
         <f t="shared" si="1"/>
         <v>-16.600000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I84" s="1">
+        <v>44000</v>
+      </c>
+      <c r="J84">
+        <v>-93.3</v>
+      </c>
+      <c r="K84">
+        <v>-58.3</v>
+      </c>
+      <c r="L84">
+        <v>-80.900000000000006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43974</v>
       </c>
@@ -2901,8 +2950,20 @@
         <f t="shared" si="1"/>
         <v>-15.3</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I85" s="1">
+        <v>44001</v>
+      </c>
+      <c r="J85">
+        <v>-93.4</v>
+      </c>
+      <c r="K85">
+        <v>-52.5</v>
+      </c>
+      <c r="L85">
+        <v>-79.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43975</v>
       </c>
@@ -2914,7 +2975,7 @@
         <v>-14.485714285714286</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43976</v>
       </c>
@@ -2926,7 +2987,7 @@
         <v>-15.257142857142858</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43977</v>
       </c>
@@ -2938,7 +2999,7 @@
         <v>-14.857142857142859</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43978</v>
       </c>
@@ -2950,7 +3011,7 @@
         <v>-14.857142857142859</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43979</v>
       </c>
@@ -2962,7 +3023,7 @@
         <v>-15.400000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43980</v>
       </c>
@@ -2974,7 +3035,7 @@
         <v>-16.100000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43981</v>
       </c>
@@ -2986,7 +3047,7 @@
         <v>-15.87142857142857</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43982</v>
       </c>
@@ -2998,7 +3059,7 @@
         <v>-14.7</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43983</v>
       </c>
@@ -3010,7 +3071,7 @@
         <v>-14.014285714285716</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43984</v>
       </c>
@@ -3022,7 +3083,7 @@
         <v>-14.528571428571428</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43985</v>
       </c>
@@ -3207,11 +3268,11 @@
         <v>44000</v>
       </c>
       <c r="B111">
-        <v>-11.4</v>
+        <v>-11.7</v>
       </c>
       <c r="C111" s="5">
         <f t="shared" si="1"/>
-        <v>-9.3428571428571434</v>
+        <v>-9.3857142857142861</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -3219,11 +3280,11 @@
         <v>44001</v>
       </c>
       <c r="B112">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="C112" s="5">
         <f t="shared" si="1"/>
-        <v>-8.8714285714285701</v>
+        <v>-8.9428571428571431</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -3231,11 +3292,11 @@
         <v>44002</v>
       </c>
       <c r="B113">
-        <v>-9.6999999999999993</v>
+        <v>-10</v>
       </c>
       <c r="C113" s="5">
         <f t="shared" si="1"/>
-        <v>-8.7142857142857135</v>
+        <v>-8.8285714285714292</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -3243,11 +3304,35 @@
         <v>44003</v>
       </c>
       <c r="B114">
-        <v>-8.5</v>
+        <v>-9</v>
       </c>
       <c r="C114" s="5">
         <f t="shared" si="1"/>
-        <v>-8.2857142857142865</v>
+        <v>-8.4714285714285715</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B115">
+        <v>-6.4</v>
+      </c>
+      <c r="C115" s="5">
+        <f t="shared" si="1"/>
+        <v>-8.2142857142857135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B116">
+        <v>-6.7</v>
+      </c>
+      <c r="C116" s="5">
+        <f t="shared" si="1"/>
+        <v>-8.1285714285714281</v>
       </c>
     </row>
   </sheetData>
@@ -3260,19 +3345,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
-  <dimension ref="A1:AE88"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="N65" workbookViewId="0">
+      <selection activeCell="AF86" sqref="AF86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="16.83203125" customWidth="1"/>
+    <col min="10" max="13" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3303,56 +3388,59 @@
       <c r="L1" s="6">
         <v>43996</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="6">
+        <v>44001</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43885</v>
       </c>
@@ -3383,56 +3471,59 @@
       <c r="L2" s="4">
         <v>-0.1</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" s="4">
+        <v>-0.11</v>
+      </c>
+      <c r="O2" t="s">
         <v>89</v>
       </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" t="s">
-        <v>107</v>
-      </c>
       <c r="S2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U2" t="s">
+        <v>108</v>
+      </c>
+      <c r="V2" t="s">
         <v>13</v>
       </c>
-      <c r="V2" t="s">
-        <v>107</v>
-      </c>
       <c r="W2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" t="s">
         <v>13</v>
       </c>
-      <c r="X2" t="s">
-        <v>107</v>
-      </c>
       <c r="Y2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD2" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43886</v>
       </c>
@@ -3463,56 +3554,59 @@
       <c r="L3" s="4">
         <v>0.05</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O3" t="s">
         <v>57</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s">
-        <v>109</v>
-      </c>
       <c r="Q3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" t="s">
-        <v>109</v>
-      </c>
       <c r="S3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" t="s">
         <v>17</v>
       </c>
-      <c r="T3" t="s">
-        <v>109</v>
-      </c>
       <c r="U3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>110</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>110</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" t="s">
-        <v>14</v>
-      </c>
       <c r="AE3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43887</v>
       </c>
@@ -3543,56 +3637,59 @@
       <c r="L4" s="4">
         <v>2.16</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" s="4">
+        <v>1.86</v>
+      </c>
+      <c r="O4" t="s">
         <v>102</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>16</v>
       </c>
-      <c r="P4" t="s">
-        <v>109</v>
-      </c>
       <c r="Q4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4" t="s">
         <v>15</v>
       </c>
-      <c r="R4" t="s">
-        <v>108</v>
-      </c>
       <c r="S4" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T4" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V4" t="s">
         <v>15</v>
       </c>
-      <c r="V4" t="s">
-        <v>108</v>
-      </c>
       <c r="W4" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" t="s">
         <v>121</v>
       </c>
-      <c r="X4" t="s">
-        <v>109</v>
-      </c>
       <c r="Y4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z4" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AA4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD4" t="s">
         <v>84</v>
       </c>
-      <c r="AD4" t="s">
-        <v>14</v>
-      </c>
       <c r="AE4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43888</v>
       </c>
@@ -3623,56 +3720,59 @@
       <c r="L5" s="4">
         <v>-0.34</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" s="4">
+        <v>-0.33</v>
+      </c>
+      <c r="O5" t="s">
         <v>58</v>
       </c>
-      <c r="O5" t="s">
-        <v>14</v>
-      </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5" t="s">
         <v>13</v>
       </c>
-      <c r="R5" t="s">
-        <v>107</v>
-      </c>
       <c r="S5" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T5" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U5" t="s">
+        <v>108</v>
+      </c>
+      <c r="V5" t="s">
         <v>120</v>
       </c>
-      <c r="V5" t="s">
-        <v>108</v>
-      </c>
       <c r="W5" t="s">
+        <v>108</v>
+      </c>
+      <c r="X5" t="s">
         <v>15</v>
       </c>
-      <c r="X5" t="s">
-        <v>108</v>
-      </c>
       <c r="Y5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z5" t="s">
         <v>120</v>
       </c>
-      <c r="Z5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AA5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD5" t="s">
         <v>45</v>
       </c>
-      <c r="AD5" t="s">
-        <v>14</v>
-      </c>
       <c r="AE5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43889</v>
       </c>
@@ -3703,56 +3803,59 @@
       <c r="L6" s="4">
         <v>-0.1</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" s="4">
+        <v>-0.38</v>
+      </c>
+      <c r="O6" t="s">
         <v>59</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>17</v>
       </c>
-      <c r="P6" t="s">
-        <v>109</v>
-      </c>
       <c r="Q6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6" t="s">
         <v>16</v>
       </c>
-      <c r="R6" t="s">
-        <v>109</v>
-      </c>
       <c r="S6" t="s">
+        <v>109</v>
+      </c>
+      <c r="T6" t="s">
         <v>121</v>
       </c>
-      <c r="T6" t="s">
-        <v>109</v>
-      </c>
       <c r="U6" t="s">
+        <v>109</v>
+      </c>
+      <c r="V6" t="s">
         <v>16</v>
       </c>
-      <c r="V6" t="s">
-        <v>109</v>
-      </c>
       <c r="W6" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s">
         <v>17</v>
       </c>
-      <c r="X6" t="s">
-        <v>109</v>
-      </c>
       <c r="Y6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z6" t="s">
         <v>121</v>
       </c>
-      <c r="Z6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AA6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD6" t="s">
         <v>52</v>
       </c>
-      <c r="AD6" t="s">
-        <v>14</v>
-      </c>
       <c r="AE6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43890</v>
       </c>
@@ -3783,336 +3886,339 @@
       <c r="L7" s="4">
         <v>0</v>
       </c>
-      <c r="N7" t="s">
+      <c r="M7" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="O7" t="s">
         <v>60</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>12</v>
       </c>
-      <c r="P7" t="s">
-        <v>107</v>
-      </c>
       <c r="Q7" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" t="s">
         <v>12</v>
       </c>
-      <c r="R7" t="s">
-        <v>107</v>
-      </c>
       <c r="S7" t="s">
+        <v>107</v>
+      </c>
+      <c r="T7" t="s">
         <v>12</v>
       </c>
-      <c r="T7" t="s">
-        <v>107</v>
-      </c>
       <c r="U7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V7" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W7" t="s">
+        <v>108</v>
+      </c>
+      <c r="X7" t="s">
         <v>12</v>
       </c>
-      <c r="X7" t="s">
-        <v>107</v>
-      </c>
       <c r="Y7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD7" t="s">
         <v>47</v>
       </c>
-      <c r="AD7" t="s">
-        <v>14</v>
-      </c>
       <c r="AE7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43891</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>61</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>15</v>
       </c>
-      <c r="P8" t="s">
-        <v>108</v>
-      </c>
       <c r="Q8" t="s">
+        <v>108</v>
+      </c>
+      <c r="R8" t="s">
         <v>121</v>
       </c>
-      <c r="R8" t="s">
-        <v>109</v>
-      </c>
       <c r="S8" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="T8" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U8" t="s">
+        <v>108</v>
+      </c>
+      <c r="V8" t="s">
         <v>121</v>
       </c>
-      <c r="V8" t="s">
-        <v>109</v>
-      </c>
       <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
         <v>18</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>110</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>121</v>
       </c>
-      <c r="Z8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AA8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD8" t="s">
         <v>87</v>
       </c>
-      <c r="AD8" t="s">
-        <v>14</v>
-      </c>
       <c r="AE8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43892</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>90</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>17</v>
       </c>
-      <c r="P9" t="s">
-        <v>109</v>
-      </c>
       <c r="Q9" t="s">
+        <v>109</v>
+      </c>
+      <c r="R9" t="s">
         <v>15</v>
       </c>
-      <c r="R9" t="s">
-        <v>108</v>
-      </c>
       <c r="S9" t="s">
+        <v>108</v>
+      </c>
+      <c r="T9" t="s">
         <v>15</v>
       </c>
-      <c r="T9" t="s">
-        <v>108</v>
-      </c>
       <c r="U9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V9" t="s">
         <v>16</v>
       </c>
-      <c r="V9" t="s">
-        <v>109</v>
-      </c>
       <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
         <v>16</v>
       </c>
-      <c r="X9" t="s">
-        <v>109</v>
-      </c>
       <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z9" t="s">
         <v>121</v>
       </c>
-      <c r="Z9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AA9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD9" t="s">
         <v>75</v>
       </c>
-      <c r="AD9" t="s">
-        <v>14</v>
-      </c>
       <c r="AE9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43893</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>32</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>12</v>
       </c>
-      <c r="P10" t="s">
-        <v>107</v>
-      </c>
       <c r="Q10" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" t="s">
         <v>12</v>
       </c>
-      <c r="R10" t="s">
-        <v>107</v>
-      </c>
       <c r="S10" t="s">
+        <v>107</v>
+      </c>
+      <c r="T10" t="s">
         <v>126</v>
       </c>
-      <c r="T10" t="s">
-        <v>107</v>
-      </c>
       <c r="U10" t="s">
+        <v>107</v>
+      </c>
+      <c r="V10" t="s">
         <v>12</v>
       </c>
-      <c r="V10" t="s">
-        <v>107</v>
-      </c>
       <c r="W10" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X10" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z10" t="s">
         <v>12</v>
       </c>
-      <c r="Z10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="AA10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD10" t="s">
         <v>56</v>
       </c>
-      <c r="AD10" t="s">
-        <v>14</v>
-      </c>
       <c r="AE10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43894</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>62</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>15</v>
       </c>
-      <c r="P11" t="s">
-        <v>108</v>
-      </c>
       <c r="Q11" t="s">
+        <v>108</v>
+      </c>
+      <c r="R11" t="s">
         <v>16</v>
       </c>
-      <c r="R11" t="s">
-        <v>109</v>
-      </c>
       <c r="S11" t="s">
+        <v>109</v>
+      </c>
+      <c r="T11" t="s">
         <v>16</v>
       </c>
-      <c r="T11" t="s">
-        <v>109</v>
-      </c>
       <c r="U11" t="s">
+        <v>109</v>
+      </c>
+      <c r="V11" t="s">
         <v>17</v>
       </c>
-      <c r="V11" t="s">
-        <v>109</v>
-      </c>
       <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
         <v>17</v>
       </c>
-      <c r="X11" t="s">
-        <v>109</v>
-      </c>
       <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z11" t="s">
         <v>16</v>
       </c>
-      <c r="Z11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AA11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD11" t="s">
         <v>36</v>
       </c>
-      <c r="AD11" t="s">
-        <v>14</v>
-      </c>
       <c r="AE11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43895</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>33</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>12</v>
       </c>
-      <c r="P12" t="s">
-        <v>107</v>
-      </c>
       <c r="Q12" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" t="s">
         <v>12</v>
       </c>
-      <c r="R12" t="s">
-        <v>107</v>
-      </c>
       <c r="S12" t="s">
+        <v>107</v>
+      </c>
+      <c r="T12" t="s">
         <v>12</v>
       </c>
-      <c r="T12" t="s">
-        <v>107</v>
-      </c>
       <c r="U12" t="s">
+        <v>107</v>
+      </c>
+      <c r="V12" t="s">
         <v>13</v>
       </c>
-      <c r="V12" t="s">
-        <v>107</v>
-      </c>
       <c r="W12" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X12" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z12" t="s">
         <v>13</v>
       </c>
-      <c r="Z12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AA12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD12" t="s">
         <v>71</v>
       </c>
-      <c r="AD12" t="s">
-        <v>14</v>
-      </c>
       <c r="AE12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43896</v>
       </c>
@@ -4140,56 +4246,56 @@
       <c r="K13" t="s">
         <v>119</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>34</v>
       </c>
-      <c r="O13" t="s">
-        <v>14</v>
-      </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q13" t="s">
+        <v>108</v>
+      </c>
+      <c r="R13" t="s">
         <v>13</v>
       </c>
-      <c r="R13" t="s">
-        <v>107</v>
-      </c>
       <c r="S13" t="s">
+        <v>107</v>
+      </c>
+      <c r="T13" t="s">
         <v>13</v>
       </c>
-      <c r="T13" t="s">
-        <v>107</v>
-      </c>
       <c r="U13" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W13" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z13" t="s">
         <v>13</v>
       </c>
-      <c r="Z13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC13" t="s">
+      <c r="AA13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD13" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" t="s">
-        <v>14</v>
-      </c>
       <c r="AE13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43897</v>
       </c>
@@ -4218,56 +4324,57 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="N14" t="s">
+      <c r="M14" s="4"/>
+      <c r="O14" t="s">
         <v>35</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>16</v>
       </c>
-      <c r="P14" t="s">
-        <v>109</v>
-      </c>
       <c r="Q14" t="s">
+        <v>109</v>
+      </c>
+      <c r="R14" t="s">
         <v>121</v>
       </c>
-      <c r="R14" t="s">
-        <v>109</v>
-      </c>
       <c r="S14" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14" t="s">
         <v>15</v>
       </c>
-      <c r="T14" t="s">
-        <v>108</v>
-      </c>
       <c r="U14" t="s">
+        <v>108</v>
+      </c>
+      <c r="V14" t="s">
         <v>121</v>
       </c>
-      <c r="V14" t="s">
-        <v>109</v>
-      </c>
       <c r="W14" t="s">
+        <v>109</v>
+      </c>
+      <c r="X14" t="s">
         <v>16</v>
       </c>
-      <c r="X14" t="s">
-        <v>109</v>
-      </c>
       <c r="Y14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z14" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC14" t="s">
+      <c r="AA14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD14" t="s">
         <v>60</v>
       </c>
-      <c r="AD14" t="s">
-        <v>14</v>
-      </c>
       <c r="AE14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43898</v>
       </c>
@@ -4296,56 +4403,57 @@
         <v>0.12</v>
       </c>
       <c r="L15" s="4"/>
-      <c r="N15" t="s">
+      <c r="M15" s="4"/>
+      <c r="O15" t="s">
         <v>68</v>
       </c>
-      <c r="O15" t="s">
-        <v>14</v>
-      </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q15" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15" t="s">
         <v>121</v>
       </c>
-      <c r="R15" t="s">
-        <v>109</v>
-      </c>
       <c r="S15" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="T15" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U15" t="s">
+        <v>108</v>
+      </c>
+      <c r="V15" t="s">
         <v>15</v>
       </c>
-      <c r="V15" t="s">
-        <v>108</v>
-      </c>
       <c r="W15" t="s">
+        <v>108</v>
+      </c>
+      <c r="X15" t="s">
         <v>121</v>
       </c>
-      <c r="X15" t="s">
-        <v>109</v>
-      </c>
       <c r="Y15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z15" t="s">
         <v>121</v>
       </c>
-      <c r="Z15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC15" t="s">
+      <c r="AA15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD15" t="s">
         <v>85</v>
       </c>
-      <c r="AD15" t="s">
-        <v>14</v>
-      </c>
       <c r="AE15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43899</v>
       </c>
@@ -4374,56 +4482,57 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="N16" t="s">
+      <c r="M16" s="4"/>
+      <c r="O16" t="s">
         <v>69</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>18</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>110</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>13</v>
       </c>
-      <c r="R16" t="s">
-        <v>107</v>
-      </c>
       <c r="S16" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T16" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U16" t="s">
+        <v>108</v>
+      </c>
+      <c r="V16" t="s">
         <v>13</v>
       </c>
-      <c r="V16" t="s">
-        <v>107</v>
-      </c>
       <c r="W16" t="s">
+        <v>107</v>
+      </c>
+      <c r="X16" t="s">
         <v>12</v>
       </c>
-      <c r="X16" t="s">
-        <v>107</v>
-      </c>
       <c r="Y16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z16" t="s">
         <v>13</v>
       </c>
-      <c r="Z16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC16" t="s">
+      <c r="AA16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD16" t="s">
         <v>129</v>
       </c>
-      <c r="AD16" t="s">
-        <v>14</v>
-      </c>
       <c r="AE16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43900</v>
       </c>
@@ -4452,56 +4561,57 @@
         <v>0.08</v>
       </c>
       <c r="L17" s="4"/>
-      <c r="N17" t="s">
+      <c r="M17" s="4"/>
+      <c r="O17" t="s">
         <v>36</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>16</v>
       </c>
-      <c r="P17" t="s">
-        <v>109</v>
-      </c>
       <c r="Q17" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" t="s">
         <v>11</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>106</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>11</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>106</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>12</v>
       </c>
-      <c r="V17" t="s">
-        <v>107</v>
-      </c>
       <c r="W17" t="s">
+        <v>107</v>
+      </c>
+      <c r="X17" t="s">
         <v>13</v>
       </c>
-      <c r="X17" t="s">
-        <v>107</v>
-      </c>
       <c r="Y17" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z17" t="s">
         <v>11</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>106</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>69</v>
       </c>
-      <c r="AD17" t="s">
-        <v>14</v>
-      </c>
       <c r="AE17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43901</v>
       </c>
@@ -4530,56 +4640,57 @@
         <v>0.1</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="N18" t="s">
+      <c r="M18" s="4"/>
+      <c r="O18" t="s">
         <v>70</v>
       </c>
-      <c r="O18" t="s">
-        <v>14</v>
-      </c>
       <c r="P18" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q18" t="s">
+        <v>108</v>
+      </c>
+      <c r="R18" t="s">
         <v>13</v>
       </c>
-      <c r="R18" t="s">
-        <v>107</v>
-      </c>
       <c r="S18" t="s">
+        <v>107</v>
+      </c>
+      <c r="T18" t="s">
         <v>13</v>
       </c>
-      <c r="T18" t="s">
-        <v>107</v>
-      </c>
       <c r="U18" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V18" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W18" t="s">
+        <v>108</v>
+      </c>
+      <c r="X18" t="s">
         <v>13</v>
       </c>
-      <c r="X18" t="s">
-        <v>107</v>
-      </c>
       <c r="Y18" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD18" t="s">
         <v>46</v>
       </c>
-      <c r="AD18" t="s">
-        <v>14</v>
-      </c>
       <c r="AE18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43902</v>
       </c>
@@ -4608,56 +4719,57 @@
         <v>0.1</v>
       </c>
       <c r="L19" s="4"/>
-      <c r="N19" t="s">
+      <c r="M19" s="4"/>
+      <c r="O19" t="s">
         <v>91</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>16</v>
       </c>
-      <c r="P19" t="s">
-        <v>109</v>
-      </c>
       <c r="Q19" t="s">
+        <v>109</v>
+      </c>
+      <c r="R19" t="s">
         <v>121</v>
       </c>
-      <c r="R19" t="s">
-        <v>109</v>
-      </c>
       <c r="S19" t="s">
+        <v>109</v>
+      </c>
+      <c r="T19" t="s">
         <v>15</v>
       </c>
-      <c r="T19" t="s">
-        <v>108</v>
-      </c>
       <c r="U19" t="s">
+        <v>108</v>
+      </c>
+      <c r="V19" t="s">
         <v>121</v>
       </c>
-      <c r="V19" t="s">
-        <v>109</v>
-      </c>
       <c r="W19" t="s">
+        <v>109</v>
+      </c>
+      <c r="X19" t="s">
         <v>16</v>
       </c>
-      <c r="X19" t="s">
-        <v>109</v>
-      </c>
       <c r="Y19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z19" t="s">
         <v>17</v>
       </c>
-      <c r="Z19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC19" t="s">
+      <c r="AA19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD19" t="s">
         <v>104</v>
       </c>
-      <c r="AD19" t="s">
-        <v>14</v>
-      </c>
       <c r="AE19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43903</v>
       </c>
@@ -4685,3563 +4797,3587 @@
       <c r="K20" s="4">
         <v>0</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>21</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>15</v>
       </c>
-      <c r="P20" t="s">
-        <v>108</v>
-      </c>
       <c r="Q20" t="s">
+        <v>108</v>
+      </c>
+      <c r="R20" t="s">
         <v>121</v>
       </c>
-      <c r="R20" t="s">
-        <v>109</v>
-      </c>
       <c r="S20" t="s">
+        <v>109</v>
+      </c>
+      <c r="T20" t="s">
         <v>121</v>
       </c>
-      <c r="T20" t="s">
-        <v>109</v>
-      </c>
       <c r="U20" t="s">
+        <v>109</v>
+      </c>
+      <c r="V20" t="s">
         <v>16</v>
       </c>
-      <c r="V20" t="s">
-        <v>109</v>
-      </c>
       <c r="W20" t="s">
+        <v>109</v>
+      </c>
+      <c r="X20" t="s">
         <v>17</v>
       </c>
-      <c r="X20" t="s">
-        <v>109</v>
-      </c>
       <c r="Y20" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z20" t="s">
         <v>16</v>
       </c>
-      <c r="Z20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC20" t="s">
+      <c r="AA20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD20" t="s">
         <v>77</v>
       </c>
-      <c r="AD20" t="s">
-        <v>14</v>
-      </c>
       <c r="AE20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43904</v>
       </c>
       <c r="B21">
         <v>-14</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>22</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>17</v>
       </c>
-      <c r="P21" t="s">
-        <v>109</v>
-      </c>
       <c r="Q21" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="R21" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S21" t="s">
+        <v>108</v>
+      </c>
+      <c r="T21" t="s">
         <v>13</v>
       </c>
-      <c r="T21" t="s">
-        <v>107</v>
-      </c>
       <c r="U21" t="s">
+        <v>107</v>
+      </c>
+      <c r="V21" t="s">
         <v>121</v>
       </c>
-      <c r="V21" t="s">
-        <v>109</v>
-      </c>
       <c r="W21" t="s">
+        <v>109</v>
+      </c>
+      <c r="X21" t="s">
         <v>121</v>
       </c>
-      <c r="X21" t="s">
-        <v>109</v>
-      </c>
       <c r="Y21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z21" t="s">
         <v>16</v>
       </c>
-      <c r="Z21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC21" t="s">
+      <c r="AA21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD21" t="s">
         <v>48</v>
       </c>
-      <c r="AD21" t="s">
-        <v>14</v>
-      </c>
       <c r="AE21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43905</v>
       </c>
       <c r="B22">
         <v>-16</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>63</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>15</v>
       </c>
-      <c r="P22" t="s">
-        <v>108</v>
-      </c>
       <c r="Q22" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R22" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S22" t="s">
+        <v>108</v>
+      </c>
+      <c r="T22" t="s">
         <v>121</v>
       </c>
-      <c r="T22" t="s">
-        <v>109</v>
-      </c>
       <c r="U22" t="s">
+        <v>109</v>
+      </c>
+      <c r="V22" t="s">
         <v>15</v>
       </c>
-      <c r="V22" t="s">
-        <v>108</v>
-      </c>
       <c r="W22" t="s">
+        <v>108</v>
+      </c>
+      <c r="X22" t="s">
         <v>121</v>
       </c>
-      <c r="X22" t="s">
-        <v>109</v>
-      </c>
       <c r="Y22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z22" t="s">
         <v>16</v>
       </c>
-      <c r="Z22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC22" t="s">
+      <c r="AA22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD22" t="s">
         <v>79</v>
       </c>
-      <c r="AD22" t="s">
-        <v>14</v>
-      </c>
       <c r="AE22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43906</v>
       </c>
       <c r="B23">
         <v>-14</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>71</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>16</v>
       </c>
-      <c r="P23" t="s">
-        <v>109</v>
-      </c>
       <c r="Q23" t="s">
+        <v>109</v>
+      </c>
+      <c r="R23" t="s">
         <v>13</v>
       </c>
-      <c r="R23" t="s">
-        <v>107</v>
-      </c>
       <c r="S23" t="s">
+        <v>107</v>
+      </c>
+      <c r="T23" t="s">
         <v>13</v>
       </c>
-      <c r="T23" t="s">
-        <v>107</v>
-      </c>
       <c r="U23" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V23" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W23" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X23" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y23" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z23" t="s">
         <v>13</v>
       </c>
-      <c r="Z23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC23" t="s">
+      <c r="AA23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD23" t="s">
         <v>78</v>
       </c>
-      <c r="AD23" t="s">
-        <v>14</v>
-      </c>
       <c r="AE23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43907</v>
       </c>
       <c r="B24">
         <v>-17</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>72</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>13</v>
       </c>
-      <c r="P24" t="s">
-        <v>107</v>
-      </c>
       <c r="Q24" t="s">
+        <v>107</v>
+      </c>
+      <c r="R24" t="s">
         <v>12</v>
       </c>
-      <c r="R24" t="s">
-        <v>107</v>
-      </c>
       <c r="S24" t="s">
+        <v>107</v>
+      </c>
+      <c r="T24" t="s">
         <v>12</v>
       </c>
-      <c r="T24" t="s">
-        <v>107</v>
-      </c>
       <c r="U24" t="s">
+        <v>107</v>
+      </c>
+      <c r="V24" t="s">
         <v>15</v>
       </c>
-      <c r="V24" t="s">
-        <v>108</v>
-      </c>
       <c r="W24" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X24" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y24" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z24" t="s">
         <v>13</v>
       </c>
-      <c r="Z24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC24" t="s">
+      <c r="AA24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD24" t="s">
         <v>42</v>
       </c>
-      <c r="AD24" t="s">
-        <v>14</v>
-      </c>
       <c r="AE24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43908</v>
       </c>
       <c r="B25">
         <v>-26</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>103</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>18</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>110</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>16</v>
       </c>
-      <c r="R25" t="s">
-        <v>109</v>
-      </c>
       <c r="S25" t="s">
+        <v>109</v>
+      </c>
+      <c r="T25" t="s">
         <v>16</v>
       </c>
-      <c r="T25" t="s">
-        <v>109</v>
-      </c>
       <c r="U25" t="s">
+        <v>109</v>
+      </c>
+      <c r="V25" t="s">
         <v>16</v>
       </c>
-      <c r="V25" t="s">
-        <v>109</v>
-      </c>
       <c r="W25" t="s">
+        <v>109</v>
+      </c>
+      <c r="X25" t="s">
         <v>16</v>
       </c>
-      <c r="X25" t="s">
-        <v>109</v>
-      </c>
       <c r="Y25" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z25" t="s">
         <v>121</v>
       </c>
-      <c r="Z25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC25" t="s">
+      <c r="AA25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD25" t="s">
         <v>39</v>
       </c>
-      <c r="AD25" t="s">
-        <v>14</v>
-      </c>
       <c r="AE25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43909</v>
       </c>
       <c r="B26">
         <v>-31</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>23</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>13</v>
       </c>
-      <c r="P26" t="s">
-        <v>107</v>
-      </c>
       <c r="Q26" t="s">
+        <v>107</v>
+      </c>
+      <c r="R26" t="s">
         <v>13</v>
       </c>
-      <c r="R26" t="s">
-        <v>107</v>
-      </c>
       <c r="S26" t="s">
+        <v>107</v>
+      </c>
+      <c r="T26" t="s">
         <v>12</v>
       </c>
-      <c r="T26" t="s">
-        <v>107</v>
-      </c>
       <c r="U26" t="s">
+        <v>107</v>
+      </c>
+      <c r="V26" t="s">
         <v>13</v>
       </c>
-      <c r="V26" t="s">
-        <v>107</v>
-      </c>
       <c r="W26" t="s">
+        <v>107</v>
+      </c>
+      <c r="X26" t="s">
         <v>13</v>
       </c>
-      <c r="X26" t="s">
-        <v>107</v>
-      </c>
       <c r="Y26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z26" t="s">
         <v>12</v>
       </c>
-      <c r="Z26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC26" t="s">
+      <c r="AA26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD26" t="s">
         <v>89</v>
       </c>
-      <c r="AD26" t="s">
-        <v>14</v>
-      </c>
       <c r="AE26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43910</v>
       </c>
       <c r="B27">
         <v>-38</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>37</v>
       </c>
-      <c r="O27" t="s">
-        <v>14</v>
-      </c>
       <c r="P27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q27" t="s">
+        <v>108</v>
+      </c>
+      <c r="R27" t="s">
         <v>13</v>
       </c>
-      <c r="R27" t="s">
-        <v>107</v>
-      </c>
       <c r="S27" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U27" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W27" t="s">
+        <v>108</v>
+      </c>
+      <c r="X27" t="s">
         <v>12</v>
       </c>
-      <c r="X27" t="s">
-        <v>107</v>
-      </c>
       <c r="Y27" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z27" t="s">
         <v>12</v>
       </c>
-      <c r="Z27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC27" t="s">
+      <c r="AA27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD27" t="s">
         <v>19</v>
       </c>
-      <c r="AD27" t="s">
-        <v>14</v>
-      </c>
       <c r="AE27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43911</v>
       </c>
       <c r="B28">
         <v>-46</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>24</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>12</v>
       </c>
-      <c r="P28" t="s">
-        <v>107</v>
-      </c>
       <c r="Q28" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R28" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S28" t="s">
+        <v>108</v>
+      </c>
+      <c r="T28" t="s">
         <v>120</v>
       </c>
-      <c r="T28" t="s">
-        <v>108</v>
-      </c>
       <c r="U28" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V28" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W28" t="s">
+        <v>108</v>
+      </c>
+      <c r="X28" t="s">
         <v>15</v>
       </c>
-      <c r="X28" t="s">
-        <v>108</v>
-      </c>
       <c r="Y28" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z28" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD28" t="s">
         <v>88</v>
       </c>
-      <c r="AD28" t="s">
-        <v>14</v>
-      </c>
       <c r="AE28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43912</v>
       </c>
       <c r="B29">
         <v>-33</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>38</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>15</v>
       </c>
-      <c r="P29" t="s">
-        <v>108</v>
-      </c>
       <c r="Q29" t="s">
+        <v>108</v>
+      </c>
+      <c r="R29" t="s">
         <v>120</v>
       </c>
-      <c r="R29" t="s">
-        <v>108</v>
-      </c>
       <c r="S29" t="s">
+        <v>108</v>
+      </c>
+      <c r="T29" t="s">
         <v>120</v>
       </c>
-      <c r="T29" t="s">
-        <v>108</v>
-      </c>
       <c r="U29" t="s">
+        <v>108</v>
+      </c>
+      <c r="V29" t="s">
         <v>13</v>
       </c>
-      <c r="V29" t="s">
-        <v>107</v>
-      </c>
       <c r="W29" t="s">
+        <v>107</v>
+      </c>
+      <c r="X29" t="s">
         <v>15</v>
       </c>
-      <c r="X29" t="s">
-        <v>108</v>
-      </c>
       <c r="Y29" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z29" t="s">
         <v>121</v>
       </c>
-      <c r="Z29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC29" t="s">
+      <c r="AA29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD29" t="s">
         <v>40</v>
       </c>
-      <c r="AD29" t="s">
-        <v>14</v>
-      </c>
       <c r="AE29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43913</v>
       </c>
       <c r="B30">
         <v>-30</v>
       </c>
-      <c r="N30" t="s">
+      <c r="E30" s="7">
+        <v>43918</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
         <v>73</v>
       </c>
-      <c r="O30" t="s">
-        <v>14</v>
-      </c>
       <c r="P30" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q30" t="s">
+        <v>108</v>
+      </c>
+      <c r="R30" t="s">
         <v>13</v>
       </c>
-      <c r="R30" t="s">
-        <v>107</v>
-      </c>
       <c r="S30" t="s">
+        <v>107</v>
+      </c>
+      <c r="T30" t="s">
         <v>12</v>
       </c>
-      <c r="T30" t="s">
-        <v>107</v>
-      </c>
       <c r="U30" t="s">
+        <v>107</v>
+      </c>
+      <c r="V30" t="s">
         <v>12</v>
       </c>
-      <c r="V30" t="s">
-        <v>107</v>
-      </c>
       <c r="W30" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X30" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y30" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z30" t="s">
         <v>13</v>
       </c>
-      <c r="Z30" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC30" t="s">
+      <c r="AA30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD30" t="s">
         <v>34</v>
       </c>
-      <c r="AD30" t="s">
-        <v>14</v>
-      </c>
       <c r="AE30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43914</v>
       </c>
       <c r="B31">
         <v>-28</v>
       </c>
-      <c r="N31" t="s">
+      <c r="E31" s="7">
+        <v>43947</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" t="s">
         <v>97</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>17</v>
       </c>
-      <c r="P31" t="s">
-        <v>109</v>
-      </c>
       <c r="Q31" t="s">
+        <v>109</v>
+      </c>
+      <c r="R31" t="s">
         <v>16</v>
       </c>
-      <c r="R31" t="s">
-        <v>109</v>
-      </c>
       <c r="S31" t="s">
+        <v>109</v>
+      </c>
+      <c r="T31" t="s">
         <v>17</v>
       </c>
-      <c r="T31" t="s">
-        <v>109</v>
-      </c>
       <c r="U31" t="s">
+        <v>109</v>
+      </c>
+      <c r="V31" t="s">
         <v>17</v>
       </c>
-      <c r="V31" t="s">
-        <v>109</v>
-      </c>
       <c r="W31" t="s">
+        <v>109</v>
+      </c>
+      <c r="X31" t="s">
         <v>17</v>
       </c>
-      <c r="X31" t="s">
-        <v>109</v>
-      </c>
       <c r="Y31" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z31" t="s">
         <v>16</v>
       </c>
-      <c r="Z31" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC31" t="s">
+      <c r="AA31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD31" t="s">
         <v>70</v>
       </c>
-      <c r="AD31" t="s">
-        <v>14</v>
-      </c>
       <c r="AE31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43915</v>
       </c>
       <c r="B32">
         <v>-32</v>
       </c>
-      <c r="N32" t="s">
+      <c r="E32" s="7">
+        <v>43982</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" t="s">
         <v>25</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>13</v>
       </c>
-      <c r="P32" t="s">
-        <v>107</v>
-      </c>
       <c r="Q32" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R32" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S32" t="s">
+        <v>108</v>
+      </c>
+      <c r="T32" t="s">
         <v>120</v>
       </c>
-      <c r="T32" t="s">
-        <v>108</v>
-      </c>
       <c r="U32" t="s">
+        <v>108</v>
+      </c>
+      <c r="V32" t="s">
         <v>13</v>
       </c>
-      <c r="V32" t="s">
-        <v>107</v>
-      </c>
       <c r="W32" t="s">
+        <v>107</v>
+      </c>
+      <c r="X32" t="s">
         <v>15</v>
       </c>
-      <c r="X32" t="s">
-        <v>108</v>
-      </c>
       <c r="Y32" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD32" t="s">
         <v>37</v>
       </c>
-      <c r="AD32" t="s">
-        <v>14</v>
-      </c>
       <c r="AE32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43916</v>
       </c>
       <c r="B33">
         <v>-34</v>
       </c>
-      <c r="N33" t="s">
+      <c r="E33" s="7">
+        <v>44002</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33" t="s">
         <v>74</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>16</v>
       </c>
-      <c r="P33" t="s">
-        <v>109</v>
-      </c>
       <c r="Q33" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="R33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z33" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD33" t="s">
         <v>82</v>
       </c>
-      <c r="AD33" t="s">
-        <v>14</v>
-      </c>
       <c r="AE33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43917</v>
       </c>
       <c r="B34">
         <v>-50</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>39</v>
       </c>
-      <c r="O34" t="s">
-        <v>14</v>
-      </c>
       <c r="P34" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q34" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R34" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S34" t="s">
+        <v>108</v>
+      </c>
+      <c r="T34" t="s">
         <v>12</v>
       </c>
-      <c r="T34" t="s">
-        <v>107</v>
-      </c>
       <c r="U34" t="s">
+        <v>107</v>
+      </c>
+      <c r="V34" t="s">
         <v>13</v>
       </c>
-      <c r="V34" t="s">
-        <v>107</v>
-      </c>
       <c r="W34" t="s">
+        <v>107</v>
+      </c>
+      <c r="X34" t="s">
         <v>13</v>
       </c>
-      <c r="X34" t="s">
-        <v>107</v>
-      </c>
       <c r="Y34" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z34" t="s">
         <v>13</v>
       </c>
-      <c r="Z34" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC34" t="s">
+      <c r="AA34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD34" t="s">
         <v>20</v>
       </c>
-      <c r="AD34" t="s">
-        <v>14</v>
-      </c>
       <c r="AE34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43918</v>
       </c>
       <c r="B35">
         <v>-80</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>92</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>16</v>
       </c>
-      <c r="P35" t="s">
-        <v>109</v>
-      </c>
       <c r="Q35" t="s">
+        <v>109</v>
+      </c>
+      <c r="R35" t="s">
         <v>15</v>
       </c>
-      <c r="R35" t="s">
-        <v>108</v>
-      </c>
       <c r="S35" t="s">
+        <v>108</v>
+      </c>
+      <c r="T35" t="s">
         <v>121</v>
       </c>
-      <c r="T35" t="s">
-        <v>109</v>
-      </c>
       <c r="U35" t="s">
+        <v>109</v>
+      </c>
+      <c r="V35" t="s">
         <v>121</v>
       </c>
-      <c r="V35" t="s">
-        <v>109</v>
-      </c>
       <c r="W35" t="s">
+        <v>109</v>
+      </c>
+      <c r="X35" t="s">
         <v>16</v>
       </c>
-      <c r="X35" t="s">
-        <v>109</v>
-      </c>
       <c r="Y35" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z35" t="s">
         <v>121</v>
       </c>
-      <c r="Z35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC35" t="s">
+      <c r="AA35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD35" t="s">
         <v>81</v>
       </c>
-      <c r="AD35" t="s">
-        <v>14</v>
-      </c>
       <c r="AE35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43919</v>
       </c>
       <c r="B36">
         <v>-75</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>75</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>12</v>
       </c>
-      <c r="P36" t="s">
-        <v>107</v>
-      </c>
       <c r="Q36" t="s">
+        <v>107</v>
+      </c>
+      <c r="R36" t="s">
         <v>13</v>
       </c>
-      <c r="R36" t="s">
-        <v>107</v>
-      </c>
       <c r="S36" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T36" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U36" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V36" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W36" t="s">
+        <v>108</v>
+      </c>
+      <c r="X36" t="s">
         <v>13</v>
       </c>
-      <c r="X36" t="s">
-        <v>107</v>
-      </c>
       <c r="Y36" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z36" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD36" t="s">
         <v>86</v>
       </c>
-      <c r="AD36" t="s">
-        <v>14</v>
-      </c>
       <c r="AE36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43920</v>
       </c>
       <c r="B37">
         <v>-45</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>40</v>
       </c>
-      <c r="O37" t="s">
-        <v>14</v>
-      </c>
       <c r="P37" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q37" t="s">
+        <v>108</v>
+      </c>
+      <c r="R37" t="s">
         <v>12</v>
       </c>
-      <c r="R37" t="s">
-        <v>107</v>
-      </c>
       <c r="S37" t="s">
+        <v>107</v>
+      </c>
+      <c r="T37" t="s">
         <v>13</v>
       </c>
-      <c r="T37" t="s">
-        <v>107</v>
-      </c>
       <c r="U37" t="s">
+        <v>107</v>
+      </c>
+      <c r="V37" t="s">
         <v>12</v>
       </c>
-      <c r="V37" t="s">
-        <v>107</v>
-      </c>
       <c r="W37" t="s">
+        <v>107</v>
+      </c>
+      <c r="X37" t="s">
         <v>12</v>
       </c>
-      <c r="X37" t="s">
-        <v>107</v>
-      </c>
       <c r="Y37" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z37" t="s">
         <v>12</v>
       </c>
-      <c r="Z37" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC37" t="s">
+      <c r="AA37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD37" t="s">
         <v>64</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>15</v>
       </c>
-      <c r="AE37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43921</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>111</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>16</v>
       </c>
-      <c r="P38" t="s">
-        <v>109</v>
-      </c>
       <c r="Q38" t="s">
+        <v>109</v>
+      </c>
+      <c r="R38" t="s">
         <v>13</v>
       </c>
-      <c r="R38" t="s">
-        <v>107</v>
-      </c>
       <c r="S38" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD38" t="s">
         <v>33</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>15</v>
       </c>
-      <c r="AE38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="N39" t="s">
+      <c r="AF38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O39" t="s">
         <v>19</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>12</v>
       </c>
-      <c r="P39" t="s">
-        <v>107</v>
-      </c>
       <c r="Q39" t="s">
+        <v>107</v>
+      </c>
+      <c r="R39" t="s">
         <v>12</v>
       </c>
-      <c r="R39" t="s">
-        <v>107</v>
-      </c>
       <c r="S39" t="s">
+        <v>107</v>
+      </c>
+      <c r="T39" t="s">
         <v>12</v>
       </c>
-      <c r="T39" t="s">
-        <v>107</v>
-      </c>
       <c r="U39" t="s">
+        <v>107</v>
+      </c>
+      <c r="V39" t="s">
         <v>12</v>
       </c>
-      <c r="V39" t="s">
-        <v>107</v>
-      </c>
       <c r="W39" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X39" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y39" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z39" t="s">
         <v>12</v>
       </c>
-      <c r="Z39" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC39" t="s">
+      <c r="AA39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD39" t="s">
         <v>73</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AE39" t="s">
         <v>15</v>
       </c>
-      <c r="AE39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="N40" t="s">
+      <c r="AF39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O40" t="s">
         <v>20</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>10</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>106</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>10</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>106</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>10</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>106</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>12</v>
       </c>
-      <c r="V40" t="s">
-        <v>107</v>
-      </c>
       <c r="W40" t="s">
+        <v>107</v>
+      </c>
+      <c r="X40" t="s">
         <v>12</v>
       </c>
-      <c r="X40" t="s">
-        <v>107</v>
-      </c>
       <c r="Y40" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z40" t="s">
         <v>10</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>106</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AD40" t="s">
         <v>53</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AE40" t="s">
         <v>15</v>
       </c>
-      <c r="AE40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="N41" t="s">
+      <c r="AF40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O41" t="s">
         <v>41</v>
       </c>
-      <c r="O41" t="s">
-        <v>14</v>
-      </c>
       <c r="P41" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q41" t="s">
+        <v>108</v>
+      </c>
+      <c r="R41" t="s">
         <v>15</v>
       </c>
-      <c r="R41" t="s">
-        <v>108</v>
-      </c>
       <c r="S41" t="s">
+        <v>108</v>
+      </c>
+      <c r="T41" t="s">
         <v>15</v>
       </c>
-      <c r="T41" t="s">
-        <v>108</v>
-      </c>
       <c r="U41" t="s">
+        <v>108</v>
+      </c>
+      <c r="V41" t="s">
         <v>16</v>
       </c>
-      <c r="V41" t="s">
-        <v>109</v>
-      </c>
       <c r="W41" t="s">
+        <v>109</v>
+      </c>
+      <c r="X41" t="s">
         <v>121</v>
       </c>
-      <c r="X41" t="s">
-        <v>109</v>
-      </c>
       <c r="Y41" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z41" t="s">
         <v>16</v>
       </c>
-      <c r="Z41" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC41" t="s">
+      <c r="AA41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD41" t="s">
         <v>43</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AE41" t="s">
         <v>15</v>
       </c>
-      <c r="AE41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="N42" t="s">
+      <c r="AF41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O42" t="s">
         <v>42</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>16</v>
       </c>
-      <c r="P42" t="s">
-        <v>109</v>
-      </c>
       <c r="Q42" t="s">
+        <v>109</v>
+      </c>
+      <c r="R42" t="s">
         <v>13</v>
       </c>
-      <c r="R42" t="s">
-        <v>107</v>
-      </c>
       <c r="S42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T42" t="s">
         <v>12</v>
       </c>
-      <c r="T42" t="s">
-        <v>107</v>
-      </c>
       <c r="U42" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V42" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W42" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X42" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y42" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z42" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC42" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD42" t="s">
         <v>51</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AE42" t="s">
         <v>15</v>
       </c>
-      <c r="AE42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="N43" t="s">
+      <c r="AF42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O43" t="s">
         <v>76</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>17</v>
       </c>
-      <c r="P43" t="s">
-        <v>109</v>
-      </c>
       <c r="Q43" t="s">
+        <v>109</v>
+      </c>
+      <c r="R43" t="s">
         <v>121</v>
       </c>
-      <c r="R43" t="s">
-        <v>109</v>
-      </c>
       <c r="S43" t="s">
+        <v>109</v>
+      </c>
+      <c r="T43" t="s">
         <v>15</v>
       </c>
-      <c r="T43" t="s">
-        <v>108</v>
-      </c>
       <c r="U43" t="s">
+        <v>108</v>
+      </c>
+      <c r="V43" t="s">
         <v>121</v>
       </c>
-      <c r="V43" t="s">
-        <v>109</v>
-      </c>
       <c r="W43" t="s">
+        <v>109</v>
+      </c>
+      <c r="X43" t="s">
         <v>121</v>
       </c>
-      <c r="X43" t="s">
-        <v>109</v>
-      </c>
       <c r="Y43" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z43" t="s">
         <v>16</v>
       </c>
-      <c r="Z43" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC43" t="s">
+      <c r="AA43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD43" t="s">
         <v>23</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AE43" t="s">
         <v>120</v>
       </c>
-      <c r="AE43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="N44" t="s">
+      <c r="AF43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O44" t="s">
         <v>77</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>12</v>
       </c>
-      <c r="P44" t="s">
-        <v>107</v>
-      </c>
       <c r="Q44" t="s">
+        <v>107</v>
+      </c>
+      <c r="R44" t="s">
         <v>12</v>
       </c>
-      <c r="R44" t="s">
-        <v>107</v>
-      </c>
       <c r="S44" t="s">
+        <v>107</v>
+      </c>
+      <c r="T44" t="s">
         <v>11</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>106</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>13</v>
       </c>
-      <c r="V44" t="s">
-        <v>107</v>
-      </c>
       <c r="W44" t="s">
+        <v>107</v>
+      </c>
+      <c r="X44" t="s">
         <v>12</v>
       </c>
-      <c r="X44" t="s">
-        <v>107</v>
-      </c>
       <c r="Y44" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z44" t="s">
         <v>13</v>
       </c>
-      <c r="Z44" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC44" t="s">
+      <c r="AA44" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD44" t="s">
         <v>22</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AE44" t="s">
         <v>120</v>
       </c>
-      <c r="AE44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="N45" t="s">
+      <c r="AF44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O45" t="s">
         <v>78</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>12</v>
       </c>
-      <c r="P45" t="s">
-        <v>107</v>
-      </c>
       <c r="Q45" t="s">
+        <v>107</v>
+      </c>
+      <c r="R45" t="s">
         <v>11</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>106</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>13</v>
       </c>
-      <c r="T45" t="s">
-        <v>107</v>
-      </c>
       <c r="U45" t="s">
+        <v>107</v>
+      </c>
+      <c r="V45" t="s">
         <v>13</v>
       </c>
-      <c r="V45" t="s">
-        <v>107</v>
-      </c>
       <c r="W45" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X45" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y45" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD45" t="s">
         <v>80</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AE45" t="s">
         <v>16</v>
       </c>
-      <c r="AE45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="N46" t="s">
+      <c r="AF45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O46" t="s">
         <v>26</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>16</v>
       </c>
-      <c r="P46" t="s">
-        <v>109</v>
-      </c>
       <c r="Q46" t="s">
+        <v>109</v>
+      </c>
+      <c r="R46" t="s">
         <v>15</v>
       </c>
-      <c r="R46" t="s">
-        <v>108</v>
-      </c>
       <c r="S46" t="s">
+        <v>108</v>
+      </c>
+      <c r="T46" t="s">
         <v>15</v>
       </c>
-      <c r="T46" t="s">
-        <v>108</v>
-      </c>
       <c r="U46" t="s">
+        <v>108</v>
+      </c>
+      <c r="V46" t="s">
         <v>121</v>
       </c>
-      <c r="V46" t="s">
-        <v>109</v>
-      </c>
       <c r="W46" t="s">
+        <v>109</v>
+      </c>
+      <c r="X46" t="s">
         <v>121</v>
       </c>
-      <c r="X46" t="s">
-        <v>109</v>
-      </c>
       <c r="Y46" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="Z46" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC46" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD46" t="s">
         <v>90</v>
       </c>
-      <c r="AD46" t="s">
+      <c r="AE46" t="s">
         <v>16</v>
       </c>
-      <c r="AE46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="N47" t="s">
+      <c r="AF46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O47" t="s">
         <v>93</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>17</v>
       </c>
-      <c r="P47" t="s">
-        <v>109</v>
-      </c>
       <c r="Q47" t="s">
+        <v>109</v>
+      </c>
+      <c r="R47" t="s">
         <v>121</v>
       </c>
-      <c r="R47" t="s">
-        <v>109</v>
-      </c>
       <c r="S47" t="s">
+        <v>109</v>
+      </c>
+      <c r="T47" t="s">
         <v>121</v>
       </c>
-      <c r="T47" t="s">
-        <v>109</v>
-      </c>
       <c r="U47" t="s">
+        <v>109</v>
+      </c>
+      <c r="V47" t="s">
         <v>121</v>
       </c>
-      <c r="V47" t="s">
-        <v>109</v>
-      </c>
       <c r="W47" t="s">
+        <v>109</v>
+      </c>
+      <c r="X47" t="s">
         <v>16</v>
       </c>
-      <c r="X47" t="s">
-        <v>109</v>
-      </c>
       <c r="Y47" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z47" t="s">
         <v>121</v>
       </c>
-      <c r="Z47" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC47" t="s">
+      <c r="AA47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD47" t="s">
         <v>26</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AE47" t="s">
         <v>16</v>
       </c>
-      <c r="AE47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="N48" t="s">
+      <c r="AF47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O48" t="s">
         <v>43</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>16</v>
       </c>
-      <c r="P48" t="s">
-        <v>109</v>
-      </c>
       <c r="Q48" t="s">
+        <v>109</v>
+      </c>
+      <c r="R48" t="s">
         <v>12</v>
       </c>
-      <c r="R48" t="s">
-        <v>107</v>
-      </c>
       <c r="S48" t="s">
+        <v>107</v>
+      </c>
+      <c r="T48" t="s">
         <v>13</v>
       </c>
-      <c r="T48" t="s">
-        <v>107</v>
-      </c>
       <c r="U48" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V48" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W48" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X48" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y48" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z48" t="s">
         <v>13</v>
       </c>
-      <c r="Z48" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC48" t="s">
+      <c r="AA48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD48" t="s">
         <v>58</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="AE48" t="s">
         <v>16</v>
       </c>
-      <c r="AE48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N49" t="s">
+      <c r="AF48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O49" t="s">
         <v>98</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>17</v>
       </c>
-      <c r="P49" t="s">
-        <v>109</v>
-      </c>
       <c r="Q49" t="s">
+        <v>109</v>
+      </c>
+      <c r="R49" t="s">
         <v>121</v>
       </c>
-      <c r="R49" t="s">
-        <v>109</v>
-      </c>
       <c r="S49" t="s">
+        <v>109</v>
+      </c>
+      <c r="T49" t="s">
         <v>15</v>
       </c>
-      <c r="T49" t="s">
-        <v>108</v>
-      </c>
       <c r="U49" t="s">
+        <v>108</v>
+      </c>
+      <c r="V49" t="s">
         <v>121</v>
       </c>
-      <c r="V49" t="s">
-        <v>109</v>
-      </c>
       <c r="W49" t="s">
+        <v>109</v>
+      </c>
+      <c r="X49" t="s">
         <v>16</v>
       </c>
-      <c r="X49" t="s">
-        <v>109</v>
-      </c>
       <c r="Y49" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z49" t="s">
         <v>121</v>
       </c>
-      <c r="Z49" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC49" t="s">
+      <c r="AA49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD49" t="s">
         <v>44</v>
       </c>
-      <c r="AD49" t="s">
+      <c r="AE49" t="s">
         <v>16</v>
       </c>
-      <c r="AE49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N50" t="s">
+      <c r="AF49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
         <v>99</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>17</v>
       </c>
-      <c r="P50" t="s">
-        <v>109</v>
-      </c>
       <c r="Q50" t="s">
+        <v>109</v>
+      </c>
+      <c r="R50" t="s">
         <v>15</v>
       </c>
-      <c r="R50" t="s">
-        <v>108</v>
-      </c>
       <c r="S50" t="s">
+        <v>108</v>
+      </c>
+      <c r="T50" t="s">
         <v>15</v>
       </c>
-      <c r="T50" t="s">
-        <v>108</v>
-      </c>
       <c r="U50" t="s">
+        <v>108</v>
+      </c>
+      <c r="V50" t="s">
         <v>15</v>
       </c>
-      <c r="V50" t="s">
-        <v>108</v>
-      </c>
       <c r="W50" t="s">
+        <v>108</v>
+      </c>
+      <c r="X50" t="s">
         <v>121</v>
       </c>
-      <c r="X50" t="s">
-        <v>109</v>
-      </c>
       <c r="Y50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z50" t="s">
         <v>15</v>
       </c>
-      <c r="Z50" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC50" t="s">
+      <c r="AA50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD50" t="s">
         <v>25</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AE50" t="s">
         <v>16</v>
       </c>
-      <c r="AE50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N51" t="s">
+      <c r="AF50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O51" t="s">
         <v>44</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>17</v>
       </c>
-      <c r="P51" t="s">
-        <v>109</v>
-      </c>
       <c r="Q51" t="s">
+        <v>109</v>
+      </c>
+      <c r="R51" t="s">
         <v>121</v>
       </c>
-      <c r="R51" t="s">
-        <v>109</v>
-      </c>
       <c r="S51" t="s">
+        <v>109</v>
+      </c>
+      <c r="T51" t="s">
         <v>15</v>
       </c>
-      <c r="T51" t="s">
-        <v>108</v>
-      </c>
       <c r="U51" t="s">
+        <v>108</v>
+      </c>
+      <c r="V51" t="s">
         <v>16</v>
       </c>
-      <c r="V51" t="s">
-        <v>109</v>
-      </c>
       <c r="W51" t="s">
+        <v>109</v>
+      </c>
+      <c r="X51" t="s">
         <v>16</v>
       </c>
-      <c r="X51" t="s">
-        <v>109</v>
-      </c>
       <c r="Y51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z51" t="s">
         <v>121</v>
       </c>
-      <c r="Z51" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC51" t="s">
+      <c r="AA51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD51" t="s">
         <v>72</v>
       </c>
-      <c r="AD51" t="s">
+      <c r="AE51" t="s">
         <v>16</v>
       </c>
-      <c r="AE51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N52" t="s">
+      <c r="AF51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O52" t="s">
         <v>79</v>
       </c>
-      <c r="O52" t="s">
-        <v>14</v>
-      </c>
       <c r="P52" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q52" t="s">
+        <v>108</v>
+      </c>
+      <c r="R52" t="s">
         <v>12</v>
       </c>
-      <c r="R52" t="s">
-        <v>107</v>
-      </c>
       <c r="S52" t="s">
+        <v>107</v>
+      </c>
+      <c r="T52" t="s">
         <v>13</v>
       </c>
-      <c r="T52" t="s">
-        <v>107</v>
-      </c>
       <c r="U52" t="s">
+        <v>107</v>
+      </c>
+      <c r="V52" t="s">
         <v>13</v>
       </c>
-      <c r="V52" t="s">
-        <v>107</v>
-      </c>
       <c r="W52" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X52" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y52" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z52" t="s">
         <v>13</v>
       </c>
-      <c r="Z52" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC52" t="s">
+      <c r="AA52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD52" t="s">
         <v>68</v>
       </c>
-      <c r="AD52" t="s">
+      <c r="AE52" t="s">
         <v>16</v>
       </c>
-      <c r="AE52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N53" t="s">
+      <c r="AF52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O53" t="s">
         <v>27</v>
       </c>
-      <c r="O53" t="s">
-        <v>14</v>
-      </c>
       <c r="P53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q53" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S53" t="s">
+        <v>108</v>
+      </c>
+      <c r="T53" t="s">
         <v>12</v>
       </c>
-      <c r="T53" t="s">
-        <v>107</v>
-      </c>
       <c r="U53" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W53" t="s">
+        <v>108</v>
+      </c>
+      <c r="X53" t="s">
         <v>121</v>
       </c>
-      <c r="X53" t="s">
-        <v>109</v>
-      </c>
       <c r="Y53" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z53" t="s">
         <v>120</v>
       </c>
-      <c r="Z53" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC53" t="s">
+      <c r="AA53" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD53" t="s">
         <v>100</v>
       </c>
-      <c r="AD53" t="s">
+      <c r="AE53" t="s">
         <v>16</v>
       </c>
-      <c r="AE53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N54" t="s">
+      <c r="AF53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O54" t="s">
         <v>80</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>18</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>110</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>15</v>
       </c>
-      <c r="R54" t="s">
-        <v>108</v>
-      </c>
       <c r="S54" t="s">
+        <v>108</v>
+      </c>
+      <c r="T54" t="s">
         <v>15</v>
       </c>
-      <c r="T54" t="s">
-        <v>108</v>
-      </c>
       <c r="U54" t="s">
+        <v>108</v>
+      </c>
+      <c r="V54" t="s">
         <v>120</v>
       </c>
-      <c r="V54" t="s">
-        <v>108</v>
-      </c>
       <c r="W54" t="s">
+        <v>108</v>
+      </c>
+      <c r="X54" t="s">
         <v>121</v>
       </c>
-      <c r="X54" t="s">
-        <v>109</v>
-      </c>
       <c r="Y54" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z54" t="s">
         <v>13</v>
       </c>
-      <c r="Z54" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC54" t="s">
+      <c r="AA54" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD54" t="s">
         <v>102</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AE54" t="s">
         <v>16</v>
       </c>
-      <c r="AE54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N55" t="s">
+      <c r="AF54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O55" t="s">
         <v>45</v>
       </c>
-      <c r="O55" t="s">
-        <v>14</v>
-      </c>
       <c r="P55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q55" t="s">
+        <v>108</v>
+      </c>
+      <c r="R55" t="s">
         <v>12</v>
       </c>
-      <c r="R55" t="s">
-        <v>107</v>
-      </c>
       <c r="S55" t="s">
+        <v>107</v>
+      </c>
+      <c r="T55" t="s">
         <v>11</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>106</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>12</v>
       </c>
-      <c r="V55" t="s">
-        <v>107</v>
-      </c>
       <c r="W55" t="s">
+        <v>107</v>
+      </c>
+      <c r="X55" t="s">
         <v>13</v>
       </c>
-      <c r="X55" t="s">
-        <v>107</v>
-      </c>
       <c r="Y55" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z55" t="s">
         <v>12</v>
       </c>
-      <c r="Z55" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC55" t="s">
+      <c r="AA55" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD55" t="s">
         <v>32</v>
       </c>
-      <c r="AD55" t="s">
+      <c r="AE55" t="s">
         <v>16</v>
       </c>
-      <c r="AE55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N56" t="s">
+      <c r="AF55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O56" t="s">
         <v>28</v>
       </c>
-      <c r="O56" t="s">
-        <v>14</v>
-      </c>
       <c r="P56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q56" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S56" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U56" t="s">
+        <v>108</v>
+      </c>
+      <c r="V56" t="s">
         <v>121</v>
       </c>
-      <c r="V56" t="s">
-        <v>109</v>
-      </c>
       <c r="W56" t="s">
+        <v>109</v>
+      </c>
+      <c r="X56" t="s">
         <v>18</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>110</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>16</v>
       </c>
-      <c r="Z56" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC56" t="s">
+      <c r="AA56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD56" t="s">
         <v>101</v>
       </c>
-      <c r="AD56" t="s">
+      <c r="AE56" t="s">
         <v>16</v>
       </c>
-      <c r="AE56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N57" t="s">
+      <c r="AF56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O57" t="s">
         <v>100</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>17</v>
       </c>
-      <c r="P57" t="s">
-        <v>109</v>
-      </c>
       <c r="Q57" t="s">
+        <v>109</v>
+      </c>
+      <c r="R57" t="s">
         <v>15</v>
       </c>
-      <c r="R57" t="s">
-        <v>108</v>
-      </c>
       <c r="S57" t="s">
+        <v>108</v>
+      </c>
+      <c r="T57" t="s">
         <v>15</v>
       </c>
-      <c r="T57" t="s">
-        <v>108</v>
-      </c>
       <c r="U57" t="s">
+        <v>108</v>
+      </c>
+      <c r="V57" t="s">
         <v>15</v>
       </c>
-      <c r="V57" t="s">
-        <v>108</v>
-      </c>
       <c r="W57" t="s">
+        <v>108</v>
+      </c>
+      <c r="X57" t="s">
         <v>121</v>
       </c>
-      <c r="X57" t="s">
-        <v>109</v>
-      </c>
       <c r="Y57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z57" t="s">
         <v>15</v>
       </c>
-      <c r="Z57" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC57" t="s">
+      <c r="AA57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD57" t="s">
         <v>99</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AE57" t="s">
         <v>16</v>
       </c>
-      <c r="AE57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N58" t="s">
+      <c r="AF57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O58" t="s">
         <v>101</v>
       </c>
-      <c r="O58" t="s">
-        <v>14</v>
-      </c>
       <c r="P58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q58" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S58" t="s">
+        <v>108</v>
+      </c>
+      <c r="T58" t="s">
         <v>120</v>
       </c>
-      <c r="T58" t="s">
-        <v>108</v>
-      </c>
       <c r="U58" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W58" t="s">
+        <v>108</v>
+      </c>
+      <c r="X58" t="s">
         <v>121</v>
       </c>
-      <c r="X58" t="s">
-        <v>109</v>
-      </c>
       <c r="Y58" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z58" t="s">
         <v>15</v>
       </c>
-      <c r="Z58" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC58" t="s">
+      <c r="AA58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD58" t="s">
         <v>103</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AE58" t="s">
         <v>17</v>
       </c>
-      <c r="AE58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N59" t="s">
+      <c r="AF58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O59" t="s">
         <v>64</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>16</v>
       </c>
-      <c r="P59" t="s">
-        <v>109</v>
-      </c>
       <c r="Q59" t="s">
+        <v>109</v>
+      </c>
+      <c r="R59" t="s">
         <v>15</v>
       </c>
-      <c r="R59" t="s">
-        <v>108</v>
-      </c>
       <c r="S59" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T59" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V59" t="s">
         <v>15</v>
       </c>
-      <c r="V59" t="s">
-        <v>108</v>
-      </c>
       <c r="W59" t="s">
+        <v>108</v>
+      </c>
+      <c r="X59" t="s">
         <v>15</v>
       </c>
-      <c r="X59" t="s">
-        <v>108</v>
-      </c>
       <c r="Y59" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z59" t="s">
         <v>15</v>
       </c>
-      <c r="Z59" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC59" t="s">
+      <c r="AA59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD59" t="s">
         <v>76</v>
       </c>
-      <c r="AD59" t="s">
+      <c r="AE59" t="s">
         <v>17</v>
       </c>
-      <c r="AE59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N60" t="s">
+      <c r="AF59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O60" t="s">
         <v>81</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>16</v>
       </c>
-      <c r="P60" t="s">
-        <v>109</v>
-      </c>
       <c r="Q60" t="s">
+        <v>109</v>
+      </c>
+      <c r="R60" t="s">
         <v>13</v>
       </c>
-      <c r="R60" t="s">
-        <v>107</v>
-      </c>
       <c r="S60" t="s">
+        <v>107</v>
+      </c>
+      <c r="T60" t="s">
         <v>13</v>
       </c>
-      <c r="T60" t="s">
-        <v>107</v>
-      </c>
       <c r="U60" t="s">
+        <v>107</v>
+      </c>
+      <c r="V60" t="s">
         <v>13</v>
       </c>
-      <c r="V60" t="s">
-        <v>107</v>
-      </c>
       <c r="W60" t="s">
+        <v>107</v>
+      </c>
+      <c r="X60" t="s">
         <v>13</v>
       </c>
-      <c r="X60" t="s">
-        <v>107</v>
-      </c>
       <c r="Y60" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z60" t="s">
         <v>12</v>
       </c>
-      <c r="Z60" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC60" t="s">
+      <c r="AA60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD60" t="s">
         <v>98</v>
       </c>
-      <c r="AD60" t="s">
+      <c r="AE60" t="s">
         <v>17</v>
       </c>
-      <c r="AE60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N61" t="s">
+      <c r="AF60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O61" t="s">
         <v>65</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>13</v>
       </c>
-      <c r="P61" t="s">
-        <v>107</v>
-      </c>
       <c r="Q61" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R61" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S61" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T61" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U61" t="s">
+        <v>108</v>
+      </c>
+      <c r="V61" t="s">
         <v>15</v>
       </c>
-      <c r="V61" t="s">
-        <v>108</v>
-      </c>
       <c r="W61" t="s">
+        <v>108</v>
+      </c>
+      <c r="X61" t="s">
         <v>121</v>
       </c>
-      <c r="X61" t="s">
-        <v>109</v>
-      </c>
       <c r="Y61" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z61" t="s">
         <v>15</v>
       </c>
-      <c r="Z61" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC61" t="s">
+      <c r="AA61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD61" t="s">
         <v>30</v>
       </c>
-      <c r="AD61" t="s">
+      <c r="AE61" t="s">
         <v>121</v>
       </c>
-      <c r="AE61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N62" t="s">
+      <c r="AF61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O62" t="s">
         <v>82</v>
       </c>
-      <c r="O62" t="s">
-        <v>14</v>
-      </c>
       <c r="P62" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q62" t="s">
+        <v>108</v>
+      </c>
+      <c r="R62" t="s">
         <v>13</v>
       </c>
-      <c r="R62" t="s">
-        <v>107</v>
-      </c>
       <c r="S62" t="s">
+        <v>107</v>
+      </c>
+      <c r="T62" t="s">
         <v>13</v>
       </c>
-      <c r="T62" t="s">
-        <v>107</v>
-      </c>
       <c r="U62" t="s">
+        <v>107</v>
+      </c>
+      <c r="V62" t="s">
         <v>13</v>
       </c>
-      <c r="V62" t="s">
-        <v>107</v>
-      </c>
       <c r="W62" t="s">
+        <v>107</v>
+      </c>
+      <c r="X62" t="s">
         <v>13</v>
       </c>
-      <c r="X62" t="s">
-        <v>107</v>
-      </c>
       <c r="Y62" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z62" t="s">
         <v>13</v>
       </c>
-      <c r="Z62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC62" t="s">
+      <c r="AA62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD62" t="s">
         <v>27</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AE62" t="s">
         <v>121</v>
       </c>
-      <c r="AE62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N63" t="s">
+      <c r="AF62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O63" t="s">
         <v>29</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>13</v>
       </c>
-      <c r="P63" t="s">
-        <v>107</v>
-      </c>
       <c r="Q63" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S63" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U63" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W63" t="s">
+        <v>108</v>
+      </c>
+      <c r="X63" t="s">
         <v>121</v>
       </c>
-      <c r="X63" t="s">
-        <v>109</v>
-      </c>
       <c r="Y63" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="Z63" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC63" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD63" t="s">
         <v>65</v>
       </c>
-      <c r="AD63" t="s">
+      <c r="AE63" t="s">
         <v>121</v>
       </c>
-      <c r="AE63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N64" t="s">
+      <c r="AF63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O64" t="s">
         <v>46</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>10</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>106</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>12</v>
       </c>
-      <c r="R64" t="s">
-        <v>107</v>
-      </c>
       <c r="S64" t="s">
+        <v>107</v>
+      </c>
+      <c r="T64" t="s">
         <v>13</v>
       </c>
-      <c r="T64" t="s">
-        <v>107</v>
-      </c>
       <c r="U64" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V64" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W64" t="s">
+        <v>108</v>
+      </c>
+      <c r="X64" t="s">
         <v>13</v>
       </c>
-      <c r="X64" t="s">
-        <v>107</v>
-      </c>
       <c r="Y64" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z64" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD64" t="s">
         <v>24</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AE64" t="s">
         <v>121</v>
       </c>
-      <c r="AE64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N65" t="s">
+      <c r="AF64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O65" t="s">
         <v>47</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>16</v>
       </c>
-      <c r="P65" t="s">
-        <v>109</v>
-      </c>
       <c r="Q65" t="s">
+        <v>109</v>
+      </c>
+      <c r="R65" t="s">
         <v>12</v>
       </c>
-      <c r="R65" t="s">
-        <v>107</v>
-      </c>
       <c r="S65" t="s">
+        <v>107</v>
+      </c>
+      <c r="T65" t="s">
         <v>13</v>
       </c>
-      <c r="T65" t="s">
-        <v>107</v>
-      </c>
       <c r="U65" t="s">
+        <v>107</v>
+      </c>
+      <c r="V65" t="s">
         <v>12</v>
       </c>
-      <c r="V65" t="s">
-        <v>107</v>
-      </c>
       <c r="W65" t="s">
+        <v>107</v>
+      </c>
+      <c r="X65" t="s">
         <v>12</v>
       </c>
-      <c r="X65" t="s">
-        <v>107</v>
-      </c>
       <c r="Y65" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z65" t="s">
         <v>12</v>
       </c>
-      <c r="Z65" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC65" t="s">
+      <c r="AA65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD65" t="s">
         <v>96</v>
       </c>
-      <c r="AD65" t="s">
+      <c r="AE65" t="s">
         <v>121</v>
       </c>
-      <c r="AE65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N66" t="s">
+      <c r="AF65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O66" t="s">
         <v>48</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>16</v>
       </c>
-      <c r="P66" t="s">
-        <v>109</v>
-      </c>
       <c r="Q66" t="s">
+        <v>109</v>
+      </c>
+      <c r="R66" t="s">
         <v>13</v>
       </c>
-      <c r="R66" t="s">
-        <v>107</v>
-      </c>
       <c r="S66" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T66" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U66" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V66" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W66" t="s">
+        <v>108</v>
+      </c>
+      <c r="X66" t="s">
         <v>13</v>
       </c>
-      <c r="X66" t="s">
-        <v>107</v>
-      </c>
       <c r="Y66" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z66" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC66" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD66" t="s">
         <v>94</v>
       </c>
-      <c r="AD66" t="s">
+      <c r="AE66" t="s">
         <v>121</v>
       </c>
-      <c r="AE66" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N67" t="s">
+      <c r="AF66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O67" t="s">
         <v>83</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>17</v>
       </c>
-      <c r="P67" t="s">
-        <v>109</v>
-      </c>
       <c r="Q67" t="s">
+        <v>109</v>
+      </c>
+      <c r="R67" t="s">
         <v>121</v>
       </c>
-      <c r="R67" t="s">
-        <v>109</v>
-      </c>
       <c r="S67" t="s">
+        <v>109</v>
+      </c>
+      <c r="T67" t="s">
         <v>16</v>
       </c>
-      <c r="T67" t="s">
-        <v>109</v>
-      </c>
       <c r="U67" t="s">
+        <v>109</v>
+      </c>
+      <c r="V67" t="s">
         <v>17</v>
       </c>
-      <c r="V67" t="s">
-        <v>109</v>
-      </c>
       <c r="W67" t="s">
+        <v>109</v>
+      </c>
+      <c r="X67" t="s">
         <v>18</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>110</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>17</v>
       </c>
-      <c r="Z67" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC67" t="s">
+      <c r="AA67" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD67" t="s">
         <v>41</v>
       </c>
-      <c r="AD67" t="s">
+      <c r="AE67" t="s">
         <v>18</v>
       </c>
-      <c r="AE67" t="s">
+      <c r="AF67" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N68" t="s">
+    <row r="68" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O68" t="s">
         <v>84</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>16</v>
       </c>
-      <c r="P68" t="s">
-        <v>109</v>
-      </c>
       <c r="Q68" t="s">
+        <v>109</v>
+      </c>
+      <c r="R68" t="s">
         <v>13</v>
       </c>
-      <c r="R68" t="s">
-        <v>107</v>
-      </c>
       <c r="S68" t="s">
+        <v>107</v>
+      </c>
+      <c r="T68" t="s">
         <v>13</v>
       </c>
-      <c r="T68" t="s">
-        <v>107</v>
-      </c>
       <c r="U68" t="s">
+        <v>107</v>
+      </c>
+      <c r="V68" t="s">
         <v>13</v>
       </c>
-      <c r="V68" t="s">
-        <v>107</v>
-      </c>
       <c r="W68" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X68" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y68" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z68" t="s">
         <v>13</v>
       </c>
-      <c r="Z68" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC68" t="s">
+      <c r="AA68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD68" t="s">
         <v>66</v>
       </c>
-      <c r="AD68" t="s">
+      <c r="AE68" t="s">
         <v>18</v>
       </c>
-      <c r="AE68" t="s">
+      <c r="AF68" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N69" t="s">
+    <row r="69" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O69" t="s">
         <v>94</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>15</v>
       </c>
-      <c r="P69" t="s">
-        <v>108</v>
-      </c>
       <c r="Q69" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R69" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S69" t="s">
+        <v>108</v>
+      </c>
+      <c r="T69" t="s">
         <v>15</v>
       </c>
-      <c r="T69" t="s">
-        <v>108</v>
-      </c>
       <c r="U69" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V69" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W69" t="s">
+        <v>108</v>
+      </c>
+      <c r="X69" t="s">
         <v>15</v>
       </c>
-      <c r="X69" t="s">
-        <v>108</v>
-      </c>
       <c r="Y69" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z69" t="s">
         <v>15</v>
       </c>
-      <c r="Z69" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC69" t="s">
+      <c r="AA69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD69" t="s">
         <v>50</v>
       </c>
-      <c r="AD69" t="s">
+      <c r="AE69" t="s">
         <v>18</v>
       </c>
-      <c r="AE69" t="s">
+      <c r="AF69" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N70" t="s">
+    <row r="70" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O70" t="s">
         <v>31</v>
       </c>
-      <c r="O70" t="s">
-        <v>14</v>
-      </c>
       <c r="P70" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q70" t="s">
+        <v>108</v>
+      </c>
+      <c r="R70" t="s">
         <v>121</v>
       </c>
-      <c r="R70" t="s">
-        <v>109</v>
-      </c>
       <c r="S70" t="s">
+        <v>109</v>
+      </c>
+      <c r="T70" t="s">
         <v>121</v>
       </c>
-      <c r="T70" t="s">
-        <v>109</v>
-      </c>
       <c r="U70" t="s">
+        <v>109</v>
+      </c>
+      <c r="V70" t="s">
         <v>16</v>
       </c>
-      <c r="V70" t="s">
-        <v>109</v>
-      </c>
       <c r="W70" t="s">
+        <v>109</v>
+      </c>
+      <c r="X70" t="s">
         <v>18</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>110</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>121</v>
       </c>
-      <c r="Z70" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC70" t="s">
+      <c r="AA70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD70" t="s">
         <v>61</v>
       </c>
-      <c r="AD70" t="s">
+      <c r="AE70" t="s">
         <v>18</v>
       </c>
-      <c r="AE70" t="s">
+      <c r="AF70" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N71" t="s">
+    <row r="71" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O71" t="s">
         <v>95</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>16</v>
       </c>
-      <c r="P71" t="s">
-        <v>109</v>
-      </c>
       <c r="Q71" t="s">
+        <v>109</v>
+      </c>
+      <c r="R71" t="s">
         <v>17</v>
       </c>
-      <c r="R71" t="s">
-        <v>109</v>
-      </c>
       <c r="S71" t="s">
+        <v>109</v>
+      </c>
+      <c r="T71" t="s">
         <v>18</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>110</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>18</v>
       </c>
-      <c r="V71" t="s">
+      <c r="W71" t="s">
         <v>110</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>18</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>110</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>17</v>
       </c>
-      <c r="Z71" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC71" t="s">
+      <c r="AA71" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD71" t="s">
         <v>28</v>
       </c>
-      <c r="AD71" t="s">
+      <c r="AE71" t="s">
         <v>18</v>
       </c>
-      <c r="AE71" t="s">
+      <c r="AF71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N72" t="s">
+    <row r="72" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O72" t="s">
         <v>49</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>16</v>
       </c>
-      <c r="P72" t="s">
-        <v>109</v>
-      </c>
       <c r="Q72" t="s">
+        <v>109</v>
+      </c>
+      <c r="R72" t="s">
         <v>13</v>
       </c>
-      <c r="R72" t="s">
-        <v>107</v>
-      </c>
       <c r="S72" t="s">
+        <v>107</v>
+      </c>
+      <c r="T72" t="s">
         <v>13</v>
       </c>
-      <c r="T72" t="s">
-        <v>107</v>
-      </c>
       <c r="U72" t="s">
+        <v>107</v>
+      </c>
+      <c r="V72" t="s">
         <v>13</v>
       </c>
-      <c r="V72" t="s">
-        <v>107</v>
-      </c>
       <c r="W72" t="s">
+        <v>107</v>
+      </c>
+      <c r="X72" t="s">
         <v>13</v>
       </c>
-      <c r="X72" t="s">
-        <v>107</v>
-      </c>
       <c r="Y72" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z72" t="s">
         <v>13</v>
       </c>
-      <c r="Z72" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC72" t="s">
+      <c r="AA72" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD72" t="s">
         <v>67</v>
       </c>
-      <c r="AD72" t="s">
+      <c r="AE72" t="s">
         <v>18</v>
       </c>
-      <c r="AE72" t="s">
+      <c r="AF72" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N73" t="s">
+    <row r="73" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O73" t="s">
         <v>30</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>13</v>
       </c>
-      <c r="P73" t="s">
-        <v>107</v>
-      </c>
       <c r="Q73" t="s">
+        <v>107</v>
+      </c>
+      <c r="R73" t="s">
         <v>13</v>
       </c>
-      <c r="R73" t="s">
-        <v>107</v>
-      </c>
       <c r="S73" t="s">
+        <v>107</v>
+      </c>
+      <c r="T73" t="s">
         <v>126</v>
       </c>
-      <c r="T73" t="s">
-        <v>107</v>
-      </c>
       <c r="U73" t="s">
+        <v>107</v>
+      </c>
+      <c r="V73" t="s">
         <v>120</v>
       </c>
-      <c r="V73" t="s">
-        <v>108</v>
-      </c>
       <c r="W73" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X73" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y73" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z73" t="s">
         <v>126</v>
       </c>
-      <c r="Z73" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC73" t="s">
+      <c r="AA73" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD73" t="s">
         <v>62</v>
       </c>
-      <c r="AD73" t="s">
+      <c r="AE73" t="s">
         <v>18</v>
       </c>
-      <c r="AE73" t="s">
+      <c r="AF73" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N74" t="s">
+    <row r="74" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O74" t="s">
         <v>50</v>
       </c>
-      <c r="O74" t="s">
-        <v>14</v>
-      </c>
       <c r="P74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q74" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="R74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S74" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U74" t="s">
+        <v>108</v>
+      </c>
+      <c r="V74" t="s">
         <v>16</v>
       </c>
-      <c r="V74" t="s">
-        <v>109</v>
-      </c>
       <c r="W74" t="s">
+        <v>109</v>
+      </c>
+      <c r="X74" t="s">
         <v>17</v>
       </c>
-      <c r="X74" t="s">
-        <v>109</v>
-      </c>
       <c r="Y74" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z74" t="s">
         <v>121</v>
       </c>
-      <c r="Z74" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC74" t="s">
+      <c r="AA74" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD74" t="s">
         <v>35</v>
       </c>
-      <c r="AD74" t="s">
+      <c r="AE74" t="s">
         <v>18</v>
       </c>
-      <c r="AE74" t="s">
+      <c r="AF74" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N75" t="s">
+    <row r="75" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O75" t="s">
         <v>66</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>16</v>
       </c>
-      <c r="P75" t="s">
-        <v>109</v>
-      </c>
       <c r="Q75" t="s">
+        <v>109</v>
+      </c>
+      <c r="R75" t="s">
         <v>16</v>
       </c>
-      <c r="R75" t="s">
-        <v>109</v>
-      </c>
       <c r="S75" t="s">
+        <v>109</v>
+      </c>
+      <c r="T75" t="s">
         <v>16</v>
       </c>
-      <c r="T75" t="s">
-        <v>109</v>
-      </c>
       <c r="U75" t="s">
+        <v>109</v>
+      </c>
+      <c r="V75" t="s">
         <v>17</v>
       </c>
-      <c r="V75" t="s">
-        <v>109</v>
-      </c>
       <c r="W75" t="s">
+        <v>109</v>
+      </c>
+      <c r="X75" t="s">
         <v>18</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>110</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>18</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>110</v>
       </c>
-      <c r="AC75" t="s">
+      <c r="AD75" t="s">
         <v>54</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AE75" t="s">
         <v>18</v>
       </c>
-      <c r="AE75" t="s">
+      <c r="AF75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N76" t="s">
+    <row r="76" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O76" t="s">
         <v>85</v>
       </c>
-      <c r="O76" t="s">
-        <v>14</v>
-      </c>
       <c r="P76" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q76" t="s">
+        <v>108</v>
+      </c>
+      <c r="R76" t="s">
         <v>12</v>
       </c>
-      <c r="R76" t="s">
-        <v>107</v>
-      </c>
       <c r="S76" t="s">
+        <v>107</v>
+      </c>
+      <c r="T76" t="s">
         <v>12</v>
       </c>
-      <c r="T76" t="s">
-        <v>107</v>
-      </c>
       <c r="U76" t="s">
+        <v>107</v>
+      </c>
+      <c r="V76" t="s">
         <v>13</v>
       </c>
-      <c r="V76" t="s">
-        <v>107</v>
-      </c>
       <c r="W76" t="s">
+        <v>107</v>
+      </c>
+      <c r="X76" t="s">
         <v>13</v>
       </c>
-      <c r="X76" t="s">
-        <v>107</v>
-      </c>
       <c r="Y76" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z76" t="s">
         <v>12</v>
       </c>
-      <c r="Z76" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC76" t="s">
+      <c r="AA76" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD76" t="s">
         <v>21</v>
       </c>
-      <c r="AD76" t="s">
+      <c r="AE76" t="s">
         <v>18</v>
       </c>
-      <c r="AE76" t="s">
+      <c r="AF76" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N77" t="s">
+    <row r="77" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O77" t="s">
         <v>86</v>
       </c>
-      <c r="O77" t="s">
-        <v>14</v>
-      </c>
       <c r="P77" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q77" t="s">
+        <v>108</v>
+      </c>
+      <c r="R77" t="s">
         <v>12</v>
       </c>
-      <c r="R77" t="s">
-        <v>107</v>
-      </c>
       <c r="S77" t="s">
+        <v>107</v>
+      </c>
+      <c r="T77" t="s">
         <v>13</v>
       </c>
-      <c r="T77" t="s">
-        <v>107</v>
-      </c>
       <c r="U77" t="s">
+        <v>107</v>
+      </c>
+      <c r="V77" t="s">
         <v>13</v>
       </c>
-      <c r="V77" t="s">
-        <v>107</v>
-      </c>
       <c r="W77" t="s">
+        <v>107</v>
+      </c>
+      <c r="X77" t="s">
         <v>13</v>
       </c>
-      <c r="X77" t="s">
-        <v>107</v>
-      </c>
       <c r="Y77" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z77" t="s">
         <v>12</v>
       </c>
-      <c r="Z77" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC77" t="s">
+      <c r="AA77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD77" t="s">
         <v>83</v>
       </c>
-      <c r="AD77" t="s">
+      <c r="AE77" t="s">
         <v>18</v>
       </c>
-      <c r="AE77" t="s">
+      <c r="AF77" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N78" t="s">
+    <row r="78" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O78" t="s">
         <v>87</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>16</v>
       </c>
-      <c r="P78" t="s">
-        <v>109</v>
-      </c>
       <c r="Q78" t="s">
+        <v>109</v>
+      </c>
+      <c r="R78" t="s">
         <v>13</v>
       </c>
-      <c r="R78" t="s">
-        <v>107</v>
-      </c>
       <c r="S78" t="s">
+        <v>107</v>
+      </c>
+      <c r="T78" t="s">
         <v>13</v>
       </c>
-      <c r="T78" t="s">
-        <v>107</v>
-      </c>
       <c r="U78" t="s">
+        <v>107</v>
+      </c>
+      <c r="V78" t="s">
         <v>13</v>
       </c>
-      <c r="V78" t="s">
-        <v>107</v>
-      </c>
       <c r="W78" t="s">
+        <v>107</v>
+      </c>
+      <c r="X78" t="s">
         <v>13</v>
       </c>
-      <c r="X78" t="s">
-        <v>107</v>
-      </c>
       <c r="Y78" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z78" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC78" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD78" t="s">
         <v>29</v>
       </c>
-      <c r="AD78" t="s">
+      <c r="AE78" t="s">
         <v>18</v>
       </c>
-      <c r="AE78" t="s">
+      <c r="AF78" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N79" t="s">
+    <row r="79" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O79" t="s">
         <v>104</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>12</v>
       </c>
-      <c r="P79" t="s">
-        <v>107</v>
-      </c>
       <c r="Q79" t="s">
+        <v>107</v>
+      </c>
+      <c r="R79" t="s">
         <v>13</v>
       </c>
-      <c r="R79" t="s">
-        <v>107</v>
-      </c>
       <c r="S79" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T79" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U79" t="s">
+        <v>108</v>
+      </c>
+      <c r="V79" t="s">
         <v>13</v>
       </c>
-      <c r="V79" t="s">
-        <v>107</v>
-      </c>
       <c r="W79" t="s">
+        <v>107</v>
+      </c>
+      <c r="X79" t="s">
         <v>12</v>
       </c>
-      <c r="X79" t="s">
-        <v>107</v>
-      </c>
       <c r="Y79" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z79" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC79" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD79" t="s">
         <v>57</v>
       </c>
-      <c r="AD79" t="s">
+      <c r="AE79" t="s">
         <v>18</v>
       </c>
-      <c r="AE79" t="s">
+      <c r="AF79" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N80" t="s">
+    <row r="80" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O80" t="s">
         <v>51</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>16</v>
       </c>
-      <c r="P80" t="s">
-        <v>109</v>
-      </c>
       <c r="Q80" t="s">
+        <v>109</v>
+      </c>
+      <c r="R80" t="s">
         <v>13</v>
       </c>
-      <c r="R80" t="s">
-        <v>107</v>
-      </c>
       <c r="S80" t="s">
+        <v>107</v>
+      </c>
+      <c r="T80" t="s">
         <v>13</v>
       </c>
-      <c r="T80" t="s">
-        <v>107</v>
-      </c>
       <c r="U80" t="s">
+        <v>107</v>
+      </c>
+      <c r="V80" t="s">
         <v>12</v>
       </c>
-      <c r="V80" t="s">
-        <v>107</v>
-      </c>
       <c r="W80" t="s">
+        <v>107</v>
+      </c>
+      <c r="X80" t="s">
         <v>13</v>
       </c>
-      <c r="X80" t="s">
-        <v>107</v>
-      </c>
       <c r="Y80" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z80" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC80" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD80" t="s">
         <v>63</v>
       </c>
-      <c r="AD80" t="s">
+      <c r="AE80" t="s">
         <v>18</v>
       </c>
-      <c r="AE80" t="s">
+      <c r="AF80" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N81" t="s">
+    <row r="81" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O81" t="s">
         <v>52</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>16</v>
       </c>
-      <c r="P81" t="s">
-        <v>109</v>
-      </c>
       <c r="Q81" t="s">
+        <v>109</v>
+      </c>
+      <c r="R81" t="s">
         <v>12</v>
       </c>
-      <c r="R81" t="s">
-        <v>107</v>
-      </c>
       <c r="S81" t="s">
+        <v>107</v>
+      </c>
+      <c r="T81" t="s">
         <v>13</v>
       </c>
-      <c r="T81" t="s">
-        <v>107</v>
-      </c>
       <c r="U81" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V81" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W81" t="s">
+        <v>108</v>
+      </c>
+      <c r="X81" t="s">
         <v>13</v>
       </c>
-      <c r="X81" t="s">
-        <v>107</v>
-      </c>
       <c r="Y81" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z81" t="s">
         <v>12</v>
       </c>
-      <c r="Z81" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC81" t="s">
+      <c r="AA81" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD81" t="s">
         <v>55</v>
       </c>
-      <c r="AD81" t="s">
+      <c r="AE81" t="s">
         <v>18</v>
       </c>
-      <c r="AE81" t="s">
+      <c r="AF81" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N82" t="s">
+    <row r="82" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O82" t="s">
         <v>53</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>16</v>
       </c>
-      <c r="P82" t="s">
-        <v>109</v>
-      </c>
       <c r="Q82" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="R82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S82" t="s">
+        <v>108</v>
+      </c>
+      <c r="T82" t="s">
         <v>13</v>
       </c>
-      <c r="T82" t="s">
-        <v>107</v>
-      </c>
       <c r="U82" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W82" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y82" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z82" t="s">
         <v>13</v>
       </c>
-      <c r="Z82" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC82" t="s">
+      <c r="AA82" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD82" t="s">
         <v>31</v>
       </c>
-      <c r="AD82" t="s">
+      <c r="AE82" t="s">
         <v>18</v>
       </c>
-      <c r="AE82" t="s">
+      <c r="AF82" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N83" t="s">
+    <row r="83" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O83" t="s">
         <v>54</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>15</v>
       </c>
-      <c r="P83" t="s">
-        <v>108</v>
-      </c>
       <c r="Q83" t="s">
+        <v>108</v>
+      </c>
+      <c r="R83" t="s">
         <v>16</v>
       </c>
-      <c r="R83" t="s">
-        <v>109</v>
-      </c>
       <c r="S83" t="s">
+        <v>109</v>
+      </c>
+      <c r="T83" t="s">
         <v>16</v>
       </c>
-      <c r="T83" t="s">
-        <v>109</v>
-      </c>
       <c r="U83" t="s">
+        <v>109</v>
+      </c>
+      <c r="V83" t="s">
         <v>16</v>
       </c>
-      <c r="V83" t="s">
-        <v>109</v>
-      </c>
       <c r="W83" t="s">
+        <v>109</v>
+      </c>
+      <c r="X83" t="s">
         <v>17</v>
       </c>
-      <c r="X83" t="s">
-        <v>109</v>
-      </c>
       <c r="Y83" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z83" t="s">
         <v>16</v>
       </c>
-      <c r="Z83" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC83" t="s">
+      <c r="AA83" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD83" t="s">
         <v>92</v>
       </c>
-      <c r="AD83" t="s">
+      <c r="AE83" t="s">
         <v>18</v>
       </c>
-      <c r="AE83" t="s">
+      <c r="AF83" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N84" t="s">
+    <row r="84" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O84" t="s">
         <v>96</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>17</v>
       </c>
-      <c r="P84" t="s">
-        <v>109</v>
-      </c>
       <c r="Q84" t="s">
+        <v>109</v>
+      </c>
+      <c r="R84" t="s">
         <v>15</v>
       </c>
-      <c r="R84" t="s">
-        <v>108</v>
-      </c>
       <c r="S84" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T84" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U84" t="s">
+        <v>108</v>
+      </c>
+      <c r="V84" t="s">
         <v>121</v>
       </c>
-      <c r="V84" t="s">
-        <v>109</v>
-      </c>
       <c r="W84" t="s">
+        <v>109</v>
+      </c>
+      <c r="X84" t="s">
         <v>121</v>
       </c>
-      <c r="X84" t="s">
-        <v>109</v>
-      </c>
       <c r="Y84" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z84" t="s">
         <v>15</v>
       </c>
-      <c r="Z84" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC84" t="s">
+      <c r="AA84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD84" t="s">
         <v>91</v>
       </c>
-      <c r="AD84" t="s">
+      <c r="AE84" t="s">
         <v>18</v>
       </c>
-      <c r="AE84" t="s">
+      <c r="AF84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N85" t="s">
+    <row r="85" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O85" t="s">
         <v>88</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>16</v>
       </c>
-      <c r="P85" t="s">
-        <v>109</v>
-      </c>
       <c r="Q85" t="s">
+        <v>109</v>
+      </c>
+      <c r="R85" t="s">
         <v>13</v>
       </c>
-      <c r="R85" t="s">
-        <v>107</v>
-      </c>
       <c r="S85" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T85" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U85" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V85" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W85" t="s">
+        <v>108</v>
+      </c>
+      <c r="X85" t="s">
         <v>13</v>
       </c>
-      <c r="X85" t="s">
-        <v>107</v>
-      </c>
       <c r="Y85" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z85" t="s">
         <v>13</v>
       </c>
-      <c r="Z85" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC85" t="s">
+      <c r="AA85" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD85" t="s">
         <v>59</v>
       </c>
-      <c r="AD85" t="s">
+      <c r="AE85" t="s">
         <v>18</v>
       </c>
-      <c r="AE85" t="s">
+      <c r="AF85" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N86" t="s">
+    <row r="86" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O86" t="s">
         <v>67</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>15</v>
       </c>
-      <c r="P86" t="s">
-        <v>108</v>
-      </c>
       <c r="Q86" t="s">
+        <v>108</v>
+      </c>
+      <c r="R86" t="s">
         <v>120</v>
       </c>
-      <c r="R86" t="s">
-        <v>108</v>
-      </c>
       <c r="S86" t="s">
+        <v>108</v>
+      </c>
+      <c r="T86" t="s">
         <v>15</v>
       </c>
-      <c r="T86" t="s">
-        <v>108</v>
-      </c>
       <c r="U86" t="s">
+        <v>108</v>
+      </c>
+      <c r="V86" t="s">
         <v>15</v>
       </c>
-      <c r="V86" t="s">
-        <v>108</v>
-      </c>
       <c r="W86" t="s">
+        <v>108</v>
+      </c>
+      <c r="X86" t="s">
         <v>16</v>
       </c>
-      <c r="X86" t="s">
-        <v>109</v>
-      </c>
       <c r="Y86" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="Z86" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC86" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD86" t="s">
         <v>93</v>
       </c>
-      <c r="AD86" t="s">
+      <c r="AE86" t="s">
         <v>18</v>
       </c>
-      <c r="AE86" t="s">
+      <c r="AF86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N87" t="s">
+    <row r="87" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O87" t="s">
         <v>55</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>16</v>
       </c>
-      <c r="P87" t="s">
-        <v>109</v>
-      </c>
       <c r="Q87" t="s">
+        <v>109</v>
+      </c>
+      <c r="R87" t="s">
         <v>16</v>
       </c>
-      <c r="R87" t="s">
-        <v>109</v>
-      </c>
       <c r="S87" t="s">
+        <v>109</v>
+      </c>
+      <c r="T87" t="s">
         <v>16</v>
       </c>
-      <c r="T87" t="s">
-        <v>109</v>
-      </c>
       <c r="U87" t="s">
+        <v>109</v>
+      </c>
+      <c r="V87" t="s">
         <v>18</v>
       </c>
-      <c r="V87" t="s">
+      <c r="W87" t="s">
         <v>110</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>18</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>110</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>17</v>
       </c>
-      <c r="Z87" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC87" t="s">
+      <c r="AA87" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD87" t="s">
         <v>97</v>
       </c>
-      <c r="AD87" t="s">
+      <c r="AE87" t="s">
         <v>18</v>
       </c>
-      <c r="AE87" t="s">
+      <c r="AF87" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="14:31" x14ac:dyDescent="0.2">
-      <c r="N88" t="s">
+    <row r="88" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O88" t="s">
         <v>56</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>16</v>
       </c>
-      <c r="P88" t="s">
-        <v>109</v>
-      </c>
       <c r="Q88" t="s">
+        <v>109</v>
+      </c>
+      <c r="R88" t="s">
         <v>13</v>
       </c>
-      <c r="R88" t="s">
-        <v>107</v>
-      </c>
       <c r="S88" t="s">
+        <v>107</v>
+      </c>
+      <c r="T88" t="s">
         <v>13</v>
       </c>
-      <c r="T88" t="s">
-        <v>107</v>
-      </c>
       <c r="U88" t="s">
+        <v>107</v>
+      </c>
+      <c r="V88" t="s">
         <v>13</v>
       </c>
-      <c r="V88" t="s">
-        <v>107</v>
-      </c>
       <c r="W88" t="s">
+        <v>107</v>
+      </c>
+      <c r="X88" t="s">
         <v>13</v>
       </c>
-      <c r="X88" t="s">
-        <v>107</v>
-      </c>
       <c r="Y88" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z88" t="s">
         <v>13</v>
       </c>
-      <c r="Z88" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC88" t="s">
+      <c r="AA88" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD88" t="s">
         <v>95</v>
       </c>
-      <c r="AD88" t="s">
+      <c r="AE88" t="s">
         <v>18</v>
       </c>
-      <c r="AE88" t="s">
+      <c r="AF88" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="AC2:AE88">
-    <sortCondition ref="AD1"/>
+  <sortState ref="AD2:AF88">
+    <sortCondition ref="AE1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8249,10 +8385,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C41A53-D33E-E046-B342-1CABFEB49E56}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E119"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10278,6 +10414,125 @@
       </c>
       <c r="E119">
         <v>-78.06</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B120">
+        <v>-50.32</v>
+      </c>
+      <c r="C120">
+        <v>-59.5</v>
+      </c>
+      <c r="D120">
+        <v>-74.36</v>
+      </c>
+      <c r="E120">
+        <v>-67.47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B121">
+        <v>-49.52</v>
+      </c>
+      <c r="C121">
+        <v>-58.46</v>
+      </c>
+      <c r="D121">
+        <v>-72.81</v>
+      </c>
+      <c r="E121">
+        <v>-66.180000000000007</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B122">
+        <v>-47.22</v>
+      </c>
+      <c r="C122">
+        <v>-55.58</v>
+      </c>
+      <c r="D122">
+        <v>-70.36</v>
+      </c>
+      <c r="E122">
+        <v>-65.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B123">
+        <v>-58.47</v>
+      </c>
+      <c r="C123">
+        <v>-55.12</v>
+      </c>
+      <c r="D123">
+        <v>-76.67</v>
+      </c>
+      <c r="E123">
+        <v>-64.08</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B124">
+        <v>-44.02</v>
+      </c>
+      <c r="C124">
+        <v>-50.58</v>
+      </c>
+      <c r="D124">
+        <v>-59.95</v>
+      </c>
+      <c r="E124">
+        <v>-59.97</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B125">
+        <v>-43.28</v>
+      </c>
+      <c r="C125">
+        <v>-50.53</v>
+      </c>
+      <c r="D125">
+        <v>-58.16</v>
+      </c>
+      <c r="E125">
+        <v>-58.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B126">
+        <v>-24.96</v>
+      </c>
+      <c r="C126">
+        <v>-28.58</v>
+      </c>
+      <c r="D126">
+        <v>-56.37</v>
+      </c>
+      <c r="E126">
+        <v>-41.37</v>
       </c>
     </row>
   </sheetData>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/20200622-cvnormal/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8FAC81-0564-CC43-BD66-6C963C37CD95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8100A6-1D29-C641-9444-2B2EDD7130FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="540" windowWidth="28160" windowHeight="19360" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="8880" yWindow="540" windowWidth="28160" windowHeight="19360" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_transit" sheetId="1" r:id="rId1"/>
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
-  <dimension ref="A1:Q116"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="I1:L85"/>
+      <selection activeCell="C118" sqref="A1:C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2659,7 +2659,7 @@
         <v>-20.9</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" ref="C73:C116" si="1">AVERAGE(B67:B73)</f>
+        <f t="shared" ref="C73:C118" si="1">AVERAGE(B67:B73)</f>
         <v>-26.457142857142856</v>
       </c>
       <c r="I73" s="1">
@@ -3335,29 +3335,53 @@
         <v>-8.1285714285714281</v>
       </c>
     </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B117">
+        <v>-6.3</v>
+      </c>
+      <c r="C117" s="5">
+        <f t="shared" si="1"/>
+        <v>-8.0285714285714285</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B118">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="C118" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.0571428571428569</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C8:C65 C66:C79 C80:C87 C88:C107 C108:C114" formulaRange="1"/>
+    <ignoredError sqref="C8:C65 C66:C79 C80:C87 C88:C107 C108:C114 C115:C118" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AG88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N65" workbookViewId="0">
-      <selection activeCell="AF86" sqref="AF86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="E1:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="16.83203125" customWidth="1"/>
+    <col min="10" max="14" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3391,56 +3415,59 @@
       <c r="M1" s="6">
         <v>44001</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="1">
+        <v>44005</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43885</v>
       </c>
@@ -3474,56 +3501,59 @@
       <c r="M2" s="4">
         <v>-0.11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" s="4">
+        <v>-0.06</v>
+      </c>
+      <c r="P2" t="s">
         <v>89</v>
       </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
       <c r="Q2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="S2" t="s">
-        <v>107</v>
-      </c>
       <c r="T2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W2" t="s">
         <v>13</v>
       </c>
-      <c r="W2" t="s">
-        <v>107</v>
-      </c>
       <c r="X2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" t="s">
-        <v>107</v>
-      </c>
       <c r="Z2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE2" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43886</v>
       </c>
@@ -3557,56 +3587,59 @@
       <c r="M3" s="4">
         <v>0.1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="N3" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P3" t="s">
         <v>57</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" t="s">
-        <v>109</v>
-      </c>
       <c r="R3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" t="s">
-        <v>109</v>
-      </c>
       <c r="T3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U3" t="s">
         <v>17</v>
       </c>
-      <c r="U3" t="s">
-        <v>109</v>
-      </c>
       <c r="V3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W3" t="s">
         <v>18</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>110</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>110</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>110</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" t="s">
-        <v>14</v>
-      </c>
       <c r="AF3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43887</v>
       </c>
@@ -3640,56 +3673,59 @@
       <c r="M4" s="4">
         <v>1.86</v>
       </c>
-      <c r="O4" t="s">
+      <c r="N4" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="P4" t="s">
         <v>102</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" t="s">
-        <v>109</v>
-      </c>
       <c r="R4" t="s">
+        <v>109</v>
+      </c>
+      <c r="S4" t="s">
         <v>15</v>
       </c>
-      <c r="S4" t="s">
-        <v>108</v>
-      </c>
       <c r="T4" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U4" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V4" t="s">
+        <v>108</v>
+      </c>
+      <c r="W4" t="s">
         <v>15</v>
       </c>
-      <c r="W4" t="s">
-        <v>108</v>
-      </c>
       <c r="X4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" t="s">
         <v>121</v>
       </c>
-      <c r="Y4" t="s">
-        <v>109</v>
-      </c>
       <c r="Z4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA4" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AB4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE4" t="s">
         <v>84</v>
       </c>
-      <c r="AE4" t="s">
-        <v>14</v>
-      </c>
       <c r="AF4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43888</v>
       </c>
@@ -3723,56 +3759,59 @@
       <c r="M5" s="4">
         <v>-0.33</v>
       </c>
-      <c r="O5" t="s">
+      <c r="N5" s="4">
+        <v>-0.36</v>
+      </c>
+      <c r="P5" t="s">
         <v>58</v>
       </c>
-      <c r="P5" t="s">
-        <v>14</v>
-      </c>
       <c r="Q5" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R5" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" t="s">
         <v>13</v>
       </c>
-      <c r="S5" t="s">
-        <v>107</v>
-      </c>
       <c r="T5" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U5" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W5" t="s">
         <v>120</v>
       </c>
-      <c r="W5" t="s">
-        <v>108</v>
-      </c>
       <c r="X5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" t="s">
         <v>15</v>
       </c>
-      <c r="Y5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA5" t="s">
         <v>120</v>
       </c>
-      <c r="AA5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AB5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE5" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" t="s">
-        <v>14</v>
-      </c>
       <c r="AF5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43889</v>
       </c>
@@ -3806,56 +3845,59 @@
       <c r="M6" s="4">
         <v>-0.38</v>
       </c>
-      <c r="O6" t="s">
+      <c r="N6" s="4">
+        <v>-0.39</v>
+      </c>
+      <c r="P6" t="s">
         <v>59</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" t="s">
-        <v>109</v>
-      </c>
       <c r="R6" t="s">
+        <v>109</v>
+      </c>
+      <c r="S6" t="s">
         <v>16</v>
       </c>
-      <c r="S6" t="s">
-        <v>109</v>
-      </c>
       <c r="T6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U6" t="s">
         <v>121</v>
       </c>
-      <c r="U6" t="s">
-        <v>109</v>
-      </c>
       <c r="V6" t="s">
+        <v>109</v>
+      </c>
+      <c r="W6" t="s">
         <v>16</v>
       </c>
-      <c r="W6" t="s">
-        <v>109</v>
-      </c>
       <c r="X6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y6" t="s">
         <v>17</v>
       </c>
-      <c r="Y6" t="s">
-        <v>109</v>
-      </c>
       <c r="Z6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA6" t="s">
         <v>121</v>
       </c>
-      <c r="AA6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AB6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE6" t="s">
         <v>52</v>
       </c>
-      <c r="AE6" t="s">
-        <v>14</v>
-      </c>
       <c r="AF6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43890</v>
       </c>
@@ -3889,336 +3931,339 @@
       <c r="M7" s="4">
         <v>0.08</v>
       </c>
-      <c r="O7" t="s">
+      <c r="N7" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="P7" t="s">
         <v>60</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" t="s">
-        <v>107</v>
-      </c>
       <c r="R7" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" t="s">
         <v>12</v>
       </c>
-      <c r="S7" t="s">
-        <v>107</v>
-      </c>
       <c r="T7" t="s">
+        <v>107</v>
+      </c>
+      <c r="U7" t="s">
         <v>12</v>
       </c>
-      <c r="U7" t="s">
-        <v>107</v>
-      </c>
       <c r="V7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W7" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y7" t="s">
         <v>12</v>
       </c>
-      <c r="Y7" t="s">
-        <v>107</v>
-      </c>
       <c r="Z7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE7" t="s">
         <v>47</v>
       </c>
-      <c r="AE7" t="s">
-        <v>14</v>
-      </c>
       <c r="AF7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43891</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>61</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" t="s">
-        <v>108</v>
-      </c>
       <c r="R8" t="s">
+        <v>108</v>
+      </c>
+      <c r="S8" t="s">
         <v>121</v>
       </c>
-      <c r="S8" t="s">
-        <v>109</v>
-      </c>
       <c r="T8" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="U8" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V8" t="s">
+        <v>108</v>
+      </c>
+      <c r="W8" t="s">
         <v>121</v>
       </c>
-      <c r="W8" t="s">
-        <v>109</v>
-      </c>
       <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
         <v>18</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>110</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>121</v>
       </c>
-      <c r="AA8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AB8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE8" t="s">
         <v>87</v>
       </c>
-      <c r="AE8" t="s">
-        <v>14</v>
-      </c>
       <c r="AF8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43892</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>90</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" t="s">
-        <v>109</v>
-      </c>
       <c r="R9" t="s">
+        <v>109</v>
+      </c>
+      <c r="S9" t="s">
         <v>15</v>
       </c>
-      <c r="S9" t="s">
-        <v>108</v>
-      </c>
       <c r="T9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U9" t="s">
         <v>15</v>
       </c>
-      <c r="U9" t="s">
-        <v>108</v>
-      </c>
       <c r="V9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W9" t="s">
         <v>16</v>
       </c>
-      <c r="W9" t="s">
-        <v>109</v>
-      </c>
       <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" t="s">
-        <v>109</v>
-      </c>
       <c r="Z9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA9" t="s">
         <v>121</v>
       </c>
-      <c r="AA9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="AB9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE9" t="s">
         <v>75</v>
       </c>
-      <c r="AE9" t="s">
-        <v>14</v>
-      </c>
       <c r="AF9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43893</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>32</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" t="s">
-        <v>107</v>
-      </c>
       <c r="R10" t="s">
+        <v>107</v>
+      </c>
+      <c r="S10" t="s">
         <v>12</v>
       </c>
-      <c r="S10" t="s">
-        <v>107</v>
-      </c>
       <c r="T10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U10" t="s">
         <v>126</v>
       </c>
-      <c r="U10" t="s">
-        <v>107</v>
-      </c>
       <c r="V10" t="s">
+        <v>107</v>
+      </c>
+      <c r="W10" t="s">
         <v>12</v>
       </c>
-      <c r="W10" t="s">
-        <v>107</v>
-      </c>
       <c r="X10" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA10" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AB10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE10" t="s">
         <v>56</v>
       </c>
-      <c r="AE10" t="s">
-        <v>14</v>
-      </c>
       <c r="AF10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43894</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>62</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" t="s">
-        <v>108</v>
-      </c>
       <c r="R11" t="s">
+        <v>108</v>
+      </c>
+      <c r="S11" t="s">
         <v>16</v>
       </c>
-      <c r="S11" t="s">
-        <v>109</v>
-      </c>
       <c r="T11" t="s">
+        <v>109</v>
+      </c>
+      <c r="U11" t="s">
         <v>16</v>
       </c>
-      <c r="U11" t="s">
-        <v>109</v>
-      </c>
       <c r="V11" t="s">
+        <v>109</v>
+      </c>
+      <c r="W11" t="s">
         <v>17</v>
       </c>
-      <c r="W11" t="s">
-        <v>109</v>
-      </c>
       <c r="X11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y11" t="s">
         <v>17</v>
       </c>
-      <c r="Y11" t="s">
-        <v>109</v>
-      </c>
       <c r="Z11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA11" t="s">
         <v>16</v>
       </c>
-      <c r="AA11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="AB11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE11" t="s">
         <v>36</v>
       </c>
-      <c r="AE11" t="s">
-        <v>14</v>
-      </c>
       <c r="AF11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43895</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>33</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" t="s">
-        <v>107</v>
-      </c>
       <c r="R12" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" t="s">
         <v>12</v>
       </c>
-      <c r="S12" t="s">
-        <v>107</v>
-      </c>
       <c r="T12" t="s">
+        <v>107</v>
+      </c>
+      <c r="U12" t="s">
         <v>12</v>
       </c>
-      <c r="U12" t="s">
-        <v>107</v>
-      </c>
       <c r="V12" t="s">
+        <v>107</v>
+      </c>
+      <c r="W12" t="s">
         <v>13</v>
       </c>
-      <c r="W12" t="s">
-        <v>107</v>
-      </c>
       <c r="X12" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y12" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA12" t="s">
         <v>13</v>
       </c>
-      <c r="AA12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD12" t="s">
+      <c r="AB12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE12" t="s">
         <v>71</v>
       </c>
-      <c r="AE12" t="s">
-        <v>14</v>
-      </c>
       <c r="AF12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43896</v>
       </c>
@@ -4246,56 +4291,56 @@
       <c r="K13" t="s">
         <v>119</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>34</v>
       </c>
-      <c r="P13" t="s">
-        <v>14</v>
-      </c>
       <c r="Q13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R13" t="s">
+        <v>108</v>
+      </c>
+      <c r="S13" t="s">
         <v>13</v>
       </c>
-      <c r="S13" t="s">
-        <v>107</v>
-      </c>
       <c r="T13" t="s">
+        <v>107</v>
+      </c>
+      <c r="U13" t="s">
         <v>13</v>
       </c>
-      <c r="U13" t="s">
-        <v>107</v>
-      </c>
       <c r="V13" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X13" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA13" t="s">
         <v>13</v>
       </c>
-      <c r="AA13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="AB13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE13" t="s">
         <v>49</v>
       </c>
-      <c r="AE13" t="s">
-        <v>14</v>
-      </c>
       <c r="AF13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43897</v>
       </c>
@@ -4325,56 +4370,57 @@
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="O14" t="s">
+      <c r="N14" s="4"/>
+      <c r="P14" t="s">
         <v>35</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" t="s">
-        <v>109</v>
-      </c>
       <c r="R14" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14" t="s">
         <v>121</v>
       </c>
-      <c r="S14" t="s">
-        <v>109</v>
-      </c>
       <c r="T14" t="s">
+        <v>109</v>
+      </c>
+      <c r="U14" t="s">
         <v>15</v>
       </c>
-      <c r="U14" t="s">
-        <v>108</v>
-      </c>
       <c r="V14" t="s">
+        <v>108</v>
+      </c>
+      <c r="W14" t="s">
         <v>121</v>
       </c>
-      <c r="W14" t="s">
-        <v>109</v>
-      </c>
       <c r="X14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y14" t="s">
         <v>16</v>
       </c>
-      <c r="Y14" t="s">
-        <v>109</v>
-      </c>
       <c r="Z14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA14" t="s">
         <v>16</v>
       </c>
-      <c r="AA14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD14" t="s">
+      <c r="AB14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE14" t="s">
         <v>60</v>
       </c>
-      <c r="AE14" t="s">
-        <v>14</v>
-      </c>
       <c r="AF14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43898</v>
       </c>
@@ -4404,56 +4450,57 @@
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="O15" t="s">
+      <c r="N15" s="4"/>
+      <c r="P15" t="s">
         <v>68</v>
       </c>
-      <c r="P15" t="s">
-        <v>14</v>
-      </c>
       <c r="Q15" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R15" t="s">
+        <v>108</v>
+      </c>
+      <c r="S15" t="s">
         <v>121</v>
       </c>
-      <c r="S15" t="s">
-        <v>109</v>
-      </c>
       <c r="T15" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="U15" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V15" t="s">
+        <v>108</v>
+      </c>
+      <c r="W15" t="s">
         <v>15</v>
       </c>
-      <c r="W15" t="s">
-        <v>108</v>
-      </c>
       <c r="X15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y15" t="s">
         <v>121</v>
       </c>
-      <c r="Y15" t="s">
-        <v>109</v>
-      </c>
       <c r="Z15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA15" t="s">
         <v>121</v>
       </c>
-      <c r="AA15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD15" t="s">
+      <c r="AB15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE15" t="s">
         <v>85</v>
       </c>
-      <c r="AE15" t="s">
-        <v>14</v>
-      </c>
       <c r="AF15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43899</v>
       </c>
@@ -4483,56 +4530,57 @@
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="O16" t="s">
+      <c r="N16" s="4"/>
+      <c r="P16" t="s">
         <v>69</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>110</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>13</v>
       </c>
-      <c r="S16" t="s">
-        <v>107</v>
-      </c>
       <c r="T16" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U16" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V16" t="s">
+        <v>108</v>
+      </c>
+      <c r="W16" t="s">
         <v>13</v>
       </c>
-      <c r="W16" t="s">
-        <v>107</v>
-      </c>
       <c r="X16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y16" t="s">
         <v>12</v>
       </c>
-      <c r="Y16" t="s">
-        <v>107</v>
-      </c>
       <c r="Z16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA16" t="s">
         <v>13</v>
       </c>
-      <c r="AA16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="AB16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE16" t="s">
         <v>129</v>
       </c>
-      <c r="AE16" t="s">
-        <v>14</v>
-      </c>
       <c r="AF16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43900</v>
       </c>
@@ -4562,56 +4610,57 @@
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="O17" t="s">
+      <c r="N17" s="4"/>
+      <c r="P17" t="s">
         <v>36</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" t="s">
-        <v>109</v>
-      </c>
       <c r="R17" t="s">
+        <v>109</v>
+      </c>
+      <c r="S17" t="s">
         <v>11</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>106</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>11</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>106</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>12</v>
       </c>
-      <c r="W17" t="s">
-        <v>107</v>
-      </c>
       <c r="X17" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y17" t="s">
         <v>13</v>
       </c>
-      <c r="Y17" t="s">
-        <v>107</v>
-      </c>
       <c r="Z17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA17" t="s">
         <v>11</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>106</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>69</v>
       </c>
-      <c r="AE17" t="s">
-        <v>14</v>
-      </c>
       <c r="AF17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43901</v>
       </c>
@@ -4641,56 +4690,57 @@
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="O18" t="s">
+      <c r="N18" s="4"/>
+      <c r="P18" t="s">
         <v>70</v>
       </c>
-      <c r="P18" t="s">
-        <v>14</v>
-      </c>
       <c r="Q18" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R18" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18" t="s">
         <v>13</v>
       </c>
-      <c r="S18" t="s">
-        <v>107</v>
-      </c>
       <c r="T18" t="s">
+        <v>107</v>
+      </c>
+      <c r="U18" t="s">
         <v>13</v>
       </c>
-      <c r="U18" t="s">
-        <v>107</v>
-      </c>
       <c r="V18" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W18" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X18" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y18" t="s">
         <v>13</v>
       </c>
-      <c r="Y18" t="s">
-        <v>107</v>
-      </c>
       <c r="Z18" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE18" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" t="s">
-        <v>14</v>
-      </c>
       <c r="AF18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43902</v>
       </c>
@@ -4720,56 +4770,57 @@
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="O19" t="s">
+      <c r="N19" s="4"/>
+      <c r="P19" t="s">
         <v>91</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" t="s">
-        <v>109</v>
-      </c>
       <c r="R19" t="s">
+        <v>109</v>
+      </c>
+      <c r="S19" t="s">
         <v>121</v>
       </c>
-      <c r="S19" t="s">
-        <v>109</v>
-      </c>
       <c r="T19" t="s">
+        <v>109</v>
+      </c>
+      <c r="U19" t="s">
         <v>15</v>
       </c>
-      <c r="U19" t="s">
-        <v>108</v>
-      </c>
       <c r="V19" t="s">
+        <v>108</v>
+      </c>
+      <c r="W19" t="s">
         <v>121</v>
       </c>
-      <c r="W19" t="s">
-        <v>109</v>
-      </c>
       <c r="X19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y19" t="s">
         <v>16</v>
       </c>
-      <c r="Y19" t="s">
-        <v>109</v>
-      </c>
       <c r="Z19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA19" t="s">
         <v>17</v>
       </c>
-      <c r="AA19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD19" t="s">
+      <c r="AB19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE19" t="s">
         <v>104</v>
       </c>
-      <c r="AE19" t="s">
-        <v>14</v>
-      </c>
       <c r="AF19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43903</v>
       </c>
@@ -4797,560 +4848,602 @@
       <c r="K20" s="4">
         <v>0</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>21</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>15</v>
       </c>
-      <c r="Q20" t="s">
-        <v>108</v>
-      </c>
       <c r="R20" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" t="s">
         <v>121</v>
       </c>
-      <c r="S20" t="s">
-        <v>109</v>
-      </c>
       <c r="T20" t="s">
+        <v>109</v>
+      </c>
+      <c r="U20" t="s">
         <v>121</v>
       </c>
-      <c r="U20" t="s">
-        <v>109</v>
-      </c>
       <c r="V20" t="s">
+        <v>109</v>
+      </c>
+      <c r="W20" t="s">
         <v>16</v>
       </c>
-      <c r="W20" t="s">
-        <v>109</v>
-      </c>
       <c r="X20" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y20" t="s">
         <v>17</v>
       </c>
-      <c r="Y20" t="s">
-        <v>109</v>
-      </c>
       <c r="Z20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA20" t="s">
         <v>16</v>
       </c>
-      <c r="AA20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD20" t="s">
+      <c r="AB20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE20" t="s">
         <v>77</v>
       </c>
-      <c r="AE20" t="s">
-        <v>14</v>
-      </c>
       <c r="AF20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43904</v>
       </c>
       <c r="B21">
         <v>-14</v>
       </c>
-      <c r="O21" t="s">
+      <c r="E21" s="6">
+        <v>44001</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-0.11</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.86</v>
+      </c>
+      <c r="I21" s="4">
+        <v>-0.33</v>
+      </c>
+      <c r="J21" s="4">
+        <v>-0.38</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="P21" t="s">
         <v>22</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>17</v>
       </c>
-      <c r="Q21" t="s">
-        <v>109</v>
-      </c>
       <c r="R21" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="S21" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T21" t="s">
+        <v>108</v>
+      </c>
+      <c r="U21" t="s">
         <v>13</v>
       </c>
-      <c r="U21" t="s">
-        <v>107</v>
-      </c>
       <c r="V21" t="s">
+        <v>107</v>
+      </c>
+      <c r="W21" t="s">
         <v>121</v>
       </c>
-      <c r="W21" t="s">
-        <v>109</v>
-      </c>
       <c r="X21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y21" t="s">
         <v>121</v>
       </c>
-      <c r="Y21" t="s">
-        <v>109</v>
-      </c>
       <c r="Z21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA21" t="s">
         <v>16</v>
       </c>
-      <c r="AA21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD21" t="s">
+      <c r="AB21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE21" t="s">
         <v>48</v>
       </c>
-      <c r="AE21" t="s">
-        <v>14</v>
-      </c>
       <c r="AF21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43905</v>
       </c>
       <c r="B22">
         <v>-16</v>
       </c>
-      <c r="O22" t="s">
+      <c r="E22" s="1">
+        <v>44005</v>
+      </c>
+      <c r="F22" s="4">
+        <v>-0.06</v>
+      </c>
+      <c r="G22" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="I22" s="4">
+        <v>-0.36</v>
+      </c>
+      <c r="J22" s="4">
+        <v>-0.39</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="P22" t="s">
         <v>63</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>15</v>
       </c>
-      <c r="Q22" t="s">
-        <v>108</v>
-      </c>
       <c r="R22" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S22" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T22" t="s">
+        <v>108</v>
+      </c>
+      <c r="U22" t="s">
         <v>121</v>
       </c>
-      <c r="U22" t="s">
-        <v>109</v>
-      </c>
       <c r="V22" t="s">
+        <v>109</v>
+      </c>
+      <c r="W22" t="s">
         <v>15</v>
       </c>
-      <c r="W22" t="s">
-        <v>108</v>
-      </c>
       <c r="X22" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y22" t="s">
         <v>121</v>
       </c>
-      <c r="Y22" t="s">
-        <v>109</v>
-      </c>
       <c r="Z22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA22" t="s">
         <v>16</v>
       </c>
-      <c r="AA22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD22" t="s">
+      <c r="AB22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE22" t="s">
         <v>79</v>
       </c>
-      <c r="AE22" t="s">
-        <v>14</v>
-      </c>
       <c r="AF22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43906</v>
       </c>
       <c r="B23">
         <v>-14</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>71</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>16</v>
       </c>
-      <c r="Q23" t="s">
-        <v>109</v>
-      </c>
       <c r="R23" t="s">
+        <v>109</v>
+      </c>
+      <c r="S23" t="s">
         <v>13</v>
       </c>
-      <c r="S23" t="s">
-        <v>107</v>
-      </c>
       <c r="T23" t="s">
+        <v>107</v>
+      </c>
+      <c r="U23" t="s">
         <v>13</v>
       </c>
-      <c r="U23" t="s">
-        <v>107</v>
-      </c>
       <c r="V23" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W23" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X23" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y23" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA23" t="s">
         <v>13</v>
       </c>
-      <c r="AA23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD23" t="s">
+      <c r="AB23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE23" t="s">
         <v>78</v>
       </c>
-      <c r="AE23" t="s">
-        <v>14</v>
-      </c>
       <c r="AF23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43907</v>
       </c>
       <c r="B24">
         <v>-17</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>72</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" t="s">
-        <v>107</v>
-      </c>
       <c r="R24" t="s">
+        <v>107</v>
+      </c>
+      <c r="S24" t="s">
         <v>12</v>
       </c>
-      <c r="S24" t="s">
-        <v>107</v>
-      </c>
       <c r="T24" t="s">
+        <v>107</v>
+      </c>
+      <c r="U24" t="s">
         <v>12</v>
       </c>
-      <c r="U24" t="s">
-        <v>107</v>
-      </c>
       <c r="V24" t="s">
+        <v>107</v>
+      </c>
+      <c r="W24" t="s">
         <v>15</v>
       </c>
-      <c r="W24" t="s">
-        <v>108</v>
-      </c>
       <c r="X24" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y24" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA24" t="s">
         <v>13</v>
       </c>
-      <c r="AA24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="AB24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE24" t="s">
         <v>42</v>
       </c>
-      <c r="AE24" t="s">
-        <v>14</v>
-      </c>
       <c r="AF24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43908</v>
       </c>
       <c r="B25">
         <v>-26</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>103</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>18</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>110</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>16</v>
       </c>
-      <c r="S25" t="s">
-        <v>109</v>
-      </c>
       <c r="T25" t="s">
+        <v>109</v>
+      </c>
+      <c r="U25" t="s">
         <v>16</v>
       </c>
-      <c r="U25" t="s">
-        <v>109</v>
-      </c>
       <c r="V25" t="s">
+        <v>109</v>
+      </c>
+      <c r="W25" t="s">
         <v>16</v>
       </c>
-      <c r="W25" t="s">
-        <v>109</v>
-      </c>
       <c r="X25" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y25" t="s">
         <v>16</v>
       </c>
-      <c r="Y25" t="s">
-        <v>109</v>
-      </c>
       <c r="Z25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA25" t="s">
         <v>121</v>
       </c>
-      <c r="AA25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="AB25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE25" t="s">
         <v>39</v>
       </c>
-      <c r="AE25" t="s">
-        <v>14</v>
-      </c>
       <c r="AF25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43909</v>
       </c>
       <c r="B26">
         <v>-31</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>23</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" t="s">
-        <v>107</v>
-      </c>
       <c r="R26" t="s">
+        <v>107</v>
+      </c>
+      <c r="S26" t="s">
         <v>13</v>
       </c>
-      <c r="S26" t="s">
-        <v>107</v>
-      </c>
       <c r="T26" t="s">
+        <v>107</v>
+      </c>
+      <c r="U26" t="s">
         <v>12</v>
       </c>
-      <c r="U26" t="s">
-        <v>107</v>
-      </c>
       <c r="V26" t="s">
+        <v>107</v>
+      </c>
+      <c r="W26" t="s">
         <v>13</v>
       </c>
-      <c r="W26" t="s">
-        <v>107</v>
-      </c>
       <c r="X26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y26" t="s">
         <v>13</v>
       </c>
-      <c r="Y26" t="s">
-        <v>107</v>
-      </c>
       <c r="Z26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA26" t="s">
         <v>12</v>
       </c>
-      <c r="AA26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="AB26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE26" t="s">
         <v>89</v>
       </c>
-      <c r="AE26" t="s">
-        <v>14</v>
-      </c>
       <c r="AF26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43910</v>
       </c>
       <c r="B27">
         <v>-38</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>37</v>
       </c>
-      <c r="P27" t="s">
-        <v>14</v>
-      </c>
       <c r="Q27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R27" t="s">
+        <v>108</v>
+      </c>
+      <c r="S27" t="s">
         <v>13</v>
       </c>
-      <c r="S27" t="s">
-        <v>107</v>
-      </c>
       <c r="T27" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V27" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X27" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y27" t="s">
         <v>12</v>
       </c>
-      <c r="Y27" t="s">
-        <v>107</v>
-      </c>
       <c r="Z27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA27" t="s">
         <v>12</v>
       </c>
-      <c r="AA27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD27" t="s">
+      <c r="AB27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE27" t="s">
         <v>19</v>
       </c>
-      <c r="AE27" t="s">
-        <v>14</v>
-      </c>
       <c r="AF27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43911</v>
       </c>
       <c r="B28">
         <v>-46</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>24</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>12</v>
       </c>
-      <c r="Q28" t="s">
-        <v>107</v>
-      </c>
       <c r="R28" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="S28" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T28" t="s">
+        <v>108</v>
+      </c>
+      <c r="U28" t="s">
         <v>120</v>
       </c>
-      <c r="U28" t="s">
-        <v>108</v>
-      </c>
       <c r="V28" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W28" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y28" t="s">
         <v>15</v>
       </c>
-      <c r="Y28" t="s">
-        <v>108</v>
-      </c>
       <c r="Z28" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AA28" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE28" t="s">
         <v>88</v>
       </c>
-      <c r="AE28" t="s">
-        <v>14</v>
-      </c>
       <c r="AF28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43912</v>
       </c>
       <c r="B29">
         <v>-33</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>38</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>15</v>
       </c>
-      <c r="Q29" t="s">
-        <v>108</v>
-      </c>
       <c r="R29" t="s">
+        <v>108</v>
+      </c>
+      <c r="S29" t="s">
         <v>120</v>
       </c>
-      <c r="S29" t="s">
-        <v>108</v>
-      </c>
       <c r="T29" t="s">
+        <v>108</v>
+      </c>
+      <c r="U29" t="s">
         <v>120</v>
       </c>
-      <c r="U29" t="s">
-        <v>108</v>
-      </c>
       <c r="V29" t="s">
+        <v>108</v>
+      </c>
+      <c r="W29" t="s">
         <v>13</v>
       </c>
-      <c r="W29" t="s">
-        <v>107</v>
-      </c>
       <c r="X29" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y29" t="s">
         <v>15</v>
       </c>
-      <c r="Y29" t="s">
-        <v>108</v>
-      </c>
       <c r="Z29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA29" t="s">
         <v>121</v>
       </c>
-      <c r="AA29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD29" t="s">
+      <c r="AB29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE29" t="s">
         <v>40</v>
       </c>
-      <c r="AE29" t="s">
-        <v>14</v>
-      </c>
       <c r="AF29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43913</v>
       </c>
@@ -5363,56 +5456,56 @@
       <c r="F30" t="s">
         <v>12</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>73</v>
       </c>
-      <c r="P30" t="s">
-        <v>14</v>
-      </c>
       <c r="Q30" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R30" t="s">
+        <v>108</v>
+      </c>
+      <c r="S30" t="s">
         <v>13</v>
       </c>
-      <c r="S30" t="s">
-        <v>107</v>
-      </c>
       <c r="T30" t="s">
+        <v>107</v>
+      </c>
+      <c r="U30" t="s">
         <v>12</v>
       </c>
-      <c r="U30" t="s">
-        <v>107</v>
-      </c>
       <c r="V30" t="s">
+        <v>107</v>
+      </c>
+      <c r="W30" t="s">
         <v>12</v>
       </c>
-      <c r="W30" t="s">
-        <v>107</v>
-      </c>
       <c r="X30" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y30" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA30" t="s">
         <v>13</v>
       </c>
-      <c r="AA30" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD30" t="s">
+      <c r="AB30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE30" t="s">
         <v>34</v>
       </c>
-      <c r="AE30" t="s">
-        <v>14</v>
-      </c>
       <c r="AF30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43914</v>
       </c>
@@ -5425,56 +5518,56 @@
       <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>97</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>17</v>
       </c>
-      <c r="Q31" t="s">
-        <v>109</v>
-      </c>
       <c r="R31" t="s">
+        <v>109</v>
+      </c>
+      <c r="S31" t="s">
         <v>16</v>
       </c>
-      <c r="S31" t="s">
-        <v>109</v>
-      </c>
       <c r="T31" t="s">
+        <v>109</v>
+      </c>
+      <c r="U31" t="s">
         <v>17</v>
       </c>
-      <c r="U31" t="s">
-        <v>109</v>
-      </c>
       <c r="V31" t="s">
+        <v>109</v>
+      </c>
+      <c r="W31" t="s">
         <v>17</v>
       </c>
-      <c r="W31" t="s">
-        <v>109</v>
-      </c>
       <c r="X31" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y31" t="s">
         <v>17</v>
       </c>
-      <c r="Y31" t="s">
-        <v>109</v>
-      </c>
       <c r="Z31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA31" t="s">
         <v>16</v>
       </c>
-      <c r="AA31" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD31" t="s">
+      <c r="AB31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE31" t="s">
         <v>70</v>
       </c>
-      <c r="AE31" t="s">
-        <v>14</v>
-      </c>
       <c r="AF31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43915</v>
       </c>
@@ -5487,56 +5580,56 @@
       <c r="F32" t="s">
         <v>16</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>25</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>13</v>
       </c>
-      <c r="Q32" t="s">
-        <v>107</v>
-      </c>
       <c r="R32" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="S32" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T32" t="s">
+        <v>108</v>
+      </c>
+      <c r="U32" t="s">
         <v>120</v>
       </c>
-      <c r="U32" t="s">
-        <v>108</v>
-      </c>
       <c r="V32" t="s">
+        <v>108</v>
+      </c>
+      <c r="W32" t="s">
         <v>13</v>
       </c>
-      <c r="W32" t="s">
-        <v>107</v>
-      </c>
       <c r="X32" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y32" t="s">
         <v>15</v>
       </c>
-      <c r="Y32" t="s">
-        <v>108</v>
-      </c>
       <c r="Z32" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AA32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE32" t="s">
         <v>37</v>
       </c>
-      <c r="AE32" t="s">
-        <v>14</v>
-      </c>
       <c r="AF32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43916</v>
       </c>
@@ -5549,2835 +5642,2835 @@
       <c r="F33" t="s">
         <v>18</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>74</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>16</v>
       </c>
-      <c r="Q33" t="s">
-        <v>109</v>
-      </c>
       <c r="R33" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="S33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AA33" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE33" t="s">
         <v>82</v>
       </c>
-      <c r="AE33" t="s">
-        <v>14</v>
-      </c>
       <c r="AF33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43917</v>
       </c>
       <c r="B34">
         <v>-50</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>39</v>
       </c>
-      <c r="P34" t="s">
-        <v>14</v>
-      </c>
       <c r="Q34" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R34" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S34" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T34" t="s">
+        <v>108</v>
+      </c>
+      <c r="U34" t="s">
         <v>12</v>
       </c>
-      <c r="U34" t="s">
-        <v>107</v>
-      </c>
       <c r="V34" t="s">
+        <v>107</v>
+      </c>
+      <c r="W34" t="s">
         <v>13</v>
       </c>
-      <c r="W34" t="s">
-        <v>107</v>
-      </c>
       <c r="X34" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y34" t="s">
         <v>13</v>
       </c>
-      <c r="Y34" t="s">
-        <v>107</v>
-      </c>
       <c r="Z34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA34" t="s">
         <v>13</v>
       </c>
-      <c r="AA34" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD34" t="s">
+      <c r="AB34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE34" t="s">
         <v>20</v>
       </c>
-      <c r="AE34" t="s">
-        <v>14</v>
-      </c>
       <c r="AF34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43918</v>
       </c>
       <c r="B35">
         <v>-80</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>92</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>16</v>
       </c>
-      <c r="Q35" t="s">
-        <v>109</v>
-      </c>
       <c r="R35" t="s">
+        <v>109</v>
+      </c>
+      <c r="S35" t="s">
         <v>15</v>
       </c>
-      <c r="S35" t="s">
-        <v>108</v>
-      </c>
       <c r="T35" t="s">
+        <v>108</v>
+      </c>
+      <c r="U35" t="s">
         <v>121</v>
       </c>
-      <c r="U35" t="s">
-        <v>109</v>
-      </c>
       <c r="V35" t="s">
+        <v>109</v>
+      </c>
+      <c r="W35" t="s">
         <v>121</v>
       </c>
-      <c r="W35" t="s">
-        <v>109</v>
-      </c>
       <c r="X35" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y35" t="s">
         <v>16</v>
       </c>
-      <c r="Y35" t="s">
-        <v>109</v>
-      </c>
       <c r="Z35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA35" t="s">
         <v>121</v>
       </c>
-      <c r="AA35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD35" t="s">
+      <c r="AB35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE35" t="s">
         <v>81</v>
       </c>
-      <c r="AE35" t="s">
-        <v>14</v>
-      </c>
       <c r="AF35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43919</v>
       </c>
       <c r="B36">
         <v>-75</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>75</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>12</v>
       </c>
-      <c r="Q36" t="s">
-        <v>107</v>
-      </c>
       <c r="R36" t="s">
+        <v>107</v>
+      </c>
+      <c r="S36" t="s">
         <v>13</v>
       </c>
-      <c r="S36" t="s">
-        <v>107</v>
-      </c>
       <c r="T36" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U36" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V36" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W36" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X36" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y36" t="s">
         <v>13</v>
       </c>
-      <c r="Y36" t="s">
-        <v>107</v>
-      </c>
       <c r="Z36" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA36" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE36" t="s">
         <v>86</v>
       </c>
-      <c r="AE36" t="s">
-        <v>14</v>
-      </c>
       <c r="AF36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43920</v>
       </c>
       <c r="B37">
         <v>-45</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>40</v>
       </c>
-      <c r="P37" t="s">
-        <v>14</v>
-      </c>
       <c r="Q37" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S37" t="s">
         <v>12</v>
       </c>
-      <c r="S37" t="s">
-        <v>107</v>
-      </c>
       <c r="T37" t="s">
+        <v>107</v>
+      </c>
+      <c r="U37" t="s">
         <v>13</v>
       </c>
-      <c r="U37" t="s">
-        <v>107</v>
-      </c>
       <c r="V37" t="s">
+        <v>107</v>
+      </c>
+      <c r="W37" t="s">
         <v>12</v>
       </c>
-      <c r="W37" t="s">
-        <v>107</v>
-      </c>
       <c r="X37" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y37" t="s">
         <v>12</v>
       </c>
-      <c r="Y37" t="s">
-        <v>107</v>
-      </c>
       <c r="Z37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA37" t="s">
         <v>12</v>
       </c>
-      <c r="AA37" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD37" t="s">
+      <c r="AB37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE37" t="s">
         <v>64</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AF37" t="s">
         <v>15</v>
       </c>
-      <c r="AF37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43921</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>111</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>16</v>
       </c>
-      <c r="Q38" t="s">
-        <v>109</v>
-      </c>
       <c r="R38" t="s">
+        <v>109</v>
+      </c>
+      <c r="S38" t="s">
         <v>13</v>
       </c>
-      <c r="S38" t="s">
-        <v>107</v>
-      </c>
       <c r="T38" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AA38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE38" t="s">
         <v>33</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AF38" t="s">
         <v>15</v>
       </c>
-      <c r="AF38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="O39" t="s">
+      <c r="AG38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P39" t="s">
         <v>19</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>12</v>
       </c>
-      <c r="Q39" t="s">
-        <v>107</v>
-      </c>
       <c r="R39" t="s">
+        <v>107</v>
+      </c>
+      <c r="S39" t="s">
         <v>12</v>
       </c>
-      <c r="S39" t="s">
-        <v>107</v>
-      </c>
       <c r="T39" t="s">
+        <v>107</v>
+      </c>
+      <c r="U39" t="s">
         <v>12</v>
       </c>
-      <c r="U39" t="s">
-        <v>107</v>
-      </c>
       <c r="V39" t="s">
+        <v>107</v>
+      </c>
+      <c r="W39" t="s">
         <v>12</v>
       </c>
-      <c r="W39" t="s">
-        <v>107</v>
-      </c>
       <c r="X39" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y39" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA39" t="s">
         <v>12</v>
       </c>
-      <c r="AA39" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD39" t="s">
+      <c r="AB39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE39" t="s">
         <v>73</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AF39" t="s">
         <v>15</v>
       </c>
-      <c r="AF39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="O40" t="s">
+      <c r="AG39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P40" t="s">
         <v>20</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>10</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>106</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>10</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>106</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>10</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>106</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>12</v>
       </c>
-      <c r="W40" t="s">
-        <v>107</v>
-      </c>
       <c r="X40" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y40" t="s">
         <v>12</v>
       </c>
-      <c r="Y40" t="s">
-        <v>107</v>
-      </c>
       <c r="Z40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA40" t="s">
         <v>10</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>106</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AE40" t="s">
         <v>53</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="AF40" t="s">
         <v>15</v>
       </c>
-      <c r="AF40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="O41" t="s">
+      <c r="AG40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P41" t="s">
         <v>41</v>
       </c>
-      <c r="P41" t="s">
-        <v>14</v>
-      </c>
       <c r="Q41" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R41" t="s">
+        <v>108</v>
+      </c>
+      <c r="S41" t="s">
         <v>15</v>
       </c>
-      <c r="S41" t="s">
-        <v>108</v>
-      </c>
       <c r="T41" t="s">
+        <v>108</v>
+      </c>
+      <c r="U41" t="s">
         <v>15</v>
       </c>
-      <c r="U41" t="s">
-        <v>108</v>
-      </c>
       <c r="V41" t="s">
+        <v>108</v>
+      </c>
+      <c r="W41" t="s">
         <v>16</v>
       </c>
-      <c r="W41" t="s">
-        <v>109</v>
-      </c>
       <c r="X41" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y41" t="s">
         <v>121</v>
       </c>
-      <c r="Y41" t="s">
-        <v>109</v>
-      </c>
       <c r="Z41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA41" t="s">
         <v>16</v>
       </c>
-      <c r="AA41" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD41" t="s">
+      <c r="AB41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE41" t="s">
         <v>43</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="AF41" t="s">
         <v>15</v>
       </c>
-      <c r="AF41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="O42" t="s">
+      <c r="AG41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P42" t="s">
         <v>42</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>16</v>
       </c>
-      <c r="Q42" t="s">
-        <v>109</v>
-      </c>
       <c r="R42" t="s">
+        <v>109</v>
+      </c>
+      <c r="S42" t="s">
         <v>13</v>
       </c>
-      <c r="S42" t="s">
-        <v>107</v>
-      </c>
       <c r="T42" t="s">
+        <v>107</v>
+      </c>
+      <c r="U42" t="s">
         <v>12</v>
       </c>
-      <c r="U42" t="s">
-        <v>107</v>
-      </c>
       <c r="V42" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W42" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X42" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y42" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z42" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AA42" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD42" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE42" t="s">
         <v>51</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AF42" t="s">
         <v>15</v>
       </c>
-      <c r="AF42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="O43" t="s">
+      <c r="AG42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P43" t="s">
         <v>76</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>17</v>
       </c>
-      <c r="Q43" t="s">
-        <v>109</v>
-      </c>
       <c r="R43" t="s">
+        <v>109</v>
+      </c>
+      <c r="S43" t="s">
         <v>121</v>
       </c>
-      <c r="S43" t="s">
-        <v>109</v>
-      </c>
       <c r="T43" t="s">
+        <v>109</v>
+      </c>
+      <c r="U43" t="s">
         <v>15</v>
       </c>
-      <c r="U43" t="s">
-        <v>108</v>
-      </c>
       <c r="V43" t="s">
+        <v>108</v>
+      </c>
+      <c r="W43" t="s">
         <v>121</v>
       </c>
-      <c r="W43" t="s">
-        <v>109</v>
-      </c>
       <c r="X43" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y43" t="s">
         <v>121</v>
       </c>
-      <c r="Y43" t="s">
-        <v>109</v>
-      </c>
       <c r="Z43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA43" t="s">
         <v>16</v>
       </c>
-      <c r="AA43" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD43" t="s">
+      <c r="AB43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE43" t="s">
         <v>23</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="AF43" t="s">
         <v>120</v>
       </c>
-      <c r="AF43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="O44" t="s">
+      <c r="AG43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
         <v>77</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>12</v>
       </c>
-      <c r="Q44" t="s">
-        <v>107</v>
-      </c>
       <c r="R44" t="s">
+        <v>107</v>
+      </c>
+      <c r="S44" t="s">
         <v>12</v>
       </c>
-      <c r="S44" t="s">
-        <v>107</v>
-      </c>
       <c r="T44" t="s">
+        <v>107</v>
+      </c>
+      <c r="U44" t="s">
         <v>11</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>106</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>13</v>
       </c>
-      <c r="W44" t="s">
-        <v>107</v>
-      </c>
       <c r="X44" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y44" t="s">
         <v>12</v>
       </c>
-      <c r="Y44" t="s">
-        <v>107</v>
-      </c>
       <c r="Z44" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA44" t="s">
         <v>13</v>
       </c>
-      <c r="AA44" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD44" t="s">
+      <c r="AB44" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE44" t="s">
         <v>22</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AF44" t="s">
         <v>120</v>
       </c>
-      <c r="AF44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="O45" t="s">
+      <c r="AG44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P45" t="s">
         <v>78</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>12</v>
       </c>
-      <c r="Q45" t="s">
-        <v>107</v>
-      </c>
       <c r="R45" t="s">
+        <v>107</v>
+      </c>
+      <c r="S45" t="s">
         <v>11</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>106</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>13</v>
       </c>
-      <c r="U45" t="s">
-        <v>107</v>
-      </c>
       <c r="V45" t="s">
+        <v>107</v>
+      </c>
+      <c r="W45" t="s">
         <v>13</v>
       </c>
-      <c r="W45" t="s">
-        <v>107</v>
-      </c>
       <c r="X45" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y45" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z45" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AA45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE45" t="s">
         <v>80</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AF45" t="s">
         <v>16</v>
       </c>
-      <c r="AF45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="O46" t="s">
+      <c r="AG45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P46" t="s">
         <v>26</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>16</v>
       </c>
-      <c r="Q46" t="s">
-        <v>109</v>
-      </c>
       <c r="R46" t="s">
+        <v>109</v>
+      </c>
+      <c r="S46" t="s">
         <v>15</v>
       </c>
-      <c r="S46" t="s">
-        <v>108</v>
-      </c>
       <c r="T46" t="s">
+        <v>108</v>
+      </c>
+      <c r="U46" t="s">
         <v>15</v>
       </c>
-      <c r="U46" t="s">
-        <v>108</v>
-      </c>
       <c r="V46" t="s">
+        <v>108</v>
+      </c>
+      <c r="W46" t="s">
         <v>121</v>
       </c>
-      <c r="W46" t="s">
-        <v>109</v>
-      </c>
       <c r="X46" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y46" t="s">
         <v>121</v>
       </c>
-      <c r="Y46" t="s">
-        <v>109</v>
-      </c>
       <c r="Z46" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="AA46" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD46" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE46" t="s">
         <v>90</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="AF46" t="s">
         <v>16</v>
       </c>
-      <c r="AF46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="O47" t="s">
+      <c r="AG46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P47" t="s">
         <v>93</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>17</v>
       </c>
-      <c r="Q47" t="s">
-        <v>109</v>
-      </c>
       <c r="R47" t="s">
+        <v>109</v>
+      </c>
+      <c r="S47" t="s">
         <v>121</v>
       </c>
-      <c r="S47" t="s">
-        <v>109</v>
-      </c>
       <c r="T47" t="s">
+        <v>109</v>
+      </c>
+      <c r="U47" t="s">
         <v>121</v>
       </c>
-      <c r="U47" t="s">
-        <v>109</v>
-      </c>
       <c r="V47" t="s">
+        <v>109</v>
+      </c>
+      <c r="W47" t="s">
         <v>121</v>
       </c>
-      <c r="W47" t="s">
-        <v>109</v>
-      </c>
       <c r="X47" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y47" t="s">
         <v>16</v>
       </c>
-      <c r="Y47" t="s">
-        <v>109</v>
-      </c>
       <c r="Z47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA47" t="s">
         <v>121</v>
       </c>
-      <c r="AA47" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD47" t="s">
+      <c r="AB47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE47" t="s">
         <v>26</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AF47" t="s">
         <v>16</v>
       </c>
-      <c r="AF47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="O48" t="s">
+      <c r="AG47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P48" t="s">
         <v>43</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>16</v>
       </c>
-      <c r="Q48" t="s">
-        <v>109</v>
-      </c>
       <c r="R48" t="s">
+        <v>109</v>
+      </c>
+      <c r="S48" t="s">
         <v>12</v>
       </c>
-      <c r="S48" t="s">
-        <v>107</v>
-      </c>
       <c r="T48" t="s">
+        <v>107</v>
+      </c>
+      <c r="U48" t="s">
         <v>13</v>
       </c>
-      <c r="U48" t="s">
-        <v>107</v>
-      </c>
       <c r="V48" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W48" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X48" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y48" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z48" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA48" t="s">
         <v>13</v>
       </c>
-      <c r="AA48" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD48" t="s">
+      <c r="AB48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE48" t="s">
         <v>58</v>
       </c>
-      <c r="AE48" t="s">
+      <c r="AF48" t="s">
         <v>16</v>
       </c>
-      <c r="AF48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O49" t="s">
+      <c r="AG48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P49" t="s">
         <v>98</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>17</v>
       </c>
-      <c r="Q49" t="s">
-        <v>109</v>
-      </c>
       <c r="R49" t="s">
+        <v>109</v>
+      </c>
+      <c r="S49" t="s">
         <v>121</v>
       </c>
-      <c r="S49" t="s">
-        <v>109</v>
-      </c>
       <c r="T49" t="s">
+        <v>109</v>
+      </c>
+      <c r="U49" t="s">
         <v>15</v>
       </c>
-      <c r="U49" t="s">
-        <v>108</v>
-      </c>
       <c r="V49" t="s">
+        <v>108</v>
+      </c>
+      <c r="W49" t="s">
         <v>121</v>
       </c>
-      <c r="W49" t="s">
-        <v>109</v>
-      </c>
       <c r="X49" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y49" t="s">
         <v>16</v>
       </c>
-      <c r="Y49" t="s">
-        <v>109</v>
-      </c>
       <c r="Z49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA49" t="s">
         <v>121</v>
       </c>
-      <c r="AA49" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD49" t="s">
+      <c r="AB49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE49" t="s">
         <v>44</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="AF49" t="s">
         <v>16</v>
       </c>
-      <c r="AF49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O50" t="s">
+      <c r="AG49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P50" t="s">
         <v>99</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>17</v>
       </c>
-      <c r="Q50" t="s">
-        <v>109</v>
-      </c>
       <c r="R50" t="s">
+        <v>109</v>
+      </c>
+      <c r="S50" t="s">
         <v>15</v>
       </c>
-      <c r="S50" t="s">
-        <v>108</v>
-      </c>
       <c r="T50" t="s">
+        <v>108</v>
+      </c>
+      <c r="U50" t="s">
         <v>15</v>
       </c>
-      <c r="U50" t="s">
-        <v>108</v>
-      </c>
       <c r="V50" t="s">
+        <v>108</v>
+      </c>
+      <c r="W50" t="s">
         <v>15</v>
       </c>
-      <c r="W50" t="s">
-        <v>108</v>
-      </c>
       <c r="X50" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y50" t="s">
         <v>121</v>
       </c>
-      <c r="Y50" t="s">
-        <v>109</v>
-      </c>
       <c r="Z50" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA50" t="s">
         <v>15</v>
       </c>
-      <c r="AA50" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD50" t="s">
+      <c r="AB50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE50" t="s">
         <v>25</v>
       </c>
-      <c r="AE50" t="s">
+      <c r="AF50" t="s">
         <v>16</v>
       </c>
-      <c r="AF50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O51" t="s">
+      <c r="AG50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P51" t="s">
         <v>44</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>17</v>
       </c>
-      <c r="Q51" t="s">
-        <v>109</v>
-      </c>
       <c r="R51" t="s">
+        <v>109</v>
+      </c>
+      <c r="S51" t="s">
         <v>121</v>
       </c>
-      <c r="S51" t="s">
-        <v>109</v>
-      </c>
       <c r="T51" t="s">
+        <v>109</v>
+      </c>
+      <c r="U51" t="s">
         <v>15</v>
       </c>
-      <c r="U51" t="s">
-        <v>108</v>
-      </c>
       <c r="V51" t="s">
+        <v>108</v>
+      </c>
+      <c r="W51" t="s">
         <v>16</v>
       </c>
-      <c r="W51" t="s">
-        <v>109</v>
-      </c>
       <c r="X51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y51" t="s">
         <v>16</v>
       </c>
-      <c r="Y51" t="s">
-        <v>109</v>
-      </c>
       <c r="Z51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA51" t="s">
         <v>121</v>
       </c>
-      <c r="AA51" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD51" t="s">
+      <c r="AB51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE51" t="s">
         <v>72</v>
       </c>
-      <c r="AE51" t="s">
+      <c r="AF51" t="s">
         <v>16</v>
       </c>
-      <c r="AF51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O52" t="s">
+      <c r="AG51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P52" t="s">
         <v>79</v>
       </c>
-      <c r="P52" t="s">
-        <v>14</v>
-      </c>
       <c r="Q52" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R52" t="s">
+        <v>108</v>
+      </c>
+      <c r="S52" t="s">
         <v>12</v>
       </c>
-      <c r="S52" t="s">
-        <v>107</v>
-      </c>
       <c r="T52" t="s">
+        <v>107</v>
+      </c>
+      <c r="U52" t="s">
         <v>13</v>
       </c>
-      <c r="U52" t="s">
-        <v>107</v>
-      </c>
       <c r="V52" t="s">
+        <v>107</v>
+      </c>
+      <c r="W52" t="s">
         <v>13</v>
       </c>
-      <c r="W52" t="s">
-        <v>107</v>
-      </c>
       <c r="X52" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y52" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z52" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA52" t="s">
         <v>13</v>
       </c>
-      <c r="AA52" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD52" t="s">
+      <c r="AB52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE52" t="s">
         <v>68</v>
       </c>
-      <c r="AE52" t="s">
+      <c r="AF52" t="s">
         <v>16</v>
       </c>
-      <c r="AF52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O53" t="s">
+      <c r="AG52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P53" t="s">
         <v>27</v>
       </c>
-      <c r="P53" t="s">
-        <v>14</v>
-      </c>
       <c r="Q53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R53" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T53" t="s">
+        <v>108</v>
+      </c>
+      <c r="U53" t="s">
         <v>12</v>
       </c>
-      <c r="U53" t="s">
-        <v>107</v>
-      </c>
       <c r="V53" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X53" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y53" t="s">
         <v>121</v>
       </c>
-      <c r="Y53" t="s">
-        <v>109</v>
-      </c>
       <c r="Z53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA53" t="s">
         <v>120</v>
       </c>
-      <c r="AA53" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD53" t="s">
+      <c r="AB53" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE53" t="s">
         <v>100</v>
       </c>
-      <c r="AE53" t="s">
+      <c r="AF53" t="s">
         <v>16</v>
       </c>
-      <c r="AF53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O54" t="s">
+      <c r="AG53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P54" t="s">
         <v>80</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>18</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>110</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>15</v>
       </c>
-      <c r="S54" t="s">
-        <v>108</v>
-      </c>
       <c r="T54" t="s">
+        <v>108</v>
+      </c>
+      <c r="U54" t="s">
         <v>15</v>
       </c>
-      <c r="U54" t="s">
-        <v>108</v>
-      </c>
       <c r="V54" t="s">
+        <v>108</v>
+      </c>
+      <c r="W54" t="s">
         <v>120</v>
       </c>
-      <c r="W54" t="s">
-        <v>108</v>
-      </c>
       <c r="X54" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y54" t="s">
         <v>121</v>
       </c>
-      <c r="Y54" t="s">
-        <v>109</v>
-      </c>
       <c r="Z54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA54" t="s">
         <v>13</v>
       </c>
-      <c r="AA54" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD54" t="s">
+      <c r="AB54" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE54" t="s">
         <v>102</v>
       </c>
-      <c r="AE54" t="s">
+      <c r="AF54" t="s">
         <v>16</v>
       </c>
-      <c r="AF54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O55" t="s">
+      <c r="AG54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P55" t="s">
         <v>45</v>
       </c>
-      <c r="P55" t="s">
-        <v>14</v>
-      </c>
       <c r="Q55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R55" t="s">
+        <v>108</v>
+      </c>
+      <c r="S55" t="s">
         <v>12</v>
       </c>
-      <c r="S55" t="s">
-        <v>107</v>
-      </c>
       <c r="T55" t="s">
+        <v>107</v>
+      </c>
+      <c r="U55" t="s">
         <v>11</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>106</v>
       </c>
-      <c r="V55" t="s">
+      <c r="W55" t="s">
         <v>12</v>
       </c>
-      <c r="W55" t="s">
-        <v>107</v>
-      </c>
       <c r="X55" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y55" t="s">
         <v>13</v>
       </c>
-      <c r="Y55" t="s">
-        <v>107</v>
-      </c>
       <c r="Z55" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA55" t="s">
         <v>12</v>
       </c>
-      <c r="AA55" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD55" t="s">
+      <c r="AB55" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE55" t="s">
         <v>32</v>
       </c>
-      <c r="AE55" t="s">
+      <c r="AF55" t="s">
         <v>16</v>
       </c>
-      <c r="AF55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O56" t="s">
+      <c r="AG55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P56" t="s">
         <v>28</v>
       </c>
-      <c r="P56" t="s">
-        <v>14</v>
-      </c>
       <c r="Q56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R56" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T56" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V56" t="s">
+        <v>108</v>
+      </c>
+      <c r="W56" t="s">
         <v>121</v>
       </c>
-      <c r="W56" t="s">
-        <v>109</v>
-      </c>
       <c r="X56" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y56" t="s">
         <v>18</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>110</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>16</v>
       </c>
-      <c r="AA56" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD56" t="s">
+      <c r="AB56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE56" t="s">
         <v>101</v>
       </c>
-      <c r="AE56" t="s">
+      <c r="AF56" t="s">
         <v>16</v>
       </c>
-      <c r="AF56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O57" t="s">
+      <c r="AG56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P57" t="s">
         <v>100</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>17</v>
       </c>
-      <c r="Q57" t="s">
-        <v>109</v>
-      </c>
       <c r="R57" t="s">
+        <v>109</v>
+      </c>
+      <c r="S57" t="s">
         <v>15</v>
       </c>
-      <c r="S57" t="s">
-        <v>108</v>
-      </c>
       <c r="T57" t="s">
+        <v>108</v>
+      </c>
+      <c r="U57" t="s">
         <v>15</v>
       </c>
-      <c r="U57" t="s">
-        <v>108</v>
-      </c>
       <c r="V57" t="s">
+        <v>108</v>
+      </c>
+      <c r="W57" t="s">
         <v>15</v>
       </c>
-      <c r="W57" t="s">
-        <v>108</v>
-      </c>
       <c r="X57" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y57" t="s">
         <v>121</v>
       </c>
-      <c r="Y57" t="s">
-        <v>109</v>
-      </c>
       <c r="Z57" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA57" t="s">
         <v>15</v>
       </c>
-      <c r="AA57" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD57" t="s">
+      <c r="AB57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE57" t="s">
         <v>99</v>
       </c>
-      <c r="AE57" t="s">
+      <c r="AF57" t="s">
         <v>16</v>
       </c>
-      <c r="AF57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O58" t="s">
+      <c r="AG57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P58" t="s">
         <v>101</v>
       </c>
-      <c r="P58" t="s">
-        <v>14</v>
-      </c>
       <c r="Q58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R58" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T58" t="s">
+        <v>108</v>
+      </c>
+      <c r="U58" t="s">
         <v>120</v>
       </c>
-      <c r="U58" t="s">
-        <v>108</v>
-      </c>
       <c r="V58" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y58" t="s">
         <v>121</v>
       </c>
-      <c r="Y58" t="s">
-        <v>109</v>
-      </c>
       <c r="Z58" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA58" t="s">
         <v>15</v>
       </c>
-      <c r="AA58" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD58" t="s">
+      <c r="AB58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE58" t="s">
         <v>103</v>
       </c>
-      <c r="AE58" t="s">
+      <c r="AF58" t="s">
         <v>17</v>
       </c>
-      <c r="AF58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O59" t="s">
+      <c r="AG58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P59" t="s">
         <v>64</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>16</v>
       </c>
-      <c r="Q59" t="s">
-        <v>109</v>
-      </c>
       <c r="R59" t="s">
+        <v>109</v>
+      </c>
+      <c r="S59" t="s">
         <v>15</v>
       </c>
-      <c r="S59" t="s">
-        <v>108</v>
-      </c>
       <c r="T59" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U59" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V59" t="s">
+        <v>108</v>
+      </c>
+      <c r="W59" t="s">
         <v>15</v>
       </c>
-      <c r="W59" t="s">
-        <v>108</v>
-      </c>
       <c r="X59" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y59" t="s">
         <v>15</v>
       </c>
-      <c r="Y59" t="s">
-        <v>108</v>
-      </c>
       <c r="Z59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA59" t="s">
         <v>15</v>
       </c>
-      <c r="AA59" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD59" t="s">
+      <c r="AB59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE59" t="s">
         <v>76</v>
       </c>
-      <c r="AE59" t="s">
+      <c r="AF59" t="s">
         <v>17</v>
       </c>
-      <c r="AF59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O60" t="s">
+      <c r="AG59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P60" t="s">
         <v>81</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>16</v>
       </c>
-      <c r="Q60" t="s">
-        <v>109</v>
-      </c>
       <c r="R60" t="s">
+        <v>109</v>
+      </c>
+      <c r="S60" t="s">
         <v>13</v>
       </c>
-      <c r="S60" t="s">
-        <v>107</v>
-      </c>
       <c r="T60" t="s">
+        <v>107</v>
+      </c>
+      <c r="U60" t="s">
         <v>13</v>
       </c>
-      <c r="U60" t="s">
-        <v>107</v>
-      </c>
       <c r="V60" t="s">
+        <v>107</v>
+      </c>
+      <c r="W60" t="s">
         <v>13</v>
       </c>
-      <c r="W60" t="s">
-        <v>107</v>
-      </c>
       <c r="X60" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y60" t="s">
         <v>13</v>
       </c>
-      <c r="Y60" t="s">
-        <v>107</v>
-      </c>
       <c r="Z60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA60" t="s">
         <v>12</v>
       </c>
-      <c r="AA60" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD60" t="s">
+      <c r="AB60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE60" t="s">
         <v>98</v>
       </c>
-      <c r="AE60" t="s">
+      <c r="AF60" t="s">
         <v>17</v>
       </c>
-      <c r="AF60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O61" t="s">
+      <c r="AG60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P61" t="s">
         <v>65</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>13</v>
       </c>
-      <c r="Q61" t="s">
-        <v>107</v>
-      </c>
       <c r="R61" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="S61" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T61" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U61" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V61" t="s">
+        <v>108</v>
+      </c>
+      <c r="W61" t="s">
         <v>15</v>
       </c>
-      <c r="W61" t="s">
-        <v>108</v>
-      </c>
       <c r="X61" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y61" t="s">
         <v>121</v>
       </c>
-      <c r="Y61" t="s">
-        <v>109</v>
-      </c>
       <c r="Z61" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA61" t="s">
         <v>15</v>
       </c>
-      <c r="AA61" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD61" t="s">
+      <c r="AB61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE61" t="s">
         <v>30</v>
       </c>
-      <c r="AE61" t="s">
+      <c r="AF61" t="s">
         <v>121</v>
       </c>
-      <c r="AF61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O62" t="s">
+      <c r="AG61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P62" t="s">
         <v>82</v>
       </c>
-      <c r="P62" t="s">
-        <v>14</v>
-      </c>
       <c r="Q62" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R62" t="s">
+        <v>108</v>
+      </c>
+      <c r="S62" t="s">
         <v>13</v>
       </c>
-      <c r="S62" t="s">
-        <v>107</v>
-      </c>
       <c r="T62" t="s">
+        <v>107</v>
+      </c>
+      <c r="U62" t="s">
         <v>13</v>
       </c>
-      <c r="U62" t="s">
-        <v>107</v>
-      </c>
       <c r="V62" t="s">
+        <v>107</v>
+      </c>
+      <c r="W62" t="s">
         <v>13</v>
       </c>
-      <c r="W62" t="s">
-        <v>107</v>
-      </c>
       <c r="X62" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y62" t="s">
         <v>13</v>
       </c>
-      <c r="Y62" t="s">
-        <v>107</v>
-      </c>
       <c r="Z62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA62" t="s">
         <v>13</v>
       </c>
-      <c r="AA62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD62" t="s">
+      <c r="AB62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE62" t="s">
         <v>27</v>
       </c>
-      <c r="AE62" t="s">
+      <c r="AF62" t="s">
         <v>121</v>
       </c>
-      <c r="AF62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O63" t="s">
+      <c r="AG62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P63" t="s">
         <v>29</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>13</v>
       </c>
-      <c r="Q63" t="s">
-        <v>107</v>
-      </c>
       <c r="R63" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="S63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T63" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V63" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X63" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y63" t="s">
         <v>121</v>
       </c>
-      <c r="Y63" t="s">
-        <v>109</v>
-      </c>
       <c r="Z63" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="AA63" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD63" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE63" t="s">
         <v>65</v>
       </c>
-      <c r="AE63" t="s">
+      <c r="AF63" t="s">
         <v>121</v>
       </c>
-      <c r="AF63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O64" t="s">
+      <c r="AG63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P64" t="s">
         <v>46</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>10</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>106</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>12</v>
       </c>
-      <c r="S64" t="s">
-        <v>107</v>
-      </c>
       <c r="T64" t="s">
+        <v>107</v>
+      </c>
+      <c r="U64" t="s">
         <v>13</v>
       </c>
-      <c r="U64" t="s">
-        <v>107</v>
-      </c>
       <c r="V64" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W64" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X64" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y64" t="s">
         <v>13</v>
       </c>
-      <c r="Y64" t="s">
-        <v>107</v>
-      </c>
       <c r="Z64" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA64" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE64" t="s">
         <v>24</v>
       </c>
-      <c r="AE64" t="s">
+      <c r="AF64" t="s">
         <v>121</v>
       </c>
-      <c r="AF64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O65" t="s">
+      <c r="AG64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P65" t="s">
         <v>47</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>16</v>
       </c>
-      <c r="Q65" t="s">
-        <v>109</v>
-      </c>
       <c r="R65" t="s">
+        <v>109</v>
+      </c>
+      <c r="S65" t="s">
         <v>12</v>
       </c>
-      <c r="S65" t="s">
-        <v>107</v>
-      </c>
       <c r="T65" t="s">
+        <v>107</v>
+      </c>
+      <c r="U65" t="s">
         <v>13</v>
       </c>
-      <c r="U65" t="s">
-        <v>107</v>
-      </c>
       <c r="V65" t="s">
+        <v>107</v>
+      </c>
+      <c r="W65" t="s">
         <v>12</v>
       </c>
-      <c r="W65" t="s">
-        <v>107</v>
-      </c>
       <c r="X65" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y65" t="s">
         <v>12</v>
       </c>
-      <c r="Y65" t="s">
-        <v>107</v>
-      </c>
       <c r="Z65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA65" t="s">
         <v>12</v>
       </c>
-      <c r="AA65" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD65" t="s">
+      <c r="AB65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE65" t="s">
         <v>96</v>
       </c>
-      <c r="AE65" t="s">
+      <c r="AF65" t="s">
         <v>121</v>
       </c>
-      <c r="AF65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O66" t="s">
+      <c r="AG65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P66" t="s">
         <v>48</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>16</v>
       </c>
-      <c r="Q66" t="s">
-        <v>109</v>
-      </c>
       <c r="R66" t="s">
+        <v>109</v>
+      </c>
+      <c r="S66" t="s">
         <v>13</v>
       </c>
-      <c r="S66" t="s">
-        <v>107</v>
-      </c>
       <c r="T66" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U66" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V66" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W66" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X66" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y66" t="s">
         <v>13</v>
       </c>
-      <c r="Y66" t="s">
-        <v>107</v>
-      </c>
       <c r="Z66" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA66" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD66" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE66" t="s">
         <v>94</v>
       </c>
-      <c r="AE66" t="s">
+      <c r="AF66" t="s">
         <v>121</v>
       </c>
-      <c r="AF66" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O67" t="s">
+      <c r="AG66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P67" t="s">
         <v>83</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>17</v>
       </c>
-      <c r="Q67" t="s">
-        <v>109</v>
-      </c>
       <c r="R67" t="s">
+        <v>109</v>
+      </c>
+      <c r="S67" t="s">
         <v>121</v>
       </c>
-      <c r="S67" t="s">
-        <v>109</v>
-      </c>
       <c r="T67" t="s">
+        <v>109</v>
+      </c>
+      <c r="U67" t="s">
         <v>16</v>
       </c>
-      <c r="U67" t="s">
-        <v>109</v>
-      </c>
       <c r="V67" t="s">
+        <v>109</v>
+      </c>
+      <c r="W67" t="s">
         <v>17</v>
       </c>
-      <c r="W67" t="s">
-        <v>109</v>
-      </c>
       <c r="X67" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y67" t="s">
         <v>18</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>110</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>17</v>
       </c>
-      <c r="AA67" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD67" t="s">
+      <c r="AB67" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE67" t="s">
         <v>41</v>
       </c>
-      <c r="AE67" t="s">
+      <c r="AF67" t="s">
         <v>18</v>
       </c>
-      <c r="AF67" t="s">
+      <c r="AG67" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O68" t="s">
+    <row r="68" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P68" t="s">
         <v>84</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>16</v>
       </c>
-      <c r="Q68" t="s">
-        <v>109</v>
-      </c>
       <c r="R68" t="s">
+        <v>109</v>
+      </c>
+      <c r="S68" t="s">
         <v>13</v>
       </c>
-      <c r="S68" t="s">
-        <v>107</v>
-      </c>
       <c r="T68" t="s">
+        <v>107</v>
+      </c>
+      <c r="U68" t="s">
         <v>13</v>
       </c>
-      <c r="U68" t="s">
-        <v>107</v>
-      </c>
       <c r="V68" t="s">
+        <v>107</v>
+      </c>
+      <c r="W68" t="s">
         <v>13</v>
       </c>
-      <c r="W68" t="s">
-        <v>107</v>
-      </c>
       <c r="X68" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y68" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z68" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA68" t="s">
         <v>13</v>
       </c>
-      <c r="AA68" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD68" t="s">
+      <c r="AB68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE68" t="s">
         <v>66</v>
       </c>
-      <c r="AE68" t="s">
+      <c r="AF68" t="s">
         <v>18</v>
       </c>
-      <c r="AF68" t="s">
+      <c r="AG68" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O69" t="s">
+    <row r="69" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P69" t="s">
         <v>94</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>15</v>
       </c>
-      <c r="Q69" t="s">
-        <v>108</v>
-      </c>
       <c r="R69" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S69" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T69" t="s">
+        <v>108</v>
+      </c>
+      <c r="U69" t="s">
         <v>15</v>
       </c>
-      <c r="U69" t="s">
-        <v>108</v>
-      </c>
       <c r="V69" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W69" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X69" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y69" t="s">
         <v>15</v>
       </c>
-      <c r="Y69" t="s">
-        <v>108</v>
-      </c>
       <c r="Z69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA69" t="s">
         <v>15</v>
       </c>
-      <c r="AA69" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD69" t="s">
+      <c r="AB69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE69" t="s">
         <v>50</v>
       </c>
-      <c r="AE69" t="s">
+      <c r="AF69" t="s">
         <v>18</v>
       </c>
-      <c r="AF69" t="s">
+      <c r="AG69" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O70" t="s">
+    <row r="70" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P70" t="s">
         <v>31</v>
       </c>
-      <c r="P70" t="s">
-        <v>14</v>
-      </c>
       <c r="Q70" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R70" t="s">
+        <v>108</v>
+      </c>
+      <c r="S70" t="s">
         <v>121</v>
       </c>
-      <c r="S70" t="s">
-        <v>109</v>
-      </c>
       <c r="T70" t="s">
+        <v>109</v>
+      </c>
+      <c r="U70" t="s">
         <v>121</v>
       </c>
-      <c r="U70" t="s">
-        <v>109</v>
-      </c>
       <c r="V70" t="s">
+        <v>109</v>
+      </c>
+      <c r="W70" t="s">
         <v>16</v>
       </c>
-      <c r="W70" t="s">
-        <v>109</v>
-      </c>
       <c r="X70" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y70" t="s">
         <v>18</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>110</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>121</v>
       </c>
-      <c r="AA70" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD70" t="s">
+      <c r="AB70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE70" t="s">
         <v>61</v>
       </c>
-      <c r="AE70" t="s">
+      <c r="AF70" t="s">
         <v>18</v>
       </c>
-      <c r="AF70" t="s">
+      <c r="AG70" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O71" t="s">
+    <row r="71" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P71" t="s">
         <v>95</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>16</v>
       </c>
-      <c r="Q71" t="s">
-        <v>109</v>
-      </c>
       <c r="R71" t="s">
+        <v>109</v>
+      </c>
+      <c r="S71" t="s">
         <v>17</v>
       </c>
-      <c r="S71" t="s">
-        <v>109</v>
-      </c>
       <c r="T71" t="s">
+        <v>109</v>
+      </c>
+      <c r="U71" t="s">
         <v>18</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>110</v>
       </c>
-      <c r="V71" t="s">
+      <c r="W71" t="s">
         <v>18</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>110</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>18</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>110</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>17</v>
       </c>
-      <c r="AA71" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD71" t="s">
+      <c r="AB71" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE71" t="s">
         <v>28</v>
       </c>
-      <c r="AE71" t="s">
+      <c r="AF71" t="s">
         <v>18</v>
       </c>
-      <c r="AF71" t="s">
+      <c r="AG71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O72" t="s">
+    <row r="72" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P72" t="s">
         <v>49</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>16</v>
       </c>
-      <c r="Q72" t="s">
-        <v>109</v>
-      </c>
       <c r="R72" t="s">
+        <v>109</v>
+      </c>
+      <c r="S72" t="s">
         <v>13</v>
       </c>
-      <c r="S72" t="s">
-        <v>107</v>
-      </c>
       <c r="T72" t="s">
+        <v>107</v>
+      </c>
+      <c r="U72" t="s">
         <v>13</v>
       </c>
-      <c r="U72" t="s">
-        <v>107</v>
-      </c>
       <c r="V72" t="s">
+        <v>107</v>
+      </c>
+      <c r="W72" t="s">
         <v>13</v>
       </c>
-      <c r="W72" t="s">
-        <v>107</v>
-      </c>
       <c r="X72" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y72" t="s">
         <v>13</v>
       </c>
-      <c r="Y72" t="s">
-        <v>107</v>
-      </c>
       <c r="Z72" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA72" t="s">
         <v>13</v>
       </c>
-      <c r="AA72" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD72" t="s">
+      <c r="AB72" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE72" t="s">
         <v>67</v>
       </c>
-      <c r="AE72" t="s">
+      <c r="AF72" t="s">
         <v>18</v>
       </c>
-      <c r="AF72" t="s">
+      <c r="AG72" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O73" t="s">
+    <row r="73" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P73" t="s">
         <v>30</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>13</v>
       </c>
-      <c r="Q73" t="s">
-        <v>107</v>
-      </c>
       <c r="R73" t="s">
+        <v>107</v>
+      </c>
+      <c r="S73" t="s">
         <v>13</v>
       </c>
-      <c r="S73" t="s">
-        <v>107</v>
-      </c>
       <c r="T73" t="s">
+        <v>107</v>
+      </c>
+      <c r="U73" t="s">
         <v>126</v>
       </c>
-      <c r="U73" t="s">
-        <v>107</v>
-      </c>
       <c r="V73" t="s">
+        <v>107</v>
+      </c>
+      <c r="W73" t="s">
         <v>120</v>
       </c>
-      <c r="W73" t="s">
-        <v>108</v>
-      </c>
       <c r="X73" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y73" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z73" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA73" t="s">
         <v>126</v>
       </c>
-      <c r="AA73" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD73" t="s">
+      <c r="AB73" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE73" t="s">
         <v>62</v>
       </c>
-      <c r="AE73" t="s">
+      <c r="AF73" t="s">
         <v>18</v>
       </c>
-      <c r="AF73" t="s">
+      <c r="AG73" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O74" t="s">
+    <row r="74" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P74" t="s">
         <v>50</v>
       </c>
-      <c r="P74" t="s">
-        <v>14</v>
-      </c>
       <c r="Q74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R74" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="S74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T74" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V74" t="s">
+        <v>108</v>
+      </c>
+      <c r="W74" t="s">
         <v>16</v>
       </c>
-      <c r="W74" t="s">
-        <v>109</v>
-      </c>
       <c r="X74" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y74" t="s">
         <v>17</v>
       </c>
-      <c r="Y74" t="s">
-        <v>109</v>
-      </c>
       <c r="Z74" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA74" t="s">
         <v>121</v>
       </c>
-      <c r="AA74" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD74" t="s">
+      <c r="AB74" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE74" t="s">
         <v>35</v>
       </c>
-      <c r="AE74" t="s">
+      <c r="AF74" t="s">
         <v>18</v>
       </c>
-      <c r="AF74" t="s">
+      <c r="AG74" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O75" t="s">
+    <row r="75" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P75" t="s">
         <v>66</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>16</v>
       </c>
-      <c r="Q75" t="s">
-        <v>109</v>
-      </c>
       <c r="R75" t="s">
+        <v>109</v>
+      </c>
+      <c r="S75" t="s">
         <v>16</v>
       </c>
-      <c r="S75" t="s">
-        <v>109</v>
-      </c>
       <c r="T75" t="s">
+        <v>109</v>
+      </c>
+      <c r="U75" t="s">
         <v>16</v>
       </c>
-      <c r="U75" t="s">
-        <v>109</v>
-      </c>
       <c r="V75" t="s">
+        <v>109</v>
+      </c>
+      <c r="W75" t="s">
         <v>17</v>
       </c>
-      <c r="W75" t="s">
-        <v>109</v>
-      </c>
       <c r="X75" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y75" t="s">
         <v>18</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>110</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>18</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>110</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AE75" t="s">
         <v>54</v>
       </c>
-      <c r="AE75" t="s">
+      <c r="AF75" t="s">
         <v>18</v>
       </c>
-      <c r="AF75" t="s">
+      <c r="AG75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O76" t="s">
+    <row r="76" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P76" t="s">
         <v>85</v>
       </c>
-      <c r="P76" t="s">
-        <v>14</v>
-      </c>
       <c r="Q76" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R76" t="s">
+        <v>108</v>
+      </c>
+      <c r="S76" t="s">
         <v>12</v>
       </c>
-      <c r="S76" t="s">
-        <v>107</v>
-      </c>
       <c r="T76" t="s">
+        <v>107</v>
+      </c>
+      <c r="U76" t="s">
         <v>12</v>
       </c>
-      <c r="U76" t="s">
-        <v>107</v>
-      </c>
       <c r="V76" t="s">
+        <v>107</v>
+      </c>
+      <c r="W76" t="s">
         <v>13</v>
       </c>
-      <c r="W76" t="s">
-        <v>107</v>
-      </c>
       <c r="X76" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y76" t="s">
         <v>13</v>
       </c>
-      <c r="Y76" t="s">
-        <v>107</v>
-      </c>
       <c r="Z76" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA76" t="s">
         <v>12</v>
       </c>
-      <c r="AA76" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD76" t="s">
+      <c r="AB76" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE76" t="s">
         <v>21</v>
       </c>
-      <c r="AE76" t="s">
+      <c r="AF76" t="s">
         <v>18</v>
       </c>
-      <c r="AF76" t="s">
+      <c r="AG76" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O77" t="s">
+    <row r="77" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P77" t="s">
         <v>86</v>
       </c>
-      <c r="P77" t="s">
-        <v>14</v>
-      </c>
       <c r="Q77" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R77" t="s">
+        <v>108</v>
+      </c>
+      <c r="S77" t="s">
         <v>12</v>
       </c>
-      <c r="S77" t="s">
-        <v>107</v>
-      </c>
       <c r="T77" t="s">
+        <v>107</v>
+      </c>
+      <c r="U77" t="s">
         <v>13</v>
       </c>
-      <c r="U77" t="s">
-        <v>107</v>
-      </c>
       <c r="V77" t="s">
+        <v>107</v>
+      </c>
+      <c r="W77" t="s">
         <v>13</v>
       </c>
-      <c r="W77" t="s">
-        <v>107</v>
-      </c>
       <c r="X77" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y77" t="s">
         <v>13</v>
       </c>
-      <c r="Y77" t="s">
-        <v>107</v>
-      </c>
       <c r="Z77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA77" t="s">
         <v>12</v>
       </c>
-      <c r="AA77" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD77" t="s">
+      <c r="AB77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE77" t="s">
         <v>83</v>
       </c>
-      <c r="AE77" t="s">
+      <c r="AF77" t="s">
         <v>18</v>
       </c>
-      <c r="AF77" t="s">
+      <c r="AG77" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O78" t="s">
+    <row r="78" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P78" t="s">
         <v>87</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>16</v>
       </c>
-      <c r="Q78" t="s">
-        <v>109</v>
-      </c>
       <c r="R78" t="s">
+        <v>109</v>
+      </c>
+      <c r="S78" t="s">
         <v>13</v>
       </c>
-      <c r="S78" t="s">
-        <v>107</v>
-      </c>
       <c r="T78" t="s">
+        <v>107</v>
+      </c>
+      <c r="U78" t="s">
         <v>13</v>
       </c>
-      <c r="U78" t="s">
-        <v>107</v>
-      </c>
       <c r="V78" t="s">
+        <v>107</v>
+      </c>
+      <c r="W78" t="s">
         <v>13</v>
       </c>
-      <c r="W78" t="s">
-        <v>107</v>
-      </c>
       <c r="X78" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y78" t="s">
         <v>13</v>
       </c>
-      <c r="Y78" t="s">
-        <v>107</v>
-      </c>
       <c r="Z78" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA78" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD78" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE78" t="s">
         <v>29</v>
       </c>
-      <c r="AE78" t="s">
+      <c r="AF78" t="s">
         <v>18</v>
       </c>
-      <c r="AF78" t="s">
+      <c r="AG78" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O79" t="s">
+    <row r="79" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P79" t="s">
         <v>104</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>12</v>
       </c>
-      <c r="Q79" t="s">
-        <v>107</v>
-      </c>
       <c r="R79" t="s">
+        <v>107</v>
+      </c>
+      <c r="S79" t="s">
         <v>13</v>
       </c>
-      <c r="S79" t="s">
-        <v>107</v>
-      </c>
       <c r="T79" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U79" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V79" t="s">
+        <v>108</v>
+      </c>
+      <c r="W79" t="s">
         <v>13</v>
       </c>
-      <c r="W79" t="s">
-        <v>107</v>
-      </c>
       <c r="X79" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y79" t="s">
         <v>12</v>
       </c>
-      <c r="Y79" t="s">
-        <v>107</v>
-      </c>
       <c r="Z79" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA79" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD79" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE79" t="s">
         <v>57</v>
       </c>
-      <c r="AE79" t="s">
+      <c r="AF79" t="s">
         <v>18</v>
       </c>
-      <c r="AF79" t="s">
+      <c r="AG79" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O80" t="s">
+    <row r="80" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P80" t="s">
         <v>51</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>16</v>
       </c>
-      <c r="Q80" t="s">
-        <v>109</v>
-      </c>
       <c r="R80" t="s">
+        <v>109</v>
+      </c>
+      <c r="S80" t="s">
         <v>13</v>
       </c>
-      <c r="S80" t="s">
-        <v>107</v>
-      </c>
       <c r="T80" t="s">
+        <v>107</v>
+      </c>
+      <c r="U80" t="s">
         <v>13</v>
       </c>
-      <c r="U80" t="s">
-        <v>107</v>
-      </c>
       <c r="V80" t="s">
+        <v>107</v>
+      </c>
+      <c r="W80" t="s">
         <v>12</v>
       </c>
-      <c r="W80" t="s">
-        <v>107</v>
-      </c>
       <c r="X80" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y80" t="s">
         <v>13</v>
       </c>
-      <c r="Y80" t="s">
-        <v>107</v>
-      </c>
       <c r="Z80" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA80" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD80" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE80" t="s">
         <v>63</v>
       </c>
-      <c r="AE80" t="s">
+      <c r="AF80" t="s">
         <v>18</v>
       </c>
-      <c r="AF80" t="s">
+      <c r="AG80" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O81" t="s">
+    <row r="81" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P81" t="s">
         <v>52</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>16</v>
       </c>
-      <c r="Q81" t="s">
-        <v>109</v>
-      </c>
       <c r="R81" t="s">
+        <v>109</v>
+      </c>
+      <c r="S81" t="s">
         <v>12</v>
       </c>
-      <c r="S81" t="s">
-        <v>107</v>
-      </c>
       <c r="T81" t="s">
+        <v>107</v>
+      </c>
+      <c r="U81" t="s">
         <v>13</v>
       </c>
-      <c r="U81" t="s">
-        <v>107</v>
-      </c>
       <c r="V81" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W81" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X81" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y81" t="s">
         <v>13</v>
       </c>
-      <c r="Y81" t="s">
-        <v>107</v>
-      </c>
       <c r="Z81" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA81" t="s">
         <v>12</v>
       </c>
-      <c r="AA81" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD81" t="s">
+      <c r="AB81" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE81" t="s">
         <v>55</v>
       </c>
-      <c r="AE81" t="s">
+      <c r="AF81" t="s">
         <v>18</v>
       </c>
-      <c r="AF81" t="s">
+      <c r="AG81" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O82" t="s">
+    <row r="82" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P82" t="s">
         <v>53</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>16</v>
       </c>
-      <c r="Q82" t="s">
-        <v>109</v>
-      </c>
       <c r="R82" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="S82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="T82" t="s">
+        <v>108</v>
+      </c>
+      <c r="U82" t="s">
         <v>13</v>
       </c>
-      <c r="U82" t="s">
-        <v>107</v>
-      </c>
       <c r="V82" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X82" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z82" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA82" t="s">
         <v>13</v>
       </c>
-      <c r="AA82" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD82" t="s">
+      <c r="AB82" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE82" t="s">
         <v>31</v>
       </c>
-      <c r="AE82" t="s">
+      <c r="AF82" t="s">
         <v>18</v>
       </c>
-      <c r="AF82" t="s">
+      <c r="AG82" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O83" t="s">
+    <row r="83" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P83" t="s">
         <v>54</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>15</v>
       </c>
-      <c r="Q83" t="s">
-        <v>108</v>
-      </c>
       <c r="R83" t="s">
+        <v>108</v>
+      </c>
+      <c r="S83" t="s">
         <v>16</v>
       </c>
-      <c r="S83" t="s">
-        <v>109</v>
-      </c>
       <c r="T83" t="s">
+        <v>109</v>
+      </c>
+      <c r="U83" t="s">
         <v>16</v>
       </c>
-      <c r="U83" t="s">
-        <v>109</v>
-      </c>
       <c r="V83" t="s">
+        <v>109</v>
+      </c>
+      <c r="W83" t="s">
         <v>16</v>
       </c>
-      <c r="W83" t="s">
-        <v>109</v>
-      </c>
       <c r="X83" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y83" t="s">
         <v>17</v>
       </c>
-      <c r="Y83" t="s">
-        <v>109</v>
-      </c>
       <c r="Z83" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA83" t="s">
         <v>16</v>
       </c>
-      <c r="AA83" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD83" t="s">
+      <c r="AB83" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE83" t="s">
         <v>92</v>
       </c>
-      <c r="AE83" t="s">
+      <c r="AF83" t="s">
         <v>18</v>
       </c>
-      <c r="AF83" t="s">
+      <c r="AG83" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O84" t="s">
+    <row r="84" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P84" t="s">
         <v>96</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>17</v>
       </c>
-      <c r="Q84" t="s">
-        <v>109</v>
-      </c>
       <c r="R84" t="s">
+        <v>109</v>
+      </c>
+      <c r="S84" t="s">
         <v>15</v>
       </c>
-      <c r="S84" t="s">
-        <v>108</v>
-      </c>
       <c r="T84" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="U84" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V84" t="s">
+        <v>108</v>
+      </c>
+      <c r="W84" t="s">
         <v>121</v>
       </c>
-      <c r="W84" t="s">
-        <v>109</v>
-      </c>
       <c r="X84" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y84" t="s">
         <v>121</v>
       </c>
-      <c r="Y84" t="s">
-        <v>109</v>
-      </c>
       <c r="Z84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA84" t="s">
         <v>15</v>
       </c>
-      <c r="AA84" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD84" t="s">
+      <c r="AB84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE84" t="s">
         <v>91</v>
       </c>
-      <c r="AE84" t="s">
+      <c r="AF84" t="s">
         <v>18</v>
       </c>
-      <c r="AF84" t="s">
+      <c r="AG84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O85" t="s">
+    <row r="85" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P85" t="s">
         <v>88</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>16</v>
       </c>
-      <c r="Q85" t="s">
-        <v>109</v>
-      </c>
       <c r="R85" t="s">
+        <v>109</v>
+      </c>
+      <c r="S85" t="s">
         <v>13</v>
       </c>
-      <c r="S85" t="s">
-        <v>107</v>
-      </c>
       <c r="T85" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="U85" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V85" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W85" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X85" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y85" t="s">
         <v>13</v>
       </c>
-      <c r="Y85" t="s">
-        <v>107</v>
-      </c>
       <c r="Z85" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA85" t="s">
         <v>13</v>
       </c>
-      <c r="AA85" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD85" t="s">
+      <c r="AB85" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE85" t="s">
         <v>59</v>
       </c>
-      <c r="AE85" t="s">
+      <c r="AF85" t="s">
         <v>18</v>
       </c>
-      <c r="AF85" t="s">
+      <c r="AG85" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O86" t="s">
+    <row r="86" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P86" t="s">
         <v>67</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>15</v>
       </c>
-      <c r="Q86" t="s">
-        <v>108</v>
-      </c>
       <c r="R86" t="s">
+        <v>108</v>
+      </c>
+      <c r="S86" t="s">
         <v>120</v>
       </c>
-      <c r="S86" t="s">
-        <v>108</v>
-      </c>
       <c r="T86" t="s">
+        <v>108</v>
+      </c>
+      <c r="U86" t="s">
         <v>15</v>
       </c>
-      <c r="U86" t="s">
-        <v>108</v>
-      </c>
       <c r="V86" t="s">
+        <v>108</v>
+      </c>
+      <c r="W86" t="s">
         <v>15</v>
       </c>
-      <c r="W86" t="s">
-        <v>108</v>
-      </c>
       <c r="X86" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y86" t="s">
         <v>16</v>
       </c>
-      <c r="Y86" t="s">
-        <v>109</v>
-      </c>
       <c r="Z86" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="AA86" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD86" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE86" t="s">
         <v>93</v>
       </c>
-      <c r="AE86" t="s">
+      <c r="AF86" t="s">
         <v>18</v>
       </c>
-      <c r="AF86" t="s">
+      <c r="AG86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O87" t="s">
+    <row r="87" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P87" t="s">
         <v>55</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>16</v>
       </c>
-      <c r="Q87" t="s">
-        <v>109</v>
-      </c>
       <c r="R87" t="s">
+        <v>109</v>
+      </c>
+      <c r="S87" t="s">
         <v>16</v>
       </c>
-      <c r="S87" t="s">
-        <v>109</v>
-      </c>
       <c r="T87" t="s">
+        <v>109</v>
+      </c>
+      <c r="U87" t="s">
         <v>16</v>
       </c>
-      <c r="U87" t="s">
-        <v>109</v>
-      </c>
       <c r="V87" t="s">
+        <v>109</v>
+      </c>
+      <c r="W87" t="s">
         <v>18</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>110</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>18</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>110</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>17</v>
       </c>
-      <c r="AA87" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD87" t="s">
+      <c r="AB87" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE87" t="s">
         <v>97</v>
       </c>
-      <c r="AE87" t="s">
+      <c r="AF87" t="s">
         <v>18</v>
       </c>
-      <c r="AF87" t="s">
+      <c r="AG87" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O88" t="s">
+    <row r="88" spans="16:33" x14ac:dyDescent="0.2">
+      <c r="P88" t="s">
         <v>56</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>16</v>
       </c>
-      <c r="Q88" t="s">
-        <v>109</v>
-      </c>
       <c r="R88" t="s">
+        <v>109</v>
+      </c>
+      <c r="S88" t="s">
         <v>13</v>
       </c>
-      <c r="S88" t="s">
-        <v>107</v>
-      </c>
       <c r="T88" t="s">
+        <v>107</v>
+      </c>
+      <c r="U88" t="s">
         <v>13</v>
       </c>
-      <c r="U88" t="s">
-        <v>107</v>
-      </c>
       <c r="V88" t="s">
+        <v>107</v>
+      </c>
+      <c r="W88" t="s">
         <v>13</v>
       </c>
-      <c r="W88" t="s">
-        <v>107</v>
-      </c>
       <c r="X88" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y88" t="s">
         <v>13</v>
       </c>
-      <c r="Y88" t="s">
-        <v>107</v>
-      </c>
       <c r="Z88" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA88" t="s">
         <v>13</v>
       </c>
-      <c r="AA88" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD88" t="s">
+      <c r="AB88" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE88" t="s">
         <v>95</v>
       </c>
-      <c r="AE88" t="s">
+      <c r="AF88" t="s">
         <v>18</v>
       </c>
-      <c r="AF88" t="s">
+      <c r="AG88" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="AD2:AF88">
-    <sortCondition ref="AE1"/>
+  <sortState ref="AE2:AG88">
+    <sortCondition ref="AF1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8387,8 +8480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C41A53-D33E-E046-B342-1CABFEB49E56}">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection sqref="A1:E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/20200622-cvnormal/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8100A6-1D29-C641-9444-2B2EDD7130FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD042F-0002-2647-A619-95295C509229}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="540" windowWidth="28160" windowHeight="19360" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="8880" yWindow="3680" windowWidth="26160" windowHeight="16440" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_transit" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="151">
   <si>
     <t>Source: Minnesota Department of Transportation, Metro Transit</t>
   </si>
@@ -480,9 +480,6 @@
   </si>
   <si>
     <t>MN</t>
-  </si>
-  <si>
-    <t>WI</t>
   </si>
   <si>
     <t>Minneapolis</t>
@@ -870,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
   <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C118" sqref="A1:C118"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2696,7 +2693,7 @@
         <v>-62.2</v>
       </c>
       <c r="L74">
-        <v>-79.2</v>
+        <v>-78.8</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -2792,7 +2789,7 @@
         <v>-58.2</v>
       </c>
       <c r="L78">
-        <v>-78.900000000000006</v>
+        <v>-78.2</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2816,7 +2813,7 @@
         <v>-53.1</v>
       </c>
       <c r="L79">
-        <v>-76.7</v>
+        <v>-75.8</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2864,7 +2861,7 @@
         <v>-54.7</v>
       </c>
       <c r="L81">
-        <v>-79.2</v>
+        <v>-78.400000000000006</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -2912,7 +2909,7 @@
         <v>-54.3</v>
       </c>
       <c r="L83">
-        <v>-81.099999999999994</v>
+        <v>-80.3</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -2936,7 +2933,7 @@
         <v>-58.3</v>
       </c>
       <c r="L84">
-        <v>-80.900000000000006</v>
+        <v>-75.8</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -2960,7 +2957,7 @@
         <v>-52.5</v>
       </c>
       <c r="L85">
-        <v>-79.2</v>
+        <v>-75.599999999999994</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -2974,6 +2971,18 @@
         <f t="shared" si="1"/>
         <v>-14.485714285714286</v>
       </c>
+      <c r="I86" s="1">
+        <v>44004</v>
+      </c>
+      <c r="J86">
+        <v>-93.4</v>
+      </c>
+      <c r="K86">
+        <v>-54.3</v>
+      </c>
+      <c r="L86">
+        <v>-76.5</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2986,6 +2995,18 @@
         <f t="shared" si="1"/>
         <v>-15.257142857142858</v>
       </c>
+      <c r="I87" s="1">
+        <v>44005</v>
+      </c>
+      <c r="J87">
+        <v>-92.7</v>
+      </c>
+      <c r="K87">
+        <v>-54</v>
+      </c>
+      <c r="L87">
+        <v>-77.2</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2998,6 +3019,18 @@
         <f t="shared" si="1"/>
         <v>-14.857142857142859</v>
       </c>
+      <c r="I88" s="1">
+        <v>44006</v>
+      </c>
+      <c r="J88">
+        <v>-92.4</v>
+      </c>
+      <c r="K88">
+        <v>-53.1</v>
+      </c>
+      <c r="L88">
+        <v>-76.5</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -3010,6 +3043,18 @@
         <f t="shared" si="1"/>
         <v>-14.857142857142859</v>
       </c>
+      <c r="I89" s="1">
+        <v>44007</v>
+      </c>
+      <c r="J89">
+        <v>-93.5</v>
+      </c>
+      <c r="K89">
+        <v>-52.8</v>
+      </c>
+      <c r="L89">
+        <v>-72.099999999999994</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
@@ -3021,6 +3066,18 @@
       <c r="C90" s="5">
         <f t="shared" si="1"/>
         <v>-15.400000000000002</v>
+      </c>
+      <c r="I90" s="1">
+        <v>44008</v>
+      </c>
+      <c r="J90">
+        <v>-93.7</v>
+      </c>
+      <c r="K90">
+        <v>-54</v>
+      </c>
+      <c r="L90">
+        <v>-75.3</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3369,19 +3426,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
-  <dimension ref="A1:AG88"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="E1:N7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="N1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="16.83203125" customWidth="1"/>
+    <col min="10" max="15" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3415,59 +3472,62 @@
       <c r="M1" s="6">
         <v>44001</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="6">
         <v>44005</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="6">
+        <v>44009</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43885</v>
       </c>
@@ -3504,56 +3564,59 @@
       <c r="N2" s="4">
         <v>-0.06</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" s="4">
+        <v>-0.19</v>
+      </c>
+      <c r="Q2" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" t="s">
-        <v>14</v>
-      </c>
       <c r="R2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T2" t="s">
         <v>13</v>
       </c>
-      <c r="T2" t="s">
-        <v>107</v>
-      </c>
       <c r="U2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" t="s">
         <v>13</v>
       </c>
-      <c r="X2" t="s">
-        <v>107</v>
-      </c>
       <c r="Y2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" t="s">
-        <v>107</v>
-      </c>
       <c r="AA2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AB2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43886</v>
       </c>
@@ -3590,56 +3653,59 @@
       <c r="N3" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" t="s">
-        <v>109</v>
-      </c>
       <c r="S3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" t="s">
         <v>16</v>
       </c>
-      <c r="T3" t="s">
-        <v>109</v>
-      </c>
       <c r="U3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3" t="s">
         <v>17</v>
       </c>
-      <c r="V3" t="s">
-        <v>109</v>
-      </c>
       <c r="W3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>110</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>110</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" t="s">
-        <v>14</v>
-      </c>
       <c r="AG3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43887</v>
       </c>
@@ -3676,56 +3742,59 @@
       <c r="N4" s="4">
         <v>1.79</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="Q4" t="s">
         <v>102</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>16</v>
       </c>
-      <c r="R4" t="s">
-        <v>109</v>
-      </c>
       <c r="S4" t="s">
+        <v>109</v>
+      </c>
+      <c r="T4" t="s">
         <v>15</v>
       </c>
-      <c r="T4" t="s">
-        <v>108</v>
-      </c>
       <c r="U4" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V4" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W4" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" t="s">
         <v>15</v>
       </c>
-      <c r="X4" t="s">
-        <v>108</v>
-      </c>
       <c r="Y4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z4" t="s">
         <v>121</v>
       </c>
-      <c r="Z4" t="s">
-        <v>109</v>
-      </c>
       <c r="AA4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB4" t="s">
         <v>15</v>
       </c>
-      <c r="AB4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AC4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF4" t="s">
         <v>84</v>
       </c>
-      <c r="AF4" t="s">
-        <v>14</v>
-      </c>
       <c r="AG4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43888</v>
       </c>
@@ -3762,56 +3831,59 @@
       <c r="N5" s="4">
         <v>-0.36</v>
       </c>
-      <c r="P5" t="s">
+      <c r="O5" s="4">
+        <v>-0.24</v>
+      </c>
+      <c r="Q5" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" t="s">
-        <v>14</v>
-      </c>
       <c r="R5" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" t="s">
         <v>13</v>
       </c>
-      <c r="T5" t="s">
-        <v>107</v>
-      </c>
       <c r="U5" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V5" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W5" t="s">
+        <v>108</v>
+      </c>
+      <c r="X5" t="s">
         <v>120</v>
       </c>
-      <c r="X5" t="s">
-        <v>108</v>
-      </c>
       <c r="Y5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z5" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" t="s">
-        <v>108</v>
-      </c>
       <c r="AA5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB5" t="s">
         <v>120</v>
       </c>
-      <c r="AB5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AC5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF5" t="s">
         <v>45</v>
       </c>
-      <c r="AF5" t="s">
-        <v>14</v>
-      </c>
       <c r="AG5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43889</v>
       </c>
@@ -3848,56 +3920,59 @@
       <c r="N6" s="4">
         <v>-0.39</v>
       </c>
-      <c r="P6" t="s">
+      <c r="O6" s="4">
+        <v>-0.08</v>
+      </c>
+      <c r="Q6" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>17</v>
       </c>
-      <c r="R6" t="s">
-        <v>109</v>
-      </c>
       <c r="S6" t="s">
+        <v>109</v>
+      </c>
+      <c r="T6" t="s">
         <v>16</v>
       </c>
-      <c r="T6" t="s">
-        <v>109</v>
-      </c>
       <c r="U6" t="s">
+        <v>109</v>
+      </c>
+      <c r="V6" t="s">
         <v>121</v>
       </c>
-      <c r="V6" t="s">
-        <v>109</v>
-      </c>
       <c r="W6" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s">
         <v>16</v>
       </c>
-      <c r="X6" t="s">
-        <v>109</v>
-      </c>
       <c r="Y6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z6" t="s">
         <v>17</v>
       </c>
-      <c r="Z6" t="s">
-        <v>109</v>
-      </c>
       <c r="AA6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB6" t="s">
         <v>121</v>
       </c>
-      <c r="AB6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AC6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF6" t="s">
         <v>52</v>
       </c>
-      <c r="AF6" t="s">
-        <v>14</v>
-      </c>
       <c r="AG6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43890</v>
       </c>
@@ -3934,336 +4009,339 @@
       <c r="N7" s="4">
         <v>0.11</v>
       </c>
-      <c r="P7" t="s">
+      <c r="O7" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="Q7" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>12</v>
       </c>
-      <c r="R7" t="s">
-        <v>107</v>
-      </c>
       <c r="S7" t="s">
+        <v>107</v>
+      </c>
+      <c r="T7" t="s">
         <v>12</v>
       </c>
-      <c r="T7" t="s">
-        <v>107</v>
-      </c>
       <c r="U7" t="s">
+        <v>107</v>
+      </c>
+      <c r="V7" t="s">
         <v>12</v>
       </c>
-      <c r="V7" t="s">
-        <v>107</v>
-      </c>
       <c r="W7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X7" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z7" t="s">
         <v>12</v>
       </c>
-      <c r="Z7" t="s">
-        <v>107</v>
-      </c>
       <c r="AA7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AB7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF7" t="s">
         <v>47</v>
       </c>
-      <c r="AF7" t="s">
-        <v>14</v>
-      </c>
       <c r="AG7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43891</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>15</v>
       </c>
-      <c r="R8" t="s">
-        <v>108</v>
-      </c>
       <c r="S8" t="s">
+        <v>108</v>
+      </c>
+      <c r="T8" t="s">
         <v>121</v>
       </c>
-      <c r="T8" t="s">
-        <v>109</v>
-      </c>
       <c r="U8" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="V8" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
         <v>121</v>
       </c>
-      <c r="X8" t="s">
-        <v>109</v>
-      </c>
       <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z8" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>110</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>121</v>
       </c>
-      <c r="AB8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE8" t="s">
+      <c r="AC8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF8" t="s">
         <v>87</v>
       </c>
-      <c r="AF8" t="s">
-        <v>14</v>
-      </c>
       <c r="AG8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43892</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>17</v>
       </c>
-      <c r="R9" t="s">
-        <v>109</v>
-      </c>
       <c r="S9" t="s">
+        <v>109</v>
+      </c>
+      <c r="T9" t="s">
         <v>15</v>
       </c>
-      <c r="T9" t="s">
-        <v>108</v>
-      </c>
       <c r="U9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V9" t="s">
         <v>15</v>
       </c>
-      <c r="V9" t="s">
-        <v>108</v>
-      </c>
       <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
         <v>16</v>
       </c>
-      <c r="X9" t="s">
-        <v>109</v>
-      </c>
       <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z9" t="s">
         <v>16</v>
       </c>
-      <c r="Z9" t="s">
-        <v>109</v>
-      </c>
       <c r="AA9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB9" t="s">
         <v>121</v>
       </c>
-      <c r="AB9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE9" t="s">
+      <c r="AC9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF9" t="s">
         <v>75</v>
       </c>
-      <c r="AF9" t="s">
-        <v>14</v>
-      </c>
       <c r="AG9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43893</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>12</v>
       </c>
-      <c r="R10" t="s">
-        <v>107</v>
-      </c>
       <c r="S10" t="s">
+        <v>107</v>
+      </c>
+      <c r="T10" t="s">
         <v>12</v>
       </c>
-      <c r="T10" t="s">
-        <v>107</v>
-      </c>
       <c r="U10" t="s">
+        <v>107</v>
+      </c>
+      <c r="V10" t="s">
         <v>126</v>
       </c>
-      <c r="V10" t="s">
-        <v>107</v>
-      </c>
       <c r="W10" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" t="s">
         <v>12</v>
       </c>
-      <c r="X10" t="s">
-        <v>107</v>
-      </c>
       <c r="Y10" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z10" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB10" t="s">
         <v>12</v>
       </c>
-      <c r="AB10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE10" t="s">
+      <c r="AC10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF10" t="s">
         <v>56</v>
       </c>
-      <c r="AF10" t="s">
-        <v>14</v>
-      </c>
       <c r="AG10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43894</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>15</v>
       </c>
-      <c r="R11" t="s">
-        <v>108</v>
-      </c>
       <c r="S11" t="s">
+        <v>108</v>
+      </c>
+      <c r="T11" t="s">
         <v>16</v>
       </c>
-      <c r="T11" t="s">
-        <v>109</v>
-      </c>
       <c r="U11" t="s">
+        <v>109</v>
+      </c>
+      <c r="V11" t="s">
         <v>16</v>
       </c>
-      <c r="V11" t="s">
-        <v>109</v>
-      </c>
       <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
         <v>17</v>
       </c>
-      <c r="X11" t="s">
-        <v>109</v>
-      </c>
       <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z11" t="s">
         <v>17</v>
       </c>
-      <c r="Z11" t="s">
-        <v>109</v>
-      </c>
       <c r="AA11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB11" t="s">
         <v>16</v>
       </c>
-      <c r="AB11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE11" t="s">
+      <c r="AC11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF11" t="s">
         <v>36</v>
       </c>
-      <c r="AF11" t="s">
-        <v>14</v>
-      </c>
       <c r="AG11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43895</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>12</v>
       </c>
-      <c r="R12" t="s">
-        <v>107</v>
-      </c>
       <c r="S12" t="s">
+        <v>107</v>
+      </c>
+      <c r="T12" t="s">
         <v>12</v>
       </c>
-      <c r="T12" t="s">
-        <v>107</v>
-      </c>
       <c r="U12" t="s">
+        <v>107</v>
+      </c>
+      <c r="V12" t="s">
         <v>12</v>
       </c>
-      <c r="V12" t="s">
-        <v>107</v>
-      </c>
       <c r="W12" t="s">
+        <v>107</v>
+      </c>
+      <c r="X12" t="s">
         <v>13</v>
       </c>
-      <c r="X12" t="s">
-        <v>107</v>
-      </c>
       <c r="Y12" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z12" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB12" t="s">
         <v>13</v>
       </c>
-      <c r="AB12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE12" t="s">
+      <c r="AC12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF12" t="s">
         <v>71</v>
       </c>
-      <c r="AF12" t="s">
-        <v>14</v>
-      </c>
       <c r="AG12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43896</v>
       </c>
@@ -4291,56 +4369,56 @@
       <c r="K13" t="s">
         <v>119</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" t="s">
-        <v>14</v>
-      </c>
       <c r="R13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S13" t="s">
+        <v>108</v>
+      </c>
+      <c r="T13" t="s">
         <v>13</v>
       </c>
-      <c r="T13" t="s">
-        <v>107</v>
-      </c>
       <c r="U13" t="s">
+        <v>107</v>
+      </c>
+      <c r="V13" t="s">
         <v>13</v>
       </c>
-      <c r="V13" t="s">
-        <v>107</v>
-      </c>
       <c r="W13" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB13" t="s">
         <v>13</v>
       </c>
-      <c r="AB13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE13" t="s">
+      <c r="AC13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF13" t="s">
         <v>49</v>
       </c>
-      <c r="AF13" t="s">
-        <v>14</v>
-      </c>
       <c r="AG13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43897</v>
       </c>
@@ -4371,56 +4449,57 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="P14" t="s">
+      <c r="O14" s="4"/>
+      <c r="Q14" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>16</v>
       </c>
-      <c r="R14" t="s">
-        <v>109</v>
-      </c>
       <c r="S14" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14" t="s">
         <v>121</v>
       </c>
-      <c r="T14" t="s">
-        <v>109</v>
-      </c>
       <c r="U14" t="s">
+        <v>109</v>
+      </c>
+      <c r="V14" t="s">
         <v>15</v>
       </c>
-      <c r="V14" t="s">
-        <v>108</v>
-      </c>
       <c r="W14" t="s">
+        <v>108</v>
+      </c>
+      <c r="X14" t="s">
         <v>121</v>
       </c>
-      <c r="X14" t="s">
-        <v>109</v>
-      </c>
       <c r="Y14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z14" t="s">
         <v>16</v>
       </c>
-      <c r="Z14" t="s">
-        <v>109</v>
-      </c>
       <c r="AA14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB14" t="s">
         <v>16</v>
       </c>
-      <c r="AB14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="AC14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF14" t="s">
         <v>60</v>
       </c>
-      <c r="AF14" t="s">
-        <v>14</v>
-      </c>
       <c r="AG14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43898</v>
       </c>
@@ -4451,56 +4530,57 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="P15" t="s">
+      <c r="O15" s="4"/>
+      <c r="Q15" t="s">
         <v>68</v>
       </c>
-      <c r="Q15" t="s">
-        <v>14</v>
-      </c>
       <c r="R15" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S15" t="s">
+        <v>108</v>
+      </c>
+      <c r="T15" t="s">
         <v>121</v>
       </c>
-      <c r="T15" t="s">
-        <v>109</v>
-      </c>
       <c r="U15" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="V15" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W15" t="s">
+        <v>108</v>
+      </c>
+      <c r="X15" t="s">
         <v>15</v>
       </c>
-      <c r="X15" t="s">
-        <v>108</v>
-      </c>
       <c r="Y15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z15" t="s">
         <v>121</v>
       </c>
-      <c r="Z15" t="s">
-        <v>109</v>
-      </c>
       <c r="AA15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB15" t="s">
         <v>121</v>
       </c>
-      <c r="AB15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE15" t="s">
+      <c r="AC15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF15" t="s">
         <v>85</v>
       </c>
-      <c r="AF15" t="s">
-        <v>14</v>
-      </c>
       <c r="AG15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43899</v>
       </c>
@@ -4531,56 +4611,57 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="P16" t="s">
+      <c r="O16" s="4"/>
+      <c r="Q16" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>18</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>110</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>13</v>
       </c>
-      <c r="T16" t="s">
-        <v>107</v>
-      </c>
       <c r="U16" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V16" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W16" t="s">
+        <v>108</v>
+      </c>
+      <c r="X16" t="s">
         <v>13</v>
       </c>
-      <c r="X16" t="s">
-        <v>107</v>
-      </c>
       <c r="Y16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z16" t="s">
         <v>12</v>
       </c>
-      <c r="Z16" t="s">
-        <v>107</v>
-      </c>
       <c r="AA16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB16" t="s">
         <v>13</v>
       </c>
-      <c r="AB16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE16" t="s">
+      <c r="AC16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF16" t="s">
         <v>129</v>
       </c>
-      <c r="AF16" t="s">
-        <v>14</v>
-      </c>
       <c r="AG16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43900</v>
       </c>
@@ -4611,56 +4692,57 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="P17" t="s">
+      <c r="O17" s="4"/>
+      <c r="Q17" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>16</v>
       </c>
-      <c r="R17" t="s">
-        <v>109</v>
-      </c>
       <c r="S17" t="s">
+        <v>109</v>
+      </c>
+      <c r="T17" t="s">
         <v>11</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>106</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>11</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>12</v>
       </c>
-      <c r="X17" t="s">
-        <v>107</v>
-      </c>
       <c r="Y17" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z17" t="s">
         <v>13</v>
       </c>
-      <c r="Z17" t="s">
-        <v>107</v>
-      </c>
       <c r="AA17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB17" t="s">
         <v>11</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>106</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>69</v>
       </c>
-      <c r="AF17" t="s">
-        <v>14</v>
-      </c>
       <c r="AG17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43901</v>
       </c>
@@ -4691,56 +4773,57 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="P18" t="s">
+      <c r="O18" s="4"/>
+      <c r="Q18" t="s">
         <v>70</v>
       </c>
-      <c r="Q18" t="s">
-        <v>14</v>
-      </c>
       <c r="R18" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S18" t="s">
+        <v>108</v>
+      </c>
+      <c r="T18" t="s">
         <v>13</v>
       </c>
-      <c r="T18" t="s">
-        <v>107</v>
-      </c>
       <c r="U18" t="s">
+        <v>107</v>
+      </c>
+      <c r="V18" t="s">
         <v>13</v>
       </c>
-      <c r="V18" t="s">
-        <v>107</v>
-      </c>
       <c r="W18" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X18" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z18" t="s">
         <v>13</v>
       </c>
-      <c r="Z18" t="s">
-        <v>107</v>
-      </c>
       <c r="AA18" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AB18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF18" t="s">
         <v>46</v>
       </c>
-      <c r="AF18" t="s">
-        <v>14</v>
-      </c>
       <c r="AG18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43902</v>
       </c>
@@ -4771,56 +4854,57 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="P19" t="s">
+      <c r="O19" s="4"/>
+      <c r="Q19" t="s">
         <v>91</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>16</v>
       </c>
-      <c r="R19" t="s">
-        <v>109</v>
-      </c>
       <c r="S19" t="s">
+        <v>109</v>
+      </c>
+      <c r="T19" t="s">
         <v>121</v>
       </c>
-      <c r="T19" t="s">
-        <v>109</v>
-      </c>
       <c r="U19" t="s">
+        <v>109</v>
+      </c>
+      <c r="V19" t="s">
         <v>15</v>
       </c>
-      <c r="V19" t="s">
-        <v>108</v>
-      </c>
       <c r="W19" t="s">
+        <v>108</v>
+      </c>
+      <c r="X19" t="s">
         <v>121</v>
       </c>
-      <c r="X19" t="s">
-        <v>109</v>
-      </c>
       <c r="Y19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z19" t="s">
         <v>16</v>
       </c>
-      <c r="Z19" t="s">
-        <v>109</v>
-      </c>
       <c r="AA19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB19" t="s">
         <v>17</v>
       </c>
-      <c r="AB19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE19" t="s">
+      <c r="AC19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF19" t="s">
         <v>104</v>
       </c>
-      <c r="AF19" t="s">
-        <v>14</v>
-      </c>
       <c r="AG19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43903</v>
       </c>
@@ -4848,56 +4932,56 @@
       <c r="K20" s="4">
         <v>0</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>21</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>15</v>
       </c>
-      <c r="R20" t="s">
-        <v>108</v>
-      </c>
       <c r="S20" t="s">
+        <v>108</v>
+      </c>
+      <c r="T20" t="s">
         <v>121</v>
       </c>
-      <c r="T20" t="s">
-        <v>109</v>
-      </c>
       <c r="U20" t="s">
+        <v>109</v>
+      </c>
+      <c r="V20" t="s">
         <v>121</v>
       </c>
-      <c r="V20" t="s">
-        <v>109</v>
-      </c>
       <c r="W20" t="s">
+        <v>109</v>
+      </c>
+      <c r="X20" t="s">
         <v>16</v>
       </c>
-      <c r="X20" t="s">
-        <v>109</v>
-      </c>
       <c r="Y20" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z20" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" t="s">
-        <v>109</v>
-      </c>
       <c r="AA20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB20" t="s">
         <v>16</v>
       </c>
-      <c r="AB20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AC20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF20" t="s">
         <v>77</v>
       </c>
-      <c r="AF20" t="s">
-        <v>14</v>
-      </c>
       <c r="AG20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43904</v>
       </c>
@@ -4925,56 +5009,56 @@
       <c r="K21" s="4">
         <v>0.08</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>22</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>17</v>
       </c>
-      <c r="R21" t="s">
-        <v>109</v>
-      </c>
       <c r="S21" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="T21" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U21" t="s">
+        <v>108</v>
+      </c>
+      <c r="V21" t="s">
         <v>13</v>
       </c>
-      <c r="V21" t="s">
-        <v>107</v>
-      </c>
       <c r="W21" t="s">
+        <v>107</v>
+      </c>
+      <c r="X21" t="s">
         <v>121</v>
       </c>
-      <c r="X21" t="s">
-        <v>109</v>
-      </c>
       <c r="Y21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z21" t="s">
         <v>121</v>
       </c>
-      <c r="Z21" t="s">
-        <v>109</v>
-      </c>
       <c r="AA21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB21" t="s">
         <v>16</v>
       </c>
-      <c r="AB21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE21" t="s">
+      <c r="AC21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF21" t="s">
         <v>48</v>
       </c>
-      <c r="AF21" t="s">
-        <v>14</v>
-      </c>
       <c r="AG21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43905</v>
       </c>
@@ -5002,448 +5086,448 @@
       <c r="K22" s="4">
         <v>0.11</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>15</v>
       </c>
-      <c r="R22" t="s">
-        <v>108</v>
-      </c>
       <c r="S22" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T22" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U22" t="s">
+        <v>108</v>
+      </c>
+      <c r="V22" t="s">
         <v>121</v>
       </c>
-      <c r="V22" t="s">
-        <v>109</v>
-      </c>
       <c r="W22" t="s">
+        <v>109</v>
+      </c>
+      <c r="X22" t="s">
         <v>15</v>
       </c>
-      <c r="X22" t="s">
-        <v>108</v>
-      </c>
       <c r="Y22" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z22" t="s">
         <v>121</v>
       </c>
-      <c r="Z22" t="s">
-        <v>109</v>
-      </c>
       <c r="AA22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB22" t="s">
         <v>16</v>
       </c>
-      <c r="AB22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE22" t="s">
+      <c r="AC22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF22" t="s">
         <v>79</v>
       </c>
-      <c r="AF22" t="s">
-        <v>14</v>
-      </c>
       <c r="AG22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43906</v>
       </c>
       <c r="B23">
         <v>-14</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>71</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>16</v>
       </c>
-      <c r="R23" t="s">
-        <v>109</v>
-      </c>
       <c r="S23" t="s">
+        <v>109</v>
+      </c>
+      <c r="T23" t="s">
         <v>13</v>
       </c>
-      <c r="T23" t="s">
-        <v>107</v>
-      </c>
       <c r="U23" t="s">
+        <v>107</v>
+      </c>
+      <c r="V23" t="s">
         <v>13</v>
       </c>
-      <c r="V23" t="s">
-        <v>107</v>
-      </c>
       <c r="W23" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X23" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y23" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z23" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB23" t="s">
         <v>13</v>
       </c>
-      <c r="AB23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AC23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF23" t="s">
         <v>78</v>
       </c>
-      <c r="AF23" t="s">
-        <v>14</v>
-      </c>
       <c r="AG23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43907</v>
       </c>
       <c r="B24">
         <v>-17</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>72</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>13</v>
       </c>
-      <c r="R24" t="s">
-        <v>107</v>
-      </c>
       <c r="S24" t="s">
+        <v>107</v>
+      </c>
+      <c r="T24" t="s">
         <v>12</v>
       </c>
-      <c r="T24" t="s">
-        <v>107</v>
-      </c>
       <c r="U24" t="s">
+        <v>107</v>
+      </c>
+      <c r="V24" t="s">
         <v>12</v>
       </c>
-      <c r="V24" t="s">
-        <v>107</v>
-      </c>
       <c r="W24" t="s">
+        <v>107</v>
+      </c>
+      <c r="X24" t="s">
         <v>15</v>
       </c>
-      <c r="X24" t="s">
-        <v>108</v>
-      </c>
       <c r="Y24" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z24" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB24" t="s">
         <v>13</v>
       </c>
-      <c r="AB24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE24" t="s">
+      <c r="AC24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF24" t="s">
         <v>42</v>
       </c>
-      <c r="AF24" t="s">
-        <v>14</v>
-      </c>
       <c r="AG24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43908</v>
       </c>
       <c r="B25">
         <v>-26</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>103</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>18</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>110</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>16</v>
       </c>
-      <c r="T25" t="s">
-        <v>109</v>
-      </c>
       <c r="U25" t="s">
+        <v>109</v>
+      </c>
+      <c r="V25" t="s">
         <v>16</v>
       </c>
-      <c r="V25" t="s">
-        <v>109</v>
-      </c>
       <c r="W25" t="s">
+        <v>109</v>
+      </c>
+      <c r="X25" t="s">
         <v>16</v>
       </c>
-      <c r="X25" t="s">
-        <v>109</v>
-      </c>
       <c r="Y25" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z25" t="s">
         <v>16</v>
       </c>
-      <c r="Z25" t="s">
-        <v>109</v>
-      </c>
       <c r="AA25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB25" t="s">
         <v>121</v>
       </c>
-      <c r="AB25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="AC25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF25" t="s">
         <v>39</v>
       </c>
-      <c r="AF25" t="s">
-        <v>14</v>
-      </c>
       <c r="AG25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43909</v>
       </c>
       <c r="B26">
         <v>-31</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>13</v>
       </c>
-      <c r="R26" t="s">
-        <v>107</v>
-      </c>
       <c r="S26" t="s">
+        <v>107</v>
+      </c>
+      <c r="T26" t="s">
         <v>13</v>
       </c>
-      <c r="T26" t="s">
-        <v>107</v>
-      </c>
       <c r="U26" t="s">
+        <v>107</v>
+      </c>
+      <c r="V26" t="s">
         <v>12</v>
       </c>
-      <c r="V26" t="s">
-        <v>107</v>
-      </c>
       <c r="W26" t="s">
+        <v>107</v>
+      </c>
+      <c r="X26" t="s">
         <v>13</v>
       </c>
-      <c r="X26" t="s">
-        <v>107</v>
-      </c>
       <c r="Y26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z26" t="s">
         <v>13</v>
       </c>
-      <c r="Z26" t="s">
-        <v>107</v>
-      </c>
       <c r="AA26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB26" t="s">
         <v>12</v>
       </c>
-      <c r="AB26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE26" t="s">
+      <c r="AC26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF26" t="s">
         <v>89</v>
       </c>
-      <c r="AF26" t="s">
-        <v>14</v>
-      </c>
       <c r="AG26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43910</v>
       </c>
       <c r="B27">
         <v>-38</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" t="s">
-        <v>14</v>
-      </c>
       <c r="R27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S27" t="s">
+        <v>108</v>
+      </c>
+      <c r="T27" t="s">
         <v>13</v>
       </c>
-      <c r="T27" t="s">
-        <v>107</v>
-      </c>
       <c r="U27" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W27" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y27" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z27" t="s">
         <v>12</v>
       </c>
-      <c r="Z27" t="s">
-        <v>107</v>
-      </c>
       <c r="AA27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB27" t="s">
         <v>12</v>
       </c>
-      <c r="AB27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AC27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF27" t="s">
         <v>19</v>
       </c>
-      <c r="AF27" t="s">
-        <v>14</v>
-      </c>
       <c r="AG27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43911</v>
       </c>
       <c r="B28">
         <v>-46</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>12</v>
       </c>
-      <c r="R28" t="s">
-        <v>107</v>
-      </c>
       <c r="S28" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T28" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U28" t="s">
+        <v>108</v>
+      </c>
+      <c r="V28" t="s">
         <v>120</v>
       </c>
-      <c r="V28" t="s">
-        <v>108</v>
-      </c>
       <c r="W28" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X28" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z28" t="s">
         <v>15</v>
       </c>
-      <c r="Z28" t="s">
-        <v>108</v>
-      </c>
       <c r="AA28" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AB28" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF28" t="s">
         <v>88</v>
       </c>
-      <c r="AF28" t="s">
-        <v>14</v>
-      </c>
       <c r="AG28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43912</v>
       </c>
       <c r="B29">
         <v>-33</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>38</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>15</v>
       </c>
-      <c r="R29" t="s">
-        <v>108</v>
-      </c>
       <c r="S29" t="s">
+        <v>108</v>
+      </c>
+      <c r="T29" t="s">
         <v>120</v>
       </c>
-      <c r="T29" t="s">
-        <v>108</v>
-      </c>
       <c r="U29" t="s">
+        <v>108</v>
+      </c>
+      <c r="V29" t="s">
         <v>120</v>
       </c>
-      <c r="V29" t="s">
-        <v>108</v>
-      </c>
       <c r="W29" t="s">
+        <v>108</v>
+      </c>
+      <c r="X29" t="s">
         <v>13</v>
       </c>
-      <c r="X29" t="s">
-        <v>107</v>
-      </c>
       <c r="Y29" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z29" t="s">
         <v>15</v>
       </c>
-      <c r="Z29" t="s">
-        <v>108</v>
-      </c>
       <c r="AA29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB29" t="s">
         <v>121</v>
       </c>
-      <c r="AB29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE29" t="s">
+      <c r="AC29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF29" t="s">
         <v>40</v>
       </c>
-      <c r="AF29" t="s">
-        <v>14</v>
-      </c>
       <c r="AG29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43913</v>
       </c>
@@ -5456,56 +5540,56 @@
       <c r="F30" t="s">
         <v>12</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>73</v>
       </c>
-      <c r="Q30" t="s">
-        <v>14</v>
-      </c>
       <c r="R30" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S30" t="s">
+        <v>108</v>
+      </c>
+      <c r="T30" t="s">
         <v>13</v>
       </c>
-      <c r="T30" t="s">
-        <v>107</v>
-      </c>
       <c r="U30" t="s">
+        <v>107</v>
+      </c>
+      <c r="V30" t="s">
         <v>12</v>
       </c>
-      <c r="V30" t="s">
-        <v>107</v>
-      </c>
       <c r="W30" t="s">
+        <v>107</v>
+      </c>
+      <c r="X30" t="s">
         <v>12</v>
       </c>
-      <c r="X30" t="s">
-        <v>107</v>
-      </c>
       <c r="Y30" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z30" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB30" t="s">
         <v>13</v>
       </c>
-      <c r="AB30" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE30" t="s">
+      <c r="AC30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF30" t="s">
         <v>34</v>
       </c>
-      <c r="AF30" t="s">
-        <v>14</v>
-      </c>
       <c r="AG30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43914</v>
       </c>
@@ -5518,56 +5602,56 @@
       <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>97</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>17</v>
       </c>
-      <c r="R31" t="s">
-        <v>109</v>
-      </c>
       <c r="S31" t="s">
+        <v>109</v>
+      </c>
+      <c r="T31" t="s">
         <v>16</v>
       </c>
-      <c r="T31" t="s">
-        <v>109</v>
-      </c>
       <c r="U31" t="s">
+        <v>109</v>
+      </c>
+      <c r="V31" t="s">
         <v>17</v>
       </c>
-      <c r="V31" t="s">
-        <v>109</v>
-      </c>
       <c r="W31" t="s">
+        <v>109</v>
+      </c>
+      <c r="X31" t="s">
         <v>17</v>
       </c>
-      <c r="X31" t="s">
-        <v>109</v>
-      </c>
       <c r="Y31" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z31" t="s">
         <v>17</v>
       </c>
-      <c r="Z31" t="s">
-        <v>109</v>
-      </c>
       <c r="AA31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB31" t="s">
         <v>16</v>
       </c>
-      <c r="AB31" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE31" t="s">
+      <c r="AC31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF31" t="s">
         <v>70</v>
       </c>
-      <c r="AF31" t="s">
-        <v>14</v>
-      </c>
       <c r="AG31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43915</v>
       </c>
@@ -5580,56 +5664,56 @@
       <c r="F32" t="s">
         <v>16</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>13</v>
       </c>
-      <c r="R32" t="s">
-        <v>107</v>
-      </c>
       <c r="S32" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T32" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U32" t="s">
+        <v>108</v>
+      </c>
+      <c r="V32" t="s">
         <v>120</v>
       </c>
-      <c r="V32" t="s">
-        <v>108</v>
-      </c>
       <c r="W32" t="s">
+        <v>108</v>
+      </c>
+      <c r="X32" t="s">
         <v>13</v>
       </c>
-      <c r="X32" t="s">
-        <v>107</v>
-      </c>
       <c r="Y32" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z32" t="s">
         <v>15</v>
       </c>
-      <c r="Z32" t="s">
-        <v>108</v>
-      </c>
       <c r="AA32" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AB32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF32" t="s">
         <v>37</v>
       </c>
-      <c r="AF32" t="s">
-        <v>14</v>
-      </c>
       <c r="AG32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43916</v>
       </c>
@@ -5642,2835 +5726,2835 @@
       <c r="F33" t="s">
         <v>18</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>74</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>16</v>
       </c>
-      <c r="R33" t="s">
-        <v>109</v>
-      </c>
       <c r="S33" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="T33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AB33" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF33" t="s">
         <v>82</v>
       </c>
-      <c r="AF33" t="s">
-        <v>14</v>
-      </c>
       <c r="AG33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43917</v>
       </c>
       <c r="B34">
         <v>-50</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>39</v>
       </c>
-      <c r="Q34" t="s">
-        <v>14</v>
-      </c>
       <c r="R34" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S34" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T34" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U34" t="s">
+        <v>108</v>
+      </c>
+      <c r="V34" t="s">
         <v>12</v>
       </c>
-      <c r="V34" t="s">
-        <v>107</v>
-      </c>
       <c r="W34" t="s">
+        <v>107</v>
+      </c>
+      <c r="X34" t="s">
         <v>13</v>
       </c>
-      <c r="X34" t="s">
-        <v>107</v>
-      </c>
       <c r="Y34" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z34" t="s">
         <v>13</v>
       </c>
-      <c r="Z34" t="s">
-        <v>107</v>
-      </c>
       <c r="AA34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB34" t="s">
         <v>13</v>
       </c>
-      <c r="AB34" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE34" t="s">
+      <c r="AC34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF34" t="s">
         <v>20</v>
       </c>
-      <c r="AF34" t="s">
-        <v>14</v>
-      </c>
       <c r="AG34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43918</v>
       </c>
       <c r="B35">
         <v>-80</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>92</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>16</v>
       </c>
-      <c r="R35" t="s">
-        <v>109</v>
-      </c>
       <c r="S35" t="s">
+        <v>109</v>
+      </c>
+      <c r="T35" t="s">
         <v>15</v>
       </c>
-      <c r="T35" t="s">
-        <v>108</v>
-      </c>
       <c r="U35" t="s">
+        <v>108</v>
+      </c>
+      <c r="V35" t="s">
         <v>121</v>
       </c>
-      <c r="V35" t="s">
-        <v>109</v>
-      </c>
       <c r="W35" t="s">
+        <v>109</v>
+      </c>
+      <c r="X35" t="s">
         <v>121</v>
       </c>
-      <c r="X35" t="s">
-        <v>109</v>
-      </c>
       <c r="Y35" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z35" t="s">
         <v>16</v>
       </c>
-      <c r="Z35" t="s">
-        <v>109</v>
-      </c>
       <c r="AA35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB35" t="s">
         <v>121</v>
       </c>
-      <c r="AB35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE35" t="s">
+      <c r="AC35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF35" t="s">
         <v>81</v>
       </c>
-      <c r="AF35" t="s">
-        <v>14</v>
-      </c>
       <c r="AG35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43919</v>
       </c>
       <c r="B36">
         <v>-75</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>75</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>12</v>
       </c>
-      <c r="R36" t="s">
-        <v>107</v>
-      </c>
       <c r="S36" t="s">
+        <v>107</v>
+      </c>
+      <c r="T36" t="s">
         <v>13</v>
       </c>
-      <c r="T36" t="s">
-        <v>107</v>
-      </c>
       <c r="U36" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V36" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W36" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X36" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y36" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z36" t="s">
         <v>13</v>
       </c>
-      <c r="Z36" t="s">
-        <v>107</v>
-      </c>
       <c r="AA36" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AB36" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF36" t="s">
         <v>86</v>
       </c>
-      <c r="AF36" t="s">
-        <v>14</v>
-      </c>
       <c r="AG36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43920</v>
       </c>
       <c r="B37">
         <v>-45</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>40</v>
       </c>
-      <c r="Q37" t="s">
-        <v>14</v>
-      </c>
       <c r="R37" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T37" t="s">
         <v>12</v>
       </c>
-      <c r="T37" t="s">
-        <v>107</v>
-      </c>
       <c r="U37" t="s">
+        <v>107</v>
+      </c>
+      <c r="V37" t="s">
         <v>13</v>
       </c>
-      <c r="V37" t="s">
-        <v>107</v>
-      </c>
       <c r="W37" t="s">
+        <v>107</v>
+      </c>
+      <c r="X37" t="s">
         <v>12</v>
       </c>
-      <c r="X37" t="s">
-        <v>107</v>
-      </c>
       <c r="Y37" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z37" t="s">
         <v>12</v>
       </c>
-      <c r="Z37" t="s">
-        <v>107</v>
-      </c>
       <c r="AA37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB37" t="s">
         <v>12</v>
       </c>
-      <c r="AB37" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE37" t="s">
+      <c r="AC37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF37" t="s">
         <v>64</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AG37" t="s">
         <v>15</v>
       </c>
-      <c r="AG37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43921</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>111</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>16</v>
       </c>
-      <c r="R38" t="s">
-        <v>109</v>
-      </c>
       <c r="S38" t="s">
+        <v>109</v>
+      </c>
+      <c r="T38" t="s">
         <v>13</v>
       </c>
-      <c r="T38" t="s">
-        <v>107</v>
-      </c>
       <c r="U38" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AB38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF38" t="s">
         <v>33</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AG38" t="s">
         <v>15</v>
       </c>
-      <c r="AG38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="P39" t="s">
+      <c r="AH38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Q39" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>12</v>
       </c>
-      <c r="R39" t="s">
-        <v>107</v>
-      </c>
       <c r="S39" t="s">
+        <v>107</v>
+      </c>
+      <c r="T39" t="s">
         <v>12</v>
       </c>
-      <c r="T39" t="s">
-        <v>107</v>
-      </c>
       <c r="U39" t="s">
+        <v>107</v>
+      </c>
+      <c r="V39" t="s">
         <v>12</v>
       </c>
-      <c r="V39" t="s">
-        <v>107</v>
-      </c>
       <c r="W39" t="s">
+        <v>107</v>
+      </c>
+      <c r="X39" t="s">
         <v>12</v>
       </c>
-      <c r="X39" t="s">
-        <v>107</v>
-      </c>
       <c r="Y39" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z39" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB39" t="s">
         <v>12</v>
       </c>
-      <c r="AB39" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE39" t="s">
+      <c r="AC39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF39" t="s">
         <v>73</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AG39" t="s">
         <v>15</v>
       </c>
-      <c r="AG39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="P40" t="s">
+      <c r="AH39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Q40" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>10</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>106</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>10</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>106</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>10</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>106</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>12</v>
       </c>
-      <c r="X40" t="s">
-        <v>107</v>
-      </c>
       <c r="Y40" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z40" t="s">
         <v>12</v>
       </c>
-      <c r="Z40" t="s">
-        <v>107</v>
-      </c>
       <c r="AA40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB40" t="s">
         <v>10</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AC40" t="s">
         <v>106</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="AF40" t="s">
         <v>53</v>
       </c>
-      <c r="AF40" t="s">
+      <c r="AG40" t="s">
         <v>15</v>
       </c>
-      <c r="AG40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="P41" t="s">
+      <c r="AH40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Q41" t="s">
         <v>41</v>
       </c>
-      <c r="Q41" t="s">
-        <v>14</v>
-      </c>
       <c r="R41" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S41" t="s">
+        <v>108</v>
+      </c>
+      <c r="T41" t="s">
         <v>15</v>
       </c>
-      <c r="T41" t="s">
-        <v>108</v>
-      </c>
       <c r="U41" t="s">
+        <v>108</v>
+      </c>
+      <c r="V41" t="s">
         <v>15</v>
       </c>
-      <c r="V41" t="s">
-        <v>108</v>
-      </c>
       <c r="W41" t="s">
+        <v>108</v>
+      </c>
+      <c r="X41" t="s">
         <v>16</v>
       </c>
-      <c r="X41" t="s">
-        <v>109</v>
-      </c>
       <c r="Y41" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z41" t="s">
         <v>121</v>
       </c>
-      <c r="Z41" t="s">
-        <v>109</v>
-      </c>
       <c r="AA41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB41" t="s">
         <v>16</v>
       </c>
-      <c r="AB41" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE41" t="s">
+      <c r="AC41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF41" t="s">
         <v>43</v>
       </c>
-      <c r="AF41" t="s">
+      <c r="AG41" t="s">
         <v>15</v>
       </c>
-      <c r="AG41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="P42" t="s">
+      <c r="AH41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Q42" t="s">
         <v>42</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>16</v>
       </c>
-      <c r="R42" t="s">
-        <v>109</v>
-      </c>
       <c r="S42" t="s">
+        <v>109</v>
+      </c>
+      <c r="T42" t="s">
         <v>13</v>
       </c>
-      <c r="T42" t="s">
-        <v>107</v>
-      </c>
       <c r="U42" t="s">
+        <v>107</v>
+      </c>
+      <c r="V42" t="s">
         <v>12</v>
       </c>
-      <c r="V42" t="s">
-        <v>107</v>
-      </c>
       <c r="W42" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X42" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y42" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z42" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA42" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AB42" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE42" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF42" t="s">
         <v>51</v>
       </c>
-      <c r="AF42" t="s">
+      <c r="AG42" t="s">
         <v>15</v>
       </c>
-      <c r="AG42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="P43" t="s">
+      <c r="AH42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Q43" t="s">
         <v>76</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>17</v>
       </c>
-      <c r="R43" t="s">
-        <v>109</v>
-      </c>
       <c r="S43" t="s">
+        <v>109</v>
+      </c>
+      <c r="T43" t="s">
         <v>121</v>
       </c>
-      <c r="T43" t="s">
-        <v>109</v>
-      </c>
       <c r="U43" t="s">
+        <v>109</v>
+      </c>
+      <c r="V43" t="s">
         <v>15</v>
       </c>
-      <c r="V43" t="s">
-        <v>108</v>
-      </c>
       <c r="W43" t="s">
+        <v>108</v>
+      </c>
+      <c r="X43" t="s">
         <v>121</v>
       </c>
-      <c r="X43" t="s">
-        <v>109</v>
-      </c>
       <c r="Y43" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z43" t="s">
         <v>121</v>
       </c>
-      <c r="Z43" t="s">
-        <v>109</v>
-      </c>
       <c r="AA43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB43" t="s">
         <v>16</v>
       </c>
-      <c r="AB43" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE43" t="s">
+      <c r="AC43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF43" t="s">
         <v>23</v>
       </c>
-      <c r="AF43" t="s">
+      <c r="AG43" t="s">
         <v>120</v>
       </c>
-      <c r="AG43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="P44" t="s">
+      <c r="AH43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Q44" t="s">
         <v>77</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>12</v>
       </c>
-      <c r="R44" t="s">
-        <v>107</v>
-      </c>
       <c r="S44" t="s">
+        <v>107</v>
+      </c>
+      <c r="T44" t="s">
         <v>12</v>
       </c>
-      <c r="T44" t="s">
-        <v>107</v>
-      </c>
       <c r="U44" t="s">
+        <v>107</v>
+      </c>
+      <c r="V44" t="s">
         <v>11</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>106</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>13</v>
       </c>
-      <c r="X44" t="s">
-        <v>107</v>
-      </c>
       <c r="Y44" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z44" t="s">
         <v>12</v>
       </c>
-      <c r="Z44" t="s">
-        <v>107</v>
-      </c>
       <c r="AA44" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB44" t="s">
         <v>13</v>
       </c>
-      <c r="AB44" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE44" t="s">
+      <c r="AC44" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF44" t="s">
         <v>22</v>
       </c>
-      <c r="AF44" t="s">
+      <c r="AG44" t="s">
         <v>120</v>
       </c>
-      <c r="AG44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="P45" t="s">
+      <c r="AH44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Q45" t="s">
         <v>78</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>12</v>
       </c>
-      <c r="R45" t="s">
-        <v>107</v>
-      </c>
       <c r="S45" t="s">
+        <v>107</v>
+      </c>
+      <c r="T45" t="s">
         <v>11</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>106</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>13</v>
       </c>
-      <c r="V45" t="s">
-        <v>107</v>
-      </c>
       <c r="W45" t="s">
+        <v>107</v>
+      </c>
+      <c r="X45" t="s">
         <v>13</v>
       </c>
-      <c r="X45" t="s">
-        <v>107</v>
-      </c>
       <c r="Y45" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z45" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA45" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AB45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF45" t="s">
         <v>80</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AG45" t="s">
         <v>16</v>
       </c>
-      <c r="AG45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="P46" t="s">
+      <c r="AH45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Q46" t="s">
         <v>26</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>16</v>
       </c>
-      <c r="R46" t="s">
-        <v>109</v>
-      </c>
       <c r="S46" t="s">
+        <v>109</v>
+      </c>
+      <c r="T46" t="s">
         <v>15</v>
       </c>
-      <c r="T46" t="s">
-        <v>108</v>
-      </c>
       <c r="U46" t="s">
+        <v>108</v>
+      </c>
+      <c r="V46" t="s">
         <v>15</v>
       </c>
-      <c r="V46" t="s">
-        <v>108</v>
-      </c>
       <c r="W46" t="s">
+        <v>108</v>
+      </c>
+      <c r="X46" t="s">
         <v>121</v>
       </c>
-      <c r="X46" t="s">
-        <v>109</v>
-      </c>
       <c r="Y46" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z46" t="s">
         <v>121</v>
       </c>
-      <c r="Z46" t="s">
-        <v>109</v>
-      </c>
       <c r="AA46" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="AB46" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE46" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF46" t="s">
         <v>90</v>
       </c>
-      <c r="AF46" t="s">
+      <c r="AG46" t="s">
         <v>16</v>
       </c>
-      <c r="AG46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="P47" t="s">
+      <c r="AH46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Q47" t="s">
         <v>93</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>17</v>
       </c>
-      <c r="R47" t="s">
-        <v>109</v>
-      </c>
       <c r="S47" t="s">
+        <v>109</v>
+      </c>
+      <c r="T47" t="s">
         <v>121</v>
       </c>
-      <c r="T47" t="s">
-        <v>109</v>
-      </c>
       <c r="U47" t="s">
+        <v>109</v>
+      </c>
+      <c r="V47" t="s">
         <v>121</v>
       </c>
-      <c r="V47" t="s">
-        <v>109</v>
-      </c>
       <c r="W47" t="s">
+        <v>109</v>
+      </c>
+      <c r="X47" t="s">
         <v>121</v>
       </c>
-      <c r="X47" t="s">
-        <v>109</v>
-      </c>
       <c r="Y47" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z47" t="s">
         <v>16</v>
       </c>
-      <c r="Z47" t="s">
-        <v>109</v>
-      </c>
       <c r="AA47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB47" t="s">
         <v>121</v>
       </c>
-      <c r="AB47" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE47" t="s">
+      <c r="AC47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF47" t="s">
         <v>26</v>
       </c>
-      <c r="AF47" t="s">
+      <c r="AG47" t="s">
         <v>16</v>
       </c>
-      <c r="AG47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="P48" t="s">
+      <c r="AH47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Q48" t="s">
         <v>43</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>16</v>
       </c>
-      <c r="R48" t="s">
-        <v>109</v>
-      </c>
       <c r="S48" t="s">
+        <v>109</v>
+      </c>
+      <c r="T48" t="s">
         <v>12</v>
       </c>
-      <c r="T48" t="s">
-        <v>107</v>
-      </c>
       <c r="U48" t="s">
+        <v>107</v>
+      </c>
+      <c r="V48" t="s">
         <v>13</v>
       </c>
-      <c r="V48" t="s">
-        <v>107</v>
-      </c>
       <c r="W48" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X48" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y48" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z48" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA48" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB48" t="s">
         <v>13</v>
       </c>
-      <c r="AB48" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE48" t="s">
+      <c r="AC48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF48" t="s">
         <v>58</v>
       </c>
-      <c r="AF48" t="s">
+      <c r="AG48" t="s">
         <v>16</v>
       </c>
-      <c r="AG48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P49" t="s">
+      <c r="AH48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q49" t="s">
         <v>98</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>17</v>
       </c>
-      <c r="R49" t="s">
-        <v>109</v>
-      </c>
       <c r="S49" t="s">
+        <v>109</v>
+      </c>
+      <c r="T49" t="s">
         <v>121</v>
       </c>
-      <c r="T49" t="s">
-        <v>109</v>
-      </c>
       <c r="U49" t="s">
+        <v>109</v>
+      </c>
+      <c r="V49" t="s">
         <v>15</v>
       </c>
-      <c r="V49" t="s">
-        <v>108</v>
-      </c>
       <c r="W49" t="s">
+        <v>108</v>
+      </c>
+      <c r="X49" t="s">
         <v>121</v>
       </c>
-      <c r="X49" t="s">
-        <v>109</v>
-      </c>
       <c r="Y49" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z49" t="s">
         <v>16</v>
       </c>
-      <c r="Z49" t="s">
-        <v>109</v>
-      </c>
       <c r="AA49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB49" t="s">
         <v>121</v>
       </c>
-      <c r="AB49" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE49" t="s">
+      <c r="AC49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF49" t="s">
         <v>44</v>
       </c>
-      <c r="AF49" t="s">
+      <c r="AG49" t="s">
         <v>16</v>
       </c>
-      <c r="AG49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P50" t="s">
+      <c r="AH49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q50" t="s">
         <v>99</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>17</v>
       </c>
-      <c r="R50" t="s">
-        <v>109</v>
-      </c>
       <c r="S50" t="s">
+        <v>109</v>
+      </c>
+      <c r="T50" t="s">
         <v>15</v>
       </c>
-      <c r="T50" t="s">
-        <v>108</v>
-      </c>
       <c r="U50" t="s">
+        <v>108</v>
+      </c>
+      <c r="V50" t="s">
         <v>15</v>
       </c>
-      <c r="V50" t="s">
-        <v>108</v>
-      </c>
       <c r="W50" t="s">
+        <v>108</v>
+      </c>
+      <c r="X50" t="s">
         <v>15</v>
       </c>
-      <c r="X50" t="s">
-        <v>108</v>
-      </c>
       <c r="Y50" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z50" t="s">
         <v>121</v>
       </c>
-      <c r="Z50" t="s">
-        <v>109</v>
-      </c>
       <c r="AA50" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB50" t="s">
         <v>15</v>
       </c>
-      <c r="AB50" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE50" t="s">
+      <c r="AC50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF50" t="s">
         <v>25</v>
       </c>
-      <c r="AF50" t="s">
+      <c r="AG50" t="s">
         <v>16</v>
       </c>
-      <c r="AG50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P51" t="s">
+      <c r="AH50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q51" t="s">
         <v>44</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>17</v>
       </c>
-      <c r="R51" t="s">
-        <v>109</v>
-      </c>
       <c r="S51" t="s">
+        <v>109</v>
+      </c>
+      <c r="T51" t="s">
         <v>121</v>
       </c>
-      <c r="T51" t="s">
-        <v>109</v>
-      </c>
       <c r="U51" t="s">
+        <v>109</v>
+      </c>
+      <c r="V51" t="s">
         <v>15</v>
       </c>
-      <c r="V51" t="s">
-        <v>108</v>
-      </c>
       <c r="W51" t="s">
+        <v>108</v>
+      </c>
+      <c r="X51" t="s">
         <v>16</v>
       </c>
-      <c r="X51" t="s">
-        <v>109</v>
-      </c>
       <c r="Y51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z51" t="s">
         <v>16</v>
       </c>
-      <c r="Z51" t="s">
-        <v>109</v>
-      </c>
       <c r="AA51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB51" t="s">
         <v>121</v>
       </c>
-      <c r="AB51" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE51" t="s">
+      <c r="AC51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF51" t="s">
         <v>72</v>
       </c>
-      <c r="AF51" t="s">
+      <c r="AG51" t="s">
         <v>16</v>
       </c>
-      <c r="AG51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P52" t="s">
+      <c r="AH51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q52" t="s">
         <v>79</v>
       </c>
-      <c r="Q52" t="s">
-        <v>14</v>
-      </c>
       <c r="R52" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S52" t="s">
+        <v>108</v>
+      </c>
+      <c r="T52" t="s">
         <v>12</v>
       </c>
-      <c r="T52" t="s">
-        <v>107</v>
-      </c>
       <c r="U52" t="s">
+        <v>107</v>
+      </c>
+      <c r="V52" t="s">
         <v>13</v>
       </c>
-      <c r="V52" t="s">
-        <v>107</v>
-      </c>
       <c r="W52" t="s">
+        <v>107</v>
+      </c>
+      <c r="X52" t="s">
         <v>13</v>
       </c>
-      <c r="X52" t="s">
-        <v>107</v>
-      </c>
       <c r="Y52" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z52" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA52" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB52" t="s">
         <v>13</v>
       </c>
-      <c r="AB52" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE52" t="s">
+      <c r="AC52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF52" t="s">
         <v>68</v>
       </c>
-      <c r="AF52" t="s">
+      <c r="AG52" t="s">
         <v>16</v>
       </c>
-      <c r="AG52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P53" t="s">
+      <c r="AH52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q53" t="s">
         <v>27</v>
       </c>
-      <c r="Q53" t="s">
-        <v>14</v>
-      </c>
       <c r="R53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S53" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U53" t="s">
+        <v>108</v>
+      </c>
+      <c r="V53" t="s">
         <v>12</v>
       </c>
-      <c r="V53" t="s">
-        <v>107</v>
-      </c>
       <c r="W53" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y53" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z53" t="s">
         <v>121</v>
       </c>
-      <c r="Z53" t="s">
-        <v>109</v>
-      </c>
       <c r="AA53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB53" t="s">
         <v>120</v>
       </c>
-      <c r="AB53" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE53" t="s">
+      <c r="AC53" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF53" t="s">
         <v>100</v>
       </c>
-      <c r="AF53" t="s">
+      <c r="AG53" t="s">
         <v>16</v>
       </c>
-      <c r="AG53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P54" t="s">
+      <c r="AH53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q54" t="s">
         <v>80</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>18</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>110</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>15</v>
       </c>
-      <c r="T54" t="s">
-        <v>108</v>
-      </c>
       <c r="U54" t="s">
+        <v>108</v>
+      </c>
+      <c r="V54" t="s">
         <v>15</v>
       </c>
-      <c r="V54" t="s">
-        <v>108</v>
-      </c>
       <c r="W54" t="s">
+        <v>108</v>
+      </c>
+      <c r="X54" t="s">
         <v>120</v>
       </c>
-      <c r="X54" t="s">
-        <v>108</v>
-      </c>
       <c r="Y54" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z54" t="s">
         <v>121</v>
       </c>
-      <c r="Z54" t="s">
-        <v>109</v>
-      </c>
       <c r="AA54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB54" t="s">
         <v>13</v>
       </c>
-      <c r="AB54" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE54" t="s">
+      <c r="AC54" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF54" t="s">
         <v>102</v>
       </c>
-      <c r="AF54" t="s">
+      <c r="AG54" t="s">
         <v>16</v>
       </c>
-      <c r="AG54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P55" t="s">
+      <c r="AH54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q55" t="s">
         <v>45</v>
       </c>
-      <c r="Q55" t="s">
-        <v>14</v>
-      </c>
       <c r="R55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S55" t="s">
+        <v>108</v>
+      </c>
+      <c r="T55" t="s">
         <v>12</v>
       </c>
-      <c r="T55" t="s">
-        <v>107</v>
-      </c>
       <c r="U55" t="s">
+        <v>107</v>
+      </c>
+      <c r="V55" t="s">
         <v>11</v>
       </c>
-      <c r="V55" t="s">
+      <c r="W55" t="s">
         <v>106</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>12</v>
       </c>
-      <c r="X55" t="s">
-        <v>107</v>
-      </c>
       <c r="Y55" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z55" t="s">
         <v>13</v>
       </c>
-      <c r="Z55" t="s">
-        <v>107</v>
-      </c>
       <c r="AA55" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB55" t="s">
         <v>12</v>
       </c>
-      <c r="AB55" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE55" t="s">
+      <c r="AC55" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF55" t="s">
         <v>32</v>
       </c>
-      <c r="AF55" t="s">
+      <c r="AG55" t="s">
         <v>16</v>
       </c>
-      <c r="AG55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P56" t="s">
+      <c r="AH55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q56" t="s">
         <v>28</v>
       </c>
-      <c r="Q56" t="s">
-        <v>14</v>
-      </c>
       <c r="R56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S56" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U56" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W56" t="s">
+        <v>108</v>
+      </c>
+      <c r="X56" t="s">
         <v>121</v>
       </c>
-      <c r="X56" t="s">
-        <v>109</v>
-      </c>
       <c r="Y56" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z56" t="s">
         <v>18</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>110</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>16</v>
       </c>
-      <c r="AB56" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE56" t="s">
+      <c r="AC56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF56" t="s">
         <v>101</v>
       </c>
-      <c r="AF56" t="s">
+      <c r="AG56" t="s">
         <v>16</v>
       </c>
-      <c r="AG56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P57" t="s">
+      <c r="AH56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q57" t="s">
         <v>100</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>17</v>
       </c>
-      <c r="R57" t="s">
-        <v>109</v>
-      </c>
       <c r="S57" t="s">
+        <v>109</v>
+      </c>
+      <c r="T57" t="s">
         <v>15</v>
       </c>
-      <c r="T57" t="s">
-        <v>108</v>
-      </c>
       <c r="U57" t="s">
+        <v>108</v>
+      </c>
+      <c r="V57" t="s">
         <v>15</v>
       </c>
-      <c r="V57" t="s">
-        <v>108</v>
-      </c>
       <c r="W57" t="s">
+        <v>108</v>
+      </c>
+      <c r="X57" t="s">
         <v>15</v>
       </c>
-      <c r="X57" t="s">
-        <v>108</v>
-      </c>
       <c r="Y57" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z57" t="s">
         <v>121</v>
       </c>
-      <c r="Z57" t="s">
-        <v>109</v>
-      </c>
       <c r="AA57" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB57" t="s">
         <v>15</v>
       </c>
-      <c r="AB57" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE57" t="s">
+      <c r="AC57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF57" t="s">
         <v>99</v>
       </c>
-      <c r="AF57" t="s">
+      <c r="AG57" t="s">
         <v>16</v>
       </c>
-      <c r="AG57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P58" t="s">
+      <c r="AH57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q58" t="s">
         <v>101</v>
       </c>
-      <c r="Q58" t="s">
-        <v>14</v>
-      </c>
       <c r="R58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S58" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U58" t="s">
+        <v>108</v>
+      </c>
+      <c r="V58" t="s">
         <v>120</v>
       </c>
-      <c r="V58" t="s">
-        <v>108</v>
-      </c>
       <c r="W58" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z58" t="s">
         <v>121</v>
       </c>
-      <c r="Z58" t="s">
-        <v>109</v>
-      </c>
       <c r="AA58" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB58" t="s">
         <v>15</v>
       </c>
-      <c r="AB58" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE58" t="s">
+      <c r="AC58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF58" t="s">
         <v>103</v>
       </c>
-      <c r="AF58" t="s">
+      <c r="AG58" t="s">
         <v>17</v>
       </c>
-      <c r="AG58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P59" t="s">
+      <c r="AH58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q59" t="s">
         <v>64</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>16</v>
       </c>
-      <c r="R59" t="s">
-        <v>109</v>
-      </c>
       <c r="S59" t="s">
+        <v>109</v>
+      </c>
+      <c r="T59" t="s">
         <v>15</v>
       </c>
-      <c r="T59" t="s">
-        <v>108</v>
-      </c>
       <c r="U59" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V59" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W59" t="s">
+        <v>108</v>
+      </c>
+      <c r="X59" t="s">
         <v>15</v>
       </c>
-      <c r="X59" t="s">
-        <v>108</v>
-      </c>
       <c r="Y59" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z59" t="s">
         <v>15</v>
       </c>
-      <c r="Z59" t="s">
-        <v>108</v>
-      </c>
       <c r="AA59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB59" t="s">
         <v>15</v>
       </c>
-      <c r="AB59" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE59" t="s">
+      <c r="AC59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF59" t="s">
         <v>76</v>
       </c>
-      <c r="AF59" t="s">
+      <c r="AG59" t="s">
         <v>17</v>
       </c>
-      <c r="AG59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P60" t="s">
+      <c r="AH59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q60" t="s">
         <v>81</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>16</v>
       </c>
-      <c r="R60" t="s">
-        <v>109</v>
-      </c>
       <c r="S60" t="s">
+        <v>109</v>
+      </c>
+      <c r="T60" t="s">
         <v>13</v>
       </c>
-      <c r="T60" t="s">
-        <v>107</v>
-      </c>
       <c r="U60" t="s">
+        <v>107</v>
+      </c>
+      <c r="V60" t="s">
         <v>13</v>
       </c>
-      <c r="V60" t="s">
-        <v>107</v>
-      </c>
       <c r="W60" t="s">
+        <v>107</v>
+      </c>
+      <c r="X60" t="s">
         <v>13</v>
       </c>
-      <c r="X60" t="s">
-        <v>107</v>
-      </c>
       <c r="Y60" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z60" t="s">
         <v>13</v>
       </c>
-      <c r="Z60" t="s">
-        <v>107</v>
-      </c>
       <c r="AA60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB60" t="s">
         <v>12</v>
       </c>
-      <c r="AB60" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE60" t="s">
+      <c r="AC60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF60" t="s">
         <v>98</v>
       </c>
-      <c r="AF60" t="s">
+      <c r="AG60" t="s">
         <v>17</v>
       </c>
-      <c r="AG60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P61" t="s">
+      <c r="AH60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q61" t="s">
         <v>65</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>13</v>
       </c>
-      <c r="R61" t="s">
-        <v>107</v>
-      </c>
       <c r="S61" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T61" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U61" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V61" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W61" t="s">
+        <v>108</v>
+      </c>
+      <c r="X61" t="s">
         <v>15</v>
       </c>
-      <c r="X61" t="s">
-        <v>108</v>
-      </c>
       <c r="Y61" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z61" t="s">
         <v>121</v>
       </c>
-      <c r="Z61" t="s">
-        <v>109</v>
-      </c>
       <c r="AA61" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB61" t="s">
         <v>15</v>
       </c>
-      <c r="AB61" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE61" t="s">
+      <c r="AC61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF61" t="s">
         <v>30</v>
       </c>
-      <c r="AF61" t="s">
+      <c r="AG61" t="s">
         <v>121</v>
       </c>
-      <c r="AG61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P62" t="s">
+      <c r="AH61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q62" t="s">
         <v>82</v>
       </c>
-      <c r="Q62" t="s">
-        <v>14</v>
-      </c>
       <c r="R62" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S62" t="s">
+        <v>108</v>
+      </c>
+      <c r="T62" t="s">
         <v>13</v>
       </c>
-      <c r="T62" t="s">
-        <v>107</v>
-      </c>
       <c r="U62" t="s">
+        <v>107</v>
+      </c>
+      <c r="V62" t="s">
         <v>13</v>
       </c>
-      <c r="V62" t="s">
-        <v>107</v>
-      </c>
       <c r="W62" t="s">
+        <v>107</v>
+      </c>
+      <c r="X62" t="s">
         <v>13</v>
       </c>
-      <c r="X62" t="s">
-        <v>107</v>
-      </c>
       <c r="Y62" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z62" t="s">
         <v>13</v>
       </c>
-      <c r="Z62" t="s">
-        <v>107</v>
-      </c>
       <c r="AA62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB62" t="s">
         <v>13</v>
       </c>
-      <c r="AB62" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE62" t="s">
+      <c r="AC62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF62" t="s">
         <v>27</v>
       </c>
-      <c r="AF62" t="s">
+      <c r="AG62" t="s">
         <v>121</v>
       </c>
-      <c r="AG62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P63" t="s">
+      <c r="AH62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q63" t="s">
         <v>29</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>13</v>
       </c>
-      <c r="R63" t="s">
-        <v>107</v>
-      </c>
       <c r="S63" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="T63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U63" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W63" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y63" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z63" t="s">
         <v>121</v>
       </c>
-      <c r="Z63" t="s">
-        <v>109</v>
-      </c>
       <c r="AA63" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="AB63" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE63" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF63" t="s">
         <v>65</v>
       </c>
-      <c r="AF63" t="s">
+      <c r="AG63" t="s">
         <v>121</v>
       </c>
-      <c r="AG63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P64" t="s">
+      <c r="AH63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q64" t="s">
         <v>46</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>10</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>106</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>12</v>
       </c>
-      <c r="T64" t="s">
-        <v>107</v>
-      </c>
       <c r="U64" t="s">
+        <v>107</v>
+      </c>
+      <c r="V64" t="s">
         <v>13</v>
       </c>
-      <c r="V64" t="s">
-        <v>107</v>
-      </c>
       <c r="W64" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X64" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y64" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z64" t="s">
         <v>13</v>
       </c>
-      <c r="Z64" t="s">
-        <v>107</v>
-      </c>
       <c r="AA64" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AB64" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF64" t="s">
         <v>24</v>
       </c>
-      <c r="AF64" t="s">
+      <c r="AG64" t="s">
         <v>121</v>
       </c>
-      <c r="AG64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P65" t="s">
+      <c r="AH64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q65" t="s">
         <v>47</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>16</v>
       </c>
-      <c r="R65" t="s">
-        <v>109</v>
-      </c>
       <c r="S65" t="s">
+        <v>109</v>
+      </c>
+      <c r="T65" t="s">
         <v>12</v>
       </c>
-      <c r="T65" t="s">
-        <v>107</v>
-      </c>
       <c r="U65" t="s">
+        <v>107</v>
+      </c>
+      <c r="V65" t="s">
         <v>13</v>
       </c>
-      <c r="V65" t="s">
-        <v>107</v>
-      </c>
       <c r="W65" t="s">
+        <v>107</v>
+      </c>
+      <c r="X65" t="s">
         <v>12</v>
       </c>
-      <c r="X65" t="s">
-        <v>107</v>
-      </c>
       <c r="Y65" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z65" t="s">
         <v>12</v>
       </c>
-      <c r="Z65" t="s">
-        <v>107</v>
-      </c>
       <c r="AA65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB65" t="s">
         <v>12</v>
       </c>
-      <c r="AB65" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE65" t="s">
+      <c r="AC65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF65" t="s">
         <v>96</v>
       </c>
-      <c r="AF65" t="s">
+      <c r="AG65" t="s">
         <v>121</v>
       </c>
-      <c r="AG65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P66" t="s">
+      <c r="AH65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q66" t="s">
         <v>48</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>16</v>
       </c>
-      <c r="R66" t="s">
-        <v>109</v>
-      </c>
       <c r="S66" t="s">
+        <v>109</v>
+      </c>
+      <c r="T66" t="s">
         <v>13</v>
       </c>
-      <c r="T66" t="s">
-        <v>107</v>
-      </c>
       <c r="U66" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V66" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W66" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X66" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y66" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z66" t="s">
         <v>13</v>
       </c>
-      <c r="Z66" t="s">
-        <v>107</v>
-      </c>
       <c r="AA66" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AB66" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE66" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF66" t="s">
         <v>94</v>
       </c>
-      <c r="AF66" t="s">
+      <c r="AG66" t="s">
         <v>121</v>
       </c>
-      <c r="AG66" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P67" t="s">
+      <c r="AH66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q67" t="s">
         <v>83</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>17</v>
       </c>
-      <c r="R67" t="s">
-        <v>109</v>
-      </c>
       <c r="S67" t="s">
+        <v>109</v>
+      </c>
+      <c r="T67" t="s">
         <v>121</v>
       </c>
-      <c r="T67" t="s">
-        <v>109</v>
-      </c>
       <c r="U67" t="s">
+        <v>109</v>
+      </c>
+      <c r="V67" t="s">
         <v>16</v>
       </c>
-      <c r="V67" t="s">
-        <v>109</v>
-      </c>
       <c r="W67" t="s">
+        <v>109</v>
+      </c>
+      <c r="X67" t="s">
         <v>17</v>
       </c>
-      <c r="X67" t="s">
-        <v>109</v>
-      </c>
       <c r="Y67" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z67" t="s">
         <v>18</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>110</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>17</v>
       </c>
-      <c r="AB67" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE67" t="s">
+      <c r="AC67" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF67" t="s">
         <v>41</v>
       </c>
-      <c r="AF67" t="s">
+      <c r="AG67" t="s">
         <v>18</v>
       </c>
-      <c r="AG67" t="s">
+      <c r="AH67" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P68" t="s">
+    <row r="68" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q68" t="s">
         <v>84</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>16</v>
       </c>
-      <c r="R68" t="s">
-        <v>109</v>
-      </c>
       <c r="S68" t="s">
+        <v>109</v>
+      </c>
+      <c r="T68" t="s">
         <v>13</v>
       </c>
-      <c r="T68" t="s">
-        <v>107</v>
-      </c>
       <c r="U68" t="s">
+        <v>107</v>
+      </c>
+      <c r="V68" t="s">
         <v>13</v>
       </c>
-      <c r="V68" t="s">
-        <v>107</v>
-      </c>
       <c r="W68" t="s">
+        <v>107</v>
+      </c>
+      <c r="X68" t="s">
         <v>13</v>
       </c>
-      <c r="X68" t="s">
-        <v>107</v>
-      </c>
       <c r="Y68" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Z68" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA68" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB68" t="s">
         <v>13</v>
       </c>
-      <c r="AB68" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE68" t="s">
+      <c r="AC68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF68" t="s">
         <v>66</v>
       </c>
-      <c r="AF68" t="s">
+      <c r="AG68" t="s">
         <v>18</v>
       </c>
-      <c r="AG68" t="s">
+      <c r="AH68" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P69" t="s">
+    <row r="69" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q69" t="s">
         <v>94</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>15</v>
       </c>
-      <c r="R69" t="s">
-        <v>108</v>
-      </c>
       <c r="S69" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T69" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U69" t="s">
+        <v>108</v>
+      </c>
+      <c r="V69" t="s">
         <v>15</v>
       </c>
-      <c r="V69" t="s">
-        <v>108</v>
-      </c>
       <c r="W69" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X69" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y69" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z69" t="s">
         <v>15</v>
       </c>
-      <c r="Z69" t="s">
-        <v>108</v>
-      </c>
       <c r="AA69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB69" t="s">
         <v>15</v>
       </c>
-      <c r="AB69" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE69" t="s">
+      <c r="AC69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF69" t="s">
         <v>50</v>
       </c>
-      <c r="AF69" t="s">
+      <c r="AG69" t="s">
         <v>18</v>
       </c>
-      <c r="AG69" t="s">
+      <c r="AH69" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P70" t="s">
+    <row r="70" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q70" t="s">
         <v>31</v>
       </c>
-      <c r="Q70" t="s">
-        <v>14</v>
-      </c>
       <c r="R70" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S70" t="s">
+        <v>108</v>
+      </c>
+      <c r="T70" t="s">
         <v>121</v>
       </c>
-      <c r="T70" t="s">
-        <v>109</v>
-      </c>
       <c r="U70" t="s">
+        <v>109</v>
+      </c>
+      <c r="V70" t="s">
         <v>121</v>
       </c>
-      <c r="V70" t="s">
-        <v>109</v>
-      </c>
       <c r="W70" t="s">
+        <v>109</v>
+      </c>
+      <c r="X70" t="s">
         <v>16</v>
       </c>
-      <c r="X70" t="s">
-        <v>109</v>
-      </c>
       <c r="Y70" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z70" t="s">
         <v>18</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>110</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>121</v>
       </c>
-      <c r="AB70" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE70" t="s">
+      <c r="AC70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF70" t="s">
         <v>61</v>
       </c>
-      <c r="AF70" t="s">
+      <c r="AG70" t="s">
         <v>18</v>
       </c>
-      <c r="AG70" t="s">
+      <c r="AH70" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P71" t="s">
+    <row r="71" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q71" t="s">
         <v>95</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>16</v>
       </c>
-      <c r="R71" t="s">
-        <v>109</v>
-      </c>
       <c r="S71" t="s">
+        <v>109</v>
+      </c>
+      <c r="T71" t="s">
         <v>17</v>
       </c>
-      <c r="T71" t="s">
-        <v>109</v>
-      </c>
       <c r="U71" t="s">
+        <v>109</v>
+      </c>
+      <c r="V71" t="s">
         <v>18</v>
       </c>
-      <c r="V71" t="s">
+      <c r="W71" t="s">
         <v>110</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>18</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>110</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>18</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>110</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>17</v>
       </c>
-      <c r="AB71" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE71" t="s">
+      <c r="AC71" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF71" t="s">
         <v>28</v>
       </c>
-      <c r="AF71" t="s">
+      <c r="AG71" t="s">
         <v>18</v>
       </c>
-      <c r="AG71" t="s">
+      <c r="AH71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P72" t="s">
+    <row r="72" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q72" t="s">
         <v>49</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>16</v>
       </c>
-      <c r="R72" t="s">
-        <v>109</v>
-      </c>
       <c r="S72" t="s">
+        <v>109</v>
+      </c>
+      <c r="T72" t="s">
         <v>13</v>
       </c>
-      <c r="T72" t="s">
-        <v>107</v>
-      </c>
       <c r="U72" t="s">
+        <v>107</v>
+      </c>
+      <c r="V72" t="s">
         <v>13</v>
       </c>
-      <c r="V72" t="s">
-        <v>107</v>
-      </c>
       <c r="W72" t="s">
+        <v>107</v>
+      </c>
+      <c r="X72" t="s">
         <v>13</v>
       </c>
-      <c r="X72" t="s">
-        <v>107</v>
-      </c>
       <c r="Y72" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z72" t="s">
         <v>13</v>
       </c>
-      <c r="Z72" t="s">
-        <v>107</v>
-      </c>
       <c r="AA72" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB72" t="s">
         <v>13</v>
       </c>
-      <c r="AB72" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE72" t="s">
+      <c r="AC72" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF72" t="s">
         <v>67</v>
       </c>
-      <c r="AF72" t="s">
+      <c r="AG72" t="s">
         <v>18</v>
       </c>
-      <c r="AG72" t="s">
+      <c r="AH72" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P73" t="s">
+    <row r="73" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q73" t="s">
         <v>30</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>13</v>
       </c>
-      <c r="R73" t="s">
-        <v>107</v>
-      </c>
       <c r="S73" t="s">
+        <v>107</v>
+      </c>
+      <c r="T73" t="s">
         <v>13</v>
       </c>
-      <c r="T73" t="s">
-        <v>107</v>
-      </c>
       <c r="U73" t="s">
+        <v>107</v>
+      </c>
+      <c r="V73" t="s">
         <v>126</v>
       </c>
-      <c r="V73" t="s">
-        <v>107</v>
-      </c>
       <c r="W73" t="s">
+        <v>107</v>
+      </c>
+      <c r="X73" t="s">
         <v>120</v>
       </c>
-      <c r="X73" t="s">
-        <v>108</v>
-      </c>
       <c r="Y73" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z73" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA73" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB73" t="s">
         <v>126</v>
       </c>
-      <c r="AB73" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE73" t="s">
+      <c r="AC73" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF73" t="s">
         <v>62</v>
       </c>
-      <c r="AF73" t="s">
+      <c r="AG73" t="s">
         <v>18</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AH73" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P74" t="s">
+    <row r="74" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q74" t="s">
         <v>50</v>
       </c>
-      <c r="Q74" t="s">
-        <v>14</v>
-      </c>
       <c r="R74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S74" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="T74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U74" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W74" t="s">
+        <v>108</v>
+      </c>
+      <c r="X74" t="s">
         <v>16</v>
       </c>
-      <c r="X74" t="s">
-        <v>109</v>
-      </c>
       <c r="Y74" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z74" t="s">
         <v>17</v>
       </c>
-      <c r="Z74" t="s">
-        <v>109</v>
-      </c>
       <c r="AA74" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB74" t="s">
         <v>121</v>
       </c>
-      <c r="AB74" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE74" t="s">
+      <c r="AC74" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF74" t="s">
         <v>35</v>
       </c>
-      <c r="AF74" t="s">
+      <c r="AG74" t="s">
         <v>18</v>
       </c>
-      <c r="AG74" t="s">
+      <c r="AH74" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P75" t="s">
+    <row r="75" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q75" t="s">
         <v>66</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>16</v>
       </c>
-      <c r="R75" t="s">
-        <v>109</v>
-      </c>
       <c r="S75" t="s">
+        <v>109</v>
+      </c>
+      <c r="T75" t="s">
         <v>16</v>
       </c>
-      <c r="T75" t="s">
-        <v>109</v>
-      </c>
       <c r="U75" t="s">
+        <v>109</v>
+      </c>
+      <c r="V75" t="s">
         <v>16</v>
       </c>
-      <c r="V75" t="s">
-        <v>109</v>
-      </c>
       <c r="W75" t="s">
+        <v>109</v>
+      </c>
+      <c r="X75" t="s">
         <v>17</v>
       </c>
-      <c r="X75" t="s">
-        <v>109</v>
-      </c>
       <c r="Y75" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z75" t="s">
         <v>18</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>110</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>18</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AC75" t="s">
         <v>110</v>
       </c>
-      <c r="AE75" t="s">
+      <c r="AF75" t="s">
         <v>54</v>
       </c>
-      <c r="AF75" t="s">
+      <c r="AG75" t="s">
         <v>18</v>
       </c>
-      <c r="AG75" t="s">
+      <c r="AH75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P76" t="s">
+    <row r="76" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q76" t="s">
         <v>85</v>
       </c>
-      <c r="Q76" t="s">
-        <v>14</v>
-      </c>
       <c r="R76" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S76" t="s">
+        <v>108</v>
+      </c>
+      <c r="T76" t="s">
         <v>12</v>
       </c>
-      <c r="T76" t="s">
-        <v>107</v>
-      </c>
       <c r="U76" t="s">
+        <v>107</v>
+      </c>
+      <c r="V76" t="s">
         <v>12</v>
       </c>
-      <c r="V76" t="s">
-        <v>107</v>
-      </c>
       <c r="W76" t="s">
+        <v>107</v>
+      </c>
+      <c r="X76" t="s">
         <v>13</v>
       </c>
-      <c r="X76" t="s">
-        <v>107</v>
-      </c>
       <c r="Y76" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z76" t="s">
         <v>13</v>
       </c>
-      <c r="Z76" t="s">
-        <v>107</v>
-      </c>
       <c r="AA76" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB76" t="s">
         <v>12</v>
       </c>
-      <c r="AB76" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE76" t="s">
+      <c r="AC76" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF76" t="s">
         <v>21</v>
       </c>
-      <c r="AF76" t="s">
+      <c r="AG76" t="s">
         <v>18</v>
       </c>
-      <c r="AG76" t="s">
+      <c r="AH76" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P77" t="s">
+    <row r="77" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q77" t="s">
         <v>86</v>
       </c>
-      <c r="Q77" t="s">
-        <v>14</v>
-      </c>
       <c r="R77" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S77" t="s">
+        <v>108</v>
+      </c>
+      <c r="T77" t="s">
         <v>12</v>
       </c>
-      <c r="T77" t="s">
-        <v>107</v>
-      </c>
       <c r="U77" t="s">
+        <v>107</v>
+      </c>
+      <c r="V77" t="s">
         <v>13</v>
       </c>
-      <c r="V77" t="s">
-        <v>107</v>
-      </c>
       <c r="W77" t="s">
+        <v>107</v>
+      </c>
+      <c r="X77" t="s">
         <v>13</v>
       </c>
-      <c r="X77" t="s">
-        <v>107</v>
-      </c>
       <c r="Y77" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z77" t="s">
         <v>13</v>
       </c>
-      <c r="Z77" t="s">
-        <v>107</v>
-      </c>
       <c r="AA77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB77" t="s">
         <v>12</v>
       </c>
-      <c r="AB77" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE77" t="s">
+      <c r="AC77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF77" t="s">
         <v>83</v>
       </c>
-      <c r="AF77" t="s">
+      <c r="AG77" t="s">
         <v>18</v>
       </c>
-      <c r="AG77" t="s">
+      <c r="AH77" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P78" t="s">
+    <row r="78" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q78" t="s">
         <v>87</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
         <v>16</v>
       </c>
-      <c r="R78" t="s">
-        <v>109</v>
-      </c>
       <c r="S78" t="s">
+        <v>109</v>
+      </c>
+      <c r="T78" t="s">
         <v>13</v>
       </c>
-      <c r="T78" t="s">
-        <v>107</v>
-      </c>
       <c r="U78" t="s">
+        <v>107</v>
+      </c>
+      <c r="V78" t="s">
         <v>13</v>
       </c>
-      <c r="V78" t="s">
-        <v>107</v>
-      </c>
       <c r="W78" t="s">
+        <v>107</v>
+      </c>
+      <c r="X78" t="s">
         <v>13</v>
       </c>
-      <c r="X78" t="s">
-        <v>107</v>
-      </c>
       <c r="Y78" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z78" t="s">
         <v>13</v>
       </c>
-      <c r="Z78" t="s">
-        <v>107</v>
-      </c>
       <c r="AA78" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AB78" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE78" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF78" t="s">
         <v>29</v>
       </c>
-      <c r="AF78" t="s">
+      <c r="AG78" t="s">
         <v>18</v>
       </c>
-      <c r="AG78" t="s">
+      <c r="AH78" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P79" t="s">
+    <row r="79" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q79" t="s">
         <v>104</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
         <v>12</v>
       </c>
-      <c r="R79" t="s">
-        <v>107</v>
-      </c>
       <c r="S79" t="s">
+        <v>107</v>
+      </c>
+      <c r="T79" t="s">
         <v>13</v>
       </c>
-      <c r="T79" t="s">
-        <v>107</v>
-      </c>
       <c r="U79" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V79" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W79" t="s">
+        <v>108</v>
+      </c>
+      <c r="X79" t="s">
         <v>13</v>
       </c>
-      <c r="X79" t="s">
-        <v>107</v>
-      </c>
       <c r="Y79" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z79" t="s">
         <v>12</v>
       </c>
-      <c r="Z79" t="s">
-        <v>107</v>
-      </c>
       <c r="AA79" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AB79" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE79" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF79" t="s">
         <v>57</v>
       </c>
-      <c r="AF79" t="s">
+      <c r="AG79" t="s">
         <v>18</v>
       </c>
-      <c r="AG79" t="s">
+      <c r="AH79" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P80" t="s">
+    <row r="80" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q80" t="s">
         <v>51</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
         <v>16</v>
       </c>
-      <c r="R80" t="s">
-        <v>109</v>
-      </c>
       <c r="S80" t="s">
+        <v>109</v>
+      </c>
+      <c r="T80" t="s">
         <v>13</v>
       </c>
-      <c r="T80" t="s">
-        <v>107</v>
-      </c>
       <c r="U80" t="s">
+        <v>107</v>
+      </c>
+      <c r="V80" t="s">
         <v>13</v>
       </c>
-      <c r="V80" t="s">
-        <v>107</v>
-      </c>
       <c r="W80" t="s">
+        <v>107</v>
+      </c>
+      <c r="X80" t="s">
         <v>12</v>
       </c>
-      <c r="X80" t="s">
-        <v>107</v>
-      </c>
       <c r="Y80" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z80" t="s">
         <v>13</v>
       </c>
-      <c r="Z80" t="s">
-        <v>107</v>
-      </c>
       <c r="AA80" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AB80" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE80" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF80" t="s">
         <v>63</v>
       </c>
-      <c r="AF80" t="s">
+      <c r="AG80" t="s">
         <v>18</v>
       </c>
-      <c r="AG80" t="s">
+      <c r="AH80" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P81" t="s">
+    <row r="81" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q81" t="s">
         <v>52</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>16</v>
       </c>
-      <c r="R81" t="s">
-        <v>109</v>
-      </c>
       <c r="S81" t="s">
+        <v>109</v>
+      </c>
+      <c r="T81" t="s">
         <v>12</v>
       </c>
-      <c r="T81" t="s">
-        <v>107</v>
-      </c>
       <c r="U81" t="s">
+        <v>107</v>
+      </c>
+      <c r="V81" t="s">
         <v>13</v>
       </c>
-      <c r="V81" t="s">
-        <v>107</v>
-      </c>
       <c r="W81" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X81" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y81" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z81" t="s">
         <v>13</v>
       </c>
-      <c r="Z81" t="s">
-        <v>107</v>
-      </c>
       <c r="AA81" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB81" t="s">
         <v>12</v>
       </c>
-      <c r="AB81" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE81" t="s">
+      <c r="AC81" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF81" t="s">
         <v>55</v>
       </c>
-      <c r="AF81" t="s">
+      <c r="AG81" t="s">
         <v>18</v>
       </c>
-      <c r="AG81" t="s">
+      <c r="AH81" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P82" t="s">
+    <row r="82" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q82" t="s">
         <v>53</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>16</v>
       </c>
-      <c r="R82" t="s">
-        <v>109</v>
-      </c>
       <c r="S82" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="T82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="U82" t="s">
+        <v>108</v>
+      </c>
+      <c r="V82" t="s">
         <v>13</v>
       </c>
-      <c r="V82" t="s">
-        <v>107</v>
-      </c>
       <c r="W82" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="X82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y82" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Z82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AA82" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB82" t="s">
         <v>13</v>
       </c>
-      <c r="AB82" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE82" t="s">
+      <c r="AC82" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF82" t="s">
         <v>31</v>
       </c>
-      <c r="AF82" t="s">
+      <c r="AG82" t="s">
         <v>18</v>
       </c>
-      <c r="AG82" t="s">
+      <c r="AH82" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P83" t="s">
+    <row r="83" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q83" t="s">
         <v>54</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
         <v>15</v>
       </c>
-      <c r="R83" t="s">
-        <v>108</v>
-      </c>
       <c r="S83" t="s">
+        <v>108</v>
+      </c>
+      <c r="T83" t="s">
         <v>16</v>
       </c>
-      <c r="T83" t="s">
-        <v>109</v>
-      </c>
       <c r="U83" t="s">
+        <v>109</v>
+      </c>
+      <c r="V83" t="s">
         <v>16</v>
       </c>
-      <c r="V83" t="s">
-        <v>109</v>
-      </c>
       <c r="W83" t="s">
+        <v>109</v>
+      </c>
+      <c r="X83" t="s">
         <v>16</v>
       </c>
-      <c r="X83" t="s">
-        <v>109</v>
-      </c>
       <c r="Y83" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z83" t="s">
         <v>17</v>
       </c>
-      <c r="Z83" t="s">
-        <v>109</v>
-      </c>
       <c r="AA83" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB83" t="s">
         <v>16</v>
       </c>
-      <c r="AB83" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE83" t="s">
+      <c r="AC83" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF83" t="s">
         <v>92</v>
       </c>
-      <c r="AF83" t="s">
+      <c r="AG83" t="s">
         <v>18</v>
       </c>
-      <c r="AG83" t="s">
+      <c r="AH83" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P84" t="s">
+    <row r="84" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q84" t="s">
         <v>96</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>17</v>
       </c>
-      <c r="R84" t="s">
-        <v>109</v>
-      </c>
       <c r="S84" t="s">
+        <v>109</v>
+      </c>
+      <c r="T84" t="s">
         <v>15</v>
       </c>
-      <c r="T84" t="s">
-        <v>108</v>
-      </c>
       <c r="U84" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="V84" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W84" t="s">
+        <v>108</v>
+      </c>
+      <c r="X84" t="s">
         <v>121</v>
       </c>
-      <c r="X84" t="s">
-        <v>109</v>
-      </c>
       <c r="Y84" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z84" t="s">
         <v>121</v>
       </c>
-      <c r="Z84" t="s">
-        <v>109</v>
-      </c>
       <c r="AA84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB84" t="s">
         <v>15</v>
       </c>
-      <c r="AB84" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE84" t="s">
+      <c r="AC84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF84" t="s">
         <v>91</v>
       </c>
-      <c r="AF84" t="s">
+      <c r="AG84" t="s">
         <v>18</v>
       </c>
-      <c r="AG84" t="s">
+      <c r="AH84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P85" t="s">
+    <row r="85" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q85" t="s">
         <v>88</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85" t="s">
         <v>16</v>
       </c>
-      <c r="R85" t="s">
-        <v>109</v>
-      </c>
       <c r="S85" t="s">
+        <v>109</v>
+      </c>
+      <c r="T85" t="s">
         <v>13</v>
       </c>
-      <c r="T85" t="s">
-        <v>107</v>
-      </c>
       <c r="U85" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="V85" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="W85" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="X85" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Y85" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z85" t="s">
         <v>13</v>
       </c>
-      <c r="Z85" t="s">
-        <v>107</v>
-      </c>
       <c r="AA85" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB85" t="s">
         <v>13</v>
       </c>
-      <c r="AB85" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE85" t="s">
+      <c r="AC85" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF85" t="s">
         <v>59</v>
       </c>
-      <c r="AF85" t="s">
+      <c r="AG85" t="s">
         <v>18</v>
       </c>
-      <c r="AG85" t="s">
+      <c r="AH85" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P86" t="s">
+    <row r="86" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q86" t="s">
         <v>67</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>15</v>
       </c>
-      <c r="R86" t="s">
-        <v>108</v>
-      </c>
       <c r="S86" t="s">
+        <v>108</v>
+      </c>
+      <c r="T86" t="s">
         <v>120</v>
       </c>
-      <c r="T86" t="s">
-        <v>108</v>
-      </c>
       <c r="U86" t="s">
+        <v>108</v>
+      </c>
+      <c r="V86" t="s">
         <v>15</v>
       </c>
-      <c r="V86" t="s">
-        <v>108</v>
-      </c>
       <c r="W86" t="s">
+        <v>108</v>
+      </c>
+      <c r="X86" t="s">
         <v>15</v>
       </c>
-      <c r="X86" t="s">
-        <v>108</v>
-      </c>
       <c r="Y86" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z86" t="s">
         <v>16</v>
       </c>
-      <c r="Z86" t="s">
-        <v>109</v>
-      </c>
       <c r="AA86" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="AB86" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE86" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF86" t="s">
         <v>93</v>
       </c>
-      <c r="AF86" t="s">
+      <c r="AG86" t="s">
         <v>18</v>
       </c>
-      <c r="AG86" t="s">
+      <c r="AH86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P87" t="s">
+    <row r="87" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q87" t="s">
         <v>55</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="R87" t="s">
         <v>16</v>
       </c>
-      <c r="R87" t="s">
-        <v>109</v>
-      </c>
       <c r="S87" t="s">
+        <v>109</v>
+      </c>
+      <c r="T87" t="s">
         <v>16</v>
       </c>
-      <c r="T87" t="s">
-        <v>109</v>
-      </c>
       <c r="U87" t="s">
+        <v>109</v>
+      </c>
+      <c r="V87" t="s">
         <v>16</v>
       </c>
-      <c r="V87" t="s">
-        <v>109</v>
-      </c>
       <c r="W87" t="s">
+        <v>109</v>
+      </c>
+      <c r="X87" t="s">
         <v>18</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>110</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>18</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>110</v>
       </c>
-      <c r="AA87" t="s">
+      <c r="AB87" t="s">
         <v>17</v>
       </c>
-      <c r="AB87" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE87" t="s">
+      <c r="AC87" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF87" t="s">
         <v>97</v>
       </c>
-      <c r="AF87" t="s">
+      <c r="AG87" t="s">
         <v>18</v>
       </c>
-      <c r="AG87" t="s">
+      <c r="AH87" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="P88" t="s">
+    <row r="88" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="Q88" t="s">
         <v>56</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>16</v>
       </c>
-      <c r="R88" t="s">
-        <v>109</v>
-      </c>
       <c r="S88" t="s">
+        <v>109</v>
+      </c>
+      <c r="T88" t="s">
         <v>13</v>
       </c>
-      <c r="T88" t="s">
-        <v>107</v>
-      </c>
       <c r="U88" t="s">
+        <v>107</v>
+      </c>
+      <c r="V88" t="s">
         <v>13</v>
       </c>
-      <c r="V88" t="s">
-        <v>107</v>
-      </c>
       <c r="W88" t="s">
+        <v>107</v>
+      </c>
+      <c r="X88" t="s">
         <v>13</v>
       </c>
-      <c r="X88" t="s">
-        <v>107</v>
-      </c>
       <c r="Y88" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z88" t="s">
         <v>13</v>
       </c>
-      <c r="Z88" t="s">
-        <v>107</v>
-      </c>
       <c r="AA88" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB88" t="s">
         <v>13</v>
       </c>
-      <c r="AB88" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE88" t="s">
+      <c r="AC88" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF88" t="s">
         <v>95</v>
       </c>
-      <c r="AF88" t="s">
+      <c r="AG88" t="s">
         <v>18</v>
       </c>
-      <c r="AG88" t="s">
+      <c r="AH88" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="AE2:AG88">
-    <sortCondition ref="AF1"/>
+  <sortState ref="AF2:AH88">
+    <sortCondition ref="AG1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8478,15 +8562,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C41A53-D33E-E046-B342-1CABFEB49E56}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection sqref="A1:E126"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -8499,11 +8583,8 @@
       <c r="D1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43879</v>
       </c>
@@ -8511,16 +8592,13 @@
         <v>-11</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="D2">
-        <v>-14</v>
-      </c>
-      <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43880</v>
       </c>
@@ -8528,16 +8606,13 @@
         <v>51</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>27</v>
-      </c>
-      <c r="E3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43881</v>
       </c>
@@ -8545,16 +8620,13 @@
         <v>-15</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>-33</v>
       </c>
       <c r="D4">
-        <v>-33</v>
-      </c>
-      <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43882</v>
       </c>
@@ -8562,16 +8634,13 @@
         <v>-9</v>
       </c>
       <c r="C5">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="D5">
-        <v>-15</v>
-      </c>
-      <c r="E5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43883</v>
       </c>
@@ -8579,16 +8648,13 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43884</v>
       </c>
@@ -8596,16 +8662,13 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>33</v>
-      </c>
-      <c r="E7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43885</v>
       </c>
@@ -8613,16 +8676,13 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>18</v>
-      </c>
-      <c r="E8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43886</v>
       </c>
@@ -8630,16 +8690,13 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>27</v>
-      </c>
-      <c r="E9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43887</v>
       </c>
@@ -8647,16 +8704,13 @@
         <v>-1</v>
       </c>
       <c r="C10">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43888</v>
       </c>
@@ -8664,16 +8718,13 @@
         <v>7</v>
       </c>
       <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
         <v>-1</v>
       </c>
-      <c r="D11">
-        <v>29</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43889</v>
       </c>
@@ -8681,16 +8732,13 @@
         <v>33</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>39</v>
-      </c>
-      <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43890</v>
       </c>
@@ -8698,16 +8746,13 @@
         <v>1</v>
       </c>
       <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43891</v>
       </c>
@@ -8715,16 +8760,13 @@
         <v>-1</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43892</v>
       </c>
@@ -8732,16 +8774,13 @@
         <v>-9</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>-19</v>
       </c>
       <c r="D15">
-        <v>-19</v>
-      </c>
-      <c r="E15">
         <v>-7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43893</v>
       </c>
@@ -8749,16 +8788,13 @@
         <v>-2</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="D16">
-        <v>-3</v>
-      </c>
-      <c r="E16">
         <v>-9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43894</v>
       </c>
@@ -8766,16 +8802,13 @@
         <v>-3</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
         <v>-5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43895</v>
       </c>
@@ -8783,16 +8816,13 @@
         <v>-17</v>
       </c>
       <c r="C18">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="D18">
-        <v>-13</v>
-      </c>
-      <c r="E18">
         <v>-5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43896</v>
       </c>
@@ -8800,16 +8830,13 @@
         <v>-12</v>
       </c>
       <c r="C19">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D19">
         <v>-6</v>
       </c>
-      <c r="E19">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43897</v>
       </c>
@@ -8817,16 +8844,13 @@
         <v>59</v>
       </c>
       <c r="C20">
-        <v>-6</v>
+        <v>61</v>
       </c>
       <c r="D20">
-        <v>61</v>
-      </c>
-      <c r="E20">
         <v>-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43898</v>
       </c>
@@ -8834,16 +8858,13 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>23</v>
-      </c>
-      <c r="E21">
         <v>-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43899</v>
       </c>
@@ -8851,16 +8872,13 @@
         <v>-17</v>
       </c>
       <c r="C22">
-        <v>-10</v>
+        <v>-19</v>
       </c>
       <c r="D22">
-        <v>-19</v>
-      </c>
-      <c r="E22">
         <v>-14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43900</v>
       </c>
@@ -8868,16 +8886,13 @@
         <v>-12</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="D23">
-        <v>-14</v>
-      </c>
-      <c r="E23">
         <v>-18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43901</v>
       </c>
@@ -8885,16 +8900,13 @@
         <v>-18</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="D24">
-        <v>-17</v>
-      </c>
-      <c r="E24">
         <v>-19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43902</v>
       </c>
@@ -8902,16 +8914,13 @@
         <v>-24</v>
       </c>
       <c r="C25">
-        <v>-14</v>
+        <v>-28</v>
       </c>
       <c r="D25">
         <v>-28</v>
       </c>
-      <c r="E25">
-        <v>-28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43903</v>
       </c>
@@ -8919,16 +8928,13 @@
         <v>-30</v>
       </c>
       <c r="C26">
-        <v>-26</v>
+        <v>-22</v>
       </c>
       <c r="D26">
-        <v>-22</v>
-      </c>
-      <c r="E26">
         <v>-36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43904</v>
       </c>
@@ -8936,16 +8942,13 @@
         <v>-43</v>
       </c>
       <c r="C27">
-        <v>-39</v>
+        <v>-35</v>
       </c>
       <c r="D27">
-        <v>-35</v>
-      </c>
-      <c r="E27">
         <v>-42</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43905</v>
       </c>
@@ -8953,16 +8956,13 @@
         <v>-51</v>
       </c>
       <c r="C28">
-        <v>-47</v>
+        <v>-33</v>
       </c>
       <c r="D28">
-        <v>-33</v>
-      </c>
-      <c r="E28">
         <v>-48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43906</v>
       </c>
@@ -8970,16 +8970,13 @@
         <v>-72</v>
       </c>
       <c r="C29">
-        <v>-67</v>
+        <v>-76</v>
       </c>
       <c r="D29">
-        <v>-76</v>
-      </c>
-      <c r="E29">
         <v>-56</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43907</v>
       </c>
@@ -8987,16 +8984,13 @@
         <v>-98</v>
       </c>
       <c r="C30">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="D30">
-        <v>-100</v>
-      </c>
-      <c r="E30">
         <v>-84</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43908</v>
       </c>
@@ -9007,13 +9001,10 @@
         <v>-100</v>
       </c>
       <c r="D31">
-        <v>-100</v>
-      </c>
-      <c r="E31">
         <v>-91</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43909</v>
       </c>
@@ -9024,13 +9015,10 @@
         <v>-100</v>
       </c>
       <c r="D32">
-        <v>-100</v>
-      </c>
-      <c r="E32">
         <v>-97.54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43910</v>
       </c>
@@ -9041,13 +9029,10 @@
         <v>-100</v>
       </c>
       <c r="D33">
-        <v>-100</v>
-      </c>
-      <c r="E33">
         <v>-99.35</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43911</v>
       </c>
@@ -9058,13 +9043,10 @@
         <v>-100</v>
       </c>
       <c r="D34">
-        <v>-100</v>
-      </c>
-      <c r="E34">
         <v>-99.89</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43912</v>
       </c>
@@ -9075,13 +9057,10 @@
         <v>-100</v>
       </c>
       <c r="D35">
-        <v>-100</v>
-      </c>
-      <c r="E35">
         <v>-99.93</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43913</v>
       </c>
@@ -9092,13 +9071,10 @@
         <v>-100</v>
       </c>
       <c r="D36">
-        <v>-100</v>
-      </c>
-      <c r="E36">
         <v>-99.97</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43914</v>
       </c>
@@ -9109,13 +9085,10 @@
         <v>-100</v>
       </c>
       <c r="D37">
-        <v>-100</v>
-      </c>
-      <c r="E37">
         <v>-99.97</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43915</v>
       </c>
@@ -9126,13 +9099,10 @@
         <v>-100</v>
       </c>
       <c r="D38">
-        <v>-100</v>
-      </c>
-      <c r="E38">
         <v>-99.98</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43916</v>
       </c>
@@ -9143,13 +9113,10 @@
         <v>-100</v>
       </c>
       <c r="D39">
-        <v>-100</v>
-      </c>
-      <c r="E39">
         <v>-99.98</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43917</v>
       </c>
@@ -9160,13 +9127,10 @@
         <v>-100</v>
       </c>
       <c r="D40">
-        <v>-100</v>
-      </c>
-      <c r="E40">
         <v>-99.99</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43918</v>
       </c>
@@ -9177,13 +9141,10 @@
         <v>-100</v>
       </c>
       <c r="D41">
-        <v>-100</v>
-      </c>
-      <c r="E41">
         <v>-99.98</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43919</v>
       </c>
@@ -9196,11 +9157,8 @@
       <c r="D42">
         <v>-100</v>
       </c>
-      <c r="E42">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43920</v>
       </c>
@@ -9211,13 +9169,10 @@
         <v>-100</v>
       </c>
       <c r="D43">
-        <v>-100</v>
-      </c>
-      <c r="E43">
         <v>-99.99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43921</v>
       </c>
@@ -9228,13 +9183,10 @@
         <v>-100</v>
       </c>
       <c r="D44">
-        <v>-100</v>
-      </c>
-      <c r="E44">
         <v>-99.99</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43922</v>
       </c>
@@ -9245,13 +9197,10 @@
         <v>-100</v>
       </c>
       <c r="D45">
-        <v>-100</v>
-      </c>
-      <c r="E45">
         <v>-99.99</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43923</v>
       </c>
@@ -9262,13 +9211,10 @@
         <v>-100</v>
       </c>
       <c r="D46">
-        <v>-100</v>
-      </c>
-      <c r="E46">
         <v>-99.98</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43924</v>
       </c>
@@ -9279,13 +9225,10 @@
         <v>-100</v>
       </c>
       <c r="D47">
-        <v>-100</v>
-      </c>
-      <c r="E47">
         <v>-99.97</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43925</v>
       </c>
@@ -9296,13 +9239,10 @@
         <v>-100</v>
       </c>
       <c r="D48">
-        <v>-100</v>
-      </c>
-      <c r="E48">
         <v>-99.98</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43926</v>
       </c>
@@ -9313,13 +9253,10 @@
         <v>-100</v>
       </c>
       <c r="D49">
-        <v>-100</v>
-      </c>
-      <c r="E49">
         <v>-99.99</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43927</v>
       </c>
@@ -9332,11 +9269,8 @@
       <c r="D50">
         <v>-100</v>
       </c>
-      <c r="E50">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43928</v>
       </c>
@@ -9347,13 +9281,10 @@
         <v>-100</v>
       </c>
       <c r="D51">
-        <v>-100</v>
-      </c>
-      <c r="E51">
         <v>-99.99</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43929</v>
       </c>
@@ -9361,16 +9292,13 @@
         <v>-100</v>
       </c>
       <c r="C52">
-        <v>-99.81</v>
+        <v>-100</v>
       </c>
       <c r="D52">
-        <v>-100</v>
-      </c>
-      <c r="E52">
         <v>-99.97</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43930</v>
       </c>
@@ -9383,11 +9311,8 @@
       <c r="D53">
         <v>-100</v>
       </c>
-      <c r="E53">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43931</v>
       </c>
@@ -9398,13 +9323,10 @@
         <v>-100</v>
       </c>
       <c r="D54">
-        <v>-100</v>
-      </c>
-      <c r="E54">
         <v>-99.97</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43932</v>
       </c>
@@ -9415,13 +9337,10 @@
         <v>-100</v>
       </c>
       <c r="D55">
-        <v>-100</v>
-      </c>
-      <c r="E55">
         <v>-99.98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43933</v>
       </c>
@@ -9432,13 +9351,10 @@
         <v>-100</v>
       </c>
       <c r="D56">
-        <v>-100</v>
-      </c>
-      <c r="E56">
         <v>-99.99</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43934</v>
       </c>
@@ -9449,13 +9365,10 @@
         <v>-100</v>
       </c>
       <c r="D57">
-        <v>-100</v>
-      </c>
-      <c r="E57">
         <v>-99.99</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43935</v>
       </c>
@@ -9466,13 +9379,10 @@
         <v>-100</v>
       </c>
       <c r="D58">
-        <v>-100</v>
-      </c>
-      <c r="E58">
         <v>-99.99</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43936</v>
       </c>
@@ -9483,13 +9393,10 @@
         <v>-100</v>
       </c>
       <c r="D59">
-        <v>-100</v>
-      </c>
-      <c r="E59">
         <v>-99.97</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43937</v>
       </c>
@@ -9500,13 +9407,10 @@
         <v>-100</v>
       </c>
       <c r="D60">
-        <v>-100</v>
-      </c>
-      <c r="E60">
         <v>-99.96</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43938</v>
       </c>
@@ -9517,13 +9421,10 @@
         <v>-100</v>
       </c>
       <c r="D61">
-        <v>-100</v>
-      </c>
-      <c r="E61">
         <v>-99.97</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43939</v>
       </c>
@@ -9534,13 +9435,10 @@
         <v>-100</v>
       </c>
       <c r="D62">
-        <v>-100</v>
-      </c>
-      <c r="E62">
         <v>-99.97</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43940</v>
       </c>
@@ -9551,13 +9449,10 @@
         <v>-100</v>
       </c>
       <c r="D63">
-        <v>-100</v>
-      </c>
-      <c r="E63">
         <v>-99.98</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43941</v>
       </c>
@@ -9568,13 +9463,10 @@
         <v>-100</v>
       </c>
       <c r="D64">
-        <v>-100</v>
-      </c>
-      <c r="E64">
         <v>-99.99</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43942</v>
       </c>
@@ -9585,13 +9477,10 @@
         <v>-100</v>
       </c>
       <c r="D65">
-        <v>-100</v>
-      </c>
-      <c r="E65">
         <v>-99.97</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43943</v>
       </c>
@@ -9602,13 +9491,10 @@
         <v>-100</v>
       </c>
       <c r="D66">
-        <v>-100</v>
-      </c>
-      <c r="E66">
         <v>-99.97</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43944</v>
       </c>
@@ -9619,13 +9505,10 @@
         <v>-100</v>
       </c>
       <c r="D67">
-        <v>-100</v>
-      </c>
-      <c r="E67">
         <v>-99.98</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43945</v>
       </c>
@@ -9636,13 +9519,10 @@
         <v>-100</v>
       </c>
       <c r="D68">
-        <v>-100</v>
-      </c>
-      <c r="E68">
         <v>-99.97</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43946</v>
       </c>
@@ -9653,13 +9533,10 @@
         <v>-100</v>
       </c>
       <c r="D69">
-        <v>-100</v>
-      </c>
-      <c r="E69">
         <v>-99.97</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43947</v>
       </c>
@@ -9670,13 +9547,10 @@
         <v>-100</v>
       </c>
       <c r="D70">
-        <v>-100</v>
-      </c>
-      <c r="E70">
         <v>-99.99</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43948</v>
       </c>
@@ -9687,13 +9561,10 @@
         <v>-100</v>
       </c>
       <c r="D71">
-        <v>-100</v>
-      </c>
-      <c r="E71">
         <v>-99.89</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43949</v>
       </c>
@@ -9704,13 +9575,10 @@
         <v>-100</v>
       </c>
       <c r="D72">
-        <v>-100</v>
-      </c>
-      <c r="E72">
         <v>-99.9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43950</v>
       </c>
@@ -9721,13 +9589,10 @@
         <v>-100</v>
       </c>
       <c r="D73">
-        <v>-100</v>
-      </c>
-      <c r="E73">
         <v>-99.91</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43951</v>
       </c>
@@ -9738,13 +9603,10 @@
         <v>-100</v>
       </c>
       <c r="D74">
-        <v>-100</v>
-      </c>
-      <c r="E74">
         <v>-99.86</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43952</v>
       </c>
@@ -9755,13 +9617,10 @@
         <v>-100</v>
       </c>
       <c r="D75">
-        <v>-100</v>
-      </c>
-      <c r="E75">
         <v>-98.81</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43953</v>
       </c>
@@ -9772,13 +9631,10 @@
         <v>-100</v>
       </c>
       <c r="D76">
-        <v>-100</v>
-      </c>
-      <c r="E76">
         <v>-98.97</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43954</v>
       </c>
@@ -9789,13 +9645,10 @@
         <v>-100</v>
       </c>
       <c r="D77">
-        <v>-100</v>
-      </c>
-      <c r="E77">
         <v>-99.16</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43955</v>
       </c>
@@ -9806,13 +9659,10 @@
         <v>-100</v>
       </c>
       <c r="D78">
-        <v>-100</v>
-      </c>
-      <c r="E78">
         <v>-98.04</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43956</v>
       </c>
@@ -9823,13 +9673,10 @@
         <v>-100</v>
       </c>
       <c r="D79">
-        <v>-100</v>
-      </c>
-      <c r="E79">
         <v>-97.98</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43957</v>
       </c>
@@ -9840,13 +9687,10 @@
         <v>-100</v>
       </c>
       <c r="D80">
-        <v>-100</v>
-      </c>
-      <c r="E80">
         <v>-98.02</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43958</v>
       </c>
@@ -9857,13 +9701,10 @@
         <v>-100</v>
       </c>
       <c r="D81">
-        <v>-100</v>
-      </c>
-      <c r="E81">
         <v>-97.75</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43959</v>
       </c>
@@ -9874,13 +9715,10 @@
         <v>-100</v>
       </c>
       <c r="D82">
-        <v>-100</v>
-      </c>
-      <c r="E82">
         <v>-97.06</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43960</v>
       </c>
@@ -9891,13 +9729,10 @@
         <v>-100</v>
       </c>
       <c r="D83">
-        <v>-100</v>
-      </c>
-      <c r="E83">
         <v>-97.12</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43961</v>
       </c>
@@ -9908,13 +9743,10 @@
         <v>-100</v>
       </c>
       <c r="D84">
-        <v>-100</v>
-      </c>
-      <c r="E84">
         <v>-96.86</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43962</v>
       </c>
@@ -9925,13 +9757,10 @@
         <v>-100</v>
       </c>
       <c r="D85">
-        <v>-100</v>
-      </c>
-      <c r="E85">
         <v>-95.67</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43963</v>
       </c>
@@ -9942,13 +9771,10 @@
         <v>-100</v>
       </c>
       <c r="D86">
-        <v>-100</v>
-      </c>
-      <c r="E86">
         <v>-95.62</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43964</v>
       </c>
@@ -9959,13 +9785,10 @@
         <v>-100</v>
       </c>
       <c r="D87">
-        <v>-100</v>
-      </c>
-      <c r="E87">
         <v>-95.31</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43965</v>
       </c>
@@ -9973,16 +9796,13 @@
         <v>-99.89</v>
       </c>
       <c r="C88">
-        <v>-100</v>
+        <v>-99.62</v>
       </c>
       <c r="D88">
-        <v>-99.62</v>
-      </c>
-      <c r="E88">
         <v>-94.94</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43966</v>
       </c>
@@ -9990,16 +9810,13 @@
         <v>-100</v>
       </c>
       <c r="C89">
-        <v>-99.37</v>
+        <v>-100</v>
       </c>
       <c r="D89">
-        <v>-100</v>
-      </c>
-      <c r="E89">
         <v>-93.55</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43967</v>
       </c>
@@ -10007,16 +9824,13 @@
         <v>-99.38</v>
       </c>
       <c r="C90">
-        <v>-97.33</v>
+        <v>-99.22</v>
       </c>
       <c r="D90">
-        <v>-99.22</v>
-      </c>
-      <c r="E90">
         <v>-93.03</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43968</v>
       </c>
@@ -10024,16 +9838,13 @@
         <v>-99.4</v>
       </c>
       <c r="C91">
-        <v>-98.49</v>
+        <v>-98.92</v>
       </c>
       <c r="D91">
-        <v>-98.92</v>
-      </c>
-      <c r="E91">
         <v>-93.64</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43969</v>
       </c>
@@ -10041,16 +9852,13 @@
         <v>-99.49</v>
       </c>
       <c r="C92">
-        <v>-98.71</v>
+        <v>-99.32</v>
       </c>
       <c r="D92">
-        <v>-99.32</v>
-      </c>
-      <c r="E92">
         <v>-93.66</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43970</v>
       </c>
@@ -10058,16 +9866,13 @@
         <v>-99.58</v>
       </c>
       <c r="C93">
-        <v>-97.43</v>
+        <v>-99.5</v>
       </c>
       <c r="D93">
-        <v>-99.5</v>
-      </c>
-      <c r="E93">
         <v>-92.63</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43971</v>
       </c>
@@ -10075,16 +9880,13 @@
         <v>-99.46</v>
       </c>
       <c r="C94">
-        <v>-94.96</v>
+        <v>-99.3</v>
       </c>
       <c r="D94">
-        <v>-99.3</v>
-      </c>
-      <c r="E94">
         <v>-91.62</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43972</v>
       </c>
@@ -10092,16 +9894,13 @@
         <v>-99.68</v>
       </c>
       <c r="C95">
-        <v>-90.43</v>
+        <v>-99.58</v>
       </c>
       <c r="D95">
-        <v>-99.58</v>
-      </c>
-      <c r="E95">
         <v>-89.83</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43973</v>
       </c>
@@ -10109,16 +9908,13 @@
         <v>-99.72</v>
       </c>
       <c r="C96">
-        <v>-88.7</v>
+        <v>-99.79</v>
       </c>
       <c r="D96">
-        <v>-99.79</v>
-      </c>
-      <c r="E96">
         <v>-87.31</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43974</v>
       </c>
@@ -10126,16 +9922,13 @@
         <v>-99.75</v>
       </c>
       <c r="C97">
-        <v>-87.62</v>
+        <v>-99.85</v>
       </c>
       <c r="D97">
-        <v>-99.85</v>
-      </c>
-      <c r="E97">
         <v>-87.04</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43975</v>
       </c>
@@ -10143,16 +9936,13 @@
         <v>-99.75</v>
       </c>
       <c r="C98">
-        <v>-85</v>
+        <v>-99.93</v>
       </c>
       <c r="D98">
-        <v>-99.93</v>
-      </c>
-      <c r="E98">
         <v>-87.88</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43976</v>
       </c>
@@ -10160,16 +9950,13 @@
         <v>-100</v>
       </c>
       <c r="C99">
-        <v>-77.010000000000005</v>
+        <v>-100</v>
       </c>
       <c r="D99">
-        <v>-100</v>
-      </c>
-      <c r="E99">
         <v>-86.84</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43977</v>
       </c>
@@ -10177,16 +9964,13 @@
         <v>-98.52</v>
       </c>
       <c r="C100">
-        <v>-81.489999999999995</v>
+        <v>-98.1</v>
       </c>
       <c r="D100">
-        <v>-98.1</v>
-      </c>
-      <c r="E100">
         <v>-85.57</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43978</v>
       </c>
@@ -10194,16 +9978,13 @@
         <v>-98.67</v>
       </c>
       <c r="C101">
-        <v>-78.19</v>
+        <v>-98.62</v>
       </c>
       <c r="D101">
-        <v>-98.62</v>
-      </c>
-      <c r="E101">
         <v>-84.57</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43979</v>
       </c>
@@ -10211,16 +9992,13 @@
         <v>-98.83</v>
       </c>
       <c r="C102">
-        <v>-83.38</v>
+        <v>-99.51</v>
       </c>
       <c r="D102">
-        <v>-99.51</v>
-      </c>
-      <c r="E102">
         <v>-84.35</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43980</v>
       </c>
@@ -10228,16 +10006,13 @@
         <v>-99.16</v>
       </c>
       <c r="C103">
-        <v>-80.28</v>
+        <v>-98.95</v>
       </c>
       <c r="D103">
-        <v>-98.95</v>
-      </c>
-      <c r="E103">
         <v>-81.62</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43981</v>
       </c>
@@ -10245,16 +10020,13 @@
         <v>-99.14</v>
       </c>
       <c r="C104">
-        <v>-80.02</v>
+        <v>-98.88</v>
       </c>
       <c r="D104">
-        <v>-98.88</v>
-      </c>
-      <c r="E104">
         <v>-80.98</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43982</v>
       </c>
@@ -10262,16 +10034,13 @@
         <v>-99.21</v>
       </c>
       <c r="C105">
-        <v>-84.23</v>
+        <v>-99.86</v>
       </c>
       <c r="D105">
-        <v>-99.86</v>
-      </c>
-      <c r="E105">
         <v>-83.01</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43983</v>
       </c>
@@ -10279,16 +10048,13 @@
         <v>-75.06</v>
       </c>
       <c r="C106">
-        <v>-85.7</v>
+        <v>-96.81</v>
       </c>
       <c r="D106">
-        <v>-96.81</v>
-      </c>
-      <c r="E106">
         <v>-84.18</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43984</v>
       </c>
@@ -10296,16 +10062,13 @@
         <v>-84.91</v>
       </c>
       <c r="C107">
-        <v>-86.68</v>
+        <v>-97.31</v>
       </c>
       <c r="D107">
-        <v>-97.31</v>
-      </c>
-      <c r="E107">
         <v>-83.48</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43985</v>
       </c>
@@ -10313,16 +10076,13 @@
         <v>-76.040000000000006</v>
       </c>
       <c r="C108">
-        <v>-80.95</v>
+        <v>-96.04</v>
       </c>
       <c r="D108">
-        <v>-96.04</v>
-      </c>
-      <c r="E108">
         <v>-81.16</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43986</v>
       </c>
@@ -10330,16 +10090,13 @@
         <v>-75.62</v>
       </c>
       <c r="C109">
-        <v>-78.650000000000006</v>
+        <v>-92.67</v>
       </c>
       <c r="D109">
-        <v>-92.67</v>
-      </c>
-      <c r="E109">
         <v>-79.66</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43987</v>
       </c>
@@ -10347,16 +10104,13 @@
         <v>-75.08</v>
       </c>
       <c r="C110">
-        <v>-72</v>
+        <v>-90.22</v>
       </c>
       <c r="D110">
-        <v>-90.22</v>
-      </c>
-      <c r="E110">
         <v>-75.459999999999994</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43988</v>
       </c>
@@ -10364,16 +10118,13 @@
         <v>-76.61</v>
       </c>
       <c r="C111">
-        <v>-71.47</v>
+        <v>-91.37</v>
       </c>
       <c r="D111">
-        <v>-91.37</v>
-      </c>
-      <c r="E111">
         <v>-73.900000000000006</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43989</v>
       </c>
@@ -10381,16 +10132,13 @@
         <v>-70.59</v>
       </c>
       <c r="C112">
-        <v>-70.510000000000005</v>
+        <v>-83.22</v>
       </c>
       <c r="D112">
-        <v>-83.22</v>
-      </c>
-      <c r="E112">
         <v>-74.08</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43990</v>
       </c>
@@ -10398,16 +10146,13 @@
         <v>-73.08</v>
       </c>
       <c r="C113">
-        <v>-72.2</v>
+        <v>-83.61</v>
       </c>
       <c r="D113">
-        <v>-83.61</v>
-      </c>
-      <c r="E113">
         <v>-75.14</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43991</v>
       </c>
@@ -10415,16 +10160,13 @@
         <v>-87.06</v>
       </c>
       <c r="C114">
-        <v>-78.05</v>
+        <v>-95.04</v>
       </c>
       <c r="D114">
-        <v>-95.04</v>
-      </c>
-      <c r="E114">
         <v>-75.290000000000006</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43992</v>
       </c>
@@ -10432,16 +10174,13 @@
         <v>-59.36</v>
       </c>
       <c r="C115">
-        <v>-74.78</v>
+        <v>-77.13</v>
       </c>
       <c r="D115">
-        <v>-77.13</v>
-      </c>
-      <c r="E115">
         <v>-72.319999999999993</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43993</v>
       </c>
@@ -10449,16 +10188,13 @@
         <v>-52.37</v>
       </c>
       <c r="C116">
-        <v>-62.45</v>
+        <v>-74.48</v>
       </c>
       <c r="D116">
-        <v>-74.48</v>
-      </c>
-      <c r="E116">
         <v>-69.94</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43994</v>
       </c>
@@ -10466,16 +10202,13 @@
         <v>-51.24</v>
       </c>
       <c r="C117">
-        <v>-60.68</v>
+        <v>-73.12</v>
       </c>
       <c r="D117">
-        <v>-73.12</v>
-      </c>
-      <c r="E117">
         <v>-65.02</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43995</v>
       </c>
@@ -10483,16 +10216,13 @@
         <v>-51.25</v>
       </c>
       <c r="C118">
-        <v>-59.71</v>
+        <v>-71.83</v>
       </c>
       <c r="D118">
-        <v>-71.83</v>
-      </c>
-      <c r="E118">
         <v>-64.63</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43996</v>
       </c>
@@ -10500,16 +10230,13 @@
         <v>-68.33</v>
       </c>
       <c r="C119">
-        <v>-78.790000000000006</v>
+        <v>-79.33</v>
       </c>
       <c r="D119">
-        <v>-79.33</v>
-      </c>
-      <c r="E119">
         <v>-78.06</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43997</v>
       </c>
@@ -10517,16 +10244,13 @@
         <v>-50.32</v>
       </c>
       <c r="C120">
-        <v>-59.5</v>
+        <v>-74.36</v>
       </c>
       <c r="D120">
-        <v>-74.36</v>
-      </c>
-      <c r="E120">
         <v>-67.47</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43998</v>
       </c>
@@ -10534,16 +10258,13 @@
         <v>-49.52</v>
       </c>
       <c r="C121">
-        <v>-58.46</v>
+        <v>-72.81</v>
       </c>
       <c r="D121">
-        <v>-72.81</v>
-      </c>
-      <c r="E121">
         <v>-66.180000000000007</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43999</v>
       </c>
@@ -10551,16 +10272,13 @@
         <v>-47.22</v>
       </c>
       <c r="C122">
-        <v>-55.58</v>
+        <v>-70.36</v>
       </c>
       <c r="D122">
-        <v>-70.36</v>
-      </c>
-      <c r="E122">
         <v>-65.2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44000</v>
       </c>
@@ -10568,16 +10286,13 @@
         <v>-58.47</v>
       </c>
       <c r="C123">
-        <v>-55.12</v>
+        <v>-76.67</v>
       </c>
       <c r="D123">
-        <v>-76.67</v>
-      </c>
-      <c r="E123">
         <v>-64.08</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44001</v>
       </c>
@@ -10585,16 +10300,13 @@
         <v>-44.02</v>
       </c>
       <c r="C124">
-        <v>-50.58</v>
+        <v>-59.95</v>
       </c>
       <c r="D124">
-        <v>-59.95</v>
-      </c>
-      <c r="E124">
         <v>-59.97</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44002</v>
       </c>
@@ -10602,16 +10314,13 @@
         <v>-43.28</v>
       </c>
       <c r="C125">
-        <v>-50.53</v>
+        <v>-58.16</v>
       </c>
       <c r="D125">
-        <v>-58.16</v>
-      </c>
-      <c r="E125">
         <v>-58.8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44003</v>
       </c>
@@ -10619,13 +10328,108 @@
         <v>-24.96</v>
       </c>
       <c r="C126">
-        <v>-28.58</v>
+        <v>-56.37</v>
       </c>
       <c r="D126">
-        <v>-56.37</v>
-      </c>
-      <c r="E126">
         <v>-41.37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B127">
+        <v>-49.84</v>
+      </c>
+      <c r="C127">
+        <v>-72.58</v>
+      </c>
+      <c r="D127">
+        <v>-66.47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B128">
+        <v>-45.9</v>
+      </c>
+      <c r="C128">
+        <v>-69.34</v>
+      </c>
+      <c r="D128">
+        <v>-65.36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B129">
+        <v>-41.16</v>
+      </c>
+      <c r="C129">
+        <v>-61.31</v>
+      </c>
+      <c r="D129">
+        <v>-63.89</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B130">
+        <v>-42.2</v>
+      </c>
+      <c r="C130">
+        <v>-63.01</v>
+      </c>
+      <c r="D130">
+        <v>-61.59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B131">
+        <v>-44.06</v>
+      </c>
+      <c r="C131">
+        <v>-61.38</v>
+      </c>
+      <c r="D131">
+        <v>-57.99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B132">
+        <v>-40.54</v>
+      </c>
+      <c r="C132">
+        <v>-58.92</v>
+      </c>
+      <c r="D132">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B133">
+        <v>-47.87</v>
+      </c>
+      <c r="C133">
+        <v>-67.430000000000007</v>
+      </c>
+      <c r="D133">
+        <v>-60.26</v>
       </c>
     </row>
   </sheetData>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/20200622-cvnormal/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD042F-0002-2647-A619-95295C509229}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A630BC8-3D7B-8A40-8233-4B410178BD6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="3680" windowWidth="26160" windowHeight="16440" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="7440" yWindow="3480" windowWidth="26160" windowHeight="16440" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_transit" sheetId="1" r:id="rId1"/>
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C123" sqref="A1:C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2656,7 +2656,7 @@
         <v>-20.9</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" ref="C73:C118" si="1">AVERAGE(B67:B73)</f>
+        <f t="shared" ref="C73:C123" si="1">AVERAGE(B67:B73)</f>
         <v>-26.457142857142856</v>
       </c>
       <c r="I73" s="1">
@@ -3416,10 +3416,70 @@
         <v>-7.0571428571428569</v>
       </c>
     </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B119">
+        <v>-7.7</v>
+      </c>
+      <c r="C119" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.2857142857142856</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B120">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="C120" s="5">
+        <f t="shared" si="1"/>
+        <v>-6.5857142857142872</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B121">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="C121" s="5">
+        <f t="shared" si="1"/>
+        <v>-6.6857142857142877</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B122">
+        <v>-7.5</v>
+      </c>
+      <c r="C122" s="5">
+        <f t="shared" si="1"/>
+        <v>-6.8428571428571416</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B123">
+        <v>-2.6</v>
+      </c>
+      <c r="C123" s="5">
+        <f t="shared" si="1"/>
+        <v>-6.257142857142858</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C8:C65 C66:C79 C80:C87 C88:C107 C108:C114 C115:C118" formulaRange="1"/>
+    <ignoredError sqref="C8:C65 C66:C79 C80:C87 C88:C107 C108:C114 C115:C118 C119:C123" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3428,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
   <dimension ref="A1:AH88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O1" sqref="N1:O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="E1:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/20200622-cvnormal/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A630BC8-3D7B-8A40-8233-4B410178BD6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16652EA-A7AC-8446-9BFD-EDE5EA125E1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="3480" windowWidth="26160" windowHeight="16440" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="1180" yWindow="3460" windowWidth="26160" windowHeight="16440" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_transit" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="154">
   <si>
     <t>Source: Minnesota Department of Transportation, Metro Transit</t>
   </si>
@@ -486,6 +486,15 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>grade_july_4</t>
+  </si>
+  <si>
+    <t>color_july_4</t>
   </si>
 </sst>
 </file>
@@ -865,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:Q128"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C123" sqref="A1:C123"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C128" sqref="A1:C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3476,29 +3485,90 @@
         <v>-6.257142857142858</v>
       </c>
     </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B124">
+        <v>-0.6</v>
+      </c>
+      <c r="C124" s="5">
+        <f>AVERAGE(B118:B124)</f>
+        <v>-5.4428571428571439</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B125">
+        <v>8.1</v>
+      </c>
+      <c r="C125" s="5">
+        <f>AVERAGE(B119:B125)</f>
+        <v>-3.5857142857142859</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B126">
+        <v>-14.7</v>
+      </c>
+      <c r="C126" s="5">
+        <f>AVERAGE(B120:B126)</f>
+        <v>-4.5857142857142845</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B127">
+        <v>-27.3</v>
+      </c>
+      <c r="C127" s="5">
+        <f>AVERAGE(B121:B127)</f>
+        <v>-7.7571428571428571</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B128">
+        <v>-8.6</v>
+      </c>
+      <c r="C128" s="5">
+        <f>AVERAGE(B122:B128)</f>
+        <v>-7.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C8:C65 C66:C79 C80:C87 C88:C107 C108:C114 C115:C118 C119:C123" formulaRange="1"/>
+    <ignoredError sqref="C8:C65 C66:C79 C80:C87 C88:C107 C108:C114 C115:C118 C119:C123 C124:C128" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AJ88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="E1:O7"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="16.83203125" customWidth="1"/>
+    <col min="30" max="30" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3577,17 +3647,23 @@
       <c r="AC1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43885</v>
       </c>
@@ -3666,17 +3742,23 @@
       <c r="AC2" t="s">
         <v>108</v>
       </c>
-      <c r="AF2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>13</v>
+      <c r="AD2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>107</v>
       </c>
       <c r="AH2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43886</v>
       </c>
@@ -3755,17 +3837,23 @@
       <c r="AC3" t="s">
         <v>110</v>
       </c>
-      <c r="AF3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>14</v>
+      <c r="AD3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>110</v>
       </c>
       <c r="AH3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43887</v>
       </c>
@@ -3844,17 +3932,23 @@
       <c r="AC4" t="s">
         <v>108</v>
       </c>
-      <c r="AF4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>14</v>
+      <c r="AD4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>109</v>
       </c>
       <c r="AH4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43888</v>
       </c>
@@ -3933,17 +4027,23 @@
       <c r="AC5" t="s">
         <v>108</v>
       </c>
-      <c r="AF5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>14</v>
+      <c r="AD5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>109</v>
       </c>
       <c r="AH5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43889</v>
       </c>
@@ -4022,17 +4122,23 @@
       <c r="AC6" t="s">
         <v>109</v>
       </c>
-      <c r="AF6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>14</v>
+      <c r="AD6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>109</v>
       </c>
       <c r="AH6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43890</v>
       </c>
@@ -4111,17 +4217,23 @@
       <c r="AC7" t="s">
         <v>108</v>
       </c>
-      <c r="AF7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>14</v>
+      <c r="AD7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>107</v>
       </c>
       <c r="AH7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43891</v>
       </c>
@@ -4167,17 +4279,23 @@
       <c r="AC8" t="s">
         <v>109</v>
       </c>
-      <c r="AF8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>14</v>
+      <c r="AD8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>109</v>
       </c>
       <c r="AH8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43892</v>
       </c>
@@ -4223,17 +4341,23 @@
       <c r="AC9" t="s">
         <v>109</v>
       </c>
-      <c r="AF9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>14</v>
+      <c r="AD9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>109</v>
       </c>
       <c r="AH9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43893</v>
       </c>
@@ -4279,17 +4403,23 @@
       <c r="AC10" t="s">
         <v>107</v>
       </c>
-      <c r="AF10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>14</v>
+      <c r="AD10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>109</v>
       </c>
       <c r="AH10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43894</v>
       </c>
@@ -4335,17 +4465,23 @@
       <c r="AC11" t="s">
         <v>109</v>
       </c>
-      <c r="AF11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>14</v>
+      <c r="AD11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>109</v>
       </c>
       <c r="AH11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43895</v>
       </c>
@@ -4391,17 +4527,23 @@
       <c r="AC12" t="s">
         <v>107</v>
       </c>
-      <c r="AF12" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>14</v>
+      <c r="AD12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>109</v>
       </c>
       <c r="AH12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43896</v>
       </c>
@@ -4468,17 +4610,23 @@
       <c r="AC13" t="s">
         <v>107</v>
       </c>
-      <c r="AF13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>14</v>
+      <c r="AD13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>108</v>
       </c>
       <c r="AH13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43897</v>
       </c>
@@ -4549,17 +4697,23 @@
       <c r="AC14" t="s">
         <v>109</v>
       </c>
-      <c r="AF14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>14</v>
+      <c r="AD14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>109</v>
       </c>
       <c r="AH14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43898</v>
       </c>
@@ -4630,17 +4784,23 @@
       <c r="AC15" t="s">
         <v>109</v>
       </c>
-      <c r="AF15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>14</v>
+      <c r="AD15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>109</v>
       </c>
       <c r="AH15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43899</v>
       </c>
@@ -4711,17 +4871,23 @@
       <c r="AC16" t="s">
         <v>107</v>
       </c>
-      <c r="AF16" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>14</v>
+      <c r="AD16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>108</v>
       </c>
       <c r="AH16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43900</v>
       </c>
@@ -4792,17 +4958,23 @@
       <c r="AC17" t="s">
         <v>106</v>
       </c>
-      <c r="AF17" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>14</v>
+      <c r="AD17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>108</v>
       </c>
       <c r="AH17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43901</v>
       </c>
@@ -4873,17 +5045,23 @@
       <c r="AC18" t="s">
         <v>108</v>
       </c>
-      <c r="AF18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>14</v>
+      <c r="AD18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>108</v>
       </c>
       <c r="AH18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43902</v>
       </c>
@@ -4954,17 +5132,23 @@
       <c r="AC19" t="s">
         <v>109</v>
       </c>
-      <c r="AF19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>14</v>
+      <c r="AD19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>110</v>
       </c>
       <c r="AH19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43903</v>
       </c>
@@ -5031,17 +5215,23 @@
       <c r="AC20" t="s">
         <v>109</v>
       </c>
-      <c r="AF20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>14</v>
+      <c r="AD20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>109</v>
       </c>
       <c r="AH20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43904</v>
       </c>
@@ -5108,17 +5298,23 @@
       <c r="AC21" t="s">
         <v>109</v>
       </c>
-      <c r="AF21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>14</v>
+      <c r="AD21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>109</v>
       </c>
       <c r="AH21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43905</v>
       </c>
@@ -5185,17 +5381,23 @@
       <c r="AC22" t="s">
         <v>109</v>
       </c>
-      <c r="AF22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>14</v>
+      <c r="AD22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>109</v>
       </c>
       <c r="AH22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43906</v>
       </c>
@@ -5241,17 +5443,23 @@
       <c r="AC23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>14</v>
+      <c r="AD23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>107</v>
       </c>
       <c r="AH23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43907</v>
       </c>
@@ -5297,17 +5505,23 @@
       <c r="AC24" t="s">
         <v>107</v>
       </c>
-      <c r="AF24" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>14</v>
+      <c r="AD24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>107</v>
       </c>
       <c r="AH24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43908</v>
       </c>
@@ -5353,17 +5567,23 @@
       <c r="AC25" t="s">
         <v>109</v>
       </c>
-      <c r="AF25" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>14</v>
+      <c r="AD25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>109</v>
       </c>
       <c r="AH25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43909</v>
       </c>
@@ -5409,17 +5629,23 @@
       <c r="AC26" t="s">
         <v>107</v>
       </c>
-      <c r="AF26" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>14</v>
+      <c r="AD26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>109</v>
       </c>
       <c r="AH26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43910</v>
       </c>
@@ -5465,17 +5691,23 @@
       <c r="AC27" t="s">
         <v>107</v>
       </c>
-      <c r="AF27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>14</v>
+      <c r="AD27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>107</v>
       </c>
       <c r="AH27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43911</v>
       </c>
@@ -5521,17 +5753,23 @@
       <c r="AC28" t="s">
         <v>108</v>
       </c>
-      <c r="AF28" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>14</v>
+      <c r="AD28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>108</v>
       </c>
       <c r="AH28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43912</v>
       </c>
@@ -5577,17 +5815,23 @@
       <c r="AC29" t="s">
         <v>109</v>
       </c>
-      <c r="AF29" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>14</v>
+      <c r="AD29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>107</v>
       </c>
       <c r="AH29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43913</v>
       </c>
@@ -5639,17 +5883,23 @@
       <c r="AC30" t="s">
         <v>107</v>
       </c>
-      <c r="AF30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>14</v>
+      <c r="AD30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>108</v>
       </c>
       <c r="AH30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43914</v>
       </c>
@@ -5701,17 +5951,23 @@
       <c r="AC31" t="s">
         <v>109</v>
       </c>
-      <c r="AF31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>14</v>
+      <c r="AD31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>109</v>
       </c>
       <c r="AH31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43915</v>
       </c>
@@ -5763,17 +6019,23 @@
       <c r="AC32" t="s">
         <v>108</v>
       </c>
-      <c r="AF32" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>14</v>
+      <c r="AD32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>109</v>
       </c>
       <c r="AH32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43916</v>
       </c>
@@ -5825,17 +6087,23 @@
       <c r="AC33" t="s">
         <v>108</v>
       </c>
-      <c r="AF33" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>14</v>
+      <c r="AD33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>107</v>
       </c>
       <c r="AH33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43917</v>
       </c>
@@ -5881,17 +6149,23 @@
       <c r="AC34" t="s">
         <v>107</v>
       </c>
-      <c r="AF34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>14</v>
+      <c r="AD34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>108</v>
       </c>
       <c r="AH34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43918</v>
       </c>
@@ -5937,17 +6211,23 @@
       <c r="AC35" t="s">
         <v>109</v>
       </c>
-      <c r="AF35" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>14</v>
+      <c r="AD35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>110</v>
       </c>
       <c r="AH35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43919</v>
       </c>
@@ -5993,17 +6273,23 @@
       <c r="AC36" t="s">
         <v>108</v>
       </c>
-      <c r="AF36" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>14</v>
+      <c r="AD36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>108</v>
       </c>
       <c r="AH36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43920</v>
       </c>
@@ -6049,17 +6335,23 @@
       <c r="AC37" t="s">
         <v>107</v>
       </c>
-      <c r="AF37" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>15</v>
+      <c r="AD37" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>108</v>
       </c>
       <c r="AH37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43921</v>
       </c>
@@ -6102,17 +6394,23 @@
       <c r="AC38" t="s">
         <v>108</v>
       </c>
-      <c r="AF38" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>15</v>
+      <c r="AD38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>108</v>
       </c>
       <c r="AH38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Q39" t="s">
         <v>19</v>
       </c>
@@ -6152,17 +6450,23 @@
       <c r="AC39" t="s">
         <v>107</v>
       </c>
-      <c r="AF39" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>15</v>
+      <c r="AD39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>108</v>
       </c>
       <c r="AH39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Q40" t="s">
         <v>20</v>
       </c>
@@ -6202,17 +6506,23 @@
       <c r="AC40" t="s">
         <v>106</v>
       </c>
-      <c r="AF40" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>15</v>
+      <c r="AD40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>107</v>
       </c>
       <c r="AH40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Q41" t="s">
         <v>41</v>
       </c>
@@ -6252,17 +6562,23 @@
       <c r="AC41" t="s">
         <v>109</v>
       </c>
-      <c r="AF41" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>15</v>
+      <c r="AD41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>109</v>
       </c>
       <c r="AH41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Q42" t="s">
         <v>42</v>
       </c>
@@ -6302,17 +6618,23 @@
       <c r="AC42" t="s">
         <v>108</v>
       </c>
-      <c r="AF42" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>15</v>
+      <c r="AD42" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>108</v>
       </c>
       <c r="AH42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Q43" t="s">
         <v>76</v>
       </c>
@@ -6352,17 +6674,23 @@
       <c r="AC43" t="s">
         <v>109</v>
       </c>
-      <c r="AF43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>120</v>
+      <c r="AD43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>109</v>
       </c>
       <c r="AH43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Q44" t="s">
         <v>77</v>
       </c>
@@ -6402,17 +6730,23 @@
       <c r="AC44" t="s">
         <v>107</v>
       </c>
-      <c r="AF44" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>120</v>
+      <c r="AD44" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>107</v>
       </c>
       <c r="AH44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Q45" t="s">
         <v>78</v>
       </c>
@@ -6452,17 +6786,23 @@
       <c r="AC45" t="s">
         <v>108</v>
       </c>
-      <c r="AF45" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>16</v>
+      <c r="AD45" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>107</v>
       </c>
       <c r="AH45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Q46" t="s">
         <v>26</v>
       </c>
@@ -6502,17 +6842,23 @@
       <c r="AC46" t="s">
         <v>108</v>
       </c>
-      <c r="AF46" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>16</v>
+      <c r="AD46" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>109</v>
       </c>
       <c r="AH46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Q47" t="s">
         <v>93</v>
       </c>
@@ -6552,17 +6898,23 @@
       <c r="AC47" t="s">
         <v>109</v>
       </c>
-      <c r="AF47" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG47" t="s">
+      <c r="AD47" t="s">
         <v>16</v>
       </c>
+      <c r="AE47" t="s">
+        <v>109</v>
+      </c>
       <c r="AH47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="Q48" t="s">
         <v>43</v>
       </c>
@@ -6602,17 +6954,23 @@
       <c r="AC48" t="s">
         <v>107</v>
       </c>
-      <c r="AF48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>16</v>
+      <c r="AD48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>108</v>
       </c>
       <c r="AH48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="17:34" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q49" t="s">
         <v>98</v>
       </c>
@@ -6652,17 +7010,23 @@
       <c r="AC49" t="s">
         <v>109</v>
       </c>
-      <c r="AF49" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG49" t="s">
+      <c r="AD49" t="s">
         <v>16</v>
       </c>
+      <c r="AE49" t="s">
+        <v>109</v>
+      </c>
       <c r="AH49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="17:34" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q50" t="s">
         <v>99</v>
       </c>
@@ -6702,17 +7066,23 @@
       <c r="AC50" t="s">
         <v>108</v>
       </c>
-      <c r="AF50" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>16</v>
+      <c r="AD50" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>109</v>
       </c>
       <c r="AH50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="17:34" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q51" t="s">
         <v>44</v>
       </c>
@@ -6752,17 +7122,23 @@
       <c r="AC51" t="s">
         <v>109</v>
       </c>
-      <c r="AF51" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>16</v>
+      <c r="AD51" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>109</v>
       </c>
       <c r="AH51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="17:34" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q52" t="s">
         <v>79</v>
       </c>
@@ -6802,17 +7178,23 @@
       <c r="AC52" t="s">
         <v>107</v>
       </c>
-      <c r="AF52" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>16</v>
+      <c r="AD52" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>107</v>
       </c>
       <c r="AH52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="17:34" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q53" t="s">
         <v>27</v>
       </c>
@@ -6852,17 +7234,23 @@
       <c r="AC53" t="s">
         <v>108</v>
       </c>
-      <c r="AF53" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>16</v>
+      <c r="AD53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>109</v>
       </c>
       <c r="AH53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="17:34" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q54" t="s">
         <v>80</v>
       </c>
@@ -6902,17 +7290,23 @@
       <c r="AC54" t="s">
         <v>107</v>
       </c>
-      <c r="AF54" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG54" t="s">
+      <c r="AD54" t="s">
         <v>16</v>
       </c>
+      <c r="AE54" t="s">
+        <v>109</v>
+      </c>
       <c r="AH54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="17:34" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q55" t="s">
         <v>45</v>
       </c>
@@ -6952,17 +7346,23 @@
       <c r="AC55" t="s">
         <v>107</v>
       </c>
-      <c r="AF55" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>16</v>
+      <c r="AD55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>107</v>
       </c>
       <c r="AH55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="17:34" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q56" t="s">
         <v>28</v>
       </c>
@@ -7002,17 +7402,23 @@
       <c r="AC56" t="s">
         <v>109</v>
       </c>
-      <c r="AF56" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>16</v>
+      <c r="AD56" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>109</v>
       </c>
       <c r="AH56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="17:34" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q57" t="s">
         <v>100</v>
       </c>
@@ -7052,17 +7458,23 @@
       <c r="AC57" t="s">
         <v>108</v>
       </c>
-      <c r="AF57" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>16</v>
+      <c r="AD57" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>109</v>
       </c>
       <c r="AH57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="17:34" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q58" t="s">
         <v>101</v>
       </c>
@@ -7102,17 +7514,23 @@
       <c r="AC58" t="s">
         <v>108</v>
       </c>
-      <c r="AF58" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>17</v>
+      <c r="AD58" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>108</v>
       </c>
       <c r="AH58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="17:34" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q59" t="s">
         <v>64</v>
       </c>
@@ -7152,17 +7570,23 @@
       <c r="AC59" t="s">
         <v>108</v>
       </c>
-      <c r="AF59" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>17</v>
+      <c r="AD59" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>109</v>
       </c>
       <c r="AH59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="17:34" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q60" t="s">
         <v>81</v>
       </c>
@@ -7202,17 +7626,23 @@
       <c r="AC60" t="s">
         <v>107</v>
       </c>
-      <c r="AF60" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>17</v>
+      <c r="AD60" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>107</v>
       </c>
       <c r="AH60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="17:34" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q61" t="s">
         <v>65</v>
       </c>
@@ -7252,17 +7682,23 @@
       <c r="AC61" t="s">
         <v>108</v>
       </c>
-      <c r="AF61" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>121</v>
+      <c r="AD61" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>108</v>
       </c>
       <c r="AH61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="17:34" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q62" t="s">
         <v>82</v>
       </c>
@@ -7302,17 +7738,23 @@
       <c r="AC62" t="s">
         <v>107</v>
       </c>
-      <c r="AF62" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>121</v>
+      <c r="AD62" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>108</v>
       </c>
       <c r="AH62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="17:34" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q63" t="s">
         <v>29</v>
       </c>
@@ -7352,17 +7794,23 @@
       <c r="AC63" t="s">
         <v>108</v>
       </c>
-      <c r="AF63" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>121</v>
+      <c r="AD63" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>109</v>
       </c>
       <c r="AH63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="17:34" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q64" t="s">
         <v>46</v>
       </c>
@@ -7402,17 +7850,23 @@
       <c r="AC64" t="s">
         <v>108</v>
       </c>
-      <c r="AF64" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>121</v>
+      <c r="AD64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>108</v>
       </c>
       <c r="AH64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="17:34" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q65" t="s">
         <v>47</v>
       </c>
@@ -7452,17 +7906,23 @@
       <c r="AC65" t="s">
         <v>107</v>
       </c>
-      <c r="AF65" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>121</v>
+      <c r="AD65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>107</v>
       </c>
       <c r="AH65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="17:34" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q66" t="s">
         <v>48</v>
       </c>
@@ -7502,17 +7962,23 @@
       <c r="AC66" t="s">
         <v>108</v>
       </c>
-      <c r="AF66" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>121</v>
+      <c r="AD66" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>108</v>
       </c>
       <c r="AH66" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="17:34" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q67" t="s">
         <v>83</v>
       </c>
@@ -7552,17 +8018,23 @@
       <c r="AC67" t="s">
         <v>109</v>
       </c>
-      <c r="AF67" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s">
+      <c r="AD67" t="s">
         <v>18</v>
       </c>
+      <c r="AE67" t="s">
+        <v>110</v>
+      </c>
       <c r="AH67" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ67" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="17:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q68" t="s">
         <v>84</v>
       </c>
@@ -7602,17 +8074,23 @@
       <c r="AC68" t="s">
         <v>107</v>
       </c>
-      <c r="AF68" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>18</v>
+      <c r="AD68" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>107</v>
       </c>
       <c r="AH68" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="17:34" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q69" t="s">
         <v>94</v>
       </c>
@@ -7652,17 +8130,23 @@
       <c r="AC69" t="s">
         <v>108</v>
       </c>
-      <c r="AF69" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>18</v>
+      <c r="AD69" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>108</v>
       </c>
       <c r="AH69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="17:34" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q70" t="s">
         <v>31</v>
       </c>
@@ -7702,17 +8186,23 @@
       <c r="AC70" t="s">
         <v>109</v>
       </c>
-      <c r="AF70" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG70" t="s">
+      <c r="AD70" t="s">
         <v>18</v>
       </c>
+      <c r="AE70" t="s">
+        <v>110</v>
+      </c>
       <c r="AH70" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ70" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="17:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q71" t="s">
         <v>95</v>
       </c>
@@ -7752,17 +8242,23 @@
       <c r="AC71" t="s">
         <v>109</v>
       </c>
-      <c r="AF71" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG71" t="s">
+      <c r="AD71" t="s">
         <v>18</v>
       </c>
+      <c r="AE71" t="s">
+        <v>110</v>
+      </c>
       <c r="AH71" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="17:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q72" t="s">
         <v>49</v>
       </c>
@@ -7802,17 +8298,23 @@
       <c r="AC72" t="s">
         <v>107</v>
       </c>
-      <c r="AF72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>18</v>
+      <c r="AD72" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>108</v>
       </c>
       <c r="AH72" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="17:34" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q73" t="s">
         <v>30</v>
       </c>
@@ -7852,17 +8354,23 @@
       <c r="AC73" t="s">
         <v>107</v>
       </c>
-      <c r="AF73" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>18</v>
+      <c r="AD73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>109</v>
       </c>
       <c r="AH73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="17:34" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q74" t="s">
         <v>50</v>
       </c>
@@ -7902,17 +8410,23 @@
       <c r="AC74" t="s">
         <v>109</v>
       </c>
-      <c r="AF74" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>18</v>
+      <c r="AD74" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>109</v>
       </c>
       <c r="AH74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="17:34" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q75" t="s">
         <v>66</v>
       </c>
@@ -7952,17 +8466,23 @@
       <c r="AC75" t="s">
         <v>110</v>
       </c>
-      <c r="AF75" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG75" t="s">
+      <c r="AD75" t="s">
         <v>18</v>
       </c>
+      <c r="AE75" t="s">
+        <v>110</v>
+      </c>
       <c r="AH75" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="17:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q76" t="s">
         <v>85</v>
       </c>
@@ -8002,17 +8522,23 @@
       <c r="AC76" t="s">
         <v>107</v>
       </c>
-      <c r="AF76" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>18</v>
+      <c r="AD76" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>107</v>
       </c>
       <c r="AH76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="17:34" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q77" t="s">
         <v>86</v>
       </c>
@@ -8052,17 +8578,23 @@
       <c r="AC77" t="s">
         <v>107</v>
       </c>
-      <c r="AF77" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>18</v>
+      <c r="AD77" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>107</v>
       </c>
       <c r="AH77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="17:34" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q78" t="s">
         <v>87</v>
       </c>
@@ -8102,17 +8634,23 @@
       <c r="AC78" t="s">
         <v>108</v>
       </c>
-      <c r="AF78" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG78" t="s">
-        <v>18</v>
+      <c r="AD78" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>107</v>
       </c>
       <c r="AH78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="17:34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q79" t="s">
         <v>104</v>
       </c>
@@ -8152,17 +8690,23 @@
       <c r="AC79" t="s">
         <v>108</v>
       </c>
-      <c r="AF79" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG79" t="s">
-        <v>18</v>
+      <c r="AD79" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>107</v>
       </c>
       <c r="AH79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="17:34" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q80" t="s">
         <v>51</v>
       </c>
@@ -8202,17 +8746,23 @@
       <c r="AC80" t="s">
         <v>108</v>
       </c>
-      <c r="AF80" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG80" t="s">
-        <v>18</v>
+      <c r="AD80" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>108</v>
       </c>
       <c r="AH80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="17:34" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q81" t="s">
         <v>52</v>
       </c>
@@ -8252,17 +8802,23 @@
       <c r="AC81" t="s">
         <v>107</v>
       </c>
-      <c r="AF81" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG81" t="s">
-        <v>18</v>
+      <c r="AD81" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>108</v>
       </c>
       <c r="AH81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="17:34" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q82" t="s">
         <v>53</v>
       </c>
@@ -8302,17 +8858,23 @@
       <c r="AC82" t="s">
         <v>107</v>
       </c>
-      <c r="AF82" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG82" t="s">
-        <v>18</v>
+      <c r="AD82" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>108</v>
       </c>
       <c r="AH82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="17:34" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q83" t="s">
         <v>54</v>
       </c>
@@ -8352,17 +8914,23 @@
       <c r="AC83" t="s">
         <v>109</v>
       </c>
-      <c r="AF83" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG83" t="s">
+      <c r="AD83" t="s">
         <v>18</v>
       </c>
+      <c r="AE83" t="s">
+        <v>110</v>
+      </c>
       <c r="AH83" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ83" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="17:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q84" t="s">
         <v>96</v>
       </c>
@@ -8402,17 +8970,23 @@
       <c r="AC84" t="s">
         <v>108</v>
       </c>
-      <c r="AF84" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG84" t="s">
-        <v>18</v>
+      <c r="AD84" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>107</v>
       </c>
       <c r="AH84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="17:34" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q85" t="s">
         <v>88</v>
       </c>
@@ -8452,17 +9026,23 @@
       <c r="AC85" t="s">
         <v>107</v>
       </c>
-      <c r="AF85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG85" t="s">
-        <v>18</v>
+      <c r="AD85" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>107</v>
       </c>
       <c r="AH85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="17:34" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q86" t="s">
         <v>67</v>
       </c>
@@ -8502,17 +9082,23 @@
       <c r="AC86" t="s">
         <v>108</v>
       </c>
-      <c r="AF86" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG86" t="s">
-        <v>18</v>
+      <c r="AD86" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>109</v>
       </c>
       <c r="AH86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="17:34" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q87" t="s">
         <v>55</v>
       </c>
@@ -8552,17 +9138,23 @@
       <c r="AC87" t="s">
         <v>109</v>
       </c>
-      <c r="AF87" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG87" t="s">
-        <v>18</v>
+      <c r="AD87" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>109</v>
       </c>
       <c r="AH87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="17:34" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="17:36" x14ac:dyDescent="0.2">
       <c r="Q88" t="s">
         <v>56</v>
       </c>
@@ -8602,19 +9194,25 @@
       <c r="AC88" t="s">
         <v>107</v>
       </c>
-      <c r="AF88" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG88" t="s">
-        <v>18</v>
+      <c r="AD88" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>108</v>
       </c>
       <c r="AH88" t="s">
-        <v>110</v>
+        <v>56</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="AF2:AH88">
-    <sortCondition ref="AG1"/>
+  <sortState ref="AH2:AJ88">
+    <sortCondition ref="AH1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8622,15 +9220,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C41A53-D33E-E046-B342-1CABFEB49E56}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D136" sqref="A1:D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -8643,8 +9241,11 @@
       <c r="D1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43879</v>
       </c>
@@ -8657,8 +9258,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43880</v>
       </c>
@@ -8671,8 +9275,11 @@
       <c r="D3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43881</v>
       </c>
@@ -8685,8 +9292,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43882</v>
       </c>
@@ -8699,8 +9309,11 @@
       <c r="D5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43883</v>
       </c>
@@ -8713,8 +9326,11 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43884</v>
       </c>
@@ -8727,8 +9343,11 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43885</v>
       </c>
@@ -8741,8 +9360,11 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43886</v>
       </c>
@@ -8755,8 +9377,11 @@
       <c r="D9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43887</v>
       </c>
@@ -8769,8 +9394,11 @@
       <c r="D10">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43888</v>
       </c>
@@ -8783,8 +9411,11 @@
       <c r="D11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43889</v>
       </c>
@@ -8797,8 +9428,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43890</v>
       </c>
@@ -8811,8 +9445,11 @@
       <c r="D13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43891</v>
       </c>
@@ -8825,8 +9462,11 @@
       <c r="D14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43892</v>
       </c>
@@ -8839,8 +9479,11 @@
       <c r="D15">
         <v>-7</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43893</v>
       </c>
@@ -8853,8 +9496,11 @@
       <c r="D16">
         <v>-9</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43894</v>
       </c>
@@ -8867,8 +9513,11 @@
       <c r="D17">
         <v>-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43895</v>
       </c>
@@ -8881,8 +9530,11 @@
       <c r="D18">
         <v>-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43896</v>
       </c>
@@ -8895,8 +9547,11 @@
       <c r="D19">
         <v>-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43897</v>
       </c>
@@ -8909,8 +9564,11 @@
       <c r="D20">
         <v>-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43898</v>
       </c>
@@ -8923,8 +9581,11 @@
       <c r="D21">
         <v>-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43899</v>
       </c>
@@ -8937,8 +9598,11 @@
       <c r="D22">
         <v>-14</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43900</v>
       </c>
@@ -8951,8 +9615,11 @@
       <c r="D23">
         <v>-18</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43901</v>
       </c>
@@ -8965,8 +9632,11 @@
       <c r="D24">
         <v>-19</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43902</v>
       </c>
@@ -8979,8 +9649,11 @@
       <c r="D25">
         <v>-28</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43903</v>
       </c>
@@ -8993,8 +9666,11 @@
       <c r="D26">
         <v>-36</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43904</v>
       </c>
@@ -9007,8 +9683,11 @@
       <c r="D27">
         <v>-42</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43905</v>
       </c>
@@ -9021,8 +9700,11 @@
       <c r="D28">
         <v>-48</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43906</v>
       </c>
@@ -9035,8 +9717,11 @@
       <c r="D29">
         <v>-56</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43907</v>
       </c>
@@ -9049,8 +9734,11 @@
       <c r="D30">
         <v>-84</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43908</v>
       </c>
@@ -9063,8 +9751,11 @@
       <c r="D31">
         <v>-91</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43909</v>
       </c>
@@ -9077,8 +9768,11 @@
       <c r="D32">
         <v>-97.54</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43910</v>
       </c>
@@ -9091,8 +9785,11 @@
       <c r="D33">
         <v>-99.35</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43911</v>
       </c>
@@ -9105,8 +9802,11 @@
       <c r="D34">
         <v>-99.89</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43912</v>
       </c>
@@ -9119,8 +9819,11 @@
       <c r="D35">
         <v>-99.93</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43913</v>
       </c>
@@ -9133,8 +9836,11 @@
       <c r="D36">
         <v>-99.97</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43914</v>
       </c>
@@ -9147,8 +9853,11 @@
       <c r="D37">
         <v>-99.97</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43915</v>
       </c>
@@ -9161,8 +9870,11 @@
       <c r="D38">
         <v>-99.98</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43916</v>
       </c>
@@ -9175,8 +9887,11 @@
       <c r="D39">
         <v>-99.98</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43917</v>
       </c>
@@ -9189,8 +9904,11 @@
       <c r="D40">
         <v>-99.99</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43918</v>
       </c>
@@ -9203,8 +9921,11 @@
       <c r="D41">
         <v>-99.98</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43919</v>
       </c>
@@ -9217,8 +9938,11 @@
       <c r="D42">
         <v>-100</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43920</v>
       </c>
@@ -9231,8 +9955,11 @@
       <c r="D43">
         <v>-99.99</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43921</v>
       </c>
@@ -9245,8 +9972,11 @@
       <c r="D44">
         <v>-99.99</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43922</v>
       </c>
@@ -9259,8 +9989,11 @@
       <c r="D45">
         <v>-99.99</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43923</v>
       </c>
@@ -9273,8 +10006,11 @@
       <c r="D46">
         <v>-99.98</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43924</v>
       </c>
@@ -9287,8 +10023,11 @@
       <c r="D47">
         <v>-99.97</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43925</v>
       </c>
@@ -9301,8 +10040,11 @@
       <c r="D48">
         <v>-99.98</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43926</v>
       </c>
@@ -9315,8 +10057,11 @@
       <c r="D49">
         <v>-99.99</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43927</v>
       </c>
@@ -9329,8 +10074,11 @@
       <c r="D50">
         <v>-100</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43928</v>
       </c>
@@ -9343,8 +10091,11 @@
       <c r="D51">
         <v>-99.99</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43929</v>
       </c>
@@ -9357,8 +10108,11 @@
       <c r="D52">
         <v>-99.97</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>-99.81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43930</v>
       </c>
@@ -9371,8 +10125,11 @@
       <c r="D53">
         <v>-100</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43931</v>
       </c>
@@ -9385,8 +10142,11 @@
       <c r="D54">
         <v>-99.97</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43932</v>
       </c>
@@ -9399,8 +10159,11 @@
       <c r="D55">
         <v>-99.98</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43933</v>
       </c>
@@ -9413,8 +10176,11 @@
       <c r="D56">
         <v>-99.99</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43934</v>
       </c>
@@ -9427,8 +10193,11 @@
       <c r="D57">
         <v>-99.99</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43935</v>
       </c>
@@ -9441,8 +10210,11 @@
       <c r="D58">
         <v>-99.99</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43936</v>
       </c>
@@ -9455,8 +10227,11 @@
       <c r="D59">
         <v>-99.97</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43937</v>
       </c>
@@ -9469,8 +10244,11 @@
       <c r="D60">
         <v>-99.96</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43938</v>
       </c>
@@ -9483,8 +10261,11 @@
       <c r="D61">
         <v>-99.97</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43939</v>
       </c>
@@ -9497,8 +10278,11 @@
       <c r="D62">
         <v>-99.97</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43940</v>
       </c>
@@ -9511,8 +10295,11 @@
       <c r="D63">
         <v>-99.98</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43941</v>
       </c>
@@ -9525,8 +10312,11 @@
       <c r="D64">
         <v>-99.99</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43942</v>
       </c>
@@ -9539,8 +10329,11 @@
       <c r="D65">
         <v>-99.97</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43943</v>
       </c>
@@ -9553,8 +10346,11 @@
       <c r="D66">
         <v>-99.97</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43944</v>
       </c>
@@ -9567,8 +10363,11 @@
       <c r="D67">
         <v>-99.98</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43945</v>
       </c>
@@ -9581,8 +10380,11 @@
       <c r="D68">
         <v>-99.97</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43946</v>
       </c>
@@ -9595,8 +10397,11 @@
       <c r="D69">
         <v>-99.97</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43947</v>
       </c>
@@ -9609,8 +10414,11 @@
       <c r="D70">
         <v>-99.99</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43948</v>
       </c>
@@ -9623,8 +10431,11 @@
       <c r="D71">
         <v>-99.89</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43949</v>
       </c>
@@ -9637,8 +10448,11 @@
       <c r="D72">
         <v>-99.9</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43950</v>
       </c>
@@ -9651,8 +10465,11 @@
       <c r="D73">
         <v>-99.91</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43951</v>
       </c>
@@ -9665,8 +10482,11 @@
       <c r="D74">
         <v>-99.86</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43952</v>
       </c>
@@ -9679,8 +10499,11 @@
       <c r="D75">
         <v>-98.81</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43953</v>
       </c>
@@ -9693,8 +10516,11 @@
       <c r="D76">
         <v>-98.97</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43954</v>
       </c>
@@ -9707,8 +10533,11 @@
       <c r="D77">
         <v>-99.16</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43955</v>
       </c>
@@ -9721,8 +10550,11 @@
       <c r="D78">
         <v>-98.04</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43956</v>
       </c>
@@ -9735,8 +10567,11 @@
       <c r="D79">
         <v>-97.98</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43957</v>
       </c>
@@ -9749,8 +10584,11 @@
       <c r="D80">
         <v>-98.02</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43958</v>
       </c>
@@ -9763,8 +10601,11 @@
       <c r="D81">
         <v>-97.75</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43959</v>
       </c>
@@ -9777,8 +10618,11 @@
       <c r="D82">
         <v>-97.06</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43960</v>
       </c>
@@ -9791,8 +10635,11 @@
       <c r="D83">
         <v>-97.12</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43961</v>
       </c>
@@ -9805,8 +10652,11 @@
       <c r="D84">
         <v>-96.86</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43962</v>
       </c>
@@ -9819,8 +10669,11 @@
       <c r="D85">
         <v>-95.67</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43963</v>
       </c>
@@ -9833,8 +10686,11 @@
       <c r="D86">
         <v>-95.62</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43964</v>
       </c>
@@ -9847,8 +10703,11 @@
       <c r="D87">
         <v>-95.31</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43965</v>
       </c>
@@ -9861,8 +10720,11 @@
       <c r="D88">
         <v>-94.94</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43966</v>
       </c>
@@ -9875,8 +10737,11 @@
       <c r="D89">
         <v>-93.55</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>-99.37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43967</v>
       </c>
@@ -9889,8 +10754,11 @@
       <c r="D90">
         <v>-93.03</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>-97.33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43968</v>
       </c>
@@ -9903,8 +10771,11 @@
       <c r="D91">
         <v>-93.64</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>-98.49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43969</v>
       </c>
@@ -9917,8 +10788,11 @@
       <c r="D92">
         <v>-93.66</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <v>-98.71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43970</v>
       </c>
@@ -9931,8 +10805,11 @@
       <c r="D93">
         <v>-92.63</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>-97.43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43971</v>
       </c>
@@ -9945,8 +10822,11 @@
       <c r="D94">
         <v>-91.62</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>-94.96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43972</v>
       </c>
@@ -9959,8 +10839,11 @@
       <c r="D95">
         <v>-89.83</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>-90.43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43973</v>
       </c>
@@ -9973,8 +10856,11 @@
       <c r="D96">
         <v>-87.31</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>-88.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43974</v>
       </c>
@@ -9987,8 +10873,11 @@
       <c r="D97">
         <v>-87.04</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>-87.62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43975</v>
       </c>
@@ -10001,8 +10890,11 @@
       <c r="D98">
         <v>-87.88</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43976</v>
       </c>
@@ -10015,8 +10907,11 @@
       <c r="D99">
         <v>-86.84</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>-77.010000000000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43977</v>
       </c>
@@ -10029,8 +10924,11 @@
       <c r="D100">
         <v>-85.57</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>-81.489999999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43978</v>
       </c>
@@ -10043,8 +10941,11 @@
       <c r="D101">
         <v>-84.57</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>-78.19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43979</v>
       </c>
@@ -10057,8 +10958,11 @@
       <c r="D102">
         <v>-84.35</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <v>-83.38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43980</v>
       </c>
@@ -10071,8 +10975,11 @@
       <c r="D103">
         <v>-81.62</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103">
+        <v>-80.28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43981</v>
       </c>
@@ -10085,8 +10992,11 @@
       <c r="D104">
         <v>-80.98</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104">
+        <v>-80.02</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43982</v>
       </c>
@@ -10099,8 +11009,11 @@
       <c r="D105">
         <v>-83.01</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <v>-84.23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43983</v>
       </c>
@@ -10113,8 +11026,11 @@
       <c r="D106">
         <v>-84.18</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106">
+        <v>-85.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43984</v>
       </c>
@@ -10127,8 +11043,11 @@
       <c r="D107">
         <v>-83.48</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107">
+        <v>-86.68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43985</v>
       </c>
@@ -10141,8 +11060,11 @@
       <c r="D108">
         <v>-81.16</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108">
+        <v>-80.95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43986</v>
       </c>
@@ -10155,8 +11077,11 @@
       <c r="D109">
         <v>-79.66</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109">
+        <v>-78.650000000000006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43987</v>
       </c>
@@ -10169,8 +11094,11 @@
       <c r="D110">
         <v>-75.459999999999994</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43988</v>
       </c>
@@ -10183,8 +11111,11 @@
       <c r="D111">
         <v>-73.900000000000006</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111">
+        <v>-71.47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43989</v>
       </c>
@@ -10197,8 +11128,11 @@
       <c r="D112">
         <v>-74.08</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112">
+        <v>-70.510000000000005</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43990</v>
       </c>
@@ -10211,8 +11145,11 @@
       <c r="D113">
         <v>-75.14</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113">
+        <v>-72.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43991</v>
       </c>
@@ -10225,8 +11162,11 @@
       <c r="D114">
         <v>-75.290000000000006</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114">
+        <v>-78.05</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43992</v>
       </c>
@@ -10239,8 +11179,11 @@
       <c r="D115">
         <v>-72.319999999999993</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115">
+        <v>-74.78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43993</v>
       </c>
@@ -10253,8 +11196,11 @@
       <c r="D116">
         <v>-69.94</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116">
+        <v>-62.45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43994</v>
       </c>
@@ -10267,8 +11213,11 @@
       <c r="D117">
         <v>-65.02</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117">
+        <v>-60.68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43995</v>
       </c>
@@ -10281,8 +11230,11 @@
       <c r="D118">
         <v>-64.63</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118">
+        <v>-59.71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43996</v>
       </c>
@@ -10295,8 +11247,11 @@
       <c r="D119">
         <v>-78.06</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119">
+        <v>-78.790000000000006</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43997</v>
       </c>
@@ -10309,8 +11264,11 @@
       <c r="D120">
         <v>-67.47</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120">
+        <v>-59.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43998</v>
       </c>
@@ -10323,8 +11281,11 @@
       <c r="D121">
         <v>-66.180000000000007</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121">
+        <v>-58.46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43999</v>
       </c>
@@ -10337,8 +11298,11 @@
       <c r="D122">
         <v>-65.2</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122">
+        <v>-55.58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44000</v>
       </c>
@@ -10351,8 +11315,11 @@
       <c r="D123">
         <v>-64.08</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123">
+        <v>-55.12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44001</v>
       </c>
@@ -10365,8 +11332,11 @@
       <c r="D124">
         <v>-59.97</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124">
+        <v>-50.58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44002</v>
       </c>
@@ -10379,8 +11349,11 @@
       <c r="D125">
         <v>-58.8</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125">
+        <v>-50.53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44003</v>
       </c>
@@ -10393,8 +11366,11 @@
       <c r="D126">
         <v>-41.37</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126">
+        <v>-28.58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44004</v>
       </c>
@@ -10407,8 +11383,11 @@
       <c r="D127">
         <v>-66.47</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127">
+        <v>-60.24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44005</v>
       </c>
@@ -10421,8 +11400,11 @@
       <c r="D128">
         <v>-65.36</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128">
+        <v>-59.56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44006</v>
       </c>
@@ -10435,8 +11417,11 @@
       <c r="D129">
         <v>-63.89</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44007</v>
       </c>
@@ -10449,8 +11434,11 @@
       <c r="D130">
         <v>-61.59</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130">
+        <v>-49.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44008</v>
       </c>
@@ -10463,8 +11451,11 @@
       <c r="D131">
         <v>-57.99</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131">
+        <v>-57.26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44009</v>
       </c>
@@ -10477,8 +11468,11 @@
       <c r="D132">
         <v>-57</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132">
+        <v>-47.55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44010</v>
       </c>
@@ -10490,6 +11484,60 @@
       </c>
       <c r="D133">
         <v>-60.26</v>
+      </c>
+      <c r="E133">
+        <v>-49.07</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B134">
+        <v>-45.59</v>
+      </c>
+      <c r="C134">
+        <v>-62.97</v>
+      </c>
+      <c r="D134">
+        <v>-65.290000000000006</v>
+      </c>
+      <c r="E134">
+        <v>-67.14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B135">
+        <v>-37.380000000000003</v>
+      </c>
+      <c r="C135">
+        <v>-60.05</v>
+      </c>
+      <c r="D135">
+        <v>-62.47</v>
+      </c>
+      <c r="E135">
+        <v>-53.23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B136">
+        <v>-29.58</v>
+      </c>
+      <c r="C136">
+        <v>-49.15</v>
+      </c>
+      <c r="D136">
+        <v>-64.709999999999994</v>
+      </c>
+      <c r="E136">
+        <v>-54.83</v>
       </c>
     </row>
   </sheetData>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/20200622-cvnormal/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16652EA-A7AC-8446-9BFD-EDE5EA125E1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD3517A-46A3-ED40-8C02-C59E169DFEF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="3460" windowWidth="26160" windowHeight="16440" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="7580" yWindow="2600" windowWidth="26160" windowHeight="16440" activeTab="2" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_transit" sheetId="1" r:id="rId1"/>
@@ -874,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
-  <dimension ref="A1:Q128"/>
+  <dimension ref="A1:Q130"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C128" sqref="A1:C128"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C130" sqref="A1:C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3526,11 +3526,11 @@
         <v>44016</v>
       </c>
       <c r="B127">
-        <v>-27.3</v>
+        <v>-27.2</v>
       </c>
       <c r="C127" s="5">
         <f>AVERAGE(B121:B127)</f>
-        <v>-7.7571428571428571</v>
+        <v>-7.7428571428571429</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -3542,13 +3542,37 @@
       </c>
       <c r="C128" s="5">
         <f>AVERAGE(B122:B128)</f>
+        <v>-7.5857142857142863</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B129">
+        <v>-3.9</v>
+      </c>
+      <c r="C129" s="5">
+        <f>AVERAGE(B123:B129)</f>
+        <v>-7.0714285714285712</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B130">
         <v>-7.6</v>
+      </c>
+      <c r="C130" s="5">
+        <f>AVERAGE(B124:B130)</f>
+        <v>-7.7857142857142856</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C8:C65 C66:C79 C80:C87 C88:C107 C108:C114 C115:C118 C119:C123 C124:C128" formulaRange="1"/>
+    <ignoredError sqref="C8:C65 C66:C79 C80:C87 C88:C107 C108:C114 C115:C118 C119:C123 C124:C128 C129:C130" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3557,7 +3581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
   <dimension ref="A1:AJ88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
@@ -9222,8 +9246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C41A53-D33E-E046-B342-1CABFEB49E56}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D136" sqref="A1:D136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/20200622-cvnormal/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD3517A-46A3-ED40-8C02-C59E169DFEF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5BB5C8-4B5A-FD4E-BBE3-9C07B316509B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="2600" windowWidth="26160" windowHeight="16440" activeTab="2" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="11040" yWindow="2600" windowWidth="22560" windowHeight="16440" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_transit" sheetId="1" r:id="rId1"/>
@@ -876,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
   <dimension ref="A1:Q130"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
       <selection activeCell="C130" sqref="A1:C130"/>
     </sheetView>
   </sheetViews>
@@ -3493,7 +3493,7 @@
         <v>-0.6</v>
       </c>
       <c r="C124" s="5">
-        <f>AVERAGE(B118:B124)</f>
+        <f t="shared" ref="C124:C130" si="2">AVERAGE(B118:B124)</f>
         <v>-5.4428571428571439</v>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
         <v>8.1</v>
       </c>
       <c r="C125" s="5">
-        <f>AVERAGE(B119:B125)</f>
+        <f t="shared" si="2"/>
         <v>-3.5857142857142859</v>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
         <v>-14.7</v>
       </c>
       <c r="C126" s="5">
-        <f>AVERAGE(B120:B126)</f>
+        <f t="shared" si="2"/>
         <v>-4.5857142857142845</v>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
         <v>-27.2</v>
       </c>
       <c r="C127" s="5">
-        <f>AVERAGE(B121:B127)</f>
+        <f t="shared" si="2"/>
         <v>-7.7428571428571429</v>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
         <v>-8.6</v>
       </c>
       <c r="C128" s="5">
-        <f>AVERAGE(B122:B128)</f>
+        <f t="shared" si="2"/>
         <v>-7.5857142857142863</v>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
         <v>-3.9</v>
       </c>
       <c r="C129" s="5">
-        <f>AVERAGE(B123:B129)</f>
+        <f t="shared" si="2"/>
         <v>-7.0714285714285712</v>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
         <v>-7.6</v>
       </c>
       <c r="C130" s="5">
-        <f>AVERAGE(B124:B130)</f>
+        <f t="shared" si="2"/>
         <v>-7.7857142857142856</v>
       </c>
     </row>
@@ -3579,20 +3579,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
-  <dimension ref="A1:AJ88"/>
+  <dimension ref="A1:AM88"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P7" sqref="E1:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="16.83203125" customWidth="1"/>
-    <col min="30" max="30" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="16.83203125" customWidth="1"/>
+    <col min="33" max="33" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3632,62 +3632,67 @@
       <c r="O1" s="6">
         <v>44009</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="6">
+        <v>44022</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="T1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43885</v>
       </c>
@@ -3727,62 +3732,67 @@
       <c r="O2" s="4">
         <v>-0.19</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="P2" s="4">
+        <v>-0.11</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="T2" t="s">
         <v>89</v>
       </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" t="s">
-        <v>108</v>
-      </c>
-      <c r="T2" t="s">
-        <v>13</v>
-      </c>
       <c r="U2" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="V2" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W2" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="X2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y2" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AA2" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AC2" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG2" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" t="s">
-        <v>107</v>
-      </c>
       <c r="AH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK2" t="s">
         <v>89</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43886</v>
       </c>
@@ -3822,62 +3832,67 @@
       <c r="O3" s="4">
         <v>0.08</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="P3" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="T3" t="s">
         <v>57</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W3" t="s">
         <v>16</v>
       </c>
-      <c r="U3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y3" t="s">
         <v>17</v>
       </c>
-      <c r="W3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA3" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>110</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AF3" t="s">
         <v>110</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AG3" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
         <v>110</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AK3" t="s">
         <v>57</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AL3" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AM3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43887</v>
       </c>
@@ -3917,62 +3932,67 @@
       <c r="O4" s="4">
         <v>1.93</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="P4" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="T4" t="s">
         <v>102</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>16</v>
       </c>
-      <c r="S4" t="s">
-        <v>109</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
+        <v>109</v>
+      </c>
+      <c r="W4" t="s">
         <v>15</v>
       </c>
-      <c r="U4" t="s">
-        <v>108</v>
-      </c>
-      <c r="V4" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4" t="s">
-        <v>108</v>
-      </c>
       <c r="X4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA4" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC4" t="s">
         <v>121</v>
       </c>
-      <c r="AA4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE4" t="s">
         <v>15</v>
       </c>
-      <c r="AC4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG4" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" t="s">
-        <v>109</v>
-      </c>
       <c r="AH4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK4" t="s">
         <v>102</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AL4" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43888</v>
       </c>
@@ -4012,62 +4032,67 @@
       <c r="O5" s="4">
         <v>-0.24</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="P5" s="4">
+        <v>-0.35</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="T5" t="s">
         <v>58</v>
       </c>
-      <c r="R5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" t="s">
-        <v>108</v>
-      </c>
-      <c r="T5" t="s">
-        <v>13</v>
-      </c>
       <c r="U5" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="V5" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W5" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="X5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA5" t="s">
         <v>120</v>
       </c>
-      <c r="Y5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC5" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE5" t="s">
         <v>120</v>
       </c>
-      <c r="AC5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG5" t="s">
         <v>16</v>
       </c>
-      <c r="AE5" t="s">
-        <v>109</v>
-      </c>
       <c r="AH5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK5" t="s">
         <v>58</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AL5" t="s">
         <v>16</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43889</v>
       </c>
@@ -4107,62 +4132,67 @@
       <c r="O6" s="4">
         <v>-0.08</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="P6" s="4">
+        <v>-0.38</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="T6" t="s">
         <v>59</v>
       </c>
-      <c r="R6" t="s">
+      <c r="U6" t="s">
         <v>17</v>
       </c>
-      <c r="S6" t="s">
-        <v>109</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
+        <v>109</v>
+      </c>
+      <c r="W6" t="s">
         <v>16</v>
       </c>
-      <c r="U6" t="s">
-        <v>109</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y6" t="s">
         <v>121</v>
       </c>
-      <c r="W6" t="s">
-        <v>109</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA6" t="s">
         <v>16</v>
       </c>
-      <c r="Y6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC6" t="s">
         <v>17</v>
       </c>
-      <c r="AA6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE6" t="s">
         <v>121</v>
       </c>
-      <c r="AC6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AF6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG6" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" t="s">
-        <v>109</v>
-      </c>
       <c r="AH6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK6" t="s">
         <v>59</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AL6" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43890</v>
       </c>
@@ -4202,372 +4232,377 @@
       <c r="O7" s="4">
         <v>0.02</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="P7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="T7" t="s">
         <v>60</v>
       </c>
-      <c r="R7" t="s">
+      <c r="U7" t="s">
         <v>12</v>
       </c>
-      <c r="S7" t="s">
-        <v>107</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
+        <v>107</v>
+      </c>
+      <c r="W7" t="s">
         <v>12</v>
       </c>
-      <c r="U7" t="s">
-        <v>107</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y7" t="s">
         <v>12</v>
       </c>
-      <c r="W7" t="s">
-        <v>107</v>
-      </c>
-      <c r="X7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>108</v>
-      </c>
       <c r="Z7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC7" t="s">
         <v>12</v>
       </c>
-      <c r="AA7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>108</v>
-      </c>
       <c r="AD7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AE7" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>13</v>
       </c>
       <c r="AH7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK7" t="s">
         <v>60</v>
       </c>
-      <c r="AI7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43891</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="T8" t="s">
         <v>61</v>
       </c>
-      <c r="R8" t="s">
+      <c r="U8" t="s">
         <v>15</v>
       </c>
-      <c r="S8" t="s">
-        <v>108</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
+        <v>108</v>
+      </c>
+      <c r="W8" t="s">
         <v>121</v>
       </c>
-      <c r="U8" t="s">
-        <v>109</v>
-      </c>
-      <c r="V8" t="s">
-        <v>14</v>
-      </c>
-      <c r="W8" t="s">
-        <v>108</v>
-      </c>
       <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA8" t="s">
         <v>121</v>
       </c>
-      <c r="Y8" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z8" t="s">
+      <c r="AB8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC8" t="s">
         <v>18</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
         <v>110</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AE8" t="s">
         <v>121</v>
       </c>
-      <c r="AC8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AF8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG8" t="s">
         <v>16</v>
       </c>
-      <c r="AE8" t="s">
-        <v>109</v>
-      </c>
       <c r="AH8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK8" t="s">
         <v>61</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AL8" t="s">
         <v>16</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43892</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="T9" t="s">
         <v>90</v>
       </c>
-      <c r="R9" t="s">
+      <c r="U9" t="s">
         <v>17</v>
       </c>
-      <c r="S9" t="s">
-        <v>109</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
+        <v>109</v>
+      </c>
+      <c r="W9" t="s">
         <v>15</v>
       </c>
-      <c r="U9" t="s">
-        <v>108</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
         <v>15</v>
       </c>
-      <c r="W9" t="s">
-        <v>108</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA9" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z9" t="s">
+      <c r="AB9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC9" t="s">
         <v>16</v>
       </c>
-      <c r="AA9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE9" t="s">
         <v>121</v>
       </c>
-      <c r="AC9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="AF9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG9" t="s">
         <v>121</v>
       </c>
-      <c r="AE9" t="s">
-        <v>109</v>
-      </c>
       <c r="AH9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK9" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AL9" t="s">
         <v>121</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43893</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="T10" t="s">
         <v>32</v>
       </c>
-      <c r="R10" t="s">
+      <c r="U10" t="s">
         <v>12</v>
       </c>
-      <c r="S10" t="s">
-        <v>107</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
+        <v>107</v>
+      </c>
+      <c r="W10" t="s">
         <v>12</v>
       </c>
-      <c r="U10" t="s">
-        <v>107</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
         <v>126</v>
       </c>
-      <c r="W10" t="s">
-        <v>107</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA10" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>108</v>
-      </c>
       <c r="AB10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE10" t="s">
         <v>12</v>
       </c>
-      <c r="AC10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG10" t="s">
         <v>16</v>
       </c>
-      <c r="AE10" t="s">
-        <v>109</v>
-      </c>
       <c r="AH10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK10" t="s">
         <v>32</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AL10" t="s">
         <v>16</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43894</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="T11" t="s">
         <v>62</v>
       </c>
-      <c r="R11" t="s">
+      <c r="U11" t="s">
         <v>15</v>
       </c>
-      <c r="S11" t="s">
-        <v>108</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
+        <v>108</v>
+      </c>
+      <c r="W11" t="s">
         <v>16</v>
       </c>
-      <c r="U11" t="s">
-        <v>109</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y11" t="s">
         <v>16</v>
       </c>
-      <c r="W11" t="s">
-        <v>109</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA11" t="s">
         <v>17</v>
       </c>
-      <c r="Y11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC11" t="s">
         <v>17</v>
       </c>
-      <c r="AA11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AD11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE11" t="s">
         <v>16</v>
       </c>
-      <c r="AC11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG11" t="s">
         <v>17</v>
       </c>
-      <c r="AE11" t="s">
-        <v>109</v>
-      </c>
       <c r="AH11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK11" t="s">
         <v>62</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AL11" t="s">
         <v>17</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43895</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="T12" t="s">
         <v>33</v>
       </c>
-      <c r="R12" t="s">
+      <c r="U12" t="s">
         <v>12</v>
       </c>
-      <c r="S12" t="s">
-        <v>107</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
+        <v>107</v>
+      </c>
+      <c r="W12" t="s">
         <v>12</v>
       </c>
-      <c r="U12" t="s">
-        <v>107</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y12" t="s">
         <v>12</v>
       </c>
-      <c r="W12" t="s">
-        <v>107</v>
-      </c>
-      <c r="X12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>107</v>
-      </c>
       <c r="Z12" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA12" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AC12" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AD12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG12" t="s">
         <v>121</v>
       </c>
-      <c r="AE12" t="s">
-        <v>109</v>
-      </c>
       <c r="AH12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK12" t="s">
         <v>33</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AL12" t="s">
         <v>121</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43896</v>
       </c>
@@ -4595,62 +4630,62 @@
       <c r="K13" t="s">
         <v>119</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="T13" t="s">
         <v>34</v>
       </c>
-      <c r="R13" t="s">
-        <v>14</v>
-      </c>
-      <c r="S13" t="s">
-        <v>108</v>
-      </c>
-      <c r="T13" t="s">
-        <v>13</v>
-      </c>
       <c r="U13" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="V13" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="W13" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X13" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y13" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA13" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AB13" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AC13" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AE13" t="s">
-        <v>108</v>
+        <v>13</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>14</v>
       </c>
       <c r="AH13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK13" t="s">
         <v>34</v>
       </c>
-      <c r="AI13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43897</v>
       </c>
@@ -4682,62 +4717,65 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="Q14" t="s">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="T14" t="s">
         <v>35</v>
       </c>
-      <c r="R14" t="s">
+      <c r="U14" t="s">
         <v>16</v>
       </c>
-      <c r="S14" t="s">
-        <v>109</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
+        <v>109</v>
+      </c>
+      <c r="W14" t="s">
         <v>121</v>
       </c>
-      <c r="U14" t="s">
-        <v>109</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y14" t="s">
         <v>15</v>
       </c>
-      <c r="W14" t="s">
-        <v>108</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="Z14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA14" t="s">
         <v>121</v>
       </c>
-      <c r="Y14" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z14" t="s">
+      <c r="AB14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC14" t="s">
         <v>16</v>
       </c>
-      <c r="AA14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB14" t="s">
+      <c r="AD14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE14" t="s">
         <v>16</v>
       </c>
-      <c r="AC14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG14" t="s">
         <v>17</v>
       </c>
-      <c r="AE14" t="s">
-        <v>109</v>
-      </c>
       <c r="AH14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK14" t="s">
         <v>35</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AL14" t="s">
         <v>17</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43898</v>
       </c>
@@ -4769,62 +4807,65 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="Q15" t="s">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="T15" t="s">
         <v>68</v>
       </c>
-      <c r="R15" t="s">
-        <v>14</v>
-      </c>
-      <c r="S15" t="s">
-        <v>108</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V15" t="s">
+        <v>108</v>
+      </c>
+      <c r="W15" t="s">
         <v>121</v>
       </c>
-      <c r="U15" t="s">
-        <v>109</v>
-      </c>
-      <c r="V15" t="s">
-        <v>14</v>
-      </c>
-      <c r="W15" t="s">
-        <v>108</v>
-      </c>
       <c r="X15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA15" t="s">
         <v>15</v>
       </c>
-      <c r="Y15" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z15" t="s">
+      <c r="AB15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC15" t="s">
         <v>121</v>
       </c>
-      <c r="AA15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB15" t="s">
+      <c r="AD15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE15" t="s">
         <v>121</v>
       </c>
-      <c r="AC15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG15" t="s">
         <v>121</v>
       </c>
-      <c r="AE15" t="s">
-        <v>109</v>
-      </c>
       <c r="AH15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK15" t="s">
         <v>68</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AL15" t="s">
         <v>121</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43899</v>
       </c>
@@ -4856,62 +4897,65 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="Q16" t="s">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="T16" t="s">
         <v>69</v>
       </c>
-      <c r="R16" t="s">
+      <c r="U16" t="s">
         <v>18</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>110</v>
       </c>
-      <c r="T16" t="s">
-        <v>13</v>
-      </c>
-      <c r="U16" t="s">
-        <v>107</v>
-      </c>
-      <c r="V16" t="s">
-        <v>14</v>
-      </c>
       <c r="W16" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="X16" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC16" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>107</v>
-      </c>
       <c r="AD16" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AE16" t="s">
-        <v>108</v>
+        <v>13</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>14</v>
       </c>
       <c r="AH16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK16" t="s">
         <v>69</v>
       </c>
-      <c r="AI16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43900</v>
       </c>
@@ -4943,62 +4987,65 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="Q17" t="s">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="T17" t="s">
         <v>36</v>
       </c>
-      <c r="R17" t="s">
+      <c r="U17" t="s">
         <v>16</v>
       </c>
-      <c r="S17" t="s">
-        <v>109</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="V17" t="s">
+        <v>109</v>
+      </c>
+      <c r="W17" t="s">
         <v>11</v>
       </c>
-      <c r="U17" t="s">
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="V17" t="s">
+      <c r="Y17" t="s">
         <v>11</v>
       </c>
-      <c r="W17" t="s">
+      <c r="Z17" t="s">
         <v>106</v>
       </c>
-      <c r="X17" t="s">
+      <c r="AA17" t="s">
         <v>12</v>
       </c>
-      <c r="Y17" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>107</v>
-      </c>
       <c r="AB17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE17" t="s">
         <v>11</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AF17" t="s">
         <v>106</v>
       </c>
-      <c r="AD17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>108</v>
+      <c r="AG17" t="s">
+        <v>14</v>
       </c>
       <c r="AH17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK17" t="s">
         <v>36</v>
       </c>
-      <c r="AI17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43901</v>
       </c>
@@ -5030,62 +5077,65 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="Q18" t="s">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="T18" t="s">
         <v>70</v>
       </c>
-      <c r="R18" t="s">
-        <v>14</v>
-      </c>
-      <c r="S18" t="s">
-        <v>108</v>
-      </c>
-      <c r="T18" t="s">
-        <v>13</v>
-      </c>
       <c r="U18" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="V18" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="W18" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X18" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y18" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AA18" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AB18" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AC18" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AE18" t="s">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>14</v>
       </c>
       <c r="AH18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK18" t="s">
         <v>70</v>
       </c>
-      <c r="AI18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43902</v>
       </c>
@@ -5117,62 +5167,65 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="Q19" t="s">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="T19" t="s">
         <v>91</v>
       </c>
-      <c r="R19" t="s">
+      <c r="U19" t="s">
         <v>16</v>
       </c>
-      <c r="S19" t="s">
-        <v>109</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="V19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W19" t="s">
         <v>121</v>
       </c>
-      <c r="U19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="X19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y19" t="s">
         <v>15</v>
       </c>
-      <c r="W19" t="s">
-        <v>108</v>
-      </c>
-      <c r="X19" t="s">
+      <c r="Z19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA19" t="s">
         <v>121</v>
       </c>
-      <c r="Y19" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z19" t="s">
+      <c r="AB19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC19" t="s">
         <v>16</v>
       </c>
-      <c r="AA19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB19" t="s">
+      <c r="AD19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE19" t="s">
         <v>17</v>
       </c>
-      <c r="AC19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD19" t="s">
+      <c r="AF19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG19" t="s">
         <v>18</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AH19" t="s">
         <v>110</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AK19" t="s">
         <v>91</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AL19" t="s">
         <v>18</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AM19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43903</v>
       </c>
@@ -5200,62 +5253,62 @@
       <c r="K20" s="4">
         <v>0</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="T20" t="s">
         <v>21</v>
       </c>
-      <c r="R20" t="s">
+      <c r="U20" t="s">
         <v>15</v>
       </c>
-      <c r="S20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T20" t="s">
+      <c r="V20" t="s">
+        <v>108</v>
+      </c>
+      <c r="W20" t="s">
         <v>121</v>
       </c>
-      <c r="U20" t="s">
-        <v>109</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="X20" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y20" t="s">
         <v>121</v>
       </c>
-      <c r="W20" t="s">
-        <v>109</v>
-      </c>
-      <c r="X20" t="s">
+      <c r="Z20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA20" t="s">
         <v>16</v>
       </c>
-      <c r="Y20" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z20" t="s">
+      <c r="AB20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC20" t="s">
         <v>17</v>
       </c>
-      <c r="AA20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="AD20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE20" t="s">
         <v>16</v>
       </c>
-      <c r="AC20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD20" t="s">
+      <c r="AF20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG20" t="s">
         <v>16</v>
       </c>
-      <c r="AE20" t="s">
-        <v>109</v>
-      </c>
       <c r="AH20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK20" t="s">
         <v>21</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AL20" t="s">
         <v>16</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43904</v>
       </c>
@@ -5283,62 +5336,62 @@
       <c r="K21" s="4">
         <v>0.08</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="T21" t="s">
         <v>22</v>
       </c>
-      <c r="R21" t="s">
+      <c r="U21" t="s">
         <v>17</v>
       </c>
-      <c r="S21" t="s">
-        <v>109</v>
-      </c>
-      <c r="T21" t="s">
-        <v>14</v>
-      </c>
-      <c r="U21" t="s">
-        <v>108</v>
-      </c>
       <c r="V21" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="W21" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="X21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA21" t="s">
         <v>121</v>
       </c>
-      <c r="Y21" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z21" t="s">
+      <c r="AB21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC21" t="s">
         <v>121</v>
       </c>
-      <c r="AA21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB21" t="s">
+      <c r="AD21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE21" t="s">
         <v>16</v>
       </c>
-      <c r="AC21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD21" t="s">
+      <c r="AF21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG21" t="s">
         <v>121</v>
       </c>
-      <c r="AE21" t="s">
-        <v>109</v>
-      </c>
       <c r="AH21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK21" t="s">
         <v>22</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AL21" t="s">
         <v>121</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43905</v>
       </c>
@@ -5366,496 +5419,496 @@
       <c r="K22" s="4">
         <v>0.11</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="T22" t="s">
         <v>63</v>
       </c>
-      <c r="R22" t="s">
+      <c r="U22" t="s">
         <v>15</v>
       </c>
-      <c r="S22" t="s">
-        <v>108</v>
-      </c>
-      <c r="T22" t="s">
-        <v>14</v>
-      </c>
-      <c r="U22" t="s">
-        <v>108</v>
-      </c>
       <c r="V22" t="s">
+        <v>108</v>
+      </c>
+      <c r="W22" t="s">
+        <v>14</v>
+      </c>
+      <c r="X22" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y22" t="s">
         <v>121</v>
       </c>
-      <c r="W22" t="s">
-        <v>109</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="Z22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA22" t="s">
         <v>15</v>
       </c>
-      <c r="Y22" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z22" t="s">
+      <c r="AB22" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC22" t="s">
         <v>121</v>
       </c>
-      <c r="AA22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="AD22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE22" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD22" t="s">
+      <c r="AF22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG22" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" t="s">
-        <v>109</v>
-      </c>
       <c r="AH22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK22" t="s">
         <v>63</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AL22" t="s">
         <v>17</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43906</v>
       </c>
       <c r="B23">
         <v>-14</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="T23" t="s">
         <v>71</v>
       </c>
-      <c r="R23" t="s">
+      <c r="U23" t="s">
         <v>16</v>
       </c>
-      <c r="S23" t="s">
-        <v>109</v>
-      </c>
-      <c r="T23" t="s">
-        <v>13</v>
-      </c>
-      <c r="U23" t="s">
-        <v>107</v>
-      </c>
       <c r="V23" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="W23" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X23" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y23" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA23" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AB23" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AC23" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AD23" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AE23" t="s">
-        <v>107</v>
+        <v>13</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>13</v>
       </c>
       <c r="AH23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK23" t="s">
         <v>71</v>
       </c>
-      <c r="AI23" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43907</v>
       </c>
       <c r="B24">
         <v>-17</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="T24" t="s">
         <v>72</v>
       </c>
-      <c r="R24" t="s">
-        <v>13</v>
-      </c>
-      <c r="S24" t="s">
-        <v>107</v>
-      </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
+        <v>13</v>
+      </c>
+      <c r="V24" t="s">
+        <v>107</v>
+      </c>
+      <c r="W24" t="s">
         <v>12</v>
       </c>
-      <c r="U24" t="s">
-        <v>107</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="X24" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y24" t="s">
         <v>12</v>
       </c>
-      <c r="W24" t="s">
-        <v>107</v>
-      </c>
-      <c r="X24" t="s">
+      <c r="Z24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA24" t="s">
         <v>15</v>
       </c>
-      <c r="Y24" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>108</v>
-      </c>
       <c r="AB24" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AC24" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AD24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG24" t="s">
         <v>12</v>
       </c>
-      <c r="AE24" t="s">
-        <v>107</v>
-      </c>
       <c r="AH24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK24" t="s">
         <v>72</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AL24" t="s">
         <v>12</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43908</v>
       </c>
       <c r="B25">
         <v>-26</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="T25" t="s">
         <v>103</v>
       </c>
-      <c r="R25" t="s">
+      <c r="U25" t="s">
         <v>18</v>
       </c>
-      <c r="S25" t="s">
+      <c r="V25" t="s">
         <v>110</v>
       </c>
-      <c r="T25" t="s">
+      <c r="W25" t="s">
         <v>16</v>
       </c>
-      <c r="U25" t="s">
-        <v>109</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="X25" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y25" t="s">
         <v>16</v>
       </c>
-      <c r="W25" t="s">
-        <v>109</v>
-      </c>
-      <c r="X25" t="s">
+      <c r="Z25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA25" t="s">
         <v>16</v>
       </c>
-      <c r="Y25" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z25" t="s">
+      <c r="AB25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC25" t="s">
         <v>16</v>
       </c>
-      <c r="AA25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB25" t="s">
+      <c r="AD25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE25" t="s">
         <v>121</v>
       </c>
-      <c r="AC25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="AF25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG25" t="s">
         <v>16</v>
       </c>
-      <c r="AE25" t="s">
-        <v>109</v>
-      </c>
       <c r="AH25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK25" t="s">
         <v>103</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AL25" t="s">
         <v>16</v>
       </c>
-      <c r="AJ25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43909</v>
       </c>
       <c r="B26">
         <v>-31</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="T26" t="s">
         <v>23</v>
       </c>
-      <c r="R26" t="s">
-        <v>13</v>
-      </c>
-      <c r="S26" t="s">
-        <v>107</v>
-      </c>
-      <c r="T26" t="s">
-        <v>13</v>
-      </c>
       <c r="U26" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V26" t="s">
+        <v>107</v>
+      </c>
+      <c r="W26" t="s">
+        <v>13</v>
+      </c>
+      <c r="X26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y26" t="s">
         <v>12</v>
       </c>
-      <c r="W26" t="s">
-        <v>107</v>
-      </c>
-      <c r="X26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>107</v>
-      </c>
       <c r="Z26" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AA26" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE26" t="s">
         <v>12</v>
       </c>
-      <c r="AC26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="AF26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG26" t="s">
         <v>121</v>
       </c>
-      <c r="AE26" t="s">
-        <v>109</v>
-      </c>
       <c r="AH26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK26" t="s">
         <v>23</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AL26" t="s">
         <v>121</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43910</v>
       </c>
       <c r="B27">
         <v>-38</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="T27" t="s">
         <v>37</v>
       </c>
-      <c r="R27" t="s">
-        <v>14</v>
-      </c>
-      <c r="S27" t="s">
-        <v>108</v>
-      </c>
-      <c r="T27" t="s">
-        <v>13</v>
-      </c>
       <c r="U27" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="V27" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W27" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="X27" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y27" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC27" t="s">
         <v>12</v>
       </c>
-      <c r="AA27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB27" t="s">
+      <c r="AD27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE27" t="s">
         <v>12</v>
       </c>
-      <c r="AC27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD27" t="s">
+      <c r="AF27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG27" t="s">
         <v>12</v>
       </c>
-      <c r="AE27" t="s">
-        <v>107</v>
-      </c>
       <c r="AH27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK27" t="s">
         <v>37</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AL27" t="s">
         <v>12</v>
       </c>
-      <c r="AJ27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43911</v>
       </c>
       <c r="B28">
         <v>-46</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="T28" t="s">
         <v>24</v>
       </c>
-      <c r="R28" t="s">
+      <c r="U28" t="s">
         <v>12</v>
       </c>
-      <c r="S28" t="s">
-        <v>107</v>
-      </c>
-      <c r="T28" t="s">
-        <v>14</v>
-      </c>
-      <c r="U28" t="s">
-        <v>108</v>
-      </c>
       <c r="V28" t="s">
+        <v>107</v>
+      </c>
+      <c r="W28" t="s">
+        <v>14</v>
+      </c>
+      <c r="X28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y28" t="s">
         <v>120</v>
       </c>
-      <c r="W28" t="s">
-        <v>108</v>
-      </c>
-      <c r="X28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>108</v>
-      </c>
       <c r="Z28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC28" t="s">
         <v>15</v>
       </c>
-      <c r="AA28" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>108</v>
-      </c>
       <c r="AD28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG28" t="s">
         <v>15</v>
       </c>
-      <c r="AE28" t="s">
-        <v>108</v>
-      </c>
       <c r="AH28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK28" t="s">
         <v>24</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AL28" t="s">
         <v>15</v>
       </c>
-      <c r="AJ28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43912</v>
       </c>
       <c r="B29">
         <v>-33</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="T29" t="s">
         <v>38</v>
       </c>
-      <c r="R29" t="s">
+      <c r="U29" t="s">
         <v>15</v>
       </c>
-      <c r="S29" t="s">
-        <v>108</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="V29" t="s">
+        <v>108</v>
+      </c>
+      <c r="W29" t="s">
         <v>120</v>
       </c>
-      <c r="U29" t="s">
-        <v>108</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="X29" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y29" t="s">
         <v>120</v>
       </c>
-      <c r="W29" t="s">
-        <v>108</v>
-      </c>
-      <c r="X29" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>107</v>
-      </c>
       <c r="Z29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC29" t="s">
         <v>15</v>
       </c>
-      <c r="AA29" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB29" t="s">
+      <c r="AD29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE29" t="s">
         <v>121</v>
       </c>
-      <c r="AC29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>107</v>
+      <c r="AF29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>13</v>
       </c>
       <c r="AH29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK29" t="s">
         <v>38</v>
       </c>
-      <c r="AI29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43913</v>
       </c>
@@ -5868,62 +5921,62 @@
       <c r="F30" t="s">
         <v>12</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="T30" t="s">
         <v>73</v>
       </c>
-      <c r="R30" t="s">
-        <v>14</v>
-      </c>
-      <c r="S30" t="s">
-        <v>108</v>
-      </c>
-      <c r="T30" t="s">
-        <v>13</v>
-      </c>
       <c r="U30" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="V30" t="s">
+        <v>108</v>
+      </c>
+      <c r="W30" t="s">
+        <v>13</v>
+      </c>
+      <c r="X30" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y30" t="s">
         <v>12</v>
       </c>
-      <c r="W30" t="s">
-        <v>107</v>
-      </c>
-      <c r="X30" t="s">
+      <c r="Z30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA30" t="s">
         <v>12</v>
       </c>
-      <c r="Y30" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>108</v>
-      </c>
       <c r="AB30" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AC30" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AD30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG30" t="s">
         <v>15</v>
       </c>
-      <c r="AE30" t="s">
-        <v>108</v>
-      </c>
       <c r="AH30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK30" t="s">
         <v>73</v>
       </c>
-      <c r="AI30" t="s">
+      <c r="AL30" t="s">
         <v>15</v>
       </c>
-      <c r="AJ30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43914</v>
       </c>
@@ -5936,62 +5989,62 @@
       <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="T31" t="s">
         <v>97</v>
       </c>
-      <c r="R31" t="s">
+      <c r="U31" t="s">
         <v>17</v>
       </c>
-      <c r="S31" t="s">
-        <v>109</v>
-      </c>
-      <c r="T31" t="s">
+      <c r="V31" t="s">
+        <v>109</v>
+      </c>
+      <c r="W31" t="s">
         <v>16</v>
       </c>
-      <c r="U31" t="s">
-        <v>109</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="X31" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y31" t="s">
         <v>17</v>
       </c>
-      <c r="W31" t="s">
-        <v>109</v>
-      </c>
-      <c r="X31" t="s">
+      <c r="Z31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA31" t="s">
         <v>17</v>
       </c>
-      <c r="Y31" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z31" t="s">
+      <c r="AB31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC31" t="s">
         <v>17</v>
       </c>
-      <c r="AA31" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB31" t="s">
+      <c r="AD31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE31" t="s">
         <v>16</v>
       </c>
-      <c r="AC31" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD31" t="s">
+      <c r="AF31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG31" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" t="s">
-        <v>109</v>
-      </c>
       <c r="AH31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK31" t="s">
         <v>97</v>
       </c>
-      <c r="AI31" t="s">
+      <c r="AL31" t="s">
         <v>17</v>
       </c>
-      <c r="AJ31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43915</v>
       </c>
@@ -6004,62 +6057,62 @@
       <c r="F32" t="s">
         <v>16</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="T32" t="s">
         <v>25</v>
       </c>
-      <c r="R32" t="s">
-        <v>13</v>
-      </c>
-      <c r="S32" t="s">
-        <v>107</v>
-      </c>
-      <c r="T32" t="s">
-        <v>14</v>
-      </c>
       <c r="U32" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="V32" t="s">
+        <v>107</v>
+      </c>
+      <c r="W32" t="s">
+        <v>14</v>
+      </c>
+      <c r="X32" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y32" t="s">
         <v>120</v>
       </c>
-      <c r="W32" t="s">
-        <v>108</v>
-      </c>
-      <c r="X32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>107</v>
-      </c>
       <c r="Z32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC32" t="s">
         <v>15</v>
       </c>
-      <c r="AA32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>108</v>
-      </c>
       <c r="AD32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG32" t="s">
         <v>121</v>
       </c>
-      <c r="AE32" t="s">
-        <v>109</v>
-      </c>
       <c r="AH32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK32" t="s">
         <v>25</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="AL32" t="s">
         <v>121</v>
       </c>
-      <c r="AJ32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43916</v>
       </c>
@@ -6072,3171 +6125,3171 @@
       <c r="F33" t="s">
         <v>18</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="T33" t="s">
         <v>74</v>
       </c>
-      <c r="R33" t="s">
+      <c r="U33" t="s">
         <v>16</v>
       </c>
-      <c r="S33" t="s">
-        <v>109</v>
-      </c>
-      <c r="T33" t="s">
-        <v>14</v>
-      </c>
-      <c r="U33" t="s">
-        <v>108</v>
-      </c>
       <c r="V33" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="W33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AA33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AB33" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AC33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AD33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG33" t="s">
         <v>12</v>
       </c>
-      <c r="AE33" t="s">
-        <v>107</v>
-      </c>
       <c r="AH33" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK33" t="s">
         <v>74</v>
       </c>
-      <c r="AI33" t="s">
+      <c r="AL33" t="s">
         <v>12</v>
       </c>
-      <c r="AJ33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43917</v>
       </c>
       <c r="B34">
         <v>-50</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="T34" t="s">
         <v>39</v>
       </c>
-      <c r="R34" t="s">
-        <v>14</v>
-      </c>
-      <c r="S34" t="s">
-        <v>108</v>
-      </c>
-      <c r="T34" t="s">
-        <v>14</v>
-      </c>
       <c r="U34" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V34" t="s">
+        <v>108</v>
+      </c>
+      <c r="W34" t="s">
+        <v>14</v>
+      </c>
+      <c r="X34" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y34" t="s">
         <v>12</v>
       </c>
-      <c r="W34" t="s">
-        <v>107</v>
-      </c>
-      <c r="X34" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>107</v>
-      </c>
       <c r="Z34" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AA34" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AB34" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AC34" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AE34" t="s">
-        <v>108</v>
+        <v>13</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>14</v>
       </c>
       <c r="AH34" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK34" t="s">
         <v>39</v>
       </c>
-      <c r="AI34" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43918</v>
       </c>
       <c r="B35">
         <v>-80</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="T35" t="s">
         <v>92</v>
       </c>
-      <c r="R35" t="s">
+      <c r="U35" t="s">
         <v>16</v>
       </c>
-      <c r="S35" t="s">
-        <v>109</v>
-      </c>
-      <c r="T35" t="s">
+      <c r="V35" t="s">
+        <v>109</v>
+      </c>
+      <c r="W35" t="s">
         <v>15</v>
       </c>
-      <c r="U35" t="s">
-        <v>108</v>
-      </c>
-      <c r="V35" t="s">
+      <c r="X35" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y35" t="s">
         <v>121</v>
       </c>
-      <c r="W35" t="s">
-        <v>109</v>
-      </c>
-      <c r="X35" t="s">
+      <c r="Z35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA35" t="s">
         <v>121</v>
       </c>
-      <c r="Y35" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z35" t="s">
+      <c r="AB35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC35" t="s">
         <v>16</v>
       </c>
-      <c r="AA35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB35" t="s">
+      <c r="AD35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE35" t="s">
         <v>121</v>
       </c>
-      <c r="AC35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD35" t="s">
+      <c r="AF35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG35" t="s">
         <v>18</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AH35" t="s">
         <v>110</v>
       </c>
-      <c r="AH35" t="s">
+      <c r="AK35" t="s">
         <v>92</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AL35" t="s">
         <v>18</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AM35" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43919</v>
       </c>
       <c r="B36">
         <v>-75</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="T36" t="s">
         <v>75</v>
       </c>
-      <c r="R36" t="s">
+      <c r="U36" t="s">
         <v>12</v>
       </c>
-      <c r="S36" t="s">
-        <v>107</v>
-      </c>
-      <c r="T36" t="s">
-        <v>13</v>
-      </c>
-      <c r="U36" t="s">
-        <v>107</v>
-      </c>
       <c r="V36" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W36" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="X36" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y36" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z36" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AA36" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AB36" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AC36" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="AD36" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AE36" t="s">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>14</v>
       </c>
       <c r="AH36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK36" t="s">
         <v>75</v>
       </c>
-      <c r="AI36" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43920</v>
       </c>
       <c r="B37">
         <v>-45</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="T37" t="s">
         <v>40</v>
       </c>
-      <c r="R37" t="s">
-        <v>14</v>
-      </c>
-      <c r="S37" t="s">
-        <v>108</v>
-      </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
+        <v>14</v>
+      </c>
+      <c r="V37" t="s">
+        <v>108</v>
+      </c>
+      <c r="W37" t="s">
         <v>12</v>
       </c>
-      <c r="U37" t="s">
-        <v>107</v>
-      </c>
-      <c r="V37" t="s">
-        <v>13</v>
-      </c>
-      <c r="W37" t="s">
-        <v>107</v>
-      </c>
       <c r="X37" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA37" t="s">
         <v>12</v>
       </c>
-      <c r="Y37" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z37" t="s">
+      <c r="AB37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC37" t="s">
         <v>12</v>
       </c>
-      <c r="AA37" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB37" t="s">
+      <c r="AD37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE37" t="s">
         <v>12</v>
       </c>
-      <c r="AC37" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>108</v>
+      <c r="AF37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>14</v>
       </c>
       <c r="AH37" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK37" t="s">
         <v>40</v>
       </c>
-      <c r="AI37" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL37" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43921</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="T38" t="s">
         <v>111</v>
       </c>
-      <c r="R38" t="s">
+      <c r="U38" t="s">
         <v>16</v>
       </c>
-      <c r="S38" t="s">
-        <v>109</v>
-      </c>
-      <c r="T38" t="s">
-        <v>13</v>
-      </c>
-      <c r="U38" t="s">
-        <v>107</v>
-      </c>
       <c r="V38" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="W38" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="X38" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AA38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AB38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AC38" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AD38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AE38" t="s">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>14</v>
       </c>
       <c r="AH38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK38" t="s">
         <v>129</v>
       </c>
-      <c r="AI38" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="Q39" t="s">
+      <c r="AL38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="T39" t="s">
         <v>19</v>
       </c>
-      <c r="R39" t="s">
+      <c r="U39" t="s">
         <v>12</v>
       </c>
-      <c r="S39" t="s">
-        <v>107</v>
-      </c>
-      <c r="T39" t="s">
+      <c r="V39" t="s">
+        <v>107</v>
+      </c>
+      <c r="W39" t="s">
         <v>12</v>
       </c>
-      <c r="U39" t="s">
-        <v>107</v>
-      </c>
-      <c r="V39" t="s">
+      <c r="X39" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y39" t="s">
         <v>12</v>
       </c>
-      <c r="W39" t="s">
-        <v>107</v>
-      </c>
-      <c r="X39" t="s">
+      <c r="Z39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA39" t="s">
         <v>12</v>
       </c>
-      <c r="Y39" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>108</v>
-      </c>
       <c r="AB39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE39" t="s">
         <v>12</v>
       </c>
-      <c r="AC39" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>108</v>
+      <c r="AF39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>14</v>
       </c>
       <c r="AH39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK39" t="s">
         <v>19</v>
       </c>
-      <c r="AI39" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="Q40" t="s">
+      <c r="AL39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="T40" t="s">
         <v>20</v>
       </c>
-      <c r="R40" t="s">
+      <c r="U40" t="s">
         <v>10</v>
       </c>
-      <c r="S40" t="s">
+      <c r="V40" t="s">
         <v>106</v>
       </c>
-      <c r="T40" t="s">
+      <c r="W40" t="s">
         <v>10</v>
       </c>
-      <c r="U40" t="s">
+      <c r="X40" t="s">
         <v>106</v>
       </c>
-      <c r="V40" t="s">
+      <c r="Y40" t="s">
         <v>10</v>
       </c>
-      <c r="W40" t="s">
+      <c r="Z40" t="s">
         <v>106</v>
       </c>
-      <c r="X40" t="s">
+      <c r="AA40" t="s">
         <v>12</v>
       </c>
-      <c r="Y40" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z40" t="s">
+      <c r="AB40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC40" t="s">
         <v>12</v>
       </c>
-      <c r="AA40" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB40" t="s">
+      <c r="AD40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE40" t="s">
         <v>10</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AF40" t="s">
         <v>106</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AG40" t="s">
         <v>12</v>
       </c>
-      <c r="AE40" t="s">
-        <v>107</v>
-      </c>
       <c r="AH40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK40" t="s">
         <v>20</v>
       </c>
-      <c r="AI40" t="s">
+      <c r="AL40" t="s">
         <v>12</v>
       </c>
-      <c r="AJ40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="Q41" t="s">
+      <c r="AM40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="T41" t="s">
         <v>41</v>
       </c>
-      <c r="R41" t="s">
-        <v>14</v>
-      </c>
-      <c r="S41" t="s">
-        <v>108</v>
-      </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
+        <v>14</v>
+      </c>
+      <c r="V41" t="s">
+        <v>108</v>
+      </c>
+      <c r="W41" t="s">
         <v>15</v>
       </c>
-      <c r="U41" t="s">
-        <v>108</v>
-      </c>
-      <c r="V41" t="s">
+      <c r="X41" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y41" t="s">
         <v>15</v>
       </c>
-      <c r="W41" t="s">
-        <v>108</v>
-      </c>
-      <c r="X41" t="s">
+      <c r="Z41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA41" t="s">
         <v>16</v>
       </c>
-      <c r="Y41" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z41" t="s">
+      <c r="AB41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC41" t="s">
         <v>121</v>
       </c>
-      <c r="AA41" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB41" t="s">
+      <c r="AD41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE41" t="s">
         <v>16</v>
       </c>
-      <c r="AC41" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD41" t="s">
+      <c r="AF41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG41" t="s">
         <v>17</v>
       </c>
-      <c r="AE41" t="s">
-        <v>109</v>
-      </c>
       <c r="AH41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK41" t="s">
         <v>41</v>
       </c>
-      <c r="AI41" t="s">
+      <c r="AL41" t="s">
         <v>17</v>
       </c>
-      <c r="AJ41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="Q42" t="s">
+      <c r="AM41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="T42" t="s">
         <v>42</v>
       </c>
-      <c r="R42" t="s">
+      <c r="U42" t="s">
         <v>16</v>
       </c>
-      <c r="S42" t="s">
-        <v>109</v>
-      </c>
-      <c r="T42" t="s">
-        <v>13</v>
-      </c>
-      <c r="U42" t="s">
-        <v>107</v>
-      </c>
       <c r="V42" t="s">
+        <v>109</v>
+      </c>
+      <c r="W42" t="s">
+        <v>13</v>
+      </c>
+      <c r="X42" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y42" t="s">
         <v>12</v>
       </c>
-      <c r="W42" t="s">
-        <v>107</v>
-      </c>
-      <c r="X42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>108</v>
-      </c>
       <c r="Z42" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA42" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AB42" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AC42" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AD42" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AE42" t="s">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>14</v>
       </c>
       <c r="AH42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK42" t="s">
         <v>42</v>
       </c>
-      <c r="AI42" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="Q43" t="s">
+      <c r="AL42" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="T43" t="s">
         <v>76</v>
       </c>
-      <c r="R43" t="s">
+      <c r="U43" t="s">
         <v>17</v>
       </c>
-      <c r="S43" t="s">
-        <v>109</v>
-      </c>
-      <c r="T43" t="s">
+      <c r="V43" t="s">
+        <v>109</v>
+      </c>
+      <c r="W43" t="s">
         <v>121</v>
       </c>
-      <c r="U43" t="s">
-        <v>109</v>
-      </c>
-      <c r="V43" t="s">
+      <c r="X43" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y43" t="s">
         <v>15</v>
       </c>
-      <c r="W43" t="s">
-        <v>108</v>
-      </c>
-      <c r="X43" t="s">
+      <c r="Z43" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA43" t="s">
         <v>121</v>
       </c>
-      <c r="Y43" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z43" t="s">
+      <c r="AB43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC43" t="s">
         <v>121</v>
       </c>
-      <c r="AA43" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB43" t="s">
+      <c r="AD43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE43" t="s">
         <v>16</v>
       </c>
-      <c r="AC43" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD43" t="s">
+      <c r="AF43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG43" t="s">
         <v>121</v>
       </c>
-      <c r="AE43" t="s">
-        <v>109</v>
-      </c>
       <c r="AH43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK43" t="s">
         <v>76</v>
       </c>
-      <c r="AI43" t="s">
+      <c r="AL43" t="s">
         <v>121</v>
       </c>
-      <c r="AJ43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="Q44" t="s">
+      <c r="AM43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="T44" t="s">
         <v>77</v>
       </c>
-      <c r="R44" t="s">
+      <c r="U44" t="s">
         <v>12</v>
       </c>
-      <c r="S44" t="s">
-        <v>107</v>
-      </c>
-      <c r="T44" t="s">
+      <c r="V44" t="s">
+        <v>107</v>
+      </c>
+      <c r="W44" t="s">
         <v>12</v>
       </c>
-      <c r="U44" t="s">
-        <v>107</v>
-      </c>
-      <c r="V44" t="s">
+      <c r="X44" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y44" t="s">
         <v>11</v>
       </c>
-      <c r="W44" t="s">
+      <c r="Z44" t="s">
         <v>106</v>
       </c>
-      <c r="X44" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC44" t="s">
         <v>12</v>
       </c>
-      <c r="AA44" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>107</v>
-      </c>
       <c r="AD44" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AE44" t="s">
-        <v>107</v>
+        <v>13</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>13</v>
       </c>
       <c r="AH44" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK44" t="s">
         <v>77</v>
       </c>
-      <c r="AI44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="Q45" t="s">
+      <c r="AL44" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="T45" t="s">
         <v>78</v>
       </c>
-      <c r="R45" t="s">
+      <c r="U45" t="s">
         <v>12</v>
       </c>
-      <c r="S45" t="s">
-        <v>107</v>
-      </c>
-      <c r="T45" t="s">
+      <c r="V45" t="s">
+        <v>107</v>
+      </c>
+      <c r="W45" t="s">
         <v>11</v>
       </c>
-      <c r="U45" t="s">
+      <c r="X45" t="s">
         <v>106</v>
       </c>
-      <c r="V45" t="s">
-        <v>13</v>
-      </c>
-      <c r="W45" t="s">
-        <v>107</v>
-      </c>
-      <c r="X45" t="s">
-        <v>13</v>
-      </c>
       <c r="Y45" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Z45" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA45" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="AB45" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AC45" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AD45" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AE45" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>13</v>
       </c>
       <c r="AH45" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK45" t="s">
         <v>78</v>
       </c>
-      <c r="AI45" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="Q46" t="s">
+      <c r="AL45" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="T46" t="s">
         <v>26</v>
       </c>
-      <c r="R46" t="s">
+      <c r="U46" t="s">
         <v>16</v>
       </c>
-      <c r="S46" t="s">
-        <v>109</v>
-      </c>
-      <c r="T46" t="s">
+      <c r="V46" t="s">
+        <v>109</v>
+      </c>
+      <c r="W46" t="s">
         <v>15</v>
       </c>
-      <c r="U46" t="s">
-        <v>108</v>
-      </c>
-      <c r="V46" t="s">
+      <c r="X46" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y46" t="s">
         <v>15</v>
       </c>
-      <c r="W46" t="s">
-        <v>108</v>
-      </c>
-      <c r="X46" t="s">
+      <c r="Z46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA46" t="s">
         <v>121</v>
       </c>
-      <c r="Y46" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z46" t="s">
+      <c r="AB46" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC46" t="s">
         <v>121</v>
       </c>
-      <c r="AA46" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>108</v>
-      </c>
       <c r="AD46" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG46" t="s">
         <v>121</v>
       </c>
-      <c r="AE46" t="s">
-        <v>109</v>
-      </c>
       <c r="AH46" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK46" t="s">
         <v>26</v>
       </c>
-      <c r="AI46" t="s">
+      <c r="AL46" t="s">
         <v>121</v>
       </c>
-      <c r="AJ46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="Q47" t="s">
+      <c r="AM46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="T47" t="s">
         <v>93</v>
       </c>
-      <c r="R47" t="s">
+      <c r="U47" t="s">
         <v>17</v>
       </c>
-      <c r="S47" t="s">
-        <v>109</v>
-      </c>
-      <c r="T47" t="s">
+      <c r="V47" t="s">
+        <v>109</v>
+      </c>
+      <c r="W47" t="s">
         <v>121</v>
       </c>
-      <c r="U47" t="s">
-        <v>109</v>
-      </c>
-      <c r="V47" t="s">
+      <c r="X47" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y47" t="s">
         <v>121</v>
       </c>
-      <c r="W47" t="s">
-        <v>109</v>
-      </c>
-      <c r="X47" t="s">
+      <c r="Z47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA47" t="s">
         <v>121</v>
       </c>
-      <c r="Y47" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z47" t="s">
+      <c r="AB47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC47" t="s">
         <v>16</v>
       </c>
-      <c r="AA47" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB47" t="s">
+      <c r="AD47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE47" t="s">
         <v>121</v>
       </c>
-      <c r="AC47" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD47" t="s">
+      <c r="AF47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG47" t="s">
         <v>16</v>
       </c>
-      <c r="AE47" t="s">
-        <v>109</v>
-      </c>
       <c r="AH47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK47" t="s">
         <v>93</v>
       </c>
-      <c r="AI47" t="s">
+      <c r="AL47" t="s">
         <v>16</v>
       </c>
-      <c r="AJ47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="Q48" t="s">
+      <c r="AM47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="T48" t="s">
         <v>43</v>
       </c>
-      <c r="R48" t="s">
+      <c r="U48" t="s">
         <v>16</v>
       </c>
-      <c r="S48" t="s">
-        <v>109</v>
-      </c>
-      <c r="T48" t="s">
+      <c r="V48" t="s">
+        <v>109</v>
+      </c>
+      <c r="W48" t="s">
         <v>12</v>
       </c>
-      <c r="U48" t="s">
-        <v>107</v>
-      </c>
-      <c r="V48" t="s">
-        <v>13</v>
-      </c>
-      <c r="W48" t="s">
-        <v>107</v>
-      </c>
       <c r="X48" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y48" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="Z48" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA48" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AB48" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AC48" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AD48" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AE48" t="s">
-        <v>108</v>
+        <v>13</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>14</v>
       </c>
       <c r="AH48" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK48" t="s">
         <v>43</v>
       </c>
-      <c r="AI48" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q49" t="s">
+      <c r="AL48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T49" t="s">
         <v>98</v>
       </c>
-      <c r="R49" t="s">
+      <c r="U49" t="s">
         <v>17</v>
       </c>
-      <c r="S49" t="s">
-        <v>109</v>
-      </c>
-      <c r="T49" t="s">
+      <c r="V49" t="s">
+        <v>109</v>
+      </c>
+      <c r="W49" t="s">
         <v>121</v>
       </c>
-      <c r="U49" t="s">
-        <v>109</v>
-      </c>
-      <c r="V49" t="s">
+      <c r="X49" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y49" t="s">
         <v>15</v>
       </c>
-      <c r="W49" t="s">
-        <v>108</v>
-      </c>
-      <c r="X49" t="s">
+      <c r="Z49" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA49" t="s">
         <v>121</v>
       </c>
-      <c r="Y49" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z49" t="s">
+      <c r="AB49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC49" t="s">
         <v>16</v>
       </c>
-      <c r="AA49" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB49" t="s">
+      <c r="AD49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE49" t="s">
         <v>121</v>
       </c>
-      <c r="AC49" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD49" t="s">
+      <c r="AF49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG49" t="s">
         <v>16</v>
       </c>
-      <c r="AE49" t="s">
-        <v>109</v>
-      </c>
       <c r="AH49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK49" t="s">
         <v>98</v>
       </c>
-      <c r="AI49" t="s">
+      <c r="AL49" t="s">
         <v>16</v>
       </c>
-      <c r="AJ49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q50" t="s">
+      <c r="AM49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T50" t="s">
         <v>99</v>
       </c>
-      <c r="R50" t="s">
+      <c r="U50" t="s">
         <v>17</v>
       </c>
-      <c r="S50" t="s">
-        <v>109</v>
-      </c>
-      <c r="T50" t="s">
+      <c r="V50" t="s">
+        <v>109</v>
+      </c>
+      <c r="W50" t="s">
         <v>15</v>
       </c>
-      <c r="U50" t="s">
-        <v>108</v>
-      </c>
-      <c r="V50" t="s">
+      <c r="X50" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y50" t="s">
         <v>15</v>
       </c>
-      <c r="W50" t="s">
-        <v>108</v>
-      </c>
-      <c r="X50" t="s">
+      <c r="Z50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA50" t="s">
         <v>15</v>
       </c>
-      <c r="Y50" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z50" t="s">
+      <c r="AB50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC50" t="s">
         <v>121</v>
       </c>
-      <c r="AA50" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB50" t="s">
+      <c r="AD50" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE50" t="s">
         <v>15</v>
       </c>
-      <c r="AC50" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD50" t="s">
+      <c r="AF50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG50" t="s">
         <v>121</v>
       </c>
-      <c r="AE50" t="s">
-        <v>109</v>
-      </c>
       <c r="AH50" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK50" t="s">
         <v>99</v>
       </c>
-      <c r="AI50" t="s">
+      <c r="AL50" t="s">
         <v>121</v>
       </c>
-      <c r="AJ50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q51" t="s">
+      <c r="AM50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T51" t="s">
         <v>44</v>
       </c>
-      <c r="R51" t="s">
+      <c r="U51" t="s">
         <v>17</v>
       </c>
-      <c r="S51" t="s">
-        <v>109</v>
-      </c>
-      <c r="T51" t="s">
+      <c r="V51" t="s">
+        <v>109</v>
+      </c>
+      <c r="W51" t="s">
         <v>121</v>
       </c>
-      <c r="U51" t="s">
-        <v>109</v>
-      </c>
-      <c r="V51" t="s">
+      <c r="X51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y51" t="s">
         <v>15</v>
       </c>
-      <c r="W51" t="s">
-        <v>108</v>
-      </c>
-      <c r="X51" t="s">
+      <c r="Z51" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA51" t="s">
         <v>16</v>
       </c>
-      <c r="Y51" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z51" t="s">
+      <c r="AB51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC51" t="s">
         <v>16</v>
       </c>
-      <c r="AA51" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB51" t="s">
+      <c r="AD51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE51" t="s">
         <v>121</v>
       </c>
-      <c r="AC51" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD51" t="s">
+      <c r="AF51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG51" t="s">
         <v>121</v>
       </c>
-      <c r="AE51" t="s">
-        <v>109</v>
-      </c>
       <c r="AH51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK51" t="s">
         <v>44</v>
       </c>
-      <c r="AI51" t="s">
+      <c r="AL51" t="s">
         <v>121</v>
       </c>
-      <c r="AJ51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q52" t="s">
+      <c r="AM51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T52" t="s">
         <v>79</v>
       </c>
-      <c r="R52" t="s">
-        <v>14</v>
-      </c>
-      <c r="S52" t="s">
-        <v>108</v>
-      </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
+        <v>14</v>
+      </c>
+      <c r="V52" t="s">
+        <v>108</v>
+      </c>
+      <c r="W52" t="s">
         <v>12</v>
       </c>
-      <c r="U52" t="s">
-        <v>107</v>
-      </c>
-      <c r="V52" t="s">
-        <v>13</v>
-      </c>
-      <c r="W52" t="s">
-        <v>107</v>
-      </c>
       <c r="X52" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y52" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Z52" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA52" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="AB52" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AC52" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AD52" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AE52" t="s">
-        <v>107</v>
+        <v>13</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>13</v>
       </c>
       <c r="AH52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK52" t="s">
         <v>79</v>
       </c>
-      <c r="AI52" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q53" t="s">
+      <c r="AL52" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T53" t="s">
         <v>27</v>
       </c>
-      <c r="R53" t="s">
-        <v>14</v>
-      </c>
-      <c r="S53" t="s">
-        <v>108</v>
-      </c>
-      <c r="T53" t="s">
-        <v>14</v>
-      </c>
       <c r="U53" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V53" t="s">
+        <v>108</v>
+      </c>
+      <c r="W53" t="s">
+        <v>14</v>
+      </c>
+      <c r="X53" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y53" t="s">
         <v>12</v>
       </c>
-      <c r="W53" t="s">
-        <v>107</v>
-      </c>
-      <c r="X53" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>108</v>
-      </c>
       <c r="Z53" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC53" t="s">
         <v>121</v>
       </c>
-      <c r="AA53" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB53" t="s">
+      <c r="AD53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE53" t="s">
         <v>120</v>
       </c>
-      <c r="AC53" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD53" t="s">
+      <c r="AF53" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG53" t="s">
         <v>17</v>
       </c>
-      <c r="AE53" t="s">
-        <v>109</v>
-      </c>
       <c r="AH53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK53" t="s">
         <v>27</v>
       </c>
-      <c r="AI53" t="s">
+      <c r="AL53" t="s">
         <v>17</v>
       </c>
-      <c r="AJ53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q54" t="s">
+      <c r="AM53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T54" t="s">
         <v>80</v>
       </c>
-      <c r="R54" t="s">
+      <c r="U54" t="s">
         <v>18</v>
       </c>
-      <c r="S54" t="s">
+      <c r="V54" t="s">
         <v>110</v>
       </c>
-      <c r="T54" t="s">
+      <c r="W54" t="s">
         <v>15</v>
       </c>
-      <c r="U54" t="s">
-        <v>108</v>
-      </c>
-      <c r="V54" t="s">
+      <c r="X54" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y54" t="s">
         <v>15</v>
       </c>
-      <c r="W54" t="s">
-        <v>108</v>
-      </c>
-      <c r="X54" t="s">
+      <c r="Z54" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA54" t="s">
         <v>120</v>
       </c>
-      <c r="Y54" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z54" t="s">
+      <c r="AB54" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC54" t="s">
         <v>121</v>
       </c>
-      <c r="AA54" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>107</v>
-      </c>
       <c r="AD54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG54" t="s">
         <v>16</v>
       </c>
-      <c r="AE54" t="s">
-        <v>109</v>
-      </c>
       <c r="AH54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK54" t="s">
         <v>80</v>
       </c>
-      <c r="AI54" t="s">
+      <c r="AL54" t="s">
         <v>16</v>
       </c>
-      <c r="AJ54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q55" t="s">
+      <c r="AM54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T55" t="s">
         <v>45</v>
       </c>
-      <c r="R55" t="s">
-        <v>14</v>
-      </c>
-      <c r="S55" t="s">
-        <v>108</v>
-      </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
+        <v>14</v>
+      </c>
+      <c r="V55" t="s">
+        <v>108</v>
+      </c>
+      <c r="W55" t="s">
         <v>12</v>
       </c>
-      <c r="U55" t="s">
-        <v>107</v>
-      </c>
-      <c r="V55" t="s">
+      <c r="X55" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y55" t="s">
         <v>11</v>
       </c>
-      <c r="W55" t="s">
+      <c r="Z55" t="s">
         <v>106</v>
       </c>
-      <c r="X55" t="s">
+      <c r="AA55" t="s">
         <v>12</v>
       </c>
-      <c r="Y55" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>107</v>
-      </c>
       <c r="AB55" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE55" t="s">
         <v>12</v>
       </c>
-      <c r="AC55" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>107</v>
+      <c r="AF55" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>13</v>
       </c>
       <c r="AH55" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK55" t="s">
         <v>45</v>
       </c>
-      <c r="AI55" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q56" t="s">
+      <c r="AL55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T56" t="s">
         <v>28</v>
       </c>
-      <c r="R56" t="s">
-        <v>14</v>
-      </c>
-      <c r="S56" t="s">
-        <v>108</v>
-      </c>
-      <c r="T56" t="s">
-        <v>14</v>
-      </c>
       <c r="U56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V56" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X56" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA56" t="s">
         <v>121</v>
       </c>
-      <c r="Y56" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z56" t="s">
+      <c r="AB56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC56" t="s">
         <v>18</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AD56" t="s">
         <v>110</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AE56" t="s">
         <v>16</v>
       </c>
-      <c r="AC56" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD56" t="s">
+      <c r="AF56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG56" t="s">
         <v>121</v>
       </c>
-      <c r="AE56" t="s">
-        <v>109</v>
-      </c>
       <c r="AH56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK56" t="s">
         <v>28</v>
       </c>
-      <c r="AI56" t="s">
+      <c r="AL56" t="s">
         <v>121</v>
       </c>
-      <c r="AJ56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q57" t="s">
+      <c r="AM56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T57" t="s">
         <v>100</v>
       </c>
-      <c r="R57" t="s">
+      <c r="U57" t="s">
         <v>17</v>
       </c>
-      <c r="S57" t="s">
-        <v>109</v>
-      </c>
-      <c r="T57" t="s">
+      <c r="V57" t="s">
+        <v>109</v>
+      </c>
+      <c r="W57" t="s">
         <v>15</v>
       </c>
-      <c r="U57" t="s">
-        <v>108</v>
-      </c>
-      <c r="V57" t="s">
+      <c r="X57" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y57" t="s">
         <v>15</v>
       </c>
-      <c r="W57" t="s">
-        <v>108</v>
-      </c>
-      <c r="X57" t="s">
+      <c r="Z57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA57" t="s">
         <v>15</v>
       </c>
-      <c r="Y57" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z57" t="s">
+      <c r="AB57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC57" t="s">
         <v>121</v>
       </c>
-      <c r="AA57" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB57" t="s">
+      <c r="AD57" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE57" t="s">
         <v>15</v>
       </c>
-      <c r="AC57" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD57" t="s">
+      <c r="AF57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG57" t="s">
         <v>121</v>
       </c>
-      <c r="AE57" t="s">
-        <v>109</v>
-      </c>
       <c r="AH57" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK57" t="s">
         <v>100</v>
       </c>
-      <c r="AI57" t="s">
+      <c r="AL57" t="s">
         <v>121</v>
       </c>
-      <c r="AJ57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q58" t="s">
+      <c r="AM57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T58" t="s">
         <v>101</v>
       </c>
-      <c r="R58" t="s">
-        <v>14</v>
-      </c>
-      <c r="S58" t="s">
-        <v>108</v>
-      </c>
-      <c r="T58" t="s">
-        <v>14</v>
-      </c>
       <c r="U58" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V58" t="s">
+        <v>108</v>
+      </c>
+      <c r="W58" t="s">
+        <v>14</v>
+      </c>
+      <c r="X58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y58" t="s">
         <v>120</v>
       </c>
-      <c r="W58" t="s">
-        <v>108</v>
-      </c>
-      <c r="X58" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>108</v>
-      </c>
       <c r="Z58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC58" t="s">
         <v>121</v>
       </c>
-      <c r="AA58" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB58" t="s">
+      <c r="AD58" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE58" t="s">
         <v>15</v>
       </c>
-      <c r="AC58" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD58" t="s">
+      <c r="AF58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG58" t="s">
         <v>15</v>
       </c>
-      <c r="AE58" t="s">
-        <v>108</v>
-      </c>
       <c r="AH58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK58" t="s">
         <v>101</v>
       </c>
-      <c r="AI58" t="s">
+      <c r="AL58" t="s">
         <v>15</v>
       </c>
-      <c r="AJ58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q59" t="s">
+      <c r="AM58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T59" t="s">
         <v>64</v>
       </c>
-      <c r="R59" t="s">
+      <c r="U59" t="s">
         <v>16</v>
       </c>
-      <c r="S59" t="s">
-        <v>109</v>
-      </c>
-      <c r="T59" t="s">
+      <c r="V59" t="s">
+        <v>109</v>
+      </c>
+      <c r="W59" t="s">
         <v>15</v>
       </c>
-      <c r="U59" t="s">
-        <v>108</v>
-      </c>
-      <c r="V59" t="s">
-        <v>14</v>
-      </c>
-      <c r="W59" t="s">
-        <v>108</v>
-      </c>
       <c r="X59" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA59" t="s">
         <v>15</v>
       </c>
-      <c r="Y59" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z59" t="s">
+      <c r="AB59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC59" t="s">
         <v>15</v>
       </c>
-      <c r="AA59" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB59" t="s">
+      <c r="AD59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE59" t="s">
         <v>15</v>
       </c>
-      <c r="AC59" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD59" t="s">
+      <c r="AF59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG59" t="s">
         <v>121</v>
       </c>
-      <c r="AE59" t="s">
-        <v>109</v>
-      </c>
       <c r="AH59" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK59" t="s">
         <v>64</v>
       </c>
-      <c r="AI59" t="s">
+      <c r="AL59" t="s">
         <v>121</v>
       </c>
-      <c r="AJ59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q60" t="s">
+      <c r="AM59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T60" t="s">
         <v>81</v>
       </c>
-      <c r="R60" t="s">
+      <c r="U60" t="s">
         <v>16</v>
       </c>
-      <c r="S60" t="s">
-        <v>109</v>
-      </c>
-      <c r="T60" t="s">
-        <v>13</v>
-      </c>
-      <c r="U60" t="s">
-        <v>107</v>
-      </c>
       <c r="V60" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="W60" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X60" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y60" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Z60" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AA60" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AB60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE60" t="s">
         <v>12</v>
       </c>
-      <c r="AC60" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>107</v>
+      <c r="AF60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>13</v>
       </c>
       <c r="AH60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK60" t="s">
         <v>81</v>
       </c>
-      <c r="AI60" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q61" t="s">
+      <c r="AL60" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T61" t="s">
         <v>65</v>
       </c>
-      <c r="R61" t="s">
-        <v>13</v>
-      </c>
-      <c r="S61" t="s">
-        <v>107</v>
-      </c>
-      <c r="T61" t="s">
-        <v>14</v>
-      </c>
       <c r="U61" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="V61" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W61" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X61" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA61" t="s">
         <v>15</v>
       </c>
-      <c r="Y61" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z61" t="s">
+      <c r="AB61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC61" t="s">
         <v>121</v>
       </c>
-      <c r="AA61" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB61" t="s">
+      <c r="AD61" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE61" t="s">
         <v>15</v>
       </c>
-      <c r="AC61" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD61" t="s">
+      <c r="AF61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG61" t="s">
         <v>15</v>
       </c>
-      <c r="AE61" t="s">
-        <v>108</v>
-      </c>
       <c r="AH61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK61" t="s">
         <v>65</v>
       </c>
-      <c r="AI61" t="s">
+      <c r="AL61" t="s">
         <v>15</v>
       </c>
-      <c r="AJ61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q62" t="s">
+      <c r="AM61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T62" t="s">
         <v>82</v>
       </c>
-      <c r="R62" t="s">
-        <v>14</v>
-      </c>
-      <c r="S62" t="s">
-        <v>108</v>
-      </c>
-      <c r="T62" t="s">
-        <v>13</v>
-      </c>
       <c r="U62" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="V62" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="W62" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X62" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y62" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Z62" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AA62" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AB62" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AC62" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AD62" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AE62" t="s">
-        <v>108</v>
+        <v>13</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>14</v>
       </c>
       <c r="AH62" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK62" t="s">
         <v>82</v>
       </c>
-      <c r="AI62" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q63" t="s">
+      <c r="AL62" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T63" t="s">
         <v>29</v>
       </c>
-      <c r="R63" t="s">
-        <v>13</v>
-      </c>
-      <c r="S63" t="s">
-        <v>107</v>
-      </c>
-      <c r="T63" t="s">
-        <v>14</v>
-      </c>
       <c r="U63" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="V63" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X63" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y63" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z63" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC63" t="s">
         <v>121</v>
       </c>
-      <c r="AA63" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>108</v>
-      </c>
       <c r="AD63" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG63" t="s">
         <v>16</v>
       </c>
-      <c r="AE63" t="s">
-        <v>109</v>
-      </c>
       <c r="AH63" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK63" t="s">
         <v>29</v>
       </c>
-      <c r="AI63" t="s">
+      <c r="AL63" t="s">
         <v>16</v>
       </c>
-      <c r="AJ63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q64" t="s">
+      <c r="AM63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T64" t="s">
         <v>46</v>
       </c>
-      <c r="R64" t="s">
+      <c r="U64" t="s">
         <v>10</v>
       </c>
-      <c r="S64" t="s">
+      <c r="V64" t="s">
         <v>106</v>
       </c>
-      <c r="T64" t="s">
+      <c r="W64" t="s">
         <v>12</v>
       </c>
-      <c r="U64" t="s">
-        <v>107</v>
-      </c>
-      <c r="V64" t="s">
-        <v>13</v>
-      </c>
-      <c r="W64" t="s">
-        <v>107</v>
-      </c>
       <c r="X64" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y64" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="Z64" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AA64" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AB64" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AC64" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="AD64" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AE64" t="s">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>14</v>
       </c>
       <c r="AH64" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK64" t="s">
         <v>46</v>
       </c>
-      <c r="AI64" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q65" t="s">
+      <c r="AL64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T65" t="s">
         <v>47</v>
       </c>
-      <c r="R65" t="s">
+      <c r="U65" t="s">
         <v>16</v>
       </c>
-      <c r="S65" t="s">
-        <v>109</v>
-      </c>
-      <c r="T65" t="s">
+      <c r="V65" t="s">
+        <v>109</v>
+      </c>
+      <c r="W65" t="s">
         <v>12</v>
       </c>
-      <c r="U65" t="s">
-        <v>107</v>
-      </c>
-      <c r="V65" t="s">
-        <v>13</v>
-      </c>
-      <c r="W65" t="s">
-        <v>107</v>
-      </c>
       <c r="X65" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA65" t="s">
         <v>12</v>
       </c>
-      <c r="Y65" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z65" t="s">
+      <c r="AB65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC65" t="s">
         <v>12</v>
       </c>
-      <c r="AA65" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB65" t="s">
+      <c r="AD65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE65" t="s">
         <v>12</v>
       </c>
-      <c r="AC65" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD65" t="s">
+      <c r="AF65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG65" t="s">
         <v>12</v>
       </c>
-      <c r="AE65" t="s">
-        <v>107</v>
-      </c>
       <c r="AH65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK65" t="s">
         <v>47</v>
       </c>
-      <c r="AI65" t="s">
+      <c r="AL65" t="s">
         <v>12</v>
       </c>
-      <c r="AJ65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q66" t="s">
+      <c r="AM65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T66" t="s">
         <v>48</v>
       </c>
-      <c r="R66" t="s">
+      <c r="U66" t="s">
         <v>16</v>
       </c>
-      <c r="S66" t="s">
-        <v>109</v>
-      </c>
-      <c r="T66" t="s">
-        <v>13</v>
-      </c>
-      <c r="U66" t="s">
-        <v>107</v>
-      </c>
       <c r="V66" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="W66" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="X66" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y66" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z66" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AA66" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AB66" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="AC66" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="AD66" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AE66" t="s">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>14</v>
       </c>
       <c r="AH66" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK66" t="s">
         <v>48</v>
       </c>
-      <c r="AI66" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q67" t="s">
+      <c r="AL66" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T67" t="s">
         <v>83</v>
       </c>
-      <c r="R67" t="s">
+      <c r="U67" t="s">
         <v>17</v>
       </c>
-      <c r="S67" t="s">
-        <v>109</v>
-      </c>
-      <c r="T67" t="s">
+      <c r="V67" t="s">
+        <v>109</v>
+      </c>
+      <c r="W67" t="s">
         <v>121</v>
       </c>
-      <c r="U67" t="s">
-        <v>109</v>
-      </c>
-      <c r="V67" t="s">
+      <c r="X67" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y67" t="s">
         <v>16</v>
       </c>
-      <c r="W67" t="s">
-        <v>109</v>
-      </c>
-      <c r="X67" t="s">
+      <c r="Z67" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA67" t="s">
         <v>17</v>
       </c>
-      <c r="Y67" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z67" t="s">
+      <c r="AB67" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC67" t="s">
         <v>18</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AD67" t="s">
         <v>110</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AE67" t="s">
         <v>17</v>
       </c>
-      <c r="AC67" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD67" t="s">
+      <c r="AF67" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG67" t="s">
         <v>18</v>
       </c>
-      <c r="AE67" t="s">
+      <c r="AH67" t="s">
         <v>110</v>
       </c>
-      <c r="AH67" t="s">
+      <c r="AK67" t="s">
         <v>83</v>
       </c>
-      <c r="AI67" t="s">
+      <c r="AL67" t="s">
         <v>18</v>
       </c>
-      <c r="AJ67" t="s">
+      <c r="AM67" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q68" t="s">
+    <row r="68" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T68" t="s">
         <v>84</v>
       </c>
-      <c r="R68" t="s">
+      <c r="U68" t="s">
         <v>16</v>
       </c>
-      <c r="S68" t="s">
-        <v>109</v>
-      </c>
-      <c r="T68" t="s">
-        <v>13</v>
-      </c>
-      <c r="U68" t="s">
-        <v>107</v>
-      </c>
       <c r="V68" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="W68" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X68" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y68" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Z68" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA68" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="AB68" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AC68" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AD68" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AE68" t="s">
-        <v>107</v>
+        <v>13</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>13</v>
       </c>
       <c r="AH68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK68" t="s">
         <v>84</v>
       </c>
-      <c r="AI68" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q69" t="s">
+      <c r="AL68" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T69" t="s">
         <v>94</v>
       </c>
-      <c r="R69" t="s">
+      <c r="U69" t="s">
         <v>15</v>
       </c>
-      <c r="S69" t="s">
-        <v>108</v>
-      </c>
-      <c r="T69" t="s">
-        <v>14</v>
-      </c>
-      <c r="U69" t="s">
-        <v>108</v>
-      </c>
       <c r="V69" t="s">
+        <v>108</v>
+      </c>
+      <c r="W69" t="s">
+        <v>14</v>
+      </c>
+      <c r="X69" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y69" t="s">
         <v>15</v>
       </c>
-      <c r="W69" t="s">
-        <v>108</v>
-      </c>
-      <c r="X69" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>108</v>
-      </c>
       <c r="Z69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC69" t="s">
         <v>15</v>
       </c>
-      <c r="AA69" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB69" t="s">
+      <c r="AD69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE69" t="s">
         <v>15</v>
       </c>
-      <c r="AC69" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>108</v>
+      <c r="AF69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>14</v>
       </c>
       <c r="AH69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK69" t="s">
         <v>94</v>
       </c>
-      <c r="AI69" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q70" t="s">
+      <c r="AL69" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T70" t="s">
         <v>31</v>
       </c>
-      <c r="R70" t="s">
-        <v>14</v>
-      </c>
-      <c r="S70" t="s">
-        <v>108</v>
-      </c>
-      <c r="T70" t="s">
+      <c r="U70" t="s">
+        <v>14</v>
+      </c>
+      <c r="V70" t="s">
+        <v>108</v>
+      </c>
+      <c r="W70" t="s">
         <v>121</v>
       </c>
-      <c r="U70" t="s">
-        <v>109</v>
-      </c>
-      <c r="V70" t="s">
+      <c r="X70" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y70" t="s">
         <v>121</v>
       </c>
-      <c r="W70" t="s">
-        <v>109</v>
-      </c>
-      <c r="X70" t="s">
+      <c r="Z70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA70" t="s">
         <v>16</v>
       </c>
-      <c r="Y70" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z70" t="s">
+      <c r="AB70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC70" t="s">
         <v>18</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AD70" t="s">
         <v>110</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AE70" t="s">
         <v>121</v>
       </c>
-      <c r="AC70" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD70" t="s">
+      <c r="AF70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG70" t="s">
         <v>18</v>
       </c>
-      <c r="AE70" t="s">
+      <c r="AH70" t="s">
         <v>110</v>
       </c>
-      <c r="AH70" t="s">
+      <c r="AK70" t="s">
         <v>31</v>
       </c>
-      <c r="AI70" t="s">
+      <c r="AL70" t="s">
         <v>18</v>
       </c>
-      <c r="AJ70" t="s">
+      <c r="AM70" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q71" t="s">
+    <row r="71" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T71" t="s">
         <v>95</v>
       </c>
-      <c r="R71" t="s">
+      <c r="U71" t="s">
         <v>16</v>
       </c>
-      <c r="S71" t="s">
-        <v>109</v>
-      </c>
-      <c r="T71" t="s">
+      <c r="V71" t="s">
+        <v>109</v>
+      </c>
+      <c r="W71" t="s">
         <v>17</v>
       </c>
-      <c r="U71" t="s">
-        <v>109</v>
-      </c>
-      <c r="V71" t="s">
+      <c r="X71" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y71" t="s">
         <v>18</v>
       </c>
-      <c r="W71" t="s">
+      <c r="Z71" t="s">
         <v>110</v>
       </c>
-      <c r="X71" t="s">
+      <c r="AA71" t="s">
         <v>18</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="AB71" t="s">
         <v>110</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AC71" t="s">
         <v>18</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AD71" t="s">
         <v>110</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AE71" t="s">
         <v>17</v>
       </c>
-      <c r="AC71" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD71" t="s">
+      <c r="AF71" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG71" t="s">
         <v>18</v>
       </c>
-      <c r="AE71" t="s">
+      <c r="AH71" t="s">
         <v>110</v>
       </c>
-      <c r="AH71" t="s">
+      <c r="AK71" t="s">
         <v>95</v>
       </c>
-      <c r="AI71" t="s">
+      <c r="AL71" t="s">
         <v>18</v>
       </c>
-      <c r="AJ71" t="s">
+      <c r="AM71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q72" t="s">
+    <row r="72" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T72" t="s">
         <v>49</v>
       </c>
-      <c r="R72" t="s">
+      <c r="U72" t="s">
         <v>16</v>
       </c>
-      <c r="S72" t="s">
-        <v>109</v>
-      </c>
-      <c r="T72" t="s">
-        <v>13</v>
-      </c>
-      <c r="U72" t="s">
-        <v>107</v>
-      </c>
       <c r="V72" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="W72" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X72" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y72" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Z72" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AA72" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AB72" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AC72" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AD72" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AE72" t="s">
-        <v>108</v>
+        <v>13</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>14</v>
       </c>
       <c r="AH72" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK72" t="s">
         <v>49</v>
       </c>
-      <c r="AI72" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q73" t="s">
+      <c r="AL72" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T73" t="s">
         <v>30</v>
       </c>
-      <c r="R73" t="s">
-        <v>13</v>
-      </c>
-      <c r="S73" t="s">
-        <v>107</v>
-      </c>
-      <c r="T73" t="s">
-        <v>13</v>
-      </c>
       <c r="U73" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="V73" t="s">
+        <v>107</v>
+      </c>
+      <c r="W73" t="s">
+        <v>13</v>
+      </c>
+      <c r="X73" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y73" t="s">
         <v>126</v>
       </c>
-      <c r="W73" t="s">
-        <v>107</v>
-      </c>
-      <c r="X73" t="s">
+      <c r="Z73" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA73" t="s">
         <v>120</v>
       </c>
-      <c r="Y73" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>108</v>
-      </c>
       <c r="AB73" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE73" t="s">
         <v>126</v>
       </c>
-      <c r="AC73" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD73" t="s">
+      <c r="AF73" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG73" t="s">
         <v>121</v>
       </c>
-      <c r="AE73" t="s">
-        <v>109</v>
-      </c>
       <c r="AH73" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK73" t="s">
         <v>30</v>
       </c>
-      <c r="AI73" t="s">
+      <c r="AL73" t="s">
         <v>121</v>
       </c>
-      <c r="AJ73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q74" t="s">
+      <c r="AM73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T74" t="s">
         <v>50</v>
       </c>
-      <c r="R74" t="s">
-        <v>14</v>
-      </c>
-      <c r="S74" t="s">
-        <v>108</v>
-      </c>
-      <c r="T74" t="s">
-        <v>14</v>
-      </c>
       <c r="U74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="V74" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="W74" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="X74" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA74" t="s">
         <v>16</v>
       </c>
-      <c r="Y74" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z74" t="s">
+      <c r="AB74" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC74" t="s">
         <v>17</v>
       </c>
-      <c r="AA74" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB74" t="s">
+      <c r="AD74" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE74" t="s">
         <v>121</v>
       </c>
-      <c r="AC74" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD74" t="s">
+      <c r="AF74" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG74" t="s">
         <v>121</v>
       </c>
-      <c r="AE74" t="s">
-        <v>109</v>
-      </c>
       <c r="AH74" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK74" t="s">
         <v>50</v>
       </c>
-      <c r="AI74" t="s">
+      <c r="AL74" t="s">
         <v>121</v>
       </c>
-      <c r="AJ74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q75" t="s">
+      <c r="AM74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T75" t="s">
         <v>66</v>
       </c>
-      <c r="R75" t="s">
+      <c r="U75" t="s">
         <v>16</v>
       </c>
-      <c r="S75" t="s">
-        <v>109</v>
-      </c>
-      <c r="T75" t="s">
+      <c r="V75" t="s">
+        <v>109</v>
+      </c>
+      <c r="W75" t="s">
         <v>16</v>
       </c>
-      <c r="U75" t="s">
-        <v>109</v>
-      </c>
-      <c r="V75" t="s">
+      <c r="X75" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y75" t="s">
         <v>16</v>
       </c>
-      <c r="W75" t="s">
-        <v>109</v>
-      </c>
-      <c r="X75" t="s">
+      <c r="Z75" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA75" t="s">
         <v>17</v>
       </c>
-      <c r="Y75" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z75" t="s">
+      <c r="AB75" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC75" t="s">
         <v>18</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AD75" t="s">
         <v>110</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AE75" t="s">
         <v>18</v>
       </c>
-      <c r="AC75" t="s">
+      <c r="AF75" t="s">
         <v>110</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AG75" t="s">
         <v>18</v>
       </c>
-      <c r="AE75" t="s">
+      <c r="AH75" t="s">
         <v>110</v>
       </c>
-      <c r="AH75" t="s">
+      <c r="AK75" t="s">
         <v>66</v>
       </c>
-      <c r="AI75" t="s">
+      <c r="AL75" t="s">
         <v>18</v>
       </c>
-      <c r="AJ75" t="s">
+      <c r="AM75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q76" t="s">
+    <row r="76" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T76" t="s">
         <v>85</v>
       </c>
-      <c r="R76" t="s">
-        <v>14</v>
-      </c>
-      <c r="S76" t="s">
-        <v>108</v>
-      </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
+        <v>14</v>
+      </c>
+      <c r="V76" t="s">
+        <v>108</v>
+      </c>
+      <c r="W76" t="s">
         <v>12</v>
       </c>
-      <c r="U76" t="s">
-        <v>107</v>
-      </c>
-      <c r="V76" t="s">
+      <c r="X76" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y76" t="s">
         <v>12</v>
       </c>
-      <c r="W76" t="s">
-        <v>107</v>
-      </c>
-      <c r="X76" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>107</v>
-      </c>
       <c r="Z76" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AA76" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AB76" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE76" t="s">
         <v>12</v>
       </c>
-      <c r="AC76" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD76" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>107</v>
+      <c r="AF76" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>13</v>
       </c>
       <c r="AH76" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK76" t="s">
         <v>85</v>
       </c>
-      <c r="AI76" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q77" t="s">
+      <c r="AL76" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T77" t="s">
         <v>86</v>
       </c>
-      <c r="R77" t="s">
-        <v>14</v>
-      </c>
-      <c r="S77" t="s">
-        <v>108</v>
-      </c>
-      <c r="T77" t="s">
+      <c r="U77" t="s">
+        <v>14</v>
+      </c>
+      <c r="V77" t="s">
+        <v>108</v>
+      </c>
+      <c r="W77" t="s">
         <v>12</v>
       </c>
-      <c r="U77" t="s">
-        <v>107</v>
-      </c>
-      <c r="V77" t="s">
-        <v>13</v>
-      </c>
-      <c r="W77" t="s">
-        <v>107</v>
-      </c>
       <c r="X77" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y77" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Z77" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AA77" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AB77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE77" t="s">
         <v>12</v>
       </c>
-      <c r="AC77" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>107</v>
+      <c r="AF77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>13</v>
       </c>
       <c r="AH77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK77" t="s">
         <v>86</v>
       </c>
-      <c r="AI77" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q78" t="s">
+      <c r="AL77" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T78" t="s">
         <v>87</v>
       </c>
-      <c r="R78" t="s">
+      <c r="U78" t="s">
         <v>16</v>
       </c>
-      <c r="S78" t="s">
-        <v>109</v>
-      </c>
-      <c r="T78" t="s">
-        <v>13</v>
-      </c>
-      <c r="U78" t="s">
-        <v>107</v>
-      </c>
       <c r="V78" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="W78" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X78" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y78" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Z78" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AA78" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AB78" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AC78" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="AD78" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AE78" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>13</v>
       </c>
       <c r="AH78" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK78" t="s">
         <v>87</v>
       </c>
-      <c r="AI78" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q79" t="s">
+      <c r="AL78" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T79" t="s">
         <v>104</v>
       </c>
-      <c r="R79" t="s">
+      <c r="U79" t="s">
         <v>12</v>
       </c>
-      <c r="S79" t="s">
-        <v>107</v>
-      </c>
-      <c r="T79" t="s">
-        <v>13</v>
-      </c>
-      <c r="U79" t="s">
-        <v>107</v>
-      </c>
       <c r="V79" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="W79" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="X79" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y79" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="Z79" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC79" t="s">
         <v>12</v>
       </c>
-      <c r="AA79" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>108</v>
-      </c>
       <c r="AD79" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AE79" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>13</v>
       </c>
       <c r="AH79" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK79" t="s">
         <v>104</v>
       </c>
-      <c r="AI79" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q80" t="s">
+      <c r="AL79" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T80" t="s">
         <v>51</v>
       </c>
-      <c r="R80" t="s">
+      <c r="U80" t="s">
         <v>16</v>
       </c>
-      <c r="S80" t="s">
-        <v>109</v>
-      </c>
-      <c r="T80" t="s">
-        <v>13</v>
-      </c>
-      <c r="U80" t="s">
-        <v>107</v>
-      </c>
       <c r="V80" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="W80" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X80" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA80" t="s">
         <v>12</v>
       </c>
-      <c r="Y80" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>107</v>
-      </c>
       <c r="AB80" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AC80" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="AD80" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AE80" t="s">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>14</v>
       </c>
       <c r="AH80" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK80" t="s">
         <v>51</v>
       </c>
-      <c r="AI80" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q81" t="s">
+      <c r="AL80" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T81" t="s">
         <v>52</v>
       </c>
-      <c r="R81" t="s">
+      <c r="U81" t="s">
         <v>16</v>
       </c>
-      <c r="S81" t="s">
-        <v>109</v>
-      </c>
-      <c r="T81" t="s">
+      <c r="V81" t="s">
+        <v>109</v>
+      </c>
+      <c r="W81" t="s">
         <v>12</v>
       </c>
-      <c r="U81" t="s">
-        <v>107</v>
-      </c>
-      <c r="V81" t="s">
-        <v>13</v>
-      </c>
-      <c r="W81" t="s">
-        <v>107</v>
-      </c>
       <c r="X81" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y81" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="Z81" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AA81" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AB81" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE81" t="s">
         <v>12</v>
       </c>
-      <c r="AC81" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD81" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>108</v>
+      <c r="AF81" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>14</v>
       </c>
       <c r="AH81" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK81" t="s">
         <v>52</v>
       </c>
-      <c r="AI81" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q82" t="s">
+      <c r="AL81" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T82" t="s">
         <v>53</v>
       </c>
-      <c r="R82" t="s">
+      <c r="U82" t="s">
         <v>16</v>
       </c>
-      <c r="S82" t="s">
-        <v>109</v>
-      </c>
-      <c r="T82" t="s">
-        <v>14</v>
-      </c>
-      <c r="U82" t="s">
-        <v>108</v>
-      </c>
       <c r="V82" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="W82" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="X82" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Y82" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="Z82" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AA82" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="AB82" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AC82" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AD82" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG82" t="s">
         <v>15</v>
       </c>
-      <c r="AE82" t="s">
-        <v>108</v>
-      </c>
       <c r="AH82" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK82" t="s">
         <v>53</v>
       </c>
-      <c r="AI82" t="s">
+      <c r="AL82" t="s">
         <v>15</v>
       </c>
-      <c r="AJ82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q83" t="s">
+      <c r="AM82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T83" t="s">
         <v>54</v>
       </c>
-      <c r="R83" t="s">
+      <c r="U83" t="s">
         <v>15</v>
       </c>
-      <c r="S83" t="s">
-        <v>108</v>
-      </c>
-      <c r="T83" t="s">
+      <c r="V83" t="s">
+        <v>108</v>
+      </c>
+      <c r="W83" t="s">
         <v>16</v>
       </c>
-      <c r="U83" t="s">
-        <v>109</v>
-      </c>
-      <c r="V83" t="s">
+      <c r="X83" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y83" t="s">
         <v>16</v>
       </c>
-      <c r="W83" t="s">
-        <v>109</v>
-      </c>
-      <c r="X83" t="s">
+      <c r="Z83" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA83" t="s">
         <v>16</v>
       </c>
-      <c r="Y83" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z83" t="s">
+      <c r="AB83" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC83" t="s">
         <v>17</v>
       </c>
-      <c r="AA83" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB83" t="s">
+      <c r="AD83" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE83" t="s">
         <v>16</v>
       </c>
-      <c r="AC83" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD83" t="s">
+      <c r="AF83" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG83" t="s">
         <v>18</v>
       </c>
-      <c r="AE83" t="s">
+      <c r="AH83" t="s">
         <v>110</v>
       </c>
-      <c r="AH83" t="s">
+      <c r="AK83" t="s">
         <v>54</v>
       </c>
-      <c r="AI83" t="s">
+      <c r="AL83" t="s">
         <v>18</v>
       </c>
-      <c r="AJ83" t="s">
+      <c r="AM83" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q84" t="s">
+    <row r="84" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T84" t="s">
         <v>96</v>
       </c>
-      <c r="R84" t="s">
+      <c r="U84" t="s">
         <v>17</v>
       </c>
-      <c r="S84" t="s">
-        <v>109</v>
-      </c>
-      <c r="T84" t="s">
+      <c r="V84" t="s">
+        <v>109</v>
+      </c>
+      <c r="W84" t="s">
         <v>15</v>
       </c>
-      <c r="U84" t="s">
-        <v>108</v>
-      </c>
-      <c r="V84" t="s">
-        <v>14</v>
-      </c>
-      <c r="W84" t="s">
-        <v>108</v>
-      </c>
       <c r="X84" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA84" t="s">
         <v>121</v>
       </c>
-      <c r="Y84" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z84" t="s">
+      <c r="AB84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC84" t="s">
         <v>121</v>
       </c>
-      <c r="AA84" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB84" t="s">
+      <c r="AD84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE84" t="s">
         <v>15</v>
       </c>
-      <c r="AC84" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>107</v>
+      <c r="AF84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>13</v>
       </c>
       <c r="AH84" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK84" t="s">
         <v>96</v>
       </c>
-      <c r="AI84" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ84" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q85" t="s">
+      <c r="AL84" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T85" t="s">
         <v>88</v>
       </c>
-      <c r="R85" t="s">
+      <c r="U85" t="s">
         <v>16</v>
       </c>
-      <c r="S85" t="s">
-        <v>109</v>
-      </c>
-      <c r="T85" t="s">
-        <v>13</v>
-      </c>
-      <c r="U85" t="s">
-        <v>107</v>
-      </c>
       <c r="V85" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="W85" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="X85" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Y85" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Z85" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AA85" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="AB85" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AC85" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AD85" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AE85" t="s">
-        <v>107</v>
+        <v>13</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>13</v>
       </c>
       <c r="AH85" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK85" t="s">
         <v>88</v>
       </c>
-      <c r="AI85" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q86" t="s">
+      <c r="AL85" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T86" t="s">
         <v>67</v>
       </c>
-      <c r="R86" t="s">
+      <c r="U86" t="s">
         <v>15</v>
       </c>
-      <c r="S86" t="s">
-        <v>108</v>
-      </c>
-      <c r="T86" t="s">
+      <c r="V86" t="s">
+        <v>108</v>
+      </c>
+      <c r="W86" t="s">
         <v>120</v>
       </c>
-      <c r="U86" t="s">
-        <v>108</v>
-      </c>
-      <c r="V86" t="s">
+      <c r="X86" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y86" t="s">
         <v>15</v>
       </c>
-      <c r="W86" t="s">
-        <v>108</v>
-      </c>
-      <c r="X86" t="s">
+      <c r="Z86" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA86" t="s">
         <v>15</v>
       </c>
-      <c r="Y86" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z86" t="s">
+      <c r="AB86" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC86" t="s">
         <v>16</v>
       </c>
-      <c r="AA86" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>108</v>
-      </c>
       <c r="AD86" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG86" t="s">
         <v>121</v>
       </c>
-      <c r="AE86" t="s">
-        <v>109</v>
-      </c>
       <c r="AH86" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK86" t="s">
         <v>67</v>
       </c>
-      <c r="AI86" t="s">
+      <c r="AL86" t="s">
         <v>121</v>
       </c>
-      <c r="AJ86" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q87" t="s">
+      <c r="AM86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T87" t="s">
         <v>55</v>
       </c>
-      <c r="R87" t="s">
+      <c r="U87" t="s">
         <v>16</v>
       </c>
-      <c r="S87" t="s">
-        <v>109</v>
-      </c>
-      <c r="T87" t="s">
+      <c r="V87" t="s">
+        <v>109</v>
+      </c>
+      <c r="W87" t="s">
         <v>16</v>
       </c>
-      <c r="U87" t="s">
-        <v>109</v>
-      </c>
-      <c r="V87" t="s">
+      <c r="X87" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y87" t="s">
         <v>16</v>
       </c>
-      <c r="W87" t="s">
-        <v>109</v>
-      </c>
-      <c r="X87" t="s">
+      <c r="Z87" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA87" t="s">
         <v>18</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="AB87" t="s">
         <v>110</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AC87" t="s">
         <v>18</v>
       </c>
-      <c r="AA87" t="s">
+      <c r="AD87" t="s">
         <v>110</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AE87" t="s">
         <v>17</v>
       </c>
-      <c r="AC87" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD87" t="s">
+      <c r="AF87" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG87" t="s">
         <v>17</v>
       </c>
-      <c r="AE87" t="s">
-        <v>109</v>
-      </c>
       <c r="AH87" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK87" t="s">
         <v>55</v>
       </c>
-      <c r="AI87" t="s">
+      <c r="AL87" t="s">
         <v>17</v>
       </c>
-      <c r="AJ87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="17:36" x14ac:dyDescent="0.2">
-      <c r="Q88" t="s">
+      <c r="AM87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T88" t="s">
         <v>56</v>
       </c>
-      <c r="R88" t="s">
+      <c r="U88" t="s">
         <v>16</v>
       </c>
-      <c r="S88" t="s">
-        <v>109</v>
-      </c>
-      <c r="T88" t="s">
-        <v>13</v>
-      </c>
-      <c r="U88" t="s">
-        <v>107</v>
-      </c>
       <c r="V88" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="W88" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="X88" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Y88" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="Z88" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AA88" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AB88" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="AC88" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="AD88" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="AE88" t="s">
-        <v>108</v>
+        <v>13</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>14</v>
       </c>
       <c r="AH88" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK88" t="s">
         <v>56</v>
       </c>
-      <c r="AI88" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ88" t="s">
+      <c r="AL88" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM88" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="AH2:AJ88">
-    <sortCondition ref="AH1"/>
+  <sortState ref="AK2:AM88">
+    <sortCondition ref="AK1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9246,8 +9299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C41A53-D33E-E046-B342-1CABFEB49E56}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D136"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/20200622-cvnormal/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BD7CFE-E3C1-B142-8E14-A6323D253361}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853E4CDC-0830-A74C-BF6B-B95BBE584DB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16240" yWindow="460" windowWidth="22560" windowHeight="16440" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="15840" yWindow="460" windowWidth="22560" windowHeight="16440" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_transit" sheetId="1" r:id="rId1"/>
@@ -874,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
-  <dimension ref="A1:Q149"/>
+  <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="I1:L105"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C166" sqref="A1:C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3673,7 +3673,7 @@
         <v>-0.6</v>
       </c>
       <c r="C124" s="5">
-        <f t="shared" ref="C124:C149" si="2">AVERAGE(B118:B124)</f>
+        <f t="shared" ref="C124:C166" si="2">AVERAGE(B118:B124)</f>
         <v>-5.4285714285714288</v>
       </c>
     </row>
@@ -3886,11 +3886,11 @@
         <v>44031</v>
       </c>
       <c r="B142">
-        <v>-8.6</v>
+        <v>-8.5</v>
       </c>
       <c r="C142" s="5">
         <f t="shared" si="2"/>
-        <v>-8.3571428571428577</v>
+        <v>-8.3428571428571434</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -3898,7 +3898,7 @@
         <v>44032</v>
       </c>
       <c r="B143">
-        <v>-6.5</v>
+        <v>-6.6</v>
       </c>
       <c r="C143" s="5">
         <f t="shared" si="2"/>
@@ -3910,11 +3910,11 @@
         <v>44033</v>
       </c>
       <c r="B144">
-        <v>-10.6</v>
+        <v>-10.7</v>
       </c>
       <c r="C144" s="5">
         <f t="shared" si="2"/>
-        <v>-7.8857142857142861</v>
+        <v>-7.8999999999999995</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3922,11 +3922,11 @@
         <v>44034</v>
       </c>
       <c r="B145">
-        <v>-5.2</v>
+        <v>-5.3</v>
       </c>
       <c r="C145" s="5">
         <f t="shared" si="2"/>
-        <v>-7.8285714285714292</v>
+        <v>-7.8571428571428568</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="C146" s="5">
         <f t="shared" si="2"/>
-        <v>-7.7428571428571429</v>
+        <v>-7.7714285714285705</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="C147" s="5">
         <f t="shared" si="2"/>
-        <v>-7.628571428571429</v>
+        <v>-7.6571428571428566</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -3958,11 +3958,11 @@
         <v>44037</v>
       </c>
       <c r="B148">
-        <v>-14.3</v>
+        <v>-14.4</v>
       </c>
       <c r="C148" s="5">
         <f t="shared" si="2"/>
-        <v>-7.9571428571428573</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -3970,11 +3970,215 @@
         <v>44038</v>
       </c>
       <c r="B149">
-        <v>-11.4</v>
+        <v>-11.5</v>
       </c>
       <c r="C149" s="5">
         <f t="shared" si="2"/>
-        <v>-8.3571428571428577</v>
+        <v>-8.4285714285714288</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B150">
+        <v>-6.4</v>
+      </c>
+      <c r="C150" s="5">
+        <f t="shared" si="2"/>
+        <v>-8.4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B151">
+        <v>-7.4</v>
+      </c>
+      <c r="C151" s="5">
+        <f t="shared" si="2"/>
+        <v>-7.9285714285714288</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B152">
+        <v>-6.1</v>
+      </c>
+      <c r="C152" s="5">
+        <f t="shared" si="2"/>
+        <v>-8.0428571428571427</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B153">
+        <v>-3.8</v>
+      </c>
+      <c r="C153" s="5">
+        <f t="shared" si="2"/>
+        <v>-7.9714285714285706</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B154">
+        <v>-5.2</v>
+      </c>
+      <c r="C154" s="5">
+        <f t="shared" si="2"/>
+        <v>-7.8285714285714283</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B155">
+        <v>-7.2</v>
+      </c>
+      <c r="C155" s="5">
+        <f t="shared" si="2"/>
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B156">
+        <v>-9.1</v>
+      </c>
+      <c r="C156" s="5">
+        <f t="shared" si="2"/>
+        <v>-6.4571428571428573</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B157">
+        <v>-5.3</v>
+      </c>
+      <c r="C157" s="5">
+        <f t="shared" si="2"/>
+        <v>-6.2999999999999989</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B158">
+        <v>-5.9</v>
+      </c>
+      <c r="C158" s="5">
+        <f t="shared" si="2"/>
+        <v>-6.0857142857142845</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B159">
+        <v>-5.4</v>
+      </c>
+      <c r="C159" s="5">
+        <f t="shared" si="2"/>
+        <v>-5.9857142857142858</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B160">
+        <v>-6.8</v>
+      </c>
+      <c r="C160" s="5">
+        <f t="shared" si="2"/>
+        <v>-6.4142857142857137</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B161">
+        <v>-7.6</v>
+      </c>
+      <c r="C161" s="5">
+        <f t="shared" si="2"/>
+        <v>-6.7571428571428571</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B162">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="C162" s="5">
+        <f t="shared" si="2"/>
+        <v>-7.0571428571428561</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B163">
+        <v>-13.5</v>
+      </c>
+      <c r="C163" s="5">
+        <f t="shared" si="2"/>
+        <v>-7.6857142857142851</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B164">
+        <v>-4.7</v>
+      </c>
+      <c r="C164" s="5">
+        <f t="shared" si="2"/>
+        <v>-7.6000000000000005</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B165">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="C165" s="5">
+        <f t="shared" si="2"/>
+        <v>-7.3428571428571425</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B166">
+        <v>-6.6</v>
+      </c>
+      <c r="C166" s="5">
+        <f t="shared" si="2"/>
+        <v>-7.5142857142857151</v>
       </c>
     </row>
   </sheetData>
@@ -3989,8 +4193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
   <dimension ref="A1:AJ88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="E1:Q7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R7" sqref="E1:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4046,7 +4250,9 @@
       <c r="Q1" s="6">
         <v>44037</v>
       </c>
-      <c r="R1" s="6"/>
+      <c r="R1" s="6">
+        <v>44054</v>
+      </c>
       <c r="T1" s="2" t="s">
         <v>105</v>
       </c>
@@ -4145,7 +4351,9 @@
       <c r="Q2" s="4">
         <v>-0.21</v>
       </c>
-      <c r="R2" s="4"/>
+      <c r="R2" s="4">
+        <v>-0.03</v>
+      </c>
       <c r="T2" t="s">
         <v>89</v>
       </c>
@@ -4244,7 +4452,9 @@
       <c r="Q3" s="4">
         <v>-0.03</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="4">
+        <v>0.01</v>
+      </c>
       <c r="T3" t="s">
         <v>57</v>
       </c>
@@ -4343,7 +4553,9 @@
       <c r="Q4" s="4">
         <v>1.1299999999999999</v>
       </c>
-      <c r="R4" s="4"/>
+      <c r="R4" s="4">
+        <v>2.11</v>
+      </c>
       <c r="T4" t="s">
         <v>102</v>
       </c>
@@ -4442,7 +4654,9 @@
       <c r="Q5" s="4">
         <v>-0.31</v>
       </c>
-      <c r="R5" s="4"/>
+      <c r="R5" s="4">
+        <v>-0.37</v>
+      </c>
       <c r="T5" t="s">
         <v>58</v>
       </c>
@@ -4541,7 +4755,9 @@
       <c r="Q6" s="4">
         <v>-0.09</v>
       </c>
-      <c r="R6" s="4"/>
+      <c r="R6" s="4">
+        <v>-0.38</v>
+      </c>
       <c r="T6" t="s">
         <v>59</v>
       </c>
@@ -4640,7 +4856,9 @@
       <c r="Q7" s="4">
         <v>0.04</v>
       </c>
-      <c r="R7" s="4"/>
+      <c r="R7" s="4">
+        <v>0.1</v>
+      </c>
       <c r="T7" t="s">
         <v>60</v>
       </c>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/20200622-cvnormal/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853E4CDC-0830-A74C-BF6B-B95BBE584DB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D60AF1F-BF33-CA45-9969-3A6980EE2621}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="460" windowWidth="22560" windowHeight="16440" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="12460" yWindow="680" windowWidth="22560" windowHeight="16440" activeTab="2" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_transit" sheetId="1" r:id="rId1"/>
@@ -4193,7 +4193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
   <dimension ref="A1:AJ88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="R7" sqref="E1:R7"/>
     </sheetView>
   </sheetViews>
@@ -9675,8 +9675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C41A53-D33E-E046-B342-1CABFEB49E56}">
   <dimension ref="A1:D1032356"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:D163"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="D182" sqref="A1:D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11964,7 +11964,270 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B164">
+        <v>-44.7</v>
+      </c>
+      <c r="C164">
+        <v>-63.75</v>
+      </c>
+      <c r="D164">
+        <v>-59.53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B165">
+        <v>-45.26</v>
+      </c>
+      <c r="C165">
+        <v>-65.16</v>
+      </c>
+      <c r="D165">
+        <v>-58.03</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B166">
+        <v>-44.7</v>
+      </c>
+      <c r="C166">
+        <v>-64.22</v>
+      </c>
+      <c r="D166">
+        <v>-54.17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B167">
+        <v>-48.91</v>
+      </c>
+      <c r="C167">
+        <v>-68.38</v>
+      </c>
+      <c r="D167">
+        <v>-53.33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B168">
+        <v>-45.32</v>
+      </c>
+      <c r="C168">
+        <v>-64.040000000000006</v>
+      </c>
+      <c r="D168">
+        <v>-56.19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B169">
+        <v>-48.93</v>
+      </c>
+      <c r="C169">
+        <v>-68.239999999999995</v>
+      </c>
+      <c r="D169">
+        <v>-62.94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B170">
+        <v>-46.59</v>
+      </c>
+      <c r="C170">
+        <v>-70.22</v>
+      </c>
+      <c r="D170">
+        <v>-64.69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B171">
+        <v>-49.85</v>
+      </c>
+      <c r="C171">
+        <v>-71.84</v>
+      </c>
+      <c r="D171">
+        <v>-57.32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B172">
+        <v>-47.03</v>
+      </c>
+      <c r="C172">
+        <v>-67.13</v>
+      </c>
+      <c r="D172">
+        <v>-56.73</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B173">
+        <v>-39.31</v>
+      </c>
+      <c r="C173">
+        <v>-59.9</v>
+      </c>
+      <c r="D173">
+        <v>-52.32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B174">
+        <v>-45.14</v>
+      </c>
+      <c r="C174">
+        <v>-62.29</v>
+      </c>
+      <c r="D174">
+        <v>-47.94</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B175">
+        <v>-42.92</v>
+      </c>
+      <c r="C175">
+        <v>-56.5</v>
+      </c>
+      <c r="D175">
+        <v>-51.42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B176">
+        <v>-40.89</v>
+      </c>
+      <c r="C176">
+        <v>-64.92</v>
+      </c>
+      <c r="D176">
+        <v>-59.7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B177">
+        <v>-41.59</v>
+      </c>
+      <c r="C177">
+        <v>-63.92</v>
+      </c>
+      <c r="D177">
+        <v>-56.98</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B178">
+        <v>-47.43</v>
+      </c>
+      <c r="C178">
+        <v>-67.94</v>
+      </c>
+      <c r="D178">
+        <v>-57.08</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B179">
+        <v>-38.97</v>
+      </c>
+      <c r="C179">
+        <v>-61.59</v>
+      </c>
+      <c r="D179">
+        <v>-55.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B180">
+        <v>-46.76</v>
+      </c>
+      <c r="C180">
+        <v>-63.5</v>
+      </c>
+      <c r="D180">
+        <v>-48.85</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B181">
+        <v>-30.54</v>
+      </c>
+      <c r="C181">
+        <v>-57.41</v>
+      </c>
+      <c r="D181">
+        <v>-46.61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B182">
+        <v>-36.43</v>
+      </c>
+      <c r="C182">
+        <v>-64.88</v>
+      </c>
+      <c r="D182">
+        <v>-50.81</v>
+      </c>
     </row>
     <row r="16385" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16385" t="s">
